--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="221">
   <si>
     <t>Doi</t>
   </si>
@@ -840,6 +840,240 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,    Antoon%Bronselaer%NULL%1,    James T.%Teo%NULL%1,    Geert%Byttebier%NULL%1,    Guy%De Tré%NULL%1,    Luc%Belmans%NULL%1,    Richard%Dobson%NULL%1,    Evelien%Wynendaele%NULL%1,    Christophe%Van De Wiele%NULL%1,    Filip%Vandaele%NULL%1,    Diemer%Van Dijck%NULL%1,    Dan%Bean%NULL%1,    David%Fedson%NULL%1,    Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The coronavirus disease 2019 (COVID-19) pandemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has profoundly affected the lives of millions of people.
+ To date, there is no approved vaccine or specific drug to prevent or treat COVID-19, while the infection is globally spreading at an alarming rate.
+ Because the development of effective vaccines or novel drugs could take several months (if not years), repurposing existing drugs is considered a more efficient strategy that could save lives now.
+ Statins constitute a class of lipid-lowering drugs with proven safety profiles and various known beneficial pleiotropic effects.
+ Our previous investigations showed that statins have antiviral effects and are involved in the process of wound healing in the lung.
+ This triggered us to evaluate if statin use reduces mortality in COVID-19 patients.
+Results
+id="Par2"&gt;After initial recruitment of 459 patients with COVID-19 (Shiraz province, Iran) and careful consideration of the exclusion criteria, a total of 150 patients, of which 75 received statins, were included in our retrospective study.
+ Cox proportional-hazards regression models were used to estimate the association between statin use and rate of death.
+ After propensity score matching, we found that statin use appeared to be associated with a lower risk of morbidity [HR = 0.85, 95% CI = (0.02, 3.93), P = 0.762] and lower risk of death [(HR = 0.76; 95% CI = (0.16, 3.72), P = 0.735)]; however, these associations did not reach statistical significance.
+ Furthermore, statin use reduced the chance of being subjected to mechanical ventilation [OR = 0.96, 95% CI = (0.61–2.99), P = 0.942] and patients on statins showed a more normal computed tomography (CT) scan result [OR = 0.41, 95% CI = (0.07–2.33), P = 0.312].
+Conclusions
+id="Par3"&gt;Although we could not demonstrate a significant association between statin use and a reduction in mortality in patients with COVID19, we do feel that our results are promising and of clinical relevance and warrant the need for prospective randomized controlled trials and extensive retrospective studies to further evaluate and validate the potential beneficial effects of statin treatment on clinical symptoms and mortality rates associated with COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,     Tania%Dehesh%NULL%1,     Farnaz%Aligolighasemabadi%NULL%1,     Mohammadamin%Sadeghdoust%NULL%1,     Katarzyna%Kotfis%NULL%1,     Mazaher%Ahmadi%NULL%1,     Parvaneh%Mehrbod%NULL%1,     Pooya%Iranpour%NULL%1,     Sanaz%Dastghaib%NULL%1,     Ahmad%Nasimian%NULL%1,     Amir%Ravandi%NULL%1,     Biniam%Kidane%NULL%1,     Naseer%Ahmed%NULL%1,     Pawan%Sharma%NULL%1,     Shahla%Shojaei%NULL%1,     Kamran%Bagheri Lankarani%NULL%1,     Andrzej%Madej%NULL%1,     Nima%Rezaei%NULL%1,     Tayyebeh%Madrakian%NULL%1,     Marek J.%Los%NULL%1,     Hagar Ibrahim%Labouta%NULL%1,     Pooneh%Mokarram%NULL%1,     Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) can result in a hyperinflammatory state, leading to acute respiratory distress syndrome (ARDS), myocardial injury, and thrombotic complications, among other sequelae.
+ Statins, which are known to have anti-inflammatory and antithrombotic properties, have been studied in the setting of other viral infections, but their benefit has not been assessed in COVID-19. This is a retrospective analysis of patients admitted with COVID-19 from February 1st through May 12th, 2020 with study period ending on June 11th, 2020. Antecedent statin use was assessed using medication information available in the electronic medical record.
+ We constructed a multivariable logistic regression model to predict the propensity of receiving statins, adjusting for baseline sociodemographic and clinical characteristics, and outpatient medications.
+ The primary endpoint includes in-hospital mortality within 30 days.
+ A total of 2626 patients were admitted during the study period, of whom 951 (36.2%) were antecedent statin users.
+ Among 1296 patients (648 statin users, 648 non-statin users) identified with 1:1 propensity-score matching, statin use is significantly associated with lower odds of the primary endpoint in the propensity-matched cohort (OR 0.47, 95% CI 0.36–0.62, p &amp;lt; 0.001).
+ We conclude that antecedent statin use in patients hospitalized with COVID-19 is associated with lower inpatient mortality.
+</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,     Mahesh V.%Madhavan%NULL%2,     Mahesh V.%Madhavan%NULL%0,     Timothy J.%Poterucha%NULL%2,     Timothy J.%Poterucha%NULL%0,     Ersilia M.%DeFilippis%NULL%1,     Jessica A.%Hennessey%NULL%1,     Bjorn%Redfors%NULL%1,     Christina%Eckhardt%NULL%1,     Behnood%Bikdeli%NULL%1,     Jonathan%Platt%NULL%1,     Ani%Nalbandian%NULL%1,     Pierre%Elias%NULL%2,     Pierre%Elias%NULL%0,     Matthew J.%Cummings%NULL%2,     Matthew J.%Cummings%NULL%0,     Shayan N.%Nouri%NULL%1,     Matthew%Lawlor%NULL%1,     Lauren S.%Ranard%NULL%1,     Jianhua%Li%NULL%2,     Jianhua%Li%NULL%0,     Claudia%Boyle%NULL%1,     Raymond%Givens%NULL%1,     Daniel%Brodie%NULL%0,     Harlan M.%Krumholz%NULL%2,     Harlan M.%Krumholz%NULL%0,     Gregg W.%Stone%NULL%2,     Gregg W.%Stone%NULL%0,     Sanjum S.%Sethi%NULL%1,     Daniel%Burkhoff%NULL%1,     Nir%Uriel%NULL%1,     Allan%Schwartz%NULL%0,     Martin B.%Leon%NULL%1,     Ajay J.%Kirtane%NULL%1,     Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,     Sahil A.%Parikh%NULL%2,     Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
+Methods
+id="Par2"&gt;The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
+ The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
+Results
+id="Par3"&gt;We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
+ Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
+ Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
+ In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
+ History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
+ Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
+Conclusions/interpretation
+id="Par4"&gt;In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
+Trial registration
+id="Par5"&gt;Clinicaltrials.
+gov identifier: NCT04324736
+Graphical abstract
+id="Par6"&gt;
+Supplementary Information
+The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
+</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,     Louis%Potier%NULL%2,     Louis%Potier%NULL%0,     Pierre%Gourdy%NULL%2,     Pierre%Gourdy%NULL%0,     Matthieu%Pichelin%NULL%2,     Matthieu%Pichelin%NULL%0,     Coralie%Amadou%NULL%2,     Coralie%Amadou%NULL%0,     Pierre-Yves%Benhamou%NULL%2,     Pierre-Yves%Benhamou%NULL%0,     Jean-Baptiste%Bonnet%NULL%1,     Lyse%Bordier%NULL%1,     Olivier%Bourron%NULL%1,     Claude%Chaumeil%NULL%2,     Claude%Chaumeil%NULL%0,     Nicolas%Chevalier%NULL%1,     Patrice%Darmon%NULL%2,     Patrice%Darmon%NULL%0,     Blandine%Delenne%NULL%2,     Blandine%Delenne%NULL%0,     Delphine%Demarsy%NULL%1,     Marie%Dumas%NULL%1,     Olivier%Dupuy%NULL%1,     Anna%Flaus-Furmaniuk%NULL%2,     Anna%Flaus-Furmaniuk%NULL%0,     Jean-François%Gautier%NULL%1,     Anne-Marie%Guedj%NULL%2,     Anne-Marie%Guedj%NULL%0,     Nathalie%Jeandidier%NULL%1,     Etienne%Larger%NULL%1,     Jean-Philippe%Le Berre%NULL%1,     Myriam%Lungo%NULL%1,     Nathanaëlle%Montanier%NULL%1,     Philippe%Moulin%NULL%1,     Françoise%Plat%NULL%1,     Vincent%Rigalleau%NULL%1,     René%Robert%NULL%1,     Dominique%Seret-Bégué%NULL%2,     Dominique%Seret-Bégué%NULL%0,     Pierre%Sérusclat%NULL%1,     Sarra%Smati%NULL%1,     Jean-François%Thébaut%NULL%1,     Blandine%Tramunt%NULL%2,     Blandine%Tramunt%NULL%0,     Camille%Vatier%NULL%1,     Fritz-Line%Velayoudom%NULL%2,     Fritz-Line%Velayoudom%NULL%0,     Bruno%Vergès%NULL%1,     Patrice%Winiszewski%NULL%1,     Audrey%Zabulon%NULL%1,     Pierre-Antoine%Gourraud%NULL%1,     Ronan%Roussel%NULL%2,     Ronan%Roussel%NULL%0,     Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,     Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The coronavirus disease 2019 (COVID-19) pandemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has profoundly affected the lives of millions of people.
+ To date, there is no approved vaccine or specific drug to prevent or treat COVID-19, while the infection is globally spreading at an alarming rate.
+ Because the development of effective vaccines or novel drugs could take several months (if not years), repurposing existing drugs is considered a more efficient strategy that could save lives now.
+ Statins constitute a class of lipid-lowering drugs with proven safety profiles and various known beneficial pleiotropic effects.
+ Our previous investigations showed that statins have antiviral effects and are involved in the process of wound healing in the lung.
+ This triggered us to evaluate if statin use reduces mortality in COVID-19 patients.
+Results
+After initial recruitment of 459 patients with COVID-19 (Shiraz province, Iran) and careful consideration of the exclusion criteria, a total of 150 patients, of which 75 received statins, were included in our retrospective study.
+ Cox proportional-hazards regression models were used to estimate the association between statin use and rate of death.
+ After propensity score matching, we found that statin use appeared to be associated with a lower risk of morbidity [HR = 0.85, 95% CI = (0.02, 3.93), P = 0.762] and lower risk of death [(HR = 0.76; 95% CI = (0.16, 3.72), P = 0.735)]; however, these associations did not reach statistical significance.
+ Furthermore, statin use reduced the chance of being subjected to mechanical ventilation [OR = 0.96, 95% CI = (0.61–2.99), P = 0.942] and patients on statins showed a more normal computed tomography (CT) scan result [OR = 0.41, 95% CI = (0.07–2.33), P = 0.312].
+Conclusions
+id="Par3"&gt;Although we could not demonstrate a significant association between statin use and a reduction in mortality in patients with COVID19, we do feel that our results are promising and of clinical relevance and warrant the need for prospective randomized controlled trials and extensive retrospective studies to further evaluate and validate the potential beneficial effects of statin treatment on clinical symptoms and mortality rates associated with COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,      Tania%Dehesh%NULL%1,      Farnaz%Aligolighasemabadi%NULL%1,      Mohammadamin%Sadeghdoust%NULL%1,      Katarzyna%Kotfis%NULL%1,      Mazaher%Ahmadi%NULL%1,      Parvaneh%Mehrbod%NULL%1,      Pooya%Iranpour%NULL%1,      Sanaz%Dastghaib%NULL%1,      Ahmad%Nasimian%NULL%1,      Amir%Ravandi%NULL%1,      Biniam%Kidane%NULL%1,      Naseer%Ahmed%NULL%1,      Pawan%Sharma%NULL%1,      Shahla%Shojaei%NULL%1,      Kamran%Bagheri Lankarani%NULL%1,      Andrzej%Madej%NULL%1,      Nima%Rezaei%NULL%1,      Tayyebeh%Madrakian%NULL%1,      Marek J.%Los%NULL%1,      Hagar Ibrahim%Labouta%NULL%1,      Pooneh%Mokarram%NULL%1,      Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
+Methods
+The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
+ The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
+Results
+id="Par3"&gt;We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
+ Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
+ Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
+ In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
+ History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
+ Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
+Conclusions/interpretation
+id="Par4"&gt;In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
+Trial registration
+id="Par5"&gt;Clinicaltrials.
+gov identifier: NCT04324736
+Graphical abstract
+id="Par6"&gt;
+Supplementary Information
+The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
+</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,      Louis%Potier%NULL%2,      Louis%Potier%NULL%0,      Pierre%Gourdy%NULL%2,      Pierre%Gourdy%NULL%0,      Matthieu%Pichelin%NULL%2,      Matthieu%Pichelin%NULL%0,      Coralie%Amadou%NULL%2,      Coralie%Amadou%NULL%0,      Pierre-Yves%Benhamou%NULL%2,      Pierre-Yves%Benhamou%NULL%0,      Jean-Baptiste%Bonnet%NULL%1,      Lyse%Bordier%NULL%1,      Olivier%Bourron%NULL%1,      Claude%Chaumeil%NULL%2,      Claude%Chaumeil%NULL%0,      Nicolas%Chevalier%NULL%1,      Patrice%Darmon%NULL%2,      Patrice%Darmon%NULL%0,      Blandine%Delenne%NULL%2,      Blandine%Delenne%NULL%0,      Delphine%Demarsy%NULL%1,      Marie%Dumas%NULL%1,      Olivier%Dupuy%NULL%1,      Anna%Flaus-Furmaniuk%NULL%2,      Anna%Flaus-Furmaniuk%NULL%0,      Jean-François%Gautier%NULL%1,      Anne-Marie%Guedj%NULL%2,      Anne-Marie%Guedj%NULL%0,      Nathalie%Jeandidier%NULL%1,      Etienne%Larger%NULL%1,      Jean-Philippe%Le Berre%NULL%1,      Myriam%Lungo%NULL%1,      Nathanaëlle%Montanier%NULL%1,      Philippe%Moulin%NULL%1,      Françoise%Plat%NULL%1,      Vincent%Rigalleau%NULL%1,      René%Robert%NULL%1,      Dominique%Seret-Bégué%NULL%2,      Dominique%Seret-Bégué%NULL%0,      Pierre%Sérusclat%NULL%1,      Sarra%Smati%NULL%1,      Jean-François%Thébaut%NULL%1,      Blandine%Tramunt%NULL%2,      Blandine%Tramunt%NULL%0,      Camille%Vatier%NULL%1,      Fritz-Line%Velayoudom%NULL%2,      Fritz-Line%Velayoudom%NULL%0,      Bruno%Vergès%NULL%1,      Patrice%Winiszewski%NULL%1,      Audrey%Zabulon%NULL%1,      Pierre-Antoine%Gourraud%NULL%1,      Ronan%Roussel%NULL%2,      Ronan%Roussel%NULL%0,      Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,      Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The coronavirus disease 2019 (COVID-19) pandemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has profoundly affected the lives of millions of people.
+ To date, there is no approved vaccine or specific drug to prevent or treat COVID-19, while the infection is globally spreading at an alarming rate.
+ Because the development of effective vaccines or novel drugs could take several months (if not years), repurposing existing drugs is considered a more efficient strategy that could save lives now.
+ Statins constitute a class of lipid-lowering drugs with proven safety profiles and various known beneficial pleiotropic effects.
+ Our previous investigations showed that statins have antiviral effects and are involved in the process of wound healing in the lung.
+ This triggered us to evaluate if statin use reduces mortality in COVID-19 patients.
+Results
+After initial recruitment of 459 patients with COVID-19 (Shiraz province, Iran) and careful consideration of the exclusion criteria, a total of 150 patients, of which 75 received statins, were included in our retrospective study.
+ Cox proportional-hazards regression models were used to estimate the association between statin use and rate of death.
+ After propensity score matching, we found that statin use appeared to be associated with a lower risk of morbidity [HR = 0.85, 95% CI = (0.02, 3.93), P = 0.762] and lower risk of death [(HR = 0.76; 95% CI = (0.16, 3.72), P = 0.735)]; however, these associations did not reach statistical significance.
+ Furthermore, statin use reduced the chance of being subjected to mechanical ventilation [OR = 0.96, 95% CI = (0.61–2.99), P = 0.942] and patients on statins showed a more normal computed tomography (CT) scan result [OR = 0.41, 95% CI = (0.07–2.33), P = 0.312].
+Conclusions
+Although we could not demonstrate a significant association between statin use and a reduction in mortality in patients with COVID19, we do feel that our results are promising and of clinical relevance and warrant the need for prospective randomized controlled trials and extensive retrospective studies to further evaluate and validate the potential beneficial effects of statin treatment on clinical symptoms and mortality rates associated with COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,       Tania%Dehesh%NULL%1,       Farnaz%Aligolighasemabadi%NULL%1,       Mohammadamin%Sadeghdoust%NULL%1,       Katarzyna%Kotfis%NULL%1,       Mazaher%Ahmadi%NULL%1,       Parvaneh%Mehrbod%NULL%1,       Pooya%Iranpour%NULL%1,       Sanaz%Dastghaib%NULL%1,       Ahmad%Nasimian%NULL%1,       Amir%Ravandi%NULL%1,       Biniam%Kidane%NULL%1,       Naseer%Ahmed%NULL%1,       Pawan%Sharma%NULL%1,       Shahla%Shojaei%NULL%1,       Kamran%Bagheri Lankarani%NULL%1,       Andrzej%Madej%NULL%1,       Nima%Rezaei%NULL%1,       Tayyebeh%Madrakian%NULL%1,       Marek J.%Los%NULL%1,       Hagar Ibrahim%Labouta%NULL%1,       Pooneh%Mokarram%NULL%1,       Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
+Methods
+The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
+ The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
+Results
+We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
+ Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
+ Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
+ In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
+ History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
+ Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
+Conclusions/interpretation
+id="Par4"&gt;In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
+Trial registration
+id="Par5"&gt;Clinicaltrials.
+gov identifier: NCT04324736
+Graphical abstract
+id="Par6"&gt;
+Supplementary Information
+The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
+</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,       Louis%Potier%NULL%2,       Louis%Potier%NULL%0,       Pierre%Gourdy%NULL%2,       Pierre%Gourdy%NULL%0,       Matthieu%Pichelin%NULL%2,       Matthieu%Pichelin%NULL%0,       Coralie%Amadou%NULL%2,       Coralie%Amadou%NULL%0,       Pierre-Yves%Benhamou%NULL%2,       Pierre-Yves%Benhamou%NULL%0,       Jean-Baptiste%Bonnet%NULL%1,       Lyse%Bordier%NULL%1,       Olivier%Bourron%NULL%1,       Claude%Chaumeil%NULL%2,       Claude%Chaumeil%NULL%0,       Nicolas%Chevalier%NULL%1,       Patrice%Darmon%NULL%2,       Patrice%Darmon%NULL%0,       Blandine%Delenne%NULL%2,       Blandine%Delenne%NULL%0,       Delphine%Demarsy%NULL%1,       Marie%Dumas%NULL%1,       Olivier%Dupuy%NULL%1,       Anna%Flaus-Furmaniuk%NULL%2,       Anna%Flaus-Furmaniuk%NULL%0,       Jean-François%Gautier%NULL%1,       Anne-Marie%Guedj%NULL%2,       Anne-Marie%Guedj%NULL%0,       Nathalie%Jeandidier%NULL%1,       Etienne%Larger%NULL%1,       Jean-Philippe%Le Berre%NULL%1,       Myriam%Lungo%NULL%1,       Nathanaëlle%Montanier%NULL%1,       Philippe%Moulin%NULL%1,       Françoise%Plat%NULL%1,       Vincent%Rigalleau%NULL%1,       René%Robert%NULL%1,       Dominique%Seret-Bégué%NULL%2,       Dominique%Seret-Bégué%NULL%0,       Pierre%Sérusclat%NULL%1,       Sarra%Smati%NULL%1,       Jean-François%Thébaut%NULL%1,       Blandine%Tramunt%NULL%2,       Blandine%Tramunt%NULL%0,       Camille%Vatier%NULL%1,       Fritz-Line%Velayoudom%NULL%2,       Fritz-Line%Velayoudom%NULL%0,       Bruno%Vergès%NULL%1,       Patrice%Winiszewski%NULL%1,       Audrey%Zabulon%NULL%1,       Pierre-Antoine%Gourraud%NULL%1,       Ronan%Roussel%NULL%2,       Ronan%Roussel%NULL%0,       Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,       Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
+Methods
+The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
+ The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
+Results
+We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
+ Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
+ Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
+ In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
+ History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
+ Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
+Conclusions/interpretation
+In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
+Trial registration
+id="Par5"&gt;Clinicaltrials.
+gov identifier: NCT04324736
+Graphical abstract
+id="Par6"&gt;
+Supplementary Information
+The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
+</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,        Louis%Potier%NULL%2,        Louis%Potier%NULL%0,        Pierre%Gourdy%NULL%2,        Pierre%Gourdy%NULL%0,        Matthieu%Pichelin%NULL%2,        Matthieu%Pichelin%NULL%0,        Coralie%Amadou%NULL%2,        Coralie%Amadou%NULL%0,        Pierre-Yves%Benhamou%NULL%2,        Pierre-Yves%Benhamou%NULL%0,        Jean-Baptiste%Bonnet%NULL%1,        Lyse%Bordier%NULL%1,        Olivier%Bourron%NULL%1,        Claude%Chaumeil%NULL%2,        Claude%Chaumeil%NULL%0,        Nicolas%Chevalier%NULL%1,        Patrice%Darmon%NULL%2,        Patrice%Darmon%NULL%0,        Blandine%Delenne%NULL%2,        Blandine%Delenne%NULL%0,        Delphine%Demarsy%NULL%1,        Marie%Dumas%NULL%1,        Olivier%Dupuy%NULL%1,        Anna%Flaus-Furmaniuk%NULL%2,        Anna%Flaus-Furmaniuk%NULL%0,        Jean-François%Gautier%NULL%1,        Anne-Marie%Guedj%NULL%2,        Anne-Marie%Guedj%NULL%0,        Nathalie%Jeandidier%NULL%1,        Etienne%Larger%NULL%1,        Jean-Philippe%Le Berre%NULL%1,        Myriam%Lungo%NULL%1,        Nathanaëlle%Montanier%NULL%1,        Philippe%Moulin%NULL%1,        Françoise%Plat%NULL%1,        Vincent%Rigalleau%NULL%1,        René%Robert%NULL%1,        Dominique%Seret-Bégué%NULL%2,        Dominique%Seret-Bégué%NULL%0,        Pierre%Sérusclat%NULL%1,        Sarra%Smati%NULL%1,        Jean-François%Thébaut%NULL%1,        Blandine%Tramunt%NULL%2,        Blandine%Tramunt%NULL%0,        Camille%Vatier%NULL%1,        Fritz-Line%Velayoudom%NULL%2,        Fritz-Line%Velayoudom%NULL%0,        Bruno%Vergès%NULL%1,        Patrice%Winiszewski%NULL%1,        Audrey%Zabulon%NULL%1,        Pierre-Antoine%Gourraud%NULL%1,        Ronan%Roussel%NULL%2,        Ronan%Roussel%NULL%0,        Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,        Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,        Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
+Methods
+The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
+ The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
+Results
+We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
+ Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
+ Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
+ In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
+ History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
+ Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
+Conclusions/interpretation
+In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
+Trial registration
+Clinicaltrials.
+gov identifier: NCT04324736
+Graphical abstract
+id="Par6"&gt;
+Supplementary Information
+The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
+</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,         Louis%Potier%NULL%2,         Louis%Potier%NULL%0,         Pierre%Gourdy%NULL%2,         Pierre%Gourdy%NULL%0,         Matthieu%Pichelin%NULL%2,         Matthieu%Pichelin%NULL%0,         Coralie%Amadou%NULL%2,         Coralie%Amadou%NULL%0,         Pierre-Yves%Benhamou%NULL%2,         Pierre-Yves%Benhamou%NULL%0,         Jean-Baptiste%Bonnet%NULL%1,         Lyse%Bordier%NULL%1,         Olivier%Bourron%NULL%1,         Claude%Chaumeil%NULL%2,         Claude%Chaumeil%NULL%0,         Nicolas%Chevalier%NULL%1,         Patrice%Darmon%NULL%2,         Patrice%Darmon%NULL%0,         Blandine%Delenne%NULL%2,         Blandine%Delenne%NULL%0,         Delphine%Demarsy%NULL%1,         Marie%Dumas%NULL%1,         Olivier%Dupuy%NULL%1,         Anna%Flaus-Furmaniuk%NULL%2,         Anna%Flaus-Furmaniuk%NULL%0,         Jean-François%Gautier%NULL%1,         Anne-Marie%Guedj%NULL%2,         Anne-Marie%Guedj%NULL%0,         Nathalie%Jeandidier%NULL%1,         Etienne%Larger%NULL%1,         Jean-Philippe%Le Berre%NULL%1,         Myriam%Lungo%NULL%1,         Nathanaëlle%Montanier%NULL%1,         Philippe%Moulin%NULL%1,         Françoise%Plat%NULL%1,         Vincent%Rigalleau%NULL%1,         René%Robert%NULL%1,         Dominique%Seret-Bégué%NULL%2,         Dominique%Seret-Bégué%NULL%0,         Pierre%Sérusclat%NULL%1,         Sarra%Smati%NULL%1,         Jean-François%Thébaut%NULL%1,         Blandine%Tramunt%NULL%2,         Blandine%Tramunt%NULL%0,         Camille%Vatier%NULL%1,         Fritz-Line%Velayoudom%NULL%2,         Fritz-Line%Velayoudom%NULL%0,         Bruno%Vergès%NULL%1,         Patrice%Winiszewski%NULL%1,         Audrey%Zabulon%NULL%1,         Pierre-Antoine%Gourraud%NULL%1,         Ronan%Roussel%NULL%2,         Ronan%Roussel%NULL%0,         Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,         Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,         Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,         NULL%NULL%NULL%2,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
+Methods
+The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
+ The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
+Results
+We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
+ Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
+ Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
+ In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
+ History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
+ Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
+Conclusions/interpretation
+In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
+Trial registration
+Clinicaltrials.
+gov identifier: NCT04324736
+Graphical abstract
+Supplementary Information
+The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
+</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,          Louis%Potier%NULL%2,          Louis%Potier%NULL%0,          Pierre%Gourdy%NULL%2,          Pierre%Gourdy%NULL%0,          Matthieu%Pichelin%NULL%2,          Matthieu%Pichelin%NULL%0,          Coralie%Amadou%NULL%2,          Coralie%Amadou%NULL%0,          Pierre-Yves%Benhamou%NULL%2,          Pierre-Yves%Benhamou%NULL%0,          Jean-Baptiste%Bonnet%NULL%1,          Lyse%Bordier%NULL%1,          Olivier%Bourron%NULL%1,          Claude%Chaumeil%NULL%2,          Claude%Chaumeil%NULL%0,          Nicolas%Chevalier%NULL%1,          Patrice%Darmon%NULL%2,          Patrice%Darmon%NULL%0,          Blandine%Delenne%NULL%2,          Blandine%Delenne%NULL%0,          Delphine%Demarsy%NULL%1,          Marie%Dumas%NULL%1,          Olivier%Dupuy%NULL%1,          Anna%Flaus-Furmaniuk%NULL%2,          Anna%Flaus-Furmaniuk%NULL%0,          Jean-François%Gautier%NULL%1,          Anne-Marie%Guedj%NULL%2,          Anne-Marie%Guedj%NULL%0,          Nathalie%Jeandidier%NULL%1,          Etienne%Larger%NULL%1,          Jean-Philippe%Le Berre%NULL%1,          Myriam%Lungo%NULL%1,          Nathanaëlle%Montanier%NULL%1,          Philippe%Moulin%NULL%1,          Françoise%Plat%NULL%1,          Vincent%Rigalleau%NULL%1,          René%Robert%NULL%1,          Dominique%Seret-Bégué%NULL%2,          Dominique%Seret-Bégué%NULL%0,          Pierre%Sérusclat%NULL%1,          Sarra%Smati%NULL%1,          Jean-François%Thébaut%NULL%1,          Blandine%Tramunt%NULL%2,          Blandine%Tramunt%NULL%0,          Camille%Vatier%NULL%1,          Fritz-Line%Velayoudom%NULL%2,          Fritz-Line%Velayoudom%NULL%0,          Bruno%Vergès%NULL%1,          Patrice%Winiszewski%NULL%1,          Audrey%Zabulon%NULL%1,          Pierre-Antoine%Gourraud%NULL%1,          Ronan%Roussel%NULL%2,          Ronan%Roussel%NULL%0,          Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,          Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,          Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,          NULL%NULL%NULL%2,          NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1443,10 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1469,10 +1703,10 @@
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -1495,10 +1729,10 @@
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="201">
   <si>
     <t>Doi</t>
   </si>
@@ -840,240 +840,6 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,    Antoon%Bronselaer%NULL%1,    James T.%Teo%NULL%1,    Geert%Byttebier%NULL%1,    Guy%De Tré%NULL%1,    Luc%Belmans%NULL%1,    Richard%Dobson%NULL%1,    Evelien%Wynendaele%NULL%1,    Christophe%Van De Wiele%NULL%1,    Filip%Vandaele%NULL%1,    Diemer%Van Dijck%NULL%1,    Dan%Bean%NULL%1,    David%Fedson%NULL%1,    Bart%De Spiegeleer%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The coronavirus disease 2019 (COVID-19) pandemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has profoundly affected the lives of millions of people.
- To date, there is no approved vaccine or specific drug to prevent or treat COVID-19, while the infection is globally spreading at an alarming rate.
- Because the development of effective vaccines or novel drugs could take several months (if not years), repurposing existing drugs is considered a more efficient strategy that could save lives now.
- Statins constitute a class of lipid-lowering drugs with proven safety profiles and various known beneficial pleiotropic effects.
- Our previous investigations showed that statins have antiviral effects and are involved in the process of wound healing in the lung.
- This triggered us to evaluate if statin use reduces mortality in COVID-19 patients.
-Results
-id="Par2"&gt;After initial recruitment of 459 patients with COVID-19 (Shiraz province, Iran) and careful consideration of the exclusion criteria, a total of 150 patients, of which 75 received statins, were included in our retrospective study.
- Cox proportional-hazards regression models were used to estimate the association between statin use and rate of death.
- After propensity score matching, we found that statin use appeared to be associated with a lower risk of morbidity [HR = 0.85, 95% CI = (0.02, 3.93), P = 0.762] and lower risk of death [(HR = 0.76; 95% CI = (0.16, 3.72), P = 0.735)]; however, these associations did not reach statistical significance.
- Furthermore, statin use reduced the chance of being subjected to mechanical ventilation [OR = 0.96, 95% CI = (0.61–2.99), P = 0.942] and patients on statins showed a more normal computed tomography (CT) scan result [OR = 0.41, 95% CI = (0.07–2.33), P = 0.312].
-Conclusions
-id="Par3"&gt;Although we could not demonstrate a significant association between statin use and a reduction in mortality in patients with COVID19, we do feel that our results are promising and of clinical relevance and warrant the need for prospective randomized controlled trials and extensive retrospective studies to further evaluate and validate the potential beneficial effects of statin treatment on clinical symptoms and mortality rates associated with COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Payam%Peymani%NULL%1,     Tania%Dehesh%NULL%1,     Farnaz%Aligolighasemabadi%NULL%1,     Mohammadamin%Sadeghdoust%NULL%1,     Katarzyna%Kotfis%NULL%1,     Mazaher%Ahmadi%NULL%1,     Parvaneh%Mehrbod%NULL%1,     Pooya%Iranpour%NULL%1,     Sanaz%Dastghaib%NULL%1,     Ahmad%Nasimian%NULL%1,     Amir%Ravandi%NULL%1,     Biniam%Kidane%NULL%1,     Naseer%Ahmed%NULL%1,     Pawan%Sharma%NULL%1,     Shahla%Shojaei%NULL%1,     Kamran%Bagheri Lankarani%NULL%1,     Andrzej%Madej%NULL%1,     Nima%Rezaei%NULL%1,     Tayyebeh%Madrakian%NULL%1,     Marek J.%Los%NULL%1,     Hagar Ibrahim%Labouta%NULL%1,     Pooneh%Mokarram%NULL%1,     Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) can result in a hyperinflammatory state, leading to acute respiratory distress syndrome (ARDS), myocardial injury, and thrombotic complications, among other sequelae.
- Statins, which are known to have anti-inflammatory and antithrombotic properties, have been studied in the setting of other viral infections, but their benefit has not been assessed in COVID-19. This is a retrospective analysis of patients admitted with COVID-19 from February 1st through May 12th, 2020 with study period ending on June 11th, 2020. Antecedent statin use was assessed using medication information available in the electronic medical record.
- We constructed a multivariable logistic regression model to predict the propensity of receiving statins, adjusting for baseline sociodemographic and clinical characteristics, and outpatient medications.
- The primary endpoint includes in-hospital mortality within 30 days.
- A total of 2626 patients were admitted during the study period, of whom 951 (36.2%) were antecedent statin users.
- Among 1296 patients (648 statin users, 648 non-statin users) identified with 1:1 propensity-score matching, statin use is significantly associated with lower odds of the primary endpoint in the propensity-matched cohort (OR 0.47, 95% CI 0.36–0.62, p &amp;lt; 0.001).
- We conclude that antecedent statin use in patients hospitalized with COVID-19 is associated with lower inpatient mortality.
-</t>
-  </si>
-  <si>
-    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,     Mahesh V.%Madhavan%NULL%2,     Mahesh V.%Madhavan%NULL%0,     Timothy J.%Poterucha%NULL%2,     Timothy J.%Poterucha%NULL%0,     Ersilia M.%DeFilippis%NULL%1,     Jessica A.%Hennessey%NULL%1,     Bjorn%Redfors%NULL%1,     Christina%Eckhardt%NULL%1,     Behnood%Bikdeli%NULL%1,     Jonathan%Platt%NULL%1,     Ani%Nalbandian%NULL%1,     Pierre%Elias%NULL%2,     Pierre%Elias%NULL%0,     Matthew J.%Cummings%NULL%2,     Matthew J.%Cummings%NULL%0,     Shayan N.%Nouri%NULL%1,     Matthew%Lawlor%NULL%1,     Lauren S.%Ranard%NULL%1,     Jianhua%Li%NULL%2,     Jianhua%Li%NULL%0,     Claudia%Boyle%NULL%1,     Raymond%Givens%NULL%1,     Daniel%Brodie%NULL%0,     Harlan M.%Krumholz%NULL%2,     Harlan M.%Krumholz%NULL%0,     Gregg W.%Stone%NULL%2,     Gregg W.%Stone%NULL%0,     Sanjum S.%Sethi%NULL%1,     Daniel%Burkhoff%NULL%1,     Nir%Uriel%NULL%1,     Allan%Schwartz%NULL%0,     Martin B.%Leon%NULL%1,     Ajay J.%Kirtane%NULL%1,     Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,     Sahil A.%Parikh%NULL%2,     Sahil A.%Parikh%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
-Methods
-id="Par2"&gt;The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
- The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
-Results
-id="Par3"&gt;We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
- Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
- Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
- In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
- History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
- Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
-Conclusions/interpretation
-id="Par4"&gt;In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
-Trial registration
-id="Par5"&gt;Clinicaltrials.
-gov identifier: NCT04324736
-Graphical abstract
-id="Par6"&gt;
-Supplementary Information
-The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
-</t>
-  </si>
-  <si>
-    <t>[Matthieu%Wargny%NULL%1,     Louis%Potier%NULL%2,     Louis%Potier%NULL%0,     Pierre%Gourdy%NULL%2,     Pierre%Gourdy%NULL%0,     Matthieu%Pichelin%NULL%2,     Matthieu%Pichelin%NULL%0,     Coralie%Amadou%NULL%2,     Coralie%Amadou%NULL%0,     Pierre-Yves%Benhamou%NULL%2,     Pierre-Yves%Benhamou%NULL%0,     Jean-Baptiste%Bonnet%NULL%1,     Lyse%Bordier%NULL%1,     Olivier%Bourron%NULL%1,     Claude%Chaumeil%NULL%2,     Claude%Chaumeil%NULL%0,     Nicolas%Chevalier%NULL%1,     Patrice%Darmon%NULL%2,     Patrice%Darmon%NULL%0,     Blandine%Delenne%NULL%2,     Blandine%Delenne%NULL%0,     Delphine%Demarsy%NULL%1,     Marie%Dumas%NULL%1,     Olivier%Dupuy%NULL%1,     Anna%Flaus-Furmaniuk%NULL%2,     Anna%Flaus-Furmaniuk%NULL%0,     Jean-François%Gautier%NULL%1,     Anne-Marie%Guedj%NULL%2,     Anne-Marie%Guedj%NULL%0,     Nathalie%Jeandidier%NULL%1,     Etienne%Larger%NULL%1,     Jean-Philippe%Le Berre%NULL%1,     Myriam%Lungo%NULL%1,     Nathanaëlle%Montanier%NULL%1,     Philippe%Moulin%NULL%1,     Françoise%Plat%NULL%1,     Vincent%Rigalleau%NULL%1,     René%Robert%NULL%1,     Dominique%Seret-Bégué%NULL%2,     Dominique%Seret-Bégué%NULL%0,     Pierre%Sérusclat%NULL%1,     Sarra%Smati%NULL%1,     Jean-François%Thébaut%NULL%1,     Blandine%Tramunt%NULL%2,     Blandine%Tramunt%NULL%0,     Camille%Vatier%NULL%1,     Fritz-Line%Velayoudom%NULL%2,     Fritz-Line%Velayoudom%NULL%0,     Bruno%Vergès%NULL%1,     Patrice%Winiszewski%NULL%1,     Audrey%Zabulon%NULL%1,     Pierre-Antoine%Gourraud%NULL%1,     Ronan%Roussel%NULL%2,     Ronan%Roussel%NULL%0,     Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,     Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The coronavirus disease 2019 (COVID-19) pandemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has profoundly affected the lives of millions of people.
- To date, there is no approved vaccine or specific drug to prevent or treat COVID-19, while the infection is globally spreading at an alarming rate.
- Because the development of effective vaccines or novel drugs could take several months (if not years), repurposing existing drugs is considered a more efficient strategy that could save lives now.
- Statins constitute a class of lipid-lowering drugs with proven safety profiles and various known beneficial pleiotropic effects.
- Our previous investigations showed that statins have antiviral effects and are involved in the process of wound healing in the lung.
- This triggered us to evaluate if statin use reduces mortality in COVID-19 patients.
-Results
-After initial recruitment of 459 patients with COVID-19 (Shiraz province, Iran) and careful consideration of the exclusion criteria, a total of 150 patients, of which 75 received statins, were included in our retrospective study.
- Cox proportional-hazards regression models were used to estimate the association between statin use and rate of death.
- After propensity score matching, we found that statin use appeared to be associated with a lower risk of morbidity [HR = 0.85, 95% CI = (0.02, 3.93), P = 0.762] and lower risk of death [(HR = 0.76; 95% CI = (0.16, 3.72), P = 0.735)]; however, these associations did not reach statistical significance.
- Furthermore, statin use reduced the chance of being subjected to mechanical ventilation [OR = 0.96, 95% CI = (0.61–2.99), P = 0.942] and patients on statins showed a more normal computed tomography (CT) scan result [OR = 0.41, 95% CI = (0.07–2.33), P = 0.312].
-Conclusions
-id="Par3"&gt;Although we could not demonstrate a significant association between statin use and a reduction in mortality in patients with COVID19, we do feel that our results are promising and of clinical relevance and warrant the need for prospective randomized controlled trials and extensive retrospective studies to further evaluate and validate the potential beneficial effects of statin treatment on clinical symptoms and mortality rates associated with COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Payam%Peymani%NULL%1,      Tania%Dehesh%NULL%1,      Farnaz%Aligolighasemabadi%NULL%1,      Mohammadamin%Sadeghdoust%NULL%1,      Katarzyna%Kotfis%NULL%1,      Mazaher%Ahmadi%NULL%1,      Parvaneh%Mehrbod%NULL%1,      Pooya%Iranpour%NULL%1,      Sanaz%Dastghaib%NULL%1,      Ahmad%Nasimian%NULL%1,      Amir%Ravandi%NULL%1,      Biniam%Kidane%NULL%1,      Naseer%Ahmed%NULL%1,      Pawan%Sharma%NULL%1,      Shahla%Shojaei%NULL%1,      Kamran%Bagheri Lankarani%NULL%1,      Andrzej%Madej%NULL%1,      Nima%Rezaei%NULL%1,      Tayyebeh%Madrakian%NULL%1,      Marek J.%Los%NULL%1,      Hagar Ibrahim%Labouta%NULL%1,      Pooneh%Mokarram%NULL%1,      Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
-Methods
-The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
- The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
-Results
-id="Par3"&gt;We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
- Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
- Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
- In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
- History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
- Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
-Conclusions/interpretation
-id="Par4"&gt;In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
-Trial registration
-id="Par5"&gt;Clinicaltrials.
-gov identifier: NCT04324736
-Graphical abstract
-id="Par6"&gt;
-Supplementary Information
-The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
-</t>
-  </si>
-  <si>
-    <t>[Matthieu%Wargny%NULL%1,      Louis%Potier%NULL%2,      Louis%Potier%NULL%0,      Pierre%Gourdy%NULL%2,      Pierre%Gourdy%NULL%0,      Matthieu%Pichelin%NULL%2,      Matthieu%Pichelin%NULL%0,      Coralie%Amadou%NULL%2,      Coralie%Amadou%NULL%0,      Pierre-Yves%Benhamou%NULL%2,      Pierre-Yves%Benhamou%NULL%0,      Jean-Baptiste%Bonnet%NULL%1,      Lyse%Bordier%NULL%1,      Olivier%Bourron%NULL%1,      Claude%Chaumeil%NULL%2,      Claude%Chaumeil%NULL%0,      Nicolas%Chevalier%NULL%1,      Patrice%Darmon%NULL%2,      Patrice%Darmon%NULL%0,      Blandine%Delenne%NULL%2,      Blandine%Delenne%NULL%0,      Delphine%Demarsy%NULL%1,      Marie%Dumas%NULL%1,      Olivier%Dupuy%NULL%1,      Anna%Flaus-Furmaniuk%NULL%2,      Anna%Flaus-Furmaniuk%NULL%0,      Jean-François%Gautier%NULL%1,      Anne-Marie%Guedj%NULL%2,      Anne-Marie%Guedj%NULL%0,      Nathalie%Jeandidier%NULL%1,      Etienne%Larger%NULL%1,      Jean-Philippe%Le Berre%NULL%1,      Myriam%Lungo%NULL%1,      Nathanaëlle%Montanier%NULL%1,      Philippe%Moulin%NULL%1,      Françoise%Plat%NULL%1,      Vincent%Rigalleau%NULL%1,      René%Robert%NULL%1,      Dominique%Seret-Bégué%NULL%2,      Dominique%Seret-Bégué%NULL%0,      Pierre%Sérusclat%NULL%1,      Sarra%Smati%NULL%1,      Jean-François%Thébaut%NULL%1,      Blandine%Tramunt%NULL%2,      Blandine%Tramunt%NULL%0,      Camille%Vatier%NULL%1,      Fritz-Line%Velayoudom%NULL%2,      Fritz-Line%Velayoudom%NULL%0,      Bruno%Vergès%NULL%1,      Patrice%Winiszewski%NULL%1,      Audrey%Zabulon%NULL%1,      Pierre-Antoine%Gourraud%NULL%1,      Ronan%Roussel%NULL%2,      Ronan%Roussel%NULL%0,      Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,      Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The coronavirus disease 2019 (COVID-19) pandemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has profoundly affected the lives of millions of people.
- To date, there is no approved vaccine or specific drug to prevent or treat COVID-19, while the infection is globally spreading at an alarming rate.
- Because the development of effective vaccines or novel drugs could take several months (if not years), repurposing existing drugs is considered a more efficient strategy that could save lives now.
- Statins constitute a class of lipid-lowering drugs with proven safety profiles and various known beneficial pleiotropic effects.
- Our previous investigations showed that statins have antiviral effects and are involved in the process of wound healing in the lung.
- This triggered us to evaluate if statin use reduces mortality in COVID-19 patients.
-Results
-After initial recruitment of 459 patients with COVID-19 (Shiraz province, Iran) and careful consideration of the exclusion criteria, a total of 150 patients, of which 75 received statins, were included in our retrospective study.
- Cox proportional-hazards regression models were used to estimate the association between statin use and rate of death.
- After propensity score matching, we found that statin use appeared to be associated with a lower risk of morbidity [HR = 0.85, 95% CI = (0.02, 3.93), P = 0.762] and lower risk of death [(HR = 0.76; 95% CI = (0.16, 3.72), P = 0.735)]; however, these associations did not reach statistical significance.
- Furthermore, statin use reduced the chance of being subjected to mechanical ventilation [OR = 0.96, 95% CI = (0.61–2.99), P = 0.942] and patients on statins showed a more normal computed tomography (CT) scan result [OR = 0.41, 95% CI = (0.07–2.33), P = 0.312].
-Conclusions
-Although we could not demonstrate a significant association between statin use and a reduction in mortality in patients with COVID19, we do feel that our results are promising and of clinical relevance and warrant the need for prospective randomized controlled trials and extensive retrospective studies to further evaluate and validate the potential beneficial effects of statin treatment on clinical symptoms and mortality rates associated with COVID-19.
-</t>
-  </si>
-  <si>
-    <t>[Payam%Peymani%NULL%1,       Tania%Dehesh%NULL%1,       Farnaz%Aligolighasemabadi%NULL%1,       Mohammadamin%Sadeghdoust%NULL%1,       Katarzyna%Kotfis%NULL%1,       Mazaher%Ahmadi%NULL%1,       Parvaneh%Mehrbod%NULL%1,       Pooya%Iranpour%NULL%1,       Sanaz%Dastghaib%NULL%1,       Ahmad%Nasimian%NULL%1,       Amir%Ravandi%NULL%1,       Biniam%Kidane%NULL%1,       Naseer%Ahmed%NULL%1,       Pawan%Sharma%NULL%1,       Shahla%Shojaei%NULL%1,       Kamran%Bagheri Lankarani%NULL%1,       Andrzej%Madej%NULL%1,       Nima%Rezaei%NULL%1,       Tayyebeh%Madrakian%NULL%1,       Marek J.%Los%NULL%1,       Hagar Ibrahim%Labouta%NULL%1,       Pooneh%Mokarram%NULL%1,       Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
-Methods
-The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
- The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
-Results
-We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
- Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
- Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
- In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
- History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
- Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
-Conclusions/interpretation
-id="Par4"&gt;In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
-Trial registration
-id="Par5"&gt;Clinicaltrials.
-gov identifier: NCT04324736
-Graphical abstract
-id="Par6"&gt;
-Supplementary Information
-The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
-</t>
-  </si>
-  <si>
-    <t>[Matthieu%Wargny%NULL%1,       Louis%Potier%NULL%2,       Louis%Potier%NULL%0,       Pierre%Gourdy%NULL%2,       Pierre%Gourdy%NULL%0,       Matthieu%Pichelin%NULL%2,       Matthieu%Pichelin%NULL%0,       Coralie%Amadou%NULL%2,       Coralie%Amadou%NULL%0,       Pierre-Yves%Benhamou%NULL%2,       Pierre-Yves%Benhamou%NULL%0,       Jean-Baptiste%Bonnet%NULL%1,       Lyse%Bordier%NULL%1,       Olivier%Bourron%NULL%1,       Claude%Chaumeil%NULL%2,       Claude%Chaumeil%NULL%0,       Nicolas%Chevalier%NULL%1,       Patrice%Darmon%NULL%2,       Patrice%Darmon%NULL%0,       Blandine%Delenne%NULL%2,       Blandine%Delenne%NULL%0,       Delphine%Demarsy%NULL%1,       Marie%Dumas%NULL%1,       Olivier%Dupuy%NULL%1,       Anna%Flaus-Furmaniuk%NULL%2,       Anna%Flaus-Furmaniuk%NULL%0,       Jean-François%Gautier%NULL%1,       Anne-Marie%Guedj%NULL%2,       Anne-Marie%Guedj%NULL%0,       Nathalie%Jeandidier%NULL%1,       Etienne%Larger%NULL%1,       Jean-Philippe%Le Berre%NULL%1,       Myriam%Lungo%NULL%1,       Nathanaëlle%Montanier%NULL%1,       Philippe%Moulin%NULL%1,       Françoise%Plat%NULL%1,       Vincent%Rigalleau%NULL%1,       René%Robert%NULL%1,       Dominique%Seret-Bégué%NULL%2,       Dominique%Seret-Bégué%NULL%0,       Pierre%Sérusclat%NULL%1,       Sarra%Smati%NULL%1,       Jean-François%Thébaut%NULL%1,       Blandine%Tramunt%NULL%2,       Blandine%Tramunt%NULL%0,       Camille%Vatier%NULL%1,       Fritz-Line%Velayoudom%NULL%2,       Fritz-Line%Velayoudom%NULL%0,       Bruno%Vergès%NULL%1,       Patrice%Winiszewski%NULL%1,       Audrey%Zabulon%NULL%1,       Pierre-Antoine%Gourraud%NULL%1,       Ronan%Roussel%NULL%2,       Ronan%Roussel%NULL%0,       Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,       Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
-Methods
-The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
- The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
-Results
-We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
- Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
- Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
- In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
- History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
- Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
-Conclusions/interpretation
-In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
-Trial registration
-id="Par5"&gt;Clinicaltrials.
-gov identifier: NCT04324736
-Graphical abstract
-id="Par6"&gt;
-Supplementary Information
-The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
-</t>
-  </si>
-  <si>
-    <t>[Matthieu%Wargny%NULL%1,        Louis%Potier%NULL%2,        Louis%Potier%NULL%0,        Pierre%Gourdy%NULL%2,        Pierre%Gourdy%NULL%0,        Matthieu%Pichelin%NULL%2,        Matthieu%Pichelin%NULL%0,        Coralie%Amadou%NULL%2,        Coralie%Amadou%NULL%0,        Pierre-Yves%Benhamou%NULL%2,        Pierre-Yves%Benhamou%NULL%0,        Jean-Baptiste%Bonnet%NULL%1,        Lyse%Bordier%NULL%1,        Olivier%Bourron%NULL%1,        Claude%Chaumeil%NULL%2,        Claude%Chaumeil%NULL%0,        Nicolas%Chevalier%NULL%1,        Patrice%Darmon%NULL%2,        Patrice%Darmon%NULL%0,        Blandine%Delenne%NULL%2,        Blandine%Delenne%NULL%0,        Delphine%Demarsy%NULL%1,        Marie%Dumas%NULL%1,        Olivier%Dupuy%NULL%1,        Anna%Flaus-Furmaniuk%NULL%2,        Anna%Flaus-Furmaniuk%NULL%0,        Jean-François%Gautier%NULL%1,        Anne-Marie%Guedj%NULL%2,        Anne-Marie%Guedj%NULL%0,        Nathalie%Jeandidier%NULL%1,        Etienne%Larger%NULL%1,        Jean-Philippe%Le Berre%NULL%1,        Myriam%Lungo%NULL%1,        Nathanaëlle%Montanier%NULL%1,        Philippe%Moulin%NULL%1,        Françoise%Plat%NULL%1,        Vincent%Rigalleau%NULL%1,        René%Robert%NULL%1,        Dominique%Seret-Bégué%NULL%2,        Dominique%Seret-Bégué%NULL%0,        Pierre%Sérusclat%NULL%1,        Sarra%Smati%NULL%1,        Jean-François%Thébaut%NULL%1,        Blandine%Tramunt%NULL%2,        Blandine%Tramunt%NULL%0,        Camille%Vatier%NULL%1,        Fritz-Line%Velayoudom%NULL%2,        Fritz-Line%Velayoudom%NULL%0,        Bruno%Vergès%NULL%1,        Patrice%Winiszewski%NULL%1,        Audrey%Zabulon%NULL%1,        Pierre-Antoine%Gourraud%NULL%1,        Ronan%Roussel%NULL%2,        Ronan%Roussel%NULL%0,        Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,        Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,        Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
-Methods
-The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
- The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
-Results
-We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
- Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
- Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
- In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
- History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
- Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
-Conclusions/interpretation
-In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
-Trial registration
-Clinicaltrials.
-gov identifier: NCT04324736
-Graphical abstract
-id="Par6"&gt;
-Supplementary Information
-The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
-</t>
-  </si>
-  <si>
-    <t>[Matthieu%Wargny%NULL%1,         Louis%Potier%NULL%2,         Louis%Potier%NULL%0,         Pierre%Gourdy%NULL%2,         Pierre%Gourdy%NULL%0,         Matthieu%Pichelin%NULL%2,         Matthieu%Pichelin%NULL%0,         Coralie%Amadou%NULL%2,         Coralie%Amadou%NULL%0,         Pierre-Yves%Benhamou%NULL%2,         Pierre-Yves%Benhamou%NULL%0,         Jean-Baptiste%Bonnet%NULL%1,         Lyse%Bordier%NULL%1,         Olivier%Bourron%NULL%1,         Claude%Chaumeil%NULL%2,         Claude%Chaumeil%NULL%0,         Nicolas%Chevalier%NULL%1,         Patrice%Darmon%NULL%2,         Patrice%Darmon%NULL%0,         Blandine%Delenne%NULL%2,         Blandine%Delenne%NULL%0,         Delphine%Demarsy%NULL%1,         Marie%Dumas%NULL%1,         Olivier%Dupuy%NULL%1,         Anna%Flaus-Furmaniuk%NULL%2,         Anna%Flaus-Furmaniuk%NULL%0,         Jean-François%Gautier%NULL%1,         Anne-Marie%Guedj%NULL%2,         Anne-Marie%Guedj%NULL%0,         Nathalie%Jeandidier%NULL%1,         Etienne%Larger%NULL%1,         Jean-Philippe%Le Berre%NULL%1,         Myriam%Lungo%NULL%1,         Nathanaëlle%Montanier%NULL%1,         Philippe%Moulin%NULL%1,         Françoise%Plat%NULL%1,         Vincent%Rigalleau%NULL%1,         René%Robert%NULL%1,         Dominique%Seret-Bégué%NULL%2,         Dominique%Seret-Bégué%NULL%0,         Pierre%Sérusclat%NULL%1,         Sarra%Smati%NULL%1,         Jean-François%Thébaut%NULL%1,         Blandine%Tramunt%NULL%2,         Blandine%Tramunt%NULL%0,         Camille%Vatier%NULL%1,         Fritz-Line%Velayoudom%NULL%2,         Fritz-Line%Velayoudom%NULL%0,         Bruno%Vergès%NULL%1,         Patrice%Winiszewski%NULL%1,         Audrey%Zabulon%NULL%1,         Pierre-Antoine%Gourraud%NULL%1,         Ronan%Roussel%NULL%2,         Ronan%Roussel%NULL%0,         Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,         Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,         Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,         NULL%NULL%NULL%2,         NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
-Methods
-The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
- The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
-Results
-We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
- Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
- Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
- In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
- History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
- Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
-Conclusions/interpretation
-In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
-Trial registration
-Clinicaltrials.
-gov identifier: NCT04324736
-Graphical abstract
-Supplementary Information
-The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
-</t>
-  </si>
-  <si>
-    <t>[Matthieu%Wargny%NULL%1,          Louis%Potier%NULL%2,          Louis%Potier%NULL%0,          Pierre%Gourdy%NULL%2,          Pierre%Gourdy%NULL%0,          Matthieu%Pichelin%NULL%2,          Matthieu%Pichelin%NULL%0,          Coralie%Amadou%NULL%2,          Coralie%Amadou%NULL%0,          Pierre-Yves%Benhamou%NULL%2,          Pierre-Yves%Benhamou%NULL%0,          Jean-Baptiste%Bonnet%NULL%1,          Lyse%Bordier%NULL%1,          Olivier%Bourron%NULL%1,          Claude%Chaumeil%NULL%2,          Claude%Chaumeil%NULL%0,          Nicolas%Chevalier%NULL%1,          Patrice%Darmon%NULL%2,          Patrice%Darmon%NULL%0,          Blandine%Delenne%NULL%2,          Blandine%Delenne%NULL%0,          Delphine%Demarsy%NULL%1,          Marie%Dumas%NULL%1,          Olivier%Dupuy%NULL%1,          Anna%Flaus-Furmaniuk%NULL%2,          Anna%Flaus-Furmaniuk%NULL%0,          Jean-François%Gautier%NULL%1,          Anne-Marie%Guedj%NULL%2,          Anne-Marie%Guedj%NULL%0,          Nathalie%Jeandidier%NULL%1,          Etienne%Larger%NULL%1,          Jean-Philippe%Le Berre%NULL%1,          Myriam%Lungo%NULL%1,          Nathanaëlle%Montanier%NULL%1,          Philippe%Moulin%NULL%1,          Françoise%Plat%NULL%1,          Vincent%Rigalleau%NULL%1,          René%Robert%NULL%1,          Dominique%Seret-Bégué%NULL%2,          Dominique%Seret-Bégué%NULL%0,          Pierre%Sérusclat%NULL%1,          Sarra%Smati%NULL%1,          Jean-François%Thébaut%NULL%1,          Blandine%Tramunt%NULL%2,          Blandine%Tramunt%NULL%0,          Camille%Vatier%NULL%1,          Fritz-Line%Velayoudom%NULL%2,          Fritz-Line%Velayoudom%NULL%0,          Bruno%Vergès%NULL%1,          Patrice%Winiszewski%NULL%1,          Audrey%Zabulon%NULL%1,          Pierre-Antoine%Gourraud%NULL%1,          Ronan%Roussel%NULL%2,          Ronan%Roussel%NULL%0,          Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,          Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,          Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,          NULL%NULL%NULL%2,          NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1443,10 +1209,10 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1703,10 +1469,10 @@
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -1729,10 +1495,10 @@
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="226">
   <si>
     <t>Doi</t>
   </si>
@@ -840,6 +840,81 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,    Antoon%Bronselaer%NULL%1,    James T.%Teo%NULL%1,    Geert%Byttebier%NULL%1,    Guy%De Tré%NULL%1,    Luc%Belmans%NULL%1,    Richard%Dobson%NULL%1,    Evelien%Wynendaele%NULL%1,    Christophe%Van De Wiele%NULL%1,    Filip%Vandaele%NULL%1,    Diemer%Van Dijck%NULL%1,    Dan%Bean%NULL%1,    David%Fedson%NULL%1,    Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,     Juhee%Ahn%ahnjuhee23@gmail.com%1,     Juhong%Park%parkjh@nhis.or.kr%1,     Chang%Kyung Kang%zeptemiger@hanmail.net%1,     Sung-Ho%Won%sunghow@gmail.com%1,     Dong%Wook Kim%kimdw2269@gmail.com%1,     Jong-Heon%Park%parkjh@nhis.or.kr%1,     Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,     Joon-Sung%Joh%ssabana777@gmail.com%1,     Ji Hwan%Bang%roundbirch@gmail.com%1,     Cheong%Hee Kang%chkangmd@nhis.or.kr%1,     Wook%Bum Pyun%pwb423@ewha.ac.kr%1,     Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,     Tania%Dehesh%NULL%1,     Farnaz%Aligolighasemabadi%NULL%1,     Mohammadamin%Sadeghdoust%NULL%1,     Katarzyna%Kotfis%NULL%1,     Mazaher%Ahmadi%NULL%1,     Parvaneh%Mehrbod%NULL%1,     Pooya%Iranpour%NULL%1,     Sanaz%Dastghaib%NULL%1,     Ahmad%Nasimian%NULL%1,     Amir%Ravandi%NULL%1,     Biniam%Kidane%NULL%1,     Naseer%Ahmed%NULL%1,     Pawan%Sharma%NULL%1,     Shahla%Shojaei%NULL%1,     Kamran%Bagheri Lankarani%NULL%1,     Andrzej%Madej%NULL%1,     Nima%Rezaei%NULL%1,     Tayyebeh%Madrakian%NULL%1,     Marek J.%Los%NULL%1,     Hagar Ibrahim%Labouta%NULL%1,     Pooneh%Mokarram%NULL%1,     Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,     Tao%Guo%NULL%1,     Feifei%Yan%NULL%1,     Ming%Gong%NULL%1,     Xin A.%Zhang%NULL%1,     Chenze%Li%NULL%1,     Tao%He%NULL%1,     Huimin%Luo%NULL%1,     Lin%Zhang%NULL%1,     Ming%Chen%NULL%1,     Xiaoyan%Wu%NULL%1,     Hairong%Wang%NULL%1,     Ke-Qiong%Deng%NULL%1,     Jiao%Bai%NULL%1,     Lin%Cai%NULL%1,     Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,     Thomas Alexander%Gerds%NULL%2,     Thomas Alexander%Gerds%NULL%0,     Morten%Schou%NULL%1,     Kristian%Kragholm%NULL%1,     Matthew%Phelps%NULL%1,     Eva%Havers-Borgersen%NULL%1,     Adelina%Yafasova%NULL%1,     Gunnar Hilmar%Gislason%NULL%1,     Christian%Torp-Pedersen%NULL%1,     Lars%Køber%NULL%1,     Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,     Eudald%Correig%NULL%1,     Cèlia%Rodríguez-Borjabad%NULL%1,     Eva%Anoro%NULL%1,     Juan Antonio%Arroyo%NULL%1,     Carlos%Jericó%NULL%1,     Angels%Pedragosa%NULL%1,     Marcel·la%Miret%NULL%1,     Silvia%Näf%NULL%1,     Anna%Pardo%NULL%1,     Verónica%Perea%NULL%1,     Rosa%Pérez-Bernalte%NULL%1,     Núria%Plana%NULL%1,     Rafael%Ramírez-Montesinos%NULL%1,     Meritxell%Royuela%NULL%1,     Cristina%Soler%NULL%1,     Maria%Urquizu-Padilla%NULL%1,     Alberto%Zamora%NULL%1,     Juan%Pedro-Botet%NULL%1,     NULL%NULL%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,     Francesco%Castagna%NULL%2,     Francesco%Castagna%NULL%0,     Ilir%Agalliu%NULL%2,     Ilir%Agalliu%NULL%0,     Xiaonan%Xue%NULL%2,     Xiaonan%Xue%NULL%0,     Snehal R.%Patel%NULL%1,     Yogita%Rochlani%NULL%1,     Rachna%Kataria%NULL%1,     Sasa%Vukelic%NULL%1,     Daniel B.%Sims%NULL%1,     Chikezie%Alvarez%NULL%1,     Mercedes%Rivas‐Lasarte%NULL%2,     Mercedes%Rivas‐Lasarte%NULL%0,     Mario J.%Garcia%NULL%2,     Mario J.%Garcia%NULL%0,     Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%1,   Antonelli%M.%coreGivesNoEmail%1,   Bellani%G.%coreGivesNoEmail%1,   Bonanomi%E.%coreGivesNoEmail%1,   Cabrini%L.%coreGivesNoEmail%1,   Carlesso%E.%coreGivesNoEmail%1,   Castelli%G.%coreGivesNoEmail%1,   Cattaneo%S.%coreGivesNoEmail%1,   Cecconi%M.%coreGivesNoEmail%1,   Cereda%D.%coreGivesNoEmail%1,   Colombo%S.%coreGivesNoEmail%1,   Coluccello%A.%coreGivesNoEmail%1,   Crescini%G.%coreGivesNoEmail%1,   Forastieri%Molinari A.%coreGivesNoEmail%1,   Foti%G.%coreGivesNoEmail%1,   Fumagalli%R.%coreGivesNoEmail%1,   Grasselli%G.%coreGivesNoEmail%1,   Greco%M.%coreGivesNoEmail%1,   Iotti%G. A.%coreGivesNoEmail%1,   Langer%T.%coreGivesNoEmail%1,   Latronico%N.%coreGivesNoEmail%1,   Lorini%F. L.%coreGivesNoEmail%1,   Mojoli%F.%coreGivesNoEmail%1,   Natalini%G.%coreGivesNoEmail%1,   Pesenti%A.%coreGivesNoEmail%1,   Pessina%C. M.%coreGivesNoEmail%1,   Ranieri%V. M.%coreGivesNoEmail%1,   Rech%R.%coreGivesNoEmail%1,   Rosano%A.%coreGivesNoEmail%1,   Scudeller%L.%coreGivesNoEmail%1,   Storti%E.%coreGivesNoEmail%1,   Thompson%B. T.%coreGivesNoEmail%1,   Tirani%M.%coreGivesNoEmail%1,   Villani%P. G.%coreGivesNoEmail%1,   Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,     Daniela Patricia%Trelles-Garcia%NULL%2,     Daniela Patricia%Trelles-Garcia%NULL%0,     Maria Adriana%Yanez-Bello%NULL%1,     Chul Won%Chung%NULL%1,     Valeria Patricia%Trelles-Garcia%NULL%1,     Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,     Juan-Juan%Qin%NULL%1,     Xu%Cheng%NULL%1,     Lijun%Shen%NULL%1,     Yan-Ci%Zhao%NULL%1,     Yufeng%Yuan%NULL%1,     Fang%Lei%NULL%1,     Ming-Ming%Chen%NULL%1,     Huilin%Yang%NULL%1,     Liangjie%Bai%NULL%1,     Xiaohui%Song%NULL%1,     Lijin%Lin%NULL%1,     Meng%Xia%NULL%1,     Feng%Zhou%NULL%1,     Jianghua%Zhou%NULL%1,     Zhi-Gang%She%NULL%1,     Lihua%Zhu%NULL%1,     Xinliang%Ma%NULL%1,     Qingbo%Xu%NULL%1,     Ping%Ye%NULL%1,     Guohua%Chen%NULL%1,     Liming%Liu%NULL%1,     Weiming%Mao%NULL%1,     Youqin%Yan%NULL%1,     Bing%Xiao%NULL%1,     Zhigang%Lu%NULL%1,     Gang%Peng%NULL%1,     Mingyu%Liu%NULL%1,     Jun%Yang%NULL%1,     Luyu%Yang%NULL%1,     Changjiang%Zhang%NULL%1,     Haofeng%Lu%NULL%1,     Xigang%Xia%NULL%1,     Daihong%Wang%NULL%1,     Xiaofeng%Liao%NULL%1,     Xiang%Wei%NULL%1,     Bing-Hong%Zhang%NULL%1,     Xin%Zhang%NULL%2,     Juan%Yang%NULL%1,     Guang-Nian%Zhao%NULL%1,     Peng%Zhang%NULL%1,     Peter P.%Liu%NULL%1,     Rohit%Loomba%NULL%1,     Yan-Xiao%Ji%NULL%1,     Jiahong%Xia%jiahong.xia@hust.edu.cn%1,     Yibin%Wang%yibinwang@mednet.ucla.edu%1,     Jingjing%Cai%caijingjing83@hotmail.com%1,     Jiao%Guo%guoj@gdpu.edu.cn%1,     Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,     Robert%DeJoy%NULL%1,     Kevin Bryan%Lo%NULL%1,     Jeri%Albano%NULL%1,     Eric%Peterson%NULL%1,     Ruchika%Bhargav%NULL%1,     Fahad%Gu%NULL%1,     Grace%Salacup%NULL%1,     Jerald%Pelayo%NULL%1,     Zurab%Azmaiparashvili%NULL%1,     Janani%Rangaswami%NULL%1,     Gabriel%Patarroyo-Aponte%NULL%1,     Sadia%Benzaquen%NULL%1,     Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,     Luke%Wooster%NULL%1,     Haakon H.%Sigurslid%NULL%1,     Rebecca H.%Li%NULL%1,     Wanlin%Jiang%NULL%1,     Wenjie%Tian%NULL%1,     Christian L.%Lino Cardenas%NULL%1,     Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,     Mahesh V.%Madhavan%NULL%2,     Mahesh V.%Madhavan%NULL%0,     Timothy J.%Poterucha%NULL%2,     Timothy J.%Poterucha%NULL%0,     Ersilia M.%DeFilippis%NULL%1,     Jessica A.%Hennessey%NULL%1,     Bjorn%Redfors%NULL%1,     Christina%Eckhardt%NULL%1,     Behnood%Bikdeli%NULL%1,     Jonathan%Platt%NULL%1,     Ani%Nalbandian%NULL%1,     Pierre%Elias%NULL%2,     Pierre%Elias%NULL%0,     Matthew J.%Cummings%NULL%2,     Matthew J.%Cummings%NULL%0,     Shayan N.%Nouri%NULL%1,     Matthew%Lawlor%NULL%1,     Lauren S.%Ranard%NULL%1,     Jianhua%Li%NULL%2,     Jianhua%Li%NULL%0,     Claudia%Boyle%NULL%1,     Raymond%Givens%NULL%1,     Daniel%Brodie%NULL%2,     Harlan M.%Krumholz%NULL%2,     Harlan M.%Krumholz%NULL%0,     Gregg W.%Stone%NULL%2,     Gregg W.%Stone%NULL%0,     Sanjum S.%Sethi%NULL%1,     Daniel%Burkhoff%NULL%1,     Nir%Uriel%NULL%1,     Allan%Schwartz%NULL%1,     Martin B.%Leon%NULL%1,     Ajay J.%Kirtane%NULL%1,     Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,     Sahil A.%Parikh%NULL%2,     Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,     Louis%Potier%NULL%2,     Louis%Potier%NULL%0,     Pierre%Gourdy%NULL%2,     Pierre%Gourdy%NULL%0,     Matthieu%Pichelin%NULL%2,     Matthieu%Pichelin%NULL%0,     Coralie%Amadou%NULL%2,     Coralie%Amadou%NULL%0,     Pierre-Yves%Benhamou%NULL%2,     Pierre-Yves%Benhamou%NULL%0,     Jean-Baptiste%Bonnet%NULL%1,     Lyse%Bordier%NULL%1,     Olivier%Bourron%NULL%1,     Claude%Chaumeil%NULL%2,     Claude%Chaumeil%NULL%0,     Nicolas%Chevalier%NULL%1,     Patrice%Darmon%NULL%2,     Patrice%Darmon%NULL%0,     Blandine%Delenne%NULL%2,     Blandine%Delenne%NULL%0,     Delphine%Demarsy%NULL%1,     Marie%Dumas%NULL%1,     Olivier%Dupuy%NULL%1,     Anna%Flaus-Furmaniuk%NULL%2,     Anna%Flaus-Furmaniuk%NULL%0,     Jean-François%Gautier%NULL%1,     Anne-Marie%Guedj%NULL%2,     Anne-Marie%Guedj%NULL%0,     Nathalie%Jeandidier%NULL%1,     Etienne%Larger%NULL%1,     Jean-Philippe%Le Berre%NULL%1,     Myriam%Lungo%NULL%1,     Nathanaëlle%Montanier%NULL%1,     Philippe%Moulin%NULL%1,     Françoise%Plat%NULL%1,     Vincent%Rigalleau%NULL%1,     René%Robert%NULL%1,     Dominique%Seret-Bégué%NULL%2,     Dominique%Seret-Bégué%NULL%0,     Pierre%Sérusclat%NULL%1,     Sarra%Smati%NULL%1,     Jean-François%Thébaut%NULL%1,     Blandine%Tramunt%NULL%2,     Blandine%Tramunt%NULL%0,     Camille%Vatier%NULL%1,     Fritz-Line%Velayoudom%NULL%2,     Fritz-Line%Velayoudom%NULL%0,     Bruno%Vergès%NULL%1,     Patrice%Winiszewski%NULL%1,     Audrey%Zabulon%NULL%1,     Pierre-Antoine%Gourraud%NULL%1,     Ronan%Roussel%NULL%2,     Ronan%Roussel%NULL%0,     Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,     Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,     In-Ae%Song%NULL%1,     Young-Tae%Jeon%NULL%1,     Philip P.%Foster%NULL%2,     Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,     Marco%Schiavone%NULL%1,     Antonio%Curnis%NULL%1,     Marcello%Arca%NULL%1,     Spinello%Antinori%NULL%1,     Alessio%Gasperetti%NULL%1,     Giosuè%Mascioli%NULL%1,     Paolo%Severino%NULL%1,     Federica%Sabato%NULL%1,     Maria M.%Caracciolo%NULL%1,     Gianmarco%Arabia%NULL%1,     Laura%D'Erasmo%NULL%1,     Maurizio%Viecca%NULL%1,     Massimo%Mancone%NULL%1,     Massimo%Galli%NULL%1,     Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,     Zhun%Cao%NULL%1,     Jake%Gundrum%NULL%1,     Jim%Sianis%NULL%1,     Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,     Michele%Ciccarelli%NULL%2,     Michele%Ciccarelli%NULL%0,     Dario%Bruzzese%NULL%1,     Andrea%Dipasquale%NULL%1,     Andrea G.%Lania%NULL%1,     Gherardo%Mazziotti%NULL%1,     Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,     Kathy W.%Belk%NULL%1,     Michael%Topmiller%NULL%1,     Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,     Sarah B.%Hays%NULL%1,     Constance E.%Panton%NULL%2,     Constance E.%Panton%NULL%0,     Evangelia K.%Mylona%NULL%1,     Markos%Kalligeros%NULL%1,     Fadi%Shehadeh%NULL%1,     Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,     Amy M.%Sitapati%NULL%1,     Jing%Zhang%NULL%1,     Jingjing%Zou%NULL%1,     Quan M.%Bui%NULL%1,     Junting%Ren%NULL%1,     Christopher A.%Longhurst%NULL%1,     Michael H.%Criqui%NULL%1,     Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,     Antoon%Bronselaer%NULL%1,     James T.%Teo%NULL%1,     Geert%Byttebier%NULL%1,     Guy%De Tré%NULL%1,     Luc%Belmans%NULL%1,     Richard%Dobson%NULL%1,     Evelien%Wynendaele%NULL%1,     Christophe%Van De Wiele%NULL%1,     Filip%Vandaele%NULL%1,     Diemer%Van Dijck%NULL%1,     Dan%Bean%NULL%1,     David%Fedson%NULL%1,     Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1171,6 +1246,9 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
+      <c r="I1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1186,7 +1264,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1196,6 +1274,9 @@
       </c>
       <c r="H2" t="s">
         <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3">
@@ -1212,7 +1293,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1222,6 +1303,9 @@
       </c>
       <c r="H3" t="s">
         <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4">
@@ -1238,7 +1322,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1248,6 +1332,9 @@
       </c>
       <c r="H4" t="s">
         <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5">
@@ -1264,7 +1351,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1274,6 +1361,9 @@
       </c>
       <c r="H5" t="s">
         <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6">
@@ -1290,7 +1380,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1300,6 +1390,9 @@
       </c>
       <c r="H6" t="s">
         <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7">
@@ -1316,7 +1409,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1326,6 +1419,9 @@
       </c>
       <c r="H7" t="s">
         <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8">
@@ -1342,16 +1438,19 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1368,7 +1467,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -1378,6 +1477,9 @@
       </c>
       <c r="H9" t="s">
         <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -1394,7 +1496,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -1404,6 +1506,9 @@
       </c>
       <c r="H10" t="s">
         <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1525,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -1430,6 +1535,9 @@
       </c>
       <c r="H11" t="s">
         <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1554,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -1456,6 +1564,9 @@
       </c>
       <c r="H12" t="s">
         <v>88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="13">
@@ -1472,7 +1583,7 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -1482,6 +1593,9 @@
       </c>
       <c r="H13" t="s">
         <v>93</v>
+      </c>
+      <c r="I13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14">
@@ -1498,7 +1612,7 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -1508,6 +1622,9 @@
       </c>
       <c r="H14" t="s">
         <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="15">
@@ -1524,7 +1641,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -1534,6 +1651,9 @@
       </c>
       <c r="H15" t="s">
         <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16">
@@ -1550,7 +1670,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -1560,6 +1680,9 @@
       </c>
       <c r="H16" t="s">
         <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -1576,7 +1699,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -1586,6 +1709,9 @@
       </c>
       <c r="H17" t="s">
         <v>113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18">
@@ -1602,7 +1728,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -1612,6 +1738,9 @@
       </c>
       <c r="H18" t="s">
         <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19">
@@ -1628,7 +1757,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -1638,6 +1767,9 @@
       </c>
       <c r="H19" t="s">
         <v>122</v>
+      </c>
+      <c r="I19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20">
@@ -1654,7 +1786,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -1664,6 +1796,9 @@
       </c>
       <c r="H20" t="s">
         <v>127</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21">
@@ -1680,7 +1815,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -1690,6 +1825,9 @@
       </c>
       <c r="H21" t="s">
         <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="22">
@@ -1706,7 +1844,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>
@@ -1716,6 +1854,9 @@
       </c>
       <c r="H22" t="s">
         <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="289">
   <si>
     <t>Doi</t>
   </si>
@@ -915,6 +915,195 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,     Antoon%Bronselaer%NULL%1,     James T.%Teo%NULL%1,     Geert%Byttebier%NULL%1,     Guy%De Tré%NULL%1,     Luc%Belmans%NULL%1,     Richard%Dobson%NULL%1,     Evelien%Wynendaele%NULL%1,     Christophe%Van De Wiele%NULL%1,     Filip%Vandaele%NULL%1,     Diemer%Van Dijck%NULL%1,     Dan%Bean%NULL%1,     David%Fedson%NULL%1,     Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,      Juhee%Ahn%ahnjuhee23@gmail.com%1,      Juhong%Park%parkjh@nhis.or.kr%1,      Chang%Kyung Kang%zeptemiger@hanmail.net%1,      Sung-Ho%Won%sunghow@gmail.com%1,      Dong%Wook Kim%kimdw2269@gmail.com%1,      Jong-Heon%Park%parkjh@nhis.or.kr%1,      Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,      Joon-Sung%Joh%ssabana777@gmail.com%1,      Ji Hwan%Bang%roundbirch@gmail.com%1,      Cheong%Hee Kang%chkangmd@nhis.or.kr%1,      Wook%Bum Pyun%pwb423@ewha.ac.kr%1,      Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,      Tania%Dehesh%NULL%1,      Farnaz%Aligolighasemabadi%NULL%1,      Mohammadamin%Sadeghdoust%NULL%1,      Katarzyna%Kotfis%NULL%1,      Mazaher%Ahmadi%NULL%1,      Parvaneh%Mehrbod%NULL%1,      Pooya%Iranpour%NULL%1,      Sanaz%Dastghaib%NULL%1,      Ahmad%Nasimian%NULL%1,      Amir%Ravandi%NULL%1,      Biniam%Kidane%NULL%1,      Naseer%Ahmed%NULL%1,      Pawan%Sharma%NULL%1,      Shahla%Shojaei%NULL%1,      Kamran%Bagheri Lankarani%NULL%1,      Andrzej%Madej%NULL%1,      Nima%Rezaei%NULL%1,      Tayyebeh%Madrakian%NULL%1,      Marek J.%Los%NULL%1,      Hagar Ibrahim%Labouta%NULL%1,      Pooneh%Mokarram%NULL%1,      Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,      Tao%Guo%NULL%1,      Feifei%Yan%NULL%1,      Ming%Gong%NULL%1,      Xin A.%Zhang%NULL%1,      Chenze%Li%NULL%1,      Tao%He%NULL%0,      Huimin%Luo%NULL%1,      Lin%Zhang%NULL%0,      Ming%Chen%NULL%0,      Xiaoyan%Wu%NULL%0,      Hairong%Wang%NULL%0,      Ke-Qiong%Deng%NULL%1,      Jiao%Bai%NULL%1,      Lin%Cai%NULL%1,      Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,      Thomas Alexander%Gerds%NULL%2,      Thomas Alexander%Gerds%NULL%0,      Morten%Schou%NULL%1,      Kristian%Kragholm%NULL%1,      Matthew%Phelps%NULL%1,      Eva%Havers-Borgersen%NULL%1,      Adelina%Yafasova%NULL%1,      Gunnar Hilmar%Gislason%NULL%1,      Christian%Torp-Pedersen%NULL%1,      Lars%Køber%NULL%1,      Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,      Eudald%Correig%NULL%1,      Cèlia%Rodríguez-Borjabad%NULL%1,      Eva%Anoro%NULL%1,      Juan Antonio%Arroyo%NULL%1,      Carlos%Jericó%NULL%1,      Angels%Pedragosa%NULL%1,      Marcel·la%Miret%NULL%1,      Silvia%Näf%NULL%1,      Anna%Pardo%NULL%1,      Verónica%Perea%NULL%1,      Rosa%Pérez-Bernalte%NULL%1,      Núria%Plana%NULL%1,      Rafael%Ramírez-Montesinos%NULL%1,      Meritxell%Royuela%NULL%1,      Cristina%Soler%NULL%1,      Maria%Urquizu-Padilla%NULL%1,      Alberto%Zamora%NULL%1,      Juan%Pedro-Botet%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,      Francesco%Castagna%NULL%2,      Francesco%Castagna%NULL%0,      Ilir%Agalliu%NULL%2,      Ilir%Agalliu%NULL%0,      Xiaonan%Xue%NULL%2,      Xiaonan%Xue%NULL%0,      Snehal R.%Patel%NULL%1,      Yogita%Rochlani%NULL%1,      Rachna%Kataria%NULL%1,      Sasa%Vukelic%NULL%1,      Daniel B.%Sims%NULL%1,      Chikezie%Alvarez%NULL%1,      Mercedes%Rivas‐Lasarte%NULL%2,      Mercedes%Rivas‐Lasarte%NULL%0,      Mario J.%Garcia%NULL%2,      Mario J.%Garcia%NULL%0,      Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,    Antonelli%M.%coreGivesNoEmail%1,    Bellani%G.%coreGivesNoEmail%1,    Bonanomi%E.%coreGivesNoEmail%1,    Cabrini%L.%coreGivesNoEmail%1,    Carlesso%E.%coreGivesNoEmail%1,    Castelli%G.%coreGivesNoEmail%1,    Cattaneo%S.%coreGivesNoEmail%1,    Cecconi%M.%coreGivesNoEmail%1,    Cereda%D.%coreGivesNoEmail%1,    Colombo%S.%coreGivesNoEmail%1,    Coluccello%A.%coreGivesNoEmail%1,    Crescini%G.%coreGivesNoEmail%1,    Forastieri%Molinari A.%coreGivesNoEmail%1,    Foti%G.%coreGivesNoEmail%1,    Fumagalli%R.%coreGivesNoEmail%1,    Grasselli%G.%coreGivesNoEmail%1,    Greco%M.%coreGivesNoEmail%1,    Iotti%G. A.%coreGivesNoEmail%1,    Langer%T.%coreGivesNoEmail%1,    Latronico%N.%coreGivesNoEmail%1,    Lorini%F. L.%coreGivesNoEmail%1,    Mojoli%F.%coreGivesNoEmail%1,    Natalini%G.%coreGivesNoEmail%1,    Pesenti%A.%coreGivesNoEmail%1,    Pessina%C. M.%coreGivesNoEmail%1,    Ranieri%V. M.%coreGivesNoEmail%1,    Rech%R.%coreGivesNoEmail%1,    Rosano%A.%coreGivesNoEmail%1,    Scudeller%L.%coreGivesNoEmail%1,    Storti%E.%coreGivesNoEmail%1,    Thompson%B. T.%coreGivesNoEmail%1,    Tirani%M.%coreGivesNoEmail%1,    Villani%P. G.%coreGivesNoEmail%1,    Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,      Daniela Patricia%Trelles-Garcia%NULL%2,      Daniela Patricia%Trelles-Garcia%NULL%0,      Maria Adriana%Yanez-Bello%NULL%1,      Chul Won%Chung%NULL%1,      Valeria Patricia%Trelles-Garcia%NULL%1,      Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,      Juan-Juan%Qin%NULL%1,      Xu%Cheng%NULL%1,      Lijun%Shen%NULL%1,      Yan-Ci%Zhao%NULL%1,      Yufeng%Yuan%NULL%1,      Fang%Lei%NULL%1,      Ming-Ming%Chen%NULL%1,      Huilin%Yang%NULL%1,      Liangjie%Bai%NULL%1,      Xiaohui%Song%NULL%1,      Lijin%Lin%NULL%1,      Meng%Xia%NULL%1,      Feng%Zhou%NULL%1,      Jianghua%Zhou%NULL%1,      Zhi-Gang%She%NULL%1,      Lihua%Zhu%NULL%1,      Xinliang%Ma%NULL%1,      Qingbo%Xu%NULL%1,      Ping%Ye%NULL%1,      Guohua%Chen%NULL%1,      Liming%Liu%NULL%1,      Weiming%Mao%NULL%1,      Youqin%Yan%NULL%1,      Bing%Xiao%NULL%1,      Zhigang%Lu%NULL%1,      Gang%Peng%NULL%1,      Mingyu%Liu%NULL%1,      Jun%Yang%NULL%1,      Luyu%Yang%NULL%1,      Changjiang%Zhang%NULL%1,      Haofeng%Lu%NULL%1,      Xigang%Xia%NULL%1,      Daihong%Wang%NULL%1,      Xiaofeng%Liao%NULL%1,      Xiang%Wei%NULL%1,      Bing-Hong%Zhang%NULL%1,      Xin%Zhang%NULL%2,      Juan%Yang%NULL%1,      Guang-Nian%Zhao%NULL%1,      Peng%Zhang%NULL%0,      Peter P.%Liu%NULL%1,      Rohit%Loomba%NULL%1,      Yan-Xiao%Ji%NULL%1,      Jiahong%Xia%jiahong.xia@hust.edu.cn%1,      Yibin%Wang%yibinwang@mednet.ucla.edu%1,      Jingjing%Cai%caijingjing83@hotmail.com%1,      Jiao%Guo%guoj@gdpu.edu.cn%1,      Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,      Robert%DeJoy%NULL%1,      Kevin Bryan%Lo%NULL%1,      Jeri%Albano%NULL%1,      Eric%Peterson%NULL%1,      Ruchika%Bhargav%NULL%1,      Fahad%Gu%NULL%1,      Grace%Salacup%NULL%1,      Jerald%Pelayo%NULL%1,      Zurab%Azmaiparashvili%NULL%1,      Janani%Rangaswami%NULL%1,      Gabriel%Patarroyo-Aponte%NULL%1,      Sadia%Benzaquen%NULL%1,      Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,      Luke%Wooster%NULL%1,      Haakon H.%Sigurslid%NULL%1,      Rebecca H.%Li%NULL%1,      Wanlin%Jiang%NULL%1,      Wenjie%Tian%NULL%1,      Christian L.%Lino Cardenas%NULL%1,      Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,      Mahesh V.%Madhavan%NULL%2,      Mahesh V.%Madhavan%NULL%0,      Timothy J.%Poterucha%NULL%2,      Timothy J.%Poterucha%NULL%0,      Ersilia M.%DeFilippis%NULL%1,      Jessica A.%Hennessey%NULL%1,      Bjorn%Redfors%NULL%1,      Christina%Eckhardt%NULL%1,      Behnood%Bikdeli%NULL%1,      Jonathan%Platt%NULL%1,      Ani%Nalbandian%NULL%1,      Pierre%Elias%NULL%2,      Pierre%Elias%NULL%0,      Matthew J.%Cummings%NULL%2,      Matthew J.%Cummings%NULL%0,      Shayan N.%Nouri%NULL%1,      Matthew%Lawlor%NULL%1,      Lauren S.%Ranard%NULL%1,      Jianhua%Li%NULL%2,      Jianhua%Li%NULL%0,      Claudia%Boyle%NULL%1,      Raymond%Givens%NULL%1,      Daniel%Brodie%NULL%0,      Harlan M.%Krumholz%NULL%2,      Harlan M.%Krumholz%NULL%0,      Gregg W.%Stone%NULL%2,      Gregg W.%Stone%NULL%0,      Sanjum S.%Sethi%NULL%1,      Daniel%Burkhoff%NULL%1,      Nir%Uriel%NULL%1,      Allan%Schwartz%NULL%0,      Martin B.%Leon%NULL%1,      Ajay J.%Kirtane%NULL%1,      Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,      Sahil A.%Parikh%NULL%2,      Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,      Louis%Potier%NULL%2,      Louis%Potier%NULL%0,      Pierre%Gourdy%NULL%2,      Pierre%Gourdy%NULL%0,      Matthieu%Pichelin%NULL%2,      Matthieu%Pichelin%NULL%0,      Coralie%Amadou%NULL%2,      Coralie%Amadou%NULL%0,      Pierre-Yves%Benhamou%NULL%2,      Pierre-Yves%Benhamou%NULL%0,      Jean-Baptiste%Bonnet%NULL%1,      Lyse%Bordier%NULL%1,      Olivier%Bourron%NULL%1,      Claude%Chaumeil%NULL%2,      Claude%Chaumeil%NULL%0,      Nicolas%Chevalier%NULL%1,      Patrice%Darmon%NULL%2,      Patrice%Darmon%NULL%0,      Blandine%Delenne%NULL%2,      Blandine%Delenne%NULL%0,      Delphine%Demarsy%NULL%1,      Marie%Dumas%NULL%1,      Olivier%Dupuy%NULL%1,      Anna%Flaus-Furmaniuk%NULL%2,      Anna%Flaus-Furmaniuk%NULL%0,      Jean-François%Gautier%NULL%1,      Anne-Marie%Guedj%NULL%2,      Anne-Marie%Guedj%NULL%0,      Nathalie%Jeandidier%NULL%1,      Etienne%Larger%NULL%1,      Jean-Philippe%Le Berre%NULL%1,      Myriam%Lungo%NULL%1,      Nathanaëlle%Montanier%NULL%1,      Philippe%Moulin%NULL%1,      Françoise%Plat%NULL%1,      Vincent%Rigalleau%NULL%1,      René%Robert%NULL%1,      Dominique%Seret-Bégué%NULL%2,      Dominique%Seret-Bégué%NULL%0,      Pierre%Sérusclat%NULL%1,      Sarra%Smati%NULL%1,      Jean-François%Thébaut%NULL%1,      Blandine%Tramunt%NULL%2,      Blandine%Tramunt%NULL%0,      Camille%Vatier%NULL%1,      Fritz-Line%Velayoudom%NULL%2,      Fritz-Line%Velayoudom%NULL%0,      Bruno%Vergès%NULL%1,      Patrice%Winiszewski%NULL%1,      Audrey%Zabulon%NULL%1,      Pierre-Antoine%Gourraud%NULL%1,      Ronan%Roussel%NULL%2,      Ronan%Roussel%NULL%0,      Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,      Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,      In-Ae%Song%NULL%1,      Young-Tae%Jeon%NULL%1,      Philip P.%Foster%NULL%2,      Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,      Marco%Schiavone%NULL%1,      Antonio%Curnis%NULL%1,      Marcello%Arca%NULL%1,      Spinello%Antinori%NULL%1,      Alessio%Gasperetti%NULL%1,      Giosuè%Mascioli%NULL%1,      Paolo%Severino%NULL%1,      Federica%Sabato%NULL%1,      Maria M.%Caracciolo%NULL%1,      Gianmarco%Arabia%NULL%1,      Laura%D'Erasmo%NULL%1,      Maurizio%Viecca%NULL%1,      Massimo%Mancone%NULL%1,      Massimo%Galli%NULL%1,      Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,      Zhun%Cao%NULL%1,      Jake%Gundrum%NULL%1,      Jim%Sianis%NULL%1,      Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,      Michele%Ciccarelli%NULL%2,      Michele%Ciccarelli%NULL%0,      Dario%Bruzzese%NULL%1,      Andrea%Dipasquale%NULL%1,      Andrea G.%Lania%NULL%1,      Gherardo%Mazziotti%NULL%1,      Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,      Kathy W.%Belk%NULL%1,      Michael%Topmiller%NULL%1,      Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,      Sarah B.%Hays%NULL%1,      Constance E.%Panton%NULL%2,      Constance E.%Panton%NULL%0,      Evangelia K.%Mylona%NULL%1,      Markos%Kalligeros%NULL%1,      Fadi%Shehadeh%NULL%1,      Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,      Amy M.%Sitapati%NULL%1,      Jing%Zhang%NULL%1,      Jingjing%Zou%NULL%1,      Quan M.%Bui%NULL%1,      Junting%Ren%NULL%1,      Christopher A.%Longhurst%NULL%1,      Michael H.%Criqui%NULL%1,      Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,      Antoon%Bronselaer%NULL%1,      James T.%Teo%NULL%1,      Geert%Byttebier%NULL%1,      Guy%De Tré%NULL%1,      Luc%Belmans%NULL%1,      Richard%Dobson%NULL%1,      Evelien%Wynendaele%NULL%1,      Christophe%Van De Wiele%NULL%1,      Filip%Vandaele%NULL%1,      Diemer%Van Dijck%NULL%1,      Dan%Bean%NULL%1,      David%Fedson%NULL%1,      Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,       Juhee%Ahn%ahnjuhee23@gmail.com%1,       Juhong%Park%parkjh@nhis.or.kr%1,       Chang%Kyung Kang%zeptemiger@hanmail.net%1,       Sung-Ho%Won%sunghow@gmail.com%1,       Dong%Wook Kim%kimdw2269@gmail.com%1,       Jong-Heon%Park%parkjh@nhis.or.kr%1,       Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,       Joon-Sung%Joh%ssabana777@gmail.com%1,       Ji Hwan%Bang%roundbirch@gmail.com%1,       Cheong%Hee Kang%chkangmd@nhis.or.kr%1,       Wook%Bum Pyun%pwb423@ewha.ac.kr%1,       Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,       Tania%Dehesh%NULL%1,       Farnaz%Aligolighasemabadi%NULL%1,       Mohammadamin%Sadeghdoust%NULL%1,       Katarzyna%Kotfis%NULL%1,       Mazaher%Ahmadi%NULL%1,       Parvaneh%Mehrbod%NULL%1,       Pooya%Iranpour%NULL%1,       Sanaz%Dastghaib%NULL%1,       Ahmad%Nasimian%NULL%1,       Amir%Ravandi%NULL%1,       Biniam%Kidane%NULL%1,       Naseer%Ahmed%NULL%1,       Pawan%Sharma%NULL%1,       Shahla%Shojaei%NULL%1,       Kamran%Bagheri Lankarani%NULL%1,       Andrzej%Madej%NULL%1,       Nima%Rezaei%NULL%1,       Tayyebeh%Madrakian%NULL%1,       Marek J.%Los%NULL%1,       Hagar Ibrahim%Labouta%NULL%1,       Pooneh%Mokarram%NULL%1,       Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,       Tao%Guo%NULL%1,       Feifei%Yan%NULL%1,       Ming%Gong%NULL%1,       Xin A.%Zhang%NULL%1,       Chenze%Li%NULL%1,       Tao%He%NULL%0,       Huimin%Luo%NULL%1,       Lin%Zhang%NULL%0,       Ming%Chen%NULL%0,       Xiaoyan%Wu%NULL%0,       Hairong%Wang%NULL%0,       Ke-Qiong%Deng%NULL%1,       Jiao%Bai%NULL%1,       Lin%Cai%NULL%1,       Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,       Thomas Alexander%Gerds%NULL%2,       Thomas Alexander%Gerds%NULL%0,       Morten%Schou%NULL%1,       Kristian%Kragholm%NULL%1,       Matthew%Phelps%NULL%1,       Eva%Havers-Borgersen%NULL%1,       Adelina%Yafasova%NULL%1,       Gunnar Hilmar%Gislason%NULL%1,       Christian%Torp-Pedersen%NULL%1,       Lars%Køber%NULL%1,       Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,       Eudald%Correig%NULL%1,       Cèlia%Rodríguez-Borjabad%NULL%1,       Eva%Anoro%NULL%1,       Juan Antonio%Arroyo%NULL%1,       Carlos%Jericó%NULL%1,       Angels%Pedragosa%NULL%1,       Marcel·la%Miret%NULL%1,       Silvia%Näf%NULL%1,       Anna%Pardo%NULL%1,       Verónica%Perea%NULL%1,       Rosa%Pérez-Bernalte%NULL%1,       Núria%Plana%NULL%1,       Rafael%Ramírez-Montesinos%NULL%1,       Meritxell%Royuela%NULL%1,       Cristina%Soler%NULL%1,       Maria%Urquizu-Padilla%NULL%1,       Alberto%Zamora%NULL%1,       Juan%Pedro-Botet%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,       Francesco%Castagna%NULL%2,       Francesco%Castagna%NULL%0,       Ilir%Agalliu%NULL%2,       Ilir%Agalliu%NULL%0,       Xiaonan%Xue%NULL%2,       Xiaonan%Xue%NULL%0,       Snehal R.%Patel%NULL%1,       Yogita%Rochlani%NULL%1,       Rachna%Kataria%NULL%1,       Sasa%Vukelic%NULL%1,       Daniel B.%Sims%NULL%1,       Chikezie%Alvarez%NULL%1,       Mercedes%Rivas‐Lasarte%NULL%2,       Mercedes%Rivas‐Lasarte%NULL%0,       Mario J.%Garcia%NULL%2,       Mario J.%Garcia%NULL%0,       Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,     Antonelli%M.%coreGivesNoEmail%1,     Bellani%G.%coreGivesNoEmail%1,     Bonanomi%E.%coreGivesNoEmail%1,     Cabrini%L.%coreGivesNoEmail%1,     Carlesso%E.%coreGivesNoEmail%1,     Castelli%G.%coreGivesNoEmail%1,     Cattaneo%S.%coreGivesNoEmail%1,     Cecconi%M.%coreGivesNoEmail%1,     Cereda%D.%coreGivesNoEmail%1,     Colombo%S.%coreGivesNoEmail%1,     Coluccello%A.%coreGivesNoEmail%1,     Crescini%G.%coreGivesNoEmail%1,     Forastieri%Molinari A.%coreGivesNoEmail%1,     Foti%G.%coreGivesNoEmail%1,     Fumagalli%R.%coreGivesNoEmail%1,     Grasselli%G.%coreGivesNoEmail%1,     Greco%M.%coreGivesNoEmail%1,     Iotti%G. A.%coreGivesNoEmail%1,     Langer%T.%coreGivesNoEmail%1,     Latronico%N.%coreGivesNoEmail%1,     Lorini%F. L.%coreGivesNoEmail%1,     Mojoli%F.%coreGivesNoEmail%1,     Natalini%G.%coreGivesNoEmail%1,     Pesenti%A.%coreGivesNoEmail%1,     Pessina%C. M.%coreGivesNoEmail%1,     Ranieri%V. M.%coreGivesNoEmail%1,     Rech%R.%coreGivesNoEmail%1,     Rosano%A.%coreGivesNoEmail%1,     Scudeller%L.%coreGivesNoEmail%1,     Storti%E.%coreGivesNoEmail%1,     Thompson%B. T.%coreGivesNoEmail%1,     Tirani%M.%coreGivesNoEmail%1,     Villani%P. G.%coreGivesNoEmail%1,     Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,       Daniela Patricia%Trelles-Garcia%NULL%2,       Daniela Patricia%Trelles-Garcia%NULL%0,       Maria Adriana%Yanez-Bello%NULL%1,       Chul Won%Chung%NULL%1,       Valeria Patricia%Trelles-Garcia%NULL%1,       Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,       Juan-Juan%Qin%NULL%1,       Xu%Cheng%NULL%1,       Lijun%Shen%NULL%1,       Yan-Ci%Zhao%NULL%1,       Yufeng%Yuan%NULL%1,       Fang%Lei%NULL%1,       Ming-Ming%Chen%NULL%1,       Huilin%Yang%NULL%1,       Liangjie%Bai%NULL%1,       Xiaohui%Song%NULL%1,       Lijin%Lin%NULL%1,       Meng%Xia%NULL%1,       Feng%Zhou%NULL%1,       Jianghua%Zhou%NULL%1,       Zhi-Gang%She%NULL%1,       Lihua%Zhu%NULL%1,       Xinliang%Ma%NULL%1,       Qingbo%Xu%NULL%1,       Ping%Ye%NULL%1,       Guohua%Chen%NULL%1,       Liming%Liu%NULL%1,       Weiming%Mao%NULL%1,       Youqin%Yan%NULL%1,       Bing%Xiao%NULL%1,       Zhigang%Lu%NULL%1,       Gang%Peng%NULL%1,       Mingyu%Liu%NULL%1,       Jun%Yang%NULL%1,       Luyu%Yang%NULL%1,       Changjiang%Zhang%NULL%1,       Haofeng%Lu%NULL%1,       Xigang%Xia%NULL%1,       Daihong%Wang%NULL%1,       Xiaofeng%Liao%NULL%1,       Xiang%Wei%NULL%1,       Bing-Hong%Zhang%NULL%1,       Xin%Zhang%NULL%2,       Juan%Yang%NULL%1,       Guang-Nian%Zhao%NULL%1,       Peng%Zhang%NULL%0,       Peter P.%Liu%NULL%1,       Rohit%Loomba%NULL%1,       Yan-Xiao%Ji%NULL%1,       Jiahong%Xia%jiahong.xia@hust.edu.cn%1,       Yibin%Wang%yibinwang@mednet.ucla.edu%1,       Jingjing%Cai%caijingjing83@hotmail.com%1,       Jiao%Guo%guoj@gdpu.edu.cn%1,       Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,       Robert%DeJoy%NULL%1,       Kevin Bryan%Lo%NULL%1,       Jeri%Albano%NULL%1,       Eric%Peterson%NULL%1,       Ruchika%Bhargav%NULL%1,       Fahad%Gu%NULL%1,       Grace%Salacup%NULL%1,       Jerald%Pelayo%NULL%1,       Zurab%Azmaiparashvili%NULL%1,       Janani%Rangaswami%NULL%1,       Gabriel%Patarroyo-Aponte%NULL%1,       Sadia%Benzaquen%NULL%1,       Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,       Luke%Wooster%NULL%1,       Haakon H.%Sigurslid%NULL%1,       Rebecca H.%Li%NULL%1,       Wanlin%Jiang%NULL%1,       Wenjie%Tian%NULL%1,       Christian L.%Lino Cardenas%NULL%1,       Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,       Mahesh V.%Madhavan%NULL%2,       Mahesh V.%Madhavan%NULL%0,       Timothy J.%Poterucha%NULL%2,       Timothy J.%Poterucha%NULL%0,       Ersilia M.%DeFilippis%NULL%1,       Jessica A.%Hennessey%NULL%1,       Bjorn%Redfors%NULL%1,       Christina%Eckhardt%NULL%1,       Behnood%Bikdeli%NULL%1,       Jonathan%Platt%NULL%1,       Ani%Nalbandian%NULL%1,       Pierre%Elias%NULL%2,       Pierre%Elias%NULL%0,       Matthew J.%Cummings%NULL%2,       Matthew J.%Cummings%NULL%0,       Shayan N.%Nouri%NULL%1,       Matthew%Lawlor%NULL%1,       Lauren S.%Ranard%NULL%1,       Jianhua%Li%NULL%2,       Jianhua%Li%NULL%0,       Claudia%Boyle%NULL%1,       Raymond%Givens%NULL%1,       Daniel%Brodie%NULL%0,       Harlan M.%Krumholz%NULL%2,       Harlan M.%Krumholz%NULL%0,       Gregg W.%Stone%NULL%2,       Gregg W.%Stone%NULL%0,       Sanjum S.%Sethi%NULL%1,       Daniel%Burkhoff%NULL%1,       Nir%Uriel%NULL%1,       Allan%Schwartz%NULL%0,       Martin B.%Leon%NULL%1,       Ajay J.%Kirtane%NULL%1,       Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,       Sahil A.%Parikh%NULL%2,       Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,       Louis%Potier%NULL%2,       Louis%Potier%NULL%0,       Pierre%Gourdy%NULL%2,       Pierre%Gourdy%NULL%0,       Matthieu%Pichelin%NULL%2,       Matthieu%Pichelin%NULL%0,       Coralie%Amadou%NULL%2,       Coralie%Amadou%NULL%0,       Pierre-Yves%Benhamou%NULL%2,       Pierre-Yves%Benhamou%NULL%0,       Jean-Baptiste%Bonnet%NULL%1,       Lyse%Bordier%NULL%1,       Olivier%Bourron%NULL%1,       Claude%Chaumeil%NULL%2,       Claude%Chaumeil%NULL%0,       Nicolas%Chevalier%NULL%1,       Patrice%Darmon%NULL%2,       Patrice%Darmon%NULL%0,       Blandine%Delenne%NULL%2,       Blandine%Delenne%NULL%0,       Delphine%Demarsy%NULL%1,       Marie%Dumas%NULL%1,       Olivier%Dupuy%NULL%1,       Anna%Flaus-Furmaniuk%NULL%2,       Anna%Flaus-Furmaniuk%NULL%0,       Jean-François%Gautier%NULL%1,       Anne-Marie%Guedj%NULL%2,       Anne-Marie%Guedj%NULL%0,       Nathalie%Jeandidier%NULL%1,       Etienne%Larger%NULL%1,       Jean-Philippe%Le Berre%NULL%1,       Myriam%Lungo%NULL%1,       Nathanaëlle%Montanier%NULL%1,       Philippe%Moulin%NULL%1,       Françoise%Plat%NULL%1,       Vincent%Rigalleau%NULL%1,       René%Robert%NULL%1,       Dominique%Seret-Bégué%NULL%2,       Dominique%Seret-Bégué%NULL%0,       Pierre%Sérusclat%NULL%1,       Sarra%Smati%NULL%1,       Jean-François%Thébaut%NULL%1,       Blandine%Tramunt%NULL%2,       Blandine%Tramunt%NULL%0,       Camille%Vatier%NULL%1,       Fritz-Line%Velayoudom%NULL%2,       Fritz-Line%Velayoudom%NULL%0,       Bruno%Vergès%NULL%1,       Patrice%Winiszewski%NULL%1,       Audrey%Zabulon%NULL%1,       Pierre-Antoine%Gourraud%NULL%1,       Ronan%Roussel%NULL%2,       Ronan%Roussel%NULL%0,       Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,       Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,       In-Ae%Song%NULL%1,       Young-Tae%Jeon%NULL%1,       Philip P.%Foster%NULL%2,       Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,       Marco%Schiavone%NULL%1,       Antonio%Curnis%NULL%1,       Marcello%Arca%NULL%1,       Spinello%Antinori%NULL%1,       Alessio%Gasperetti%NULL%1,       Giosuè%Mascioli%NULL%1,       Paolo%Severino%NULL%1,       Federica%Sabato%NULL%1,       Maria M.%Caracciolo%NULL%1,       Gianmarco%Arabia%NULL%1,       Laura%D'Erasmo%NULL%1,       Maurizio%Viecca%NULL%1,       Massimo%Mancone%NULL%1,       Massimo%Galli%NULL%1,       Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,       Zhun%Cao%NULL%1,       Jake%Gundrum%NULL%1,       Jim%Sianis%NULL%1,       Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,       Michele%Ciccarelli%NULL%2,       Michele%Ciccarelli%NULL%0,       Dario%Bruzzese%NULL%1,       Andrea%Dipasquale%NULL%1,       Andrea G.%Lania%NULL%1,       Gherardo%Mazziotti%NULL%1,       Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,       Kathy W.%Belk%NULL%1,       Michael%Topmiller%NULL%1,       Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,       Sarah B.%Hays%NULL%1,       Constance E.%Panton%NULL%2,       Constance E.%Panton%NULL%0,       Evangelia K.%Mylona%NULL%1,       Markos%Kalligeros%NULL%1,       Fadi%Shehadeh%NULL%1,       Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,       Amy M.%Sitapati%NULL%1,       Jing%Zhang%NULL%1,       Jingjing%Zou%NULL%1,       Quan M.%Bui%NULL%1,       Junting%Ren%NULL%1,       Christopher A.%Longhurst%NULL%1,       Michael H.%Criqui%NULL%1,       Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,       Antoon%Bronselaer%NULL%1,       James T.%Teo%NULL%1,       Geert%Byttebier%NULL%1,       Guy%De Tré%NULL%1,       Luc%Belmans%NULL%1,       Richard%Dobson%NULL%1,       Evelien%Wynendaele%NULL%1,       Christophe%Van De Wiele%NULL%1,       Filip%Vandaele%NULL%1,       Diemer%Van Dijck%NULL%1,       Dan%Bean%NULL%1,       David%Fedson%NULL%1,       Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,        Juhee%Ahn%ahnjuhee23@gmail.com%1,        Juhong%Park%parkjh@nhis.or.kr%1,        Chang%Kyung Kang%zeptemiger@hanmail.net%1,        Sung-Ho%Won%sunghow@gmail.com%1,        Dong%Wook Kim%kimdw2269@gmail.com%1,        Jong-Heon%Park%parkjh@nhis.or.kr%1,        Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,        Joon-Sung%Joh%ssabana777@gmail.com%1,        Ji Hwan%Bang%roundbirch@gmail.com%1,        Cheong%Hee Kang%chkangmd@nhis.or.kr%1,        Wook%Bum Pyun%pwb423@ewha.ac.kr%1,        Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,        Tania%Dehesh%NULL%1,        Farnaz%Aligolighasemabadi%NULL%1,        Mohammadamin%Sadeghdoust%NULL%1,        Katarzyna%Kotfis%NULL%1,        Mazaher%Ahmadi%NULL%1,        Parvaneh%Mehrbod%NULL%1,        Pooya%Iranpour%NULL%1,        Sanaz%Dastghaib%NULL%1,        Ahmad%Nasimian%NULL%1,        Amir%Ravandi%NULL%1,        Biniam%Kidane%NULL%1,        Naseer%Ahmed%NULL%1,        Pawan%Sharma%NULL%1,        Shahla%Shojaei%NULL%1,        Kamran%Bagheri Lankarani%NULL%1,        Andrzej%Madej%NULL%1,        Nima%Rezaei%NULL%1,        Tayyebeh%Madrakian%NULL%1,        Marek J.%Los%NULL%1,        Hagar Ibrahim%Labouta%NULL%1,        Pooneh%Mokarram%NULL%1,        Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,        Tao%Guo%NULL%1,        Feifei%Yan%NULL%1,        Ming%Gong%NULL%1,        Xin A.%Zhang%NULL%1,        Chenze%Li%NULL%1,        Tao%He%NULL%0,        Huimin%Luo%NULL%1,        Lin%Zhang%NULL%0,        Ming%Chen%NULL%0,        Xiaoyan%Wu%NULL%0,        Hairong%Wang%NULL%0,        Ke-Qiong%Deng%NULL%1,        Jiao%Bai%NULL%1,        Lin%Cai%NULL%1,        Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,        Thomas Alexander%Gerds%NULL%2,        Thomas Alexander%Gerds%NULL%0,        Morten%Schou%NULL%1,        Kristian%Kragholm%NULL%1,        Matthew%Phelps%NULL%1,        Eva%Havers-Borgersen%NULL%1,        Adelina%Yafasova%NULL%1,        Gunnar Hilmar%Gislason%NULL%1,        Christian%Torp-Pedersen%NULL%1,        Lars%Køber%NULL%1,        Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,        Eudald%Correig%NULL%1,        Cèlia%Rodríguez-Borjabad%NULL%1,        Eva%Anoro%NULL%1,        Juan Antonio%Arroyo%NULL%1,        Carlos%Jericó%NULL%1,        Angels%Pedragosa%NULL%1,        Marcel·la%Miret%NULL%1,        Silvia%Näf%NULL%1,        Anna%Pardo%NULL%1,        Verónica%Perea%NULL%1,        Rosa%Pérez-Bernalte%NULL%1,        Núria%Plana%NULL%1,        Rafael%Ramírez-Montesinos%NULL%1,        Meritxell%Royuela%NULL%1,        Cristina%Soler%NULL%1,        Maria%Urquizu-Padilla%NULL%1,        Alberto%Zamora%NULL%1,        Juan%Pedro-Botet%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,        Francesco%Castagna%NULL%2,        Francesco%Castagna%NULL%0,        Ilir%Agalliu%NULL%2,        Ilir%Agalliu%NULL%0,        Xiaonan%Xue%NULL%2,        Xiaonan%Xue%NULL%0,        Snehal R.%Patel%NULL%1,        Yogita%Rochlani%NULL%1,        Rachna%Kataria%NULL%1,        Sasa%Vukelic%NULL%1,        Daniel B.%Sims%NULL%1,        Chikezie%Alvarez%NULL%1,        Mercedes%Rivas‐Lasarte%NULL%2,        Mercedes%Rivas‐Lasarte%NULL%0,        Mario J.%Garcia%NULL%2,        Mario J.%Garcia%NULL%0,        Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,      Antonelli%M.%coreGivesNoEmail%1,      Bellani%G.%coreGivesNoEmail%1,      Bonanomi%E.%coreGivesNoEmail%1,      Cabrini%L.%coreGivesNoEmail%1,      Carlesso%E.%coreGivesNoEmail%1,      Castelli%G.%coreGivesNoEmail%1,      Cattaneo%S.%coreGivesNoEmail%1,      Cecconi%M.%coreGivesNoEmail%1,      Cereda%D.%coreGivesNoEmail%1,      Colombo%S.%coreGivesNoEmail%1,      Coluccello%A.%coreGivesNoEmail%1,      Crescini%G.%coreGivesNoEmail%1,      Forastieri%Molinari A.%coreGivesNoEmail%1,      Foti%G.%coreGivesNoEmail%1,      Fumagalli%R.%coreGivesNoEmail%1,      Grasselli%G.%coreGivesNoEmail%1,      Greco%M.%coreGivesNoEmail%1,      Iotti%G. A.%coreGivesNoEmail%1,      Langer%T.%coreGivesNoEmail%1,      Latronico%N.%coreGivesNoEmail%1,      Lorini%F. L.%coreGivesNoEmail%1,      Mojoli%F.%coreGivesNoEmail%1,      Natalini%G.%coreGivesNoEmail%1,      Pesenti%A.%coreGivesNoEmail%1,      Pessina%C. M.%coreGivesNoEmail%1,      Ranieri%V. M.%coreGivesNoEmail%1,      Rech%R.%coreGivesNoEmail%1,      Rosano%A.%coreGivesNoEmail%1,      Scudeller%L.%coreGivesNoEmail%1,      Storti%E.%coreGivesNoEmail%1,      Thompson%B. T.%coreGivesNoEmail%1,      Tirani%M.%coreGivesNoEmail%1,      Villani%P. G.%coreGivesNoEmail%1,      Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,        Daniela Patricia%Trelles-Garcia%NULL%2,        Daniela Patricia%Trelles-Garcia%NULL%0,        Maria Adriana%Yanez-Bello%NULL%1,        Chul Won%Chung%NULL%1,        Valeria Patricia%Trelles-Garcia%NULL%1,        Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,        Juan-Juan%Qin%NULL%1,        Xu%Cheng%NULL%1,        Lijun%Shen%NULL%1,        Yan-Ci%Zhao%NULL%1,        Yufeng%Yuan%NULL%1,        Fang%Lei%NULL%1,        Ming-Ming%Chen%NULL%1,        Huilin%Yang%NULL%1,        Liangjie%Bai%NULL%1,        Xiaohui%Song%NULL%1,        Lijin%Lin%NULL%1,        Meng%Xia%NULL%1,        Feng%Zhou%NULL%1,        Jianghua%Zhou%NULL%1,        Zhi-Gang%She%NULL%1,        Lihua%Zhu%NULL%1,        Xinliang%Ma%NULL%1,        Qingbo%Xu%NULL%1,        Ping%Ye%NULL%1,        Guohua%Chen%NULL%1,        Liming%Liu%NULL%1,        Weiming%Mao%NULL%1,        Youqin%Yan%NULL%1,        Bing%Xiao%NULL%1,        Zhigang%Lu%NULL%1,        Gang%Peng%NULL%1,        Mingyu%Liu%NULL%1,        Jun%Yang%NULL%1,        Luyu%Yang%NULL%1,        Changjiang%Zhang%NULL%1,        Haofeng%Lu%NULL%1,        Xigang%Xia%NULL%1,        Daihong%Wang%NULL%1,        Xiaofeng%Liao%NULL%1,        Xiang%Wei%NULL%1,        Bing-Hong%Zhang%NULL%1,        Xin%Zhang%NULL%2,        Juan%Yang%NULL%1,        Guang-Nian%Zhao%NULL%1,        Peng%Zhang%NULL%0,        Peter P.%Liu%NULL%1,        Rohit%Loomba%NULL%1,        Yan-Xiao%Ji%NULL%1,        Jiahong%Xia%jiahong.xia@hust.edu.cn%1,        Yibin%Wang%yibinwang@mednet.ucla.edu%1,        Jingjing%Cai%caijingjing83@hotmail.com%1,        Jiao%Guo%guoj@gdpu.edu.cn%1,        Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,        Robert%DeJoy%NULL%1,        Kevin Bryan%Lo%NULL%1,        Jeri%Albano%NULL%1,        Eric%Peterson%NULL%1,        Ruchika%Bhargav%NULL%1,        Fahad%Gu%NULL%1,        Grace%Salacup%NULL%1,        Jerald%Pelayo%NULL%1,        Zurab%Azmaiparashvili%NULL%1,        Janani%Rangaswami%NULL%1,        Gabriel%Patarroyo-Aponte%NULL%1,        Sadia%Benzaquen%NULL%1,        Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,        Luke%Wooster%NULL%1,        Haakon H.%Sigurslid%NULL%1,        Rebecca H.%Li%NULL%1,        Wanlin%Jiang%NULL%1,        Wenjie%Tian%NULL%1,        Christian L.%Lino Cardenas%NULL%1,        Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,        Mahesh V.%Madhavan%NULL%2,        Mahesh V.%Madhavan%NULL%0,        Timothy J.%Poterucha%NULL%2,        Timothy J.%Poterucha%NULL%0,        Ersilia M.%DeFilippis%NULL%1,        Jessica A.%Hennessey%NULL%1,        Bjorn%Redfors%NULL%1,        Christina%Eckhardt%NULL%1,        Behnood%Bikdeli%NULL%1,        Jonathan%Platt%NULL%1,        Ani%Nalbandian%NULL%1,        Pierre%Elias%NULL%2,        Pierre%Elias%NULL%0,        Matthew J.%Cummings%NULL%2,        Matthew J.%Cummings%NULL%0,        Shayan N.%Nouri%NULL%1,        Matthew%Lawlor%NULL%1,        Lauren S.%Ranard%NULL%1,        Jianhua%Li%NULL%2,        Jianhua%Li%NULL%0,        Claudia%Boyle%NULL%1,        Raymond%Givens%NULL%1,        Daniel%Brodie%NULL%0,        Harlan M.%Krumholz%NULL%2,        Harlan M.%Krumholz%NULL%0,        Gregg W.%Stone%NULL%2,        Gregg W.%Stone%NULL%0,        Sanjum S.%Sethi%NULL%1,        Daniel%Burkhoff%NULL%1,        Nir%Uriel%NULL%1,        Allan%Schwartz%NULL%0,        Martin B.%Leon%NULL%1,        Ajay J.%Kirtane%NULL%1,        Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,        Sahil A.%Parikh%NULL%2,        Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,        Louis%Potier%NULL%2,        Louis%Potier%NULL%0,        Pierre%Gourdy%NULL%2,        Pierre%Gourdy%NULL%0,        Matthieu%Pichelin%NULL%2,        Matthieu%Pichelin%NULL%0,        Coralie%Amadou%NULL%2,        Coralie%Amadou%NULL%0,        Pierre-Yves%Benhamou%NULL%2,        Pierre-Yves%Benhamou%NULL%0,        Jean-Baptiste%Bonnet%NULL%1,        Lyse%Bordier%NULL%1,        Olivier%Bourron%NULL%1,        Claude%Chaumeil%NULL%2,        Claude%Chaumeil%NULL%0,        Nicolas%Chevalier%NULL%1,        Patrice%Darmon%NULL%2,        Patrice%Darmon%NULL%0,        Blandine%Delenne%NULL%2,        Blandine%Delenne%NULL%0,        Delphine%Demarsy%NULL%1,        Marie%Dumas%NULL%1,        Olivier%Dupuy%NULL%1,        Anna%Flaus-Furmaniuk%NULL%2,        Anna%Flaus-Furmaniuk%NULL%0,        Jean-François%Gautier%NULL%1,        Anne-Marie%Guedj%NULL%2,        Anne-Marie%Guedj%NULL%0,        Nathalie%Jeandidier%NULL%1,        Etienne%Larger%NULL%1,        Jean-Philippe%Le Berre%NULL%1,        Myriam%Lungo%NULL%1,        Nathanaëlle%Montanier%NULL%1,        Philippe%Moulin%NULL%1,        Françoise%Plat%NULL%1,        Vincent%Rigalleau%NULL%1,        René%Robert%NULL%1,        Dominique%Seret-Bégué%NULL%2,        Dominique%Seret-Bégué%NULL%0,        Pierre%Sérusclat%NULL%1,        Sarra%Smati%NULL%1,        Jean-François%Thébaut%NULL%1,        Blandine%Tramunt%NULL%2,        Blandine%Tramunt%NULL%0,        Camille%Vatier%NULL%1,        Fritz-Line%Velayoudom%NULL%2,        Fritz-Line%Velayoudom%NULL%0,        Bruno%Vergès%NULL%1,        Patrice%Winiszewski%NULL%1,        Audrey%Zabulon%NULL%1,        Pierre-Antoine%Gourraud%NULL%1,        Ronan%Roussel%NULL%2,        Ronan%Roussel%NULL%0,        Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,        Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,        Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,        In-Ae%Song%NULL%1,        Young-Tae%Jeon%NULL%1,        Philip P.%Foster%NULL%2,        Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,        Marco%Schiavone%NULL%1,        Antonio%Curnis%NULL%1,        Marcello%Arca%NULL%1,        Spinello%Antinori%NULL%1,        Alessio%Gasperetti%NULL%1,        Giosuè%Mascioli%NULL%1,        Paolo%Severino%NULL%1,        Federica%Sabato%NULL%1,        Maria M.%Caracciolo%NULL%1,        Gianmarco%Arabia%NULL%1,        Laura%D'Erasmo%NULL%1,        Maurizio%Viecca%NULL%1,        Massimo%Mancone%NULL%1,        Massimo%Galli%NULL%1,        Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,        Zhun%Cao%NULL%1,        Jake%Gundrum%NULL%1,        Jim%Sianis%NULL%1,        Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,        Michele%Ciccarelli%NULL%2,        Michele%Ciccarelli%NULL%0,        Dario%Bruzzese%NULL%1,        Andrea%Dipasquale%NULL%1,        Andrea G.%Lania%NULL%1,        Gherardo%Mazziotti%NULL%1,        Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,        Kathy W.%Belk%NULL%1,        Michael%Topmiller%NULL%1,        Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,        Sarah B.%Hays%NULL%1,        Constance E.%Panton%NULL%2,        Constance E.%Panton%NULL%0,        Evangelia K.%Mylona%NULL%1,        Markos%Kalligeros%NULL%1,        Fadi%Shehadeh%NULL%1,        Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,        Amy M.%Sitapati%NULL%1,        Jing%Zhang%NULL%1,        Jingjing%Zou%NULL%1,        Quan M.%Bui%NULL%1,        Junting%Ren%NULL%1,        Christopher A.%Longhurst%NULL%1,        Michael H.%Criqui%NULL%1,        Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,        Antoon%Bronselaer%NULL%1,        James T.%Teo%NULL%1,        Geert%Byttebier%NULL%1,        Guy%De Tré%NULL%1,        Luc%Belmans%NULL%1,        Richard%Dobson%NULL%1,        Evelien%Wynendaele%NULL%1,        Christophe%Van De Wiele%NULL%1,        Filip%Vandaele%NULL%1,        Diemer%Van Dijck%NULL%1,        Dan%Bean%NULL%1,        David%Fedson%NULL%1,        Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1453,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1293,7 +1482,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1322,7 +1511,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1351,7 +1540,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1380,7 +1569,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1409,7 +1598,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1438,13 +1627,13 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
@@ -1467,7 +1656,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -1496,7 +1685,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -1525,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -1554,7 +1743,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -1583,7 +1772,7 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -1612,7 +1801,7 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -1641,7 +1830,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -1670,7 +1859,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -1699,7 +1888,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -1728,7 +1917,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -1757,7 +1946,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -1786,7 +1975,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -1815,7 +2004,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -1844,7 +2033,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="331">
   <si>
     <t>Doi</t>
   </si>
@@ -1104,6 +1104,132 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,        Antoon%Bronselaer%NULL%1,        James T.%Teo%NULL%1,        Geert%Byttebier%NULL%1,        Guy%De Tré%NULL%1,        Luc%Belmans%NULL%1,        Richard%Dobson%NULL%1,        Evelien%Wynendaele%NULL%1,        Christophe%Van De Wiele%NULL%1,        Filip%Vandaele%NULL%1,        Diemer%Van Dijck%NULL%1,        Dan%Bean%NULL%1,        David%Fedson%NULL%1,        Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,         Juhee%Ahn%ahnjuhee23@gmail.com%1,         Juhong%Park%parkjh@nhis.or.kr%1,         Chang%Kyung Kang%zeptemiger@hanmail.net%1,         Sung-Ho%Won%sunghow@gmail.com%1,         Dong%Wook Kim%kimdw2269@gmail.com%1,         Jong-Heon%Park%parkjh@nhis.or.kr%1,         Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,         Joon-Sung%Joh%ssabana777@gmail.com%1,         Ji Hwan%Bang%roundbirch@gmail.com%1,         Cheong%Hee Kang%chkangmd@nhis.or.kr%1,         Wook%Bum Pyun%pwb423@ewha.ac.kr%1,         Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,         Tania%Dehesh%NULL%1,         Farnaz%Aligolighasemabadi%NULL%1,         Mohammadamin%Sadeghdoust%NULL%1,         Katarzyna%Kotfis%NULL%1,         Mazaher%Ahmadi%NULL%1,         Parvaneh%Mehrbod%NULL%1,         Pooya%Iranpour%NULL%1,         Sanaz%Dastghaib%NULL%1,         Ahmad%Nasimian%NULL%1,         Amir%Ravandi%NULL%1,         Biniam%Kidane%NULL%1,         Naseer%Ahmed%NULL%1,         Pawan%Sharma%NULL%1,         Shahla%Shojaei%NULL%1,         Kamran%Bagheri Lankarani%NULL%1,         Andrzej%Madej%NULL%1,         Nima%Rezaei%NULL%1,         Tayyebeh%Madrakian%NULL%1,         Marek J.%Los%NULL%1,         Hagar Ibrahim%Labouta%NULL%1,         Pooneh%Mokarram%NULL%1,         Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,         Tao%Guo%NULL%1,         Feifei%Yan%NULL%1,         Ming%Gong%NULL%1,         Xin A.%Zhang%NULL%1,         Chenze%Li%NULL%1,         Tao%He%NULL%0,         Huimin%Luo%NULL%1,         Lin%Zhang%NULL%0,         Ming%Chen%NULL%0,         Xiaoyan%Wu%NULL%0,         Hairong%Wang%NULL%0,         Ke-Qiong%Deng%NULL%1,         Jiao%Bai%NULL%1,         Lin%Cai%NULL%1,         Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,         Thomas Alexander%Gerds%NULL%2,         Thomas Alexander%Gerds%NULL%0,         Morten%Schou%NULL%1,         Kristian%Kragholm%NULL%1,         Matthew%Phelps%NULL%1,         Eva%Havers-Borgersen%NULL%1,         Adelina%Yafasova%NULL%1,         Gunnar Hilmar%Gislason%NULL%1,         Christian%Torp-Pedersen%NULL%1,         Lars%Køber%NULL%1,         Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,         Eudald%Correig%NULL%1,         Cèlia%Rodríguez-Borjabad%NULL%1,         Eva%Anoro%NULL%1,         Juan Antonio%Arroyo%NULL%1,         Carlos%Jericó%NULL%1,         Angels%Pedragosa%NULL%1,         Marcel·la%Miret%NULL%1,         Silvia%Näf%NULL%1,         Anna%Pardo%NULL%1,         Verónica%Perea%NULL%1,         Rosa%Pérez-Bernalte%NULL%1,         Núria%Plana%NULL%1,         Rafael%Ramírez-Montesinos%NULL%1,         Meritxell%Royuela%NULL%1,         Cristina%Soler%NULL%1,         Maria%Urquizu-Padilla%NULL%1,         Alberto%Zamora%NULL%1,         Juan%Pedro-Botet%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,         Francesco%Castagna%NULL%2,         Francesco%Castagna%NULL%0,         Ilir%Agalliu%NULL%2,         Ilir%Agalliu%NULL%0,         Xiaonan%Xue%NULL%2,         Xiaonan%Xue%NULL%0,         Snehal R.%Patel%NULL%1,         Yogita%Rochlani%NULL%1,         Rachna%Kataria%NULL%1,         Sasa%Vukelic%NULL%1,         Daniel B.%Sims%NULL%1,         Chikezie%Alvarez%NULL%1,         Mercedes%Rivas‐Lasarte%NULL%2,         Mercedes%Rivas‐Lasarte%NULL%0,         Mario J.%Garcia%NULL%2,         Mario J.%Garcia%NULL%0,         Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,       Antonelli%M.%coreGivesNoEmail%1,       Bellani%G.%coreGivesNoEmail%1,       Bonanomi%E.%coreGivesNoEmail%1,       Cabrini%L.%coreGivesNoEmail%1,       Carlesso%E.%coreGivesNoEmail%1,       Castelli%G.%coreGivesNoEmail%1,       Cattaneo%S.%coreGivesNoEmail%1,       Cecconi%M.%coreGivesNoEmail%1,       Cereda%D.%coreGivesNoEmail%1,       Colombo%S.%coreGivesNoEmail%1,       Coluccello%A.%coreGivesNoEmail%1,       Crescini%G.%coreGivesNoEmail%1,       Forastieri%Molinari A.%coreGivesNoEmail%1,       Foti%G.%coreGivesNoEmail%1,       Fumagalli%R.%coreGivesNoEmail%1,       Grasselli%G.%coreGivesNoEmail%1,       Greco%M.%coreGivesNoEmail%1,       Iotti%G. A.%coreGivesNoEmail%1,       Langer%T.%coreGivesNoEmail%1,       Latronico%N.%coreGivesNoEmail%1,       Lorini%F. L.%coreGivesNoEmail%1,       Mojoli%F.%coreGivesNoEmail%1,       Natalini%G.%coreGivesNoEmail%1,       Pesenti%A.%coreGivesNoEmail%1,       Pessina%C. M.%coreGivesNoEmail%1,       Ranieri%V. M.%coreGivesNoEmail%1,       Rech%R.%coreGivesNoEmail%1,       Rosano%A.%coreGivesNoEmail%1,       Scudeller%L.%coreGivesNoEmail%1,       Storti%E.%coreGivesNoEmail%1,       Thompson%B. T.%coreGivesNoEmail%1,       Tirani%M.%coreGivesNoEmail%1,       Villani%P. G.%coreGivesNoEmail%1,       Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,         Daniela Patricia%Trelles-Garcia%NULL%2,         Daniela Patricia%Trelles-Garcia%NULL%0,         Maria Adriana%Yanez-Bello%NULL%1,         Chul Won%Chung%NULL%1,         Valeria Patricia%Trelles-Garcia%NULL%1,         Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,         Juan-Juan%Qin%NULL%1,         Xu%Cheng%NULL%1,         Lijun%Shen%NULL%1,         Yan-Ci%Zhao%NULL%1,         Yufeng%Yuan%NULL%1,         Fang%Lei%NULL%1,         Ming-Ming%Chen%NULL%1,         Huilin%Yang%NULL%1,         Liangjie%Bai%NULL%1,         Xiaohui%Song%NULL%1,         Lijin%Lin%NULL%1,         Meng%Xia%NULL%1,         Feng%Zhou%NULL%1,         Jianghua%Zhou%NULL%1,         Zhi-Gang%She%NULL%1,         Lihua%Zhu%NULL%1,         Xinliang%Ma%NULL%1,         Qingbo%Xu%NULL%1,         Ping%Ye%NULL%1,         Guohua%Chen%NULL%1,         Liming%Liu%NULL%1,         Weiming%Mao%NULL%1,         Youqin%Yan%NULL%1,         Bing%Xiao%NULL%1,         Zhigang%Lu%NULL%1,         Gang%Peng%NULL%1,         Mingyu%Liu%NULL%1,         Jun%Yang%NULL%1,         Luyu%Yang%NULL%1,         Changjiang%Zhang%NULL%1,         Haofeng%Lu%NULL%1,         Xigang%Xia%NULL%1,         Daihong%Wang%NULL%1,         Xiaofeng%Liao%NULL%1,         Xiang%Wei%NULL%1,         Bing-Hong%Zhang%NULL%1,         Xin%Zhang%NULL%2,         Juan%Yang%NULL%1,         Guang-Nian%Zhao%NULL%1,         Peng%Zhang%NULL%0,         Peter P.%Liu%NULL%1,         Rohit%Loomba%NULL%1,         Yan-Xiao%Ji%NULL%1,         Jiahong%Xia%jiahong.xia@hust.edu.cn%1,         Yibin%Wang%yibinwang@mednet.ucla.edu%1,         Jingjing%Cai%caijingjing83@hotmail.com%1,         Jiao%Guo%guoj@gdpu.edu.cn%1,         Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,         Robert%DeJoy%NULL%1,         Kevin Bryan%Lo%NULL%0,         Jeri%Albano%NULL%0,         Eric%Peterson%NULL%0,         Ruchika%Bhargav%NULL%0,         Fahad%Gu%NULL%1,         Grace%Salacup%NULL%1,         Jerald%Pelayo%NULL%0,         Zurab%Azmaiparashvili%NULL%0,         Janani%Rangaswami%NULL%0,         Gabriel%Patarroyo-Aponte%NULL%1,         Sadia%Benzaquen%NULL%0,         Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,         Luke%Wooster%NULL%1,         Haakon H.%Sigurslid%NULL%1,         Rebecca H.%Li%NULL%1,         Wanlin%Jiang%NULL%1,         Wenjie%Tian%NULL%1,         Christian L.%Lino Cardenas%NULL%1,         Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,         Mahesh V.%Madhavan%NULL%2,         Mahesh V.%Madhavan%NULL%0,         Timothy J.%Poterucha%NULL%2,         Timothy J.%Poterucha%NULL%0,         Ersilia M.%DeFilippis%NULL%1,         Jessica A.%Hennessey%NULL%1,         Bjorn%Redfors%NULL%1,         Christina%Eckhardt%NULL%1,         Behnood%Bikdeli%NULL%1,         Jonathan%Platt%NULL%1,         Ani%Nalbandian%NULL%1,         Pierre%Elias%NULL%2,         Pierre%Elias%NULL%0,         Matthew J.%Cummings%NULL%2,         Matthew J.%Cummings%NULL%0,         Shayan N.%Nouri%NULL%1,         Matthew%Lawlor%NULL%1,         Lauren S.%Ranard%NULL%1,         Jianhua%Li%NULL%2,         Jianhua%Li%NULL%0,         Claudia%Boyle%NULL%1,         Raymond%Givens%NULL%1,         Daniel%Brodie%NULL%0,         Harlan M.%Krumholz%NULL%2,         Harlan M.%Krumholz%NULL%0,         Gregg W.%Stone%NULL%2,         Gregg W.%Stone%NULL%0,         Sanjum S.%Sethi%NULL%1,         Daniel%Burkhoff%NULL%1,         Nir%Uriel%NULL%1,         Allan%Schwartz%NULL%0,         Martin B.%Leon%NULL%1,         Ajay J.%Kirtane%NULL%1,         Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,         Sahil A.%Parikh%NULL%2,         Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,         Louis%Potier%NULL%2,         Louis%Potier%NULL%0,         Pierre%Gourdy%NULL%2,         Pierre%Gourdy%NULL%0,         Matthieu%Pichelin%NULL%2,         Matthieu%Pichelin%NULL%0,         Coralie%Amadou%NULL%2,         Coralie%Amadou%NULL%0,         Pierre-Yves%Benhamou%NULL%2,         Pierre-Yves%Benhamou%NULL%0,         Jean-Baptiste%Bonnet%NULL%1,         Lyse%Bordier%NULL%1,         Olivier%Bourron%NULL%1,         Claude%Chaumeil%NULL%2,         Claude%Chaumeil%NULL%0,         Nicolas%Chevalier%NULL%1,         Patrice%Darmon%NULL%2,         Patrice%Darmon%NULL%0,         Blandine%Delenne%NULL%2,         Blandine%Delenne%NULL%0,         Delphine%Demarsy%NULL%1,         Marie%Dumas%NULL%1,         Olivier%Dupuy%NULL%1,         Anna%Flaus-Furmaniuk%NULL%2,         Anna%Flaus-Furmaniuk%NULL%0,         Jean-François%Gautier%NULL%1,         Anne-Marie%Guedj%NULL%2,         Anne-Marie%Guedj%NULL%0,         Nathalie%Jeandidier%NULL%1,         Etienne%Larger%NULL%1,         Jean-Philippe%Le Berre%NULL%1,         Myriam%Lungo%NULL%1,         Nathanaëlle%Montanier%NULL%1,         Philippe%Moulin%NULL%1,         Françoise%Plat%NULL%1,         Vincent%Rigalleau%NULL%1,         René%Robert%NULL%1,         Dominique%Seret-Bégué%NULL%2,         Dominique%Seret-Bégué%NULL%0,         Pierre%Sérusclat%NULL%1,         Sarra%Smati%NULL%1,         Jean-François%Thébaut%NULL%1,         Blandine%Tramunt%NULL%2,         Blandine%Tramunt%NULL%0,         Camille%Vatier%NULL%1,         Fritz-Line%Velayoudom%NULL%2,         Fritz-Line%Velayoudom%NULL%0,         Bruno%Vergès%NULL%1,         Patrice%Winiszewski%NULL%1,         Audrey%Zabulon%NULL%1,         Pierre-Antoine%Gourraud%NULL%1,         Ronan%Roussel%NULL%2,         Ronan%Roussel%NULL%0,         Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,         Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,         Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,         In-Ae%Song%NULL%1,         Young-Tae%Jeon%NULL%1,         Philip P.%Foster%NULL%2,         Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,         Marco%Schiavone%NULL%1,         Antonio%Curnis%NULL%1,         Marcello%Arca%NULL%1,         Spinello%Antinori%NULL%1,         Alessio%Gasperetti%NULL%1,         Giosuè%Mascioli%NULL%1,         Paolo%Severino%NULL%1,         Federica%Sabato%NULL%1,         Maria M.%Caracciolo%NULL%1,         Gianmarco%Arabia%NULL%1,         Laura%D'Erasmo%NULL%1,         Maurizio%Viecca%NULL%1,         Massimo%Mancone%NULL%1,         Massimo%Galli%NULL%1,         Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,         Zhun%Cao%NULL%1,         Jake%Gundrum%NULL%1,         Jim%Sianis%NULL%1,         Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,         Michele%Ciccarelli%NULL%0,         Michele%Ciccarelli%NULL%0,         Dario%Bruzzese%NULL%1,         Andrea%Dipasquale%NULL%1,         Andrea G.%Lania%NULL%1,         Gherardo%Mazziotti%NULL%1,         Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,         Kathy W.%Belk%NULL%1,         Michael%Topmiller%NULL%1,         Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,         Sarah B.%Hays%NULL%1,         Constance E.%Panton%NULL%2,         Constance E.%Panton%NULL%0,         Evangelia K.%Mylona%NULL%1,         Markos%Kalligeros%NULL%1,         Fadi%Shehadeh%NULL%1,         Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,         Amy M.%Sitapati%NULL%1,         Jing%Zhang%NULL%1,         Jingjing%Zou%NULL%1,         Quan M.%Bui%NULL%1,         Junting%Ren%NULL%1,         Christopher A.%Longhurst%NULL%1,         Michael H.%Criqui%NULL%1,         Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,         Antoon%Bronselaer%NULL%1,         James T.%Teo%NULL%1,         Geert%Byttebier%NULL%1,         Guy%De Tré%NULL%1,         Luc%Belmans%NULL%1,         Richard%Dobson%NULL%1,         Evelien%Wynendaele%NULL%1,         Christophe%Van De Wiele%NULL%1,         Filip%Vandaele%NULL%1,         Diemer%Van Dijck%NULL%1,         Dan%Bean%NULL%1,         David%Fedson%NULL%1,         Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,          Juhee%Ahn%ahnjuhee23@gmail.com%1,          Juhong%Park%parkjh@nhis.or.kr%1,          Chang%Kyung Kang%zeptemiger@hanmail.net%1,          Sung-Ho%Won%sunghow@gmail.com%1,          Dong%Wook Kim%kimdw2269@gmail.com%1,          Jong-Heon%Park%parkjh@nhis.or.kr%1,          Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,          Joon-Sung%Joh%ssabana777@gmail.com%1,          Ji Hwan%Bang%roundbirch@gmail.com%1,          Cheong%Hee Kang%chkangmd@nhis.or.kr%1,          Wook%Bum Pyun%pwb423@ewha.ac.kr%1,          Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,          Tania%Dehesh%NULL%1,          Farnaz%Aligolighasemabadi%NULL%1,          Mohammadamin%Sadeghdoust%NULL%1,          Katarzyna%Kotfis%NULL%1,          Mazaher%Ahmadi%NULL%1,          Parvaneh%Mehrbod%NULL%1,          Pooya%Iranpour%NULL%1,          Sanaz%Dastghaib%NULL%1,          Ahmad%Nasimian%NULL%1,          Amir%Ravandi%NULL%1,          Biniam%Kidane%NULL%1,          Naseer%Ahmed%NULL%1,          Pawan%Sharma%NULL%1,          Shahla%Shojaei%NULL%1,          Kamran%Bagheri Lankarani%NULL%1,          Andrzej%Madej%NULL%1,          Nima%Rezaei%NULL%1,          Tayyebeh%Madrakian%NULL%1,          Marek J.%Los%NULL%1,          Hagar Ibrahim%Labouta%NULL%1,          Pooneh%Mokarram%NULL%1,          Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,          Tao%Guo%NULL%1,          Feifei%Yan%NULL%1,          Ming%Gong%NULL%1,          Xin A.%Zhang%NULL%1,          Chenze%Li%NULL%1,          Tao%He%NULL%0,          Huimin%Luo%NULL%1,          Lin%Zhang%NULL%0,          Ming%Chen%NULL%0,          Xiaoyan%Wu%NULL%0,          Hairong%Wang%NULL%0,          Ke-Qiong%Deng%NULL%1,          Jiao%Bai%NULL%1,          Lin%Cai%NULL%1,          Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,          Thomas Alexander%Gerds%NULL%2,          Thomas Alexander%Gerds%NULL%0,          Morten%Schou%NULL%1,          Kristian%Kragholm%NULL%1,          Matthew%Phelps%NULL%1,          Eva%Havers-Borgersen%NULL%1,          Adelina%Yafasova%NULL%1,          Gunnar Hilmar%Gislason%NULL%1,          Christian%Torp-Pedersen%NULL%1,          Lars%Køber%NULL%1,          Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,          Eudald%Correig%NULL%1,          Cèlia%Rodríguez-Borjabad%NULL%1,          Eva%Anoro%NULL%1,          Juan Antonio%Arroyo%NULL%1,          Carlos%Jericó%NULL%1,          Angels%Pedragosa%NULL%1,          Marcel·la%Miret%NULL%1,          Silvia%Näf%NULL%1,          Anna%Pardo%NULL%1,          Verónica%Perea%NULL%1,          Rosa%Pérez-Bernalte%NULL%1,          Núria%Plana%NULL%1,          Rafael%Ramírez-Montesinos%NULL%1,          Meritxell%Royuela%NULL%1,          Cristina%Soler%NULL%1,          Maria%Urquizu-Padilla%NULL%1,          Alberto%Zamora%NULL%1,          Juan%Pedro-Botet%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,          Francesco%Castagna%NULL%2,          Francesco%Castagna%NULL%0,          Ilir%Agalliu%NULL%2,          Ilir%Agalliu%NULL%0,          Xiaonan%Xue%NULL%2,          Xiaonan%Xue%NULL%0,          Snehal R.%Patel%NULL%1,          Yogita%Rochlani%NULL%1,          Rachna%Kataria%NULL%1,          Sasa%Vukelic%NULL%1,          Daniel B.%Sims%NULL%1,          Chikezie%Alvarez%NULL%1,          Mercedes%Rivas‐Lasarte%NULL%2,          Mercedes%Rivas‐Lasarte%NULL%0,          Mario J.%Garcia%NULL%2,          Mario J.%Garcia%NULL%0,          Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,        Antonelli%M.%coreGivesNoEmail%1,        Bellani%G.%coreGivesNoEmail%1,        Bonanomi%E.%coreGivesNoEmail%1,        Cabrini%L.%coreGivesNoEmail%1,        Carlesso%E.%coreGivesNoEmail%1,        Castelli%G.%coreGivesNoEmail%1,        Cattaneo%S.%coreGivesNoEmail%1,        Cecconi%M.%coreGivesNoEmail%1,        Cereda%D.%coreGivesNoEmail%1,        Colombo%S.%coreGivesNoEmail%1,        Coluccello%A.%coreGivesNoEmail%1,        Crescini%G.%coreGivesNoEmail%1,        Forastieri%Molinari A.%coreGivesNoEmail%1,        Foti%G.%coreGivesNoEmail%1,        Fumagalli%R.%coreGivesNoEmail%1,        Grasselli%G.%coreGivesNoEmail%1,        Greco%M.%coreGivesNoEmail%1,        Iotti%G. A.%coreGivesNoEmail%1,        Langer%T.%coreGivesNoEmail%1,        Latronico%N.%coreGivesNoEmail%1,        Lorini%F. L.%coreGivesNoEmail%1,        Mojoli%F.%coreGivesNoEmail%1,        Natalini%G.%coreGivesNoEmail%1,        Pesenti%A.%coreGivesNoEmail%1,        Pessina%C. M.%coreGivesNoEmail%1,        Ranieri%V. M.%coreGivesNoEmail%1,        Rech%R.%coreGivesNoEmail%1,        Rosano%A.%coreGivesNoEmail%1,        Scudeller%L.%coreGivesNoEmail%1,        Storti%E.%coreGivesNoEmail%1,        Thompson%B. T.%coreGivesNoEmail%1,        Tirani%M.%coreGivesNoEmail%1,        Villani%P. G.%coreGivesNoEmail%1,        Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,          Daniela Patricia%Trelles-Garcia%NULL%2,          Daniela Patricia%Trelles-Garcia%NULL%0,          Maria Adriana%Yanez-Bello%NULL%1,          Chul Won%Chung%NULL%1,          Valeria Patricia%Trelles-Garcia%NULL%1,          Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,          Juan-Juan%Qin%NULL%1,          Xu%Cheng%NULL%1,          Lijun%Shen%NULL%1,          Yan-Ci%Zhao%NULL%1,          Yufeng%Yuan%NULL%1,          Fang%Lei%NULL%1,          Ming-Ming%Chen%NULL%1,          Huilin%Yang%NULL%1,          Liangjie%Bai%NULL%1,          Xiaohui%Song%NULL%1,          Lijin%Lin%NULL%1,          Meng%Xia%NULL%1,          Feng%Zhou%NULL%1,          Jianghua%Zhou%NULL%1,          Zhi-Gang%She%NULL%1,          Lihua%Zhu%NULL%1,          Xinliang%Ma%NULL%1,          Qingbo%Xu%NULL%1,          Ping%Ye%NULL%1,          Guohua%Chen%NULL%1,          Liming%Liu%NULL%1,          Weiming%Mao%NULL%1,          Youqin%Yan%NULL%1,          Bing%Xiao%NULL%1,          Zhigang%Lu%NULL%1,          Gang%Peng%NULL%1,          Mingyu%Liu%NULL%1,          Jun%Yang%NULL%1,          Luyu%Yang%NULL%1,          Changjiang%Zhang%NULL%1,          Haofeng%Lu%NULL%1,          Xigang%Xia%NULL%1,          Daihong%Wang%NULL%1,          Xiaofeng%Liao%NULL%1,          Xiang%Wei%NULL%1,          Bing-Hong%Zhang%NULL%1,          Xin%Zhang%NULL%2,          Juan%Yang%NULL%1,          Guang-Nian%Zhao%NULL%1,          Peng%Zhang%NULL%0,          Peter P.%Liu%NULL%1,          Rohit%Loomba%NULL%1,          Yan-Xiao%Ji%NULL%1,          Jiahong%Xia%jiahong.xia@hust.edu.cn%1,          Yibin%Wang%yibinwang@mednet.ucla.edu%1,          Jingjing%Cai%caijingjing83@hotmail.com%1,          Jiao%Guo%guoj@gdpu.edu.cn%1,          Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,          Robert%DeJoy%NULL%1,          Kevin Bryan%Lo%NULL%0,          Jeri%Albano%NULL%0,          Eric%Peterson%NULL%0,          Ruchika%Bhargav%NULL%0,          Fahad%Gu%NULL%1,          Grace%Salacup%NULL%1,          Jerald%Pelayo%NULL%0,          Zurab%Azmaiparashvili%NULL%0,          Janani%Rangaswami%NULL%0,          Gabriel%Patarroyo-Aponte%NULL%1,          Sadia%Benzaquen%NULL%0,          Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,          Luke%Wooster%NULL%1,          Haakon H.%Sigurslid%NULL%1,          Rebecca H.%Li%NULL%1,          Wanlin%Jiang%NULL%1,          Wenjie%Tian%NULL%1,          Christian L.%Lino Cardenas%NULL%1,          Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,          Mahesh V.%Madhavan%NULL%2,          Mahesh V.%Madhavan%NULL%0,          Timothy J.%Poterucha%NULL%2,          Timothy J.%Poterucha%NULL%0,          Ersilia M.%DeFilippis%NULL%1,          Jessica A.%Hennessey%NULL%1,          Bjorn%Redfors%NULL%1,          Christina%Eckhardt%NULL%1,          Behnood%Bikdeli%NULL%1,          Jonathan%Platt%NULL%1,          Ani%Nalbandian%NULL%1,          Pierre%Elias%NULL%2,          Pierre%Elias%NULL%0,          Matthew J.%Cummings%NULL%2,          Matthew J.%Cummings%NULL%0,          Shayan N.%Nouri%NULL%1,          Matthew%Lawlor%NULL%1,          Lauren S.%Ranard%NULL%1,          Jianhua%Li%NULL%2,          Jianhua%Li%NULL%0,          Claudia%Boyle%NULL%1,          Raymond%Givens%NULL%1,          Daniel%Brodie%NULL%0,          Harlan M.%Krumholz%NULL%2,          Harlan M.%Krumholz%NULL%0,          Gregg W.%Stone%NULL%2,          Gregg W.%Stone%NULL%0,          Sanjum S.%Sethi%NULL%1,          Daniel%Burkhoff%NULL%1,          Nir%Uriel%NULL%1,          Allan%Schwartz%NULL%0,          Martin B.%Leon%NULL%1,          Ajay J.%Kirtane%NULL%1,          Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,          Sahil A.%Parikh%NULL%2,          Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,          Louis%Potier%NULL%2,          Louis%Potier%NULL%0,          Pierre%Gourdy%NULL%2,          Pierre%Gourdy%NULL%0,          Matthieu%Pichelin%NULL%2,          Matthieu%Pichelin%NULL%0,          Coralie%Amadou%NULL%2,          Coralie%Amadou%NULL%0,          Pierre-Yves%Benhamou%NULL%2,          Pierre-Yves%Benhamou%NULL%0,          Jean-Baptiste%Bonnet%NULL%1,          Lyse%Bordier%NULL%1,          Olivier%Bourron%NULL%1,          Claude%Chaumeil%NULL%2,          Claude%Chaumeil%NULL%0,          Nicolas%Chevalier%NULL%1,          Patrice%Darmon%NULL%2,          Patrice%Darmon%NULL%0,          Blandine%Delenne%NULL%2,          Blandine%Delenne%NULL%0,          Delphine%Demarsy%NULL%1,          Marie%Dumas%NULL%1,          Olivier%Dupuy%NULL%1,          Anna%Flaus-Furmaniuk%NULL%2,          Anna%Flaus-Furmaniuk%NULL%0,          Jean-François%Gautier%NULL%1,          Anne-Marie%Guedj%NULL%2,          Anne-Marie%Guedj%NULL%0,          Nathalie%Jeandidier%NULL%1,          Etienne%Larger%NULL%1,          Jean-Philippe%Le Berre%NULL%1,          Myriam%Lungo%NULL%1,          Nathanaëlle%Montanier%NULL%1,          Philippe%Moulin%NULL%1,          Françoise%Plat%NULL%1,          Vincent%Rigalleau%NULL%1,          René%Robert%NULL%1,          Dominique%Seret-Bégué%NULL%2,          Dominique%Seret-Bégué%NULL%0,          Pierre%Sérusclat%NULL%1,          Sarra%Smati%NULL%1,          Jean-François%Thébaut%NULL%1,          Blandine%Tramunt%NULL%2,          Blandine%Tramunt%NULL%0,          Camille%Vatier%NULL%1,          Fritz-Line%Velayoudom%NULL%2,          Fritz-Line%Velayoudom%NULL%0,          Bruno%Vergès%NULL%1,          Patrice%Winiszewski%NULL%1,          Audrey%Zabulon%NULL%1,          Pierre-Antoine%Gourraud%NULL%1,          Ronan%Roussel%NULL%2,          Ronan%Roussel%NULL%0,          Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,          Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,          Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,          In-Ae%Song%NULL%1,          Young-Tae%Jeon%NULL%1,          Philip P.%Foster%NULL%2,          Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,          Marco%Schiavone%NULL%1,          Antonio%Curnis%NULL%1,          Marcello%Arca%NULL%1,          Spinello%Antinori%NULL%1,          Alessio%Gasperetti%NULL%1,          Giosuè%Mascioli%NULL%1,          Paolo%Severino%NULL%1,          Federica%Sabato%NULL%1,          Maria M.%Caracciolo%NULL%1,          Gianmarco%Arabia%NULL%1,          Laura%D'Erasmo%NULL%1,          Maurizio%Viecca%NULL%1,          Massimo%Mancone%NULL%1,          Massimo%Galli%NULL%1,          Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,          Zhun%Cao%NULL%1,          Jake%Gundrum%NULL%1,          Jim%Sianis%NULL%1,          Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,          Michele%Ciccarelli%NULL%0,          Michele%Ciccarelli%NULL%0,          Dario%Bruzzese%NULL%1,          Andrea%Dipasquale%NULL%1,          Andrea G.%Lania%NULL%1,          Gherardo%Mazziotti%NULL%1,          Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,          Kathy W.%Belk%NULL%1,          Michael%Topmiller%NULL%1,          Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,          Sarah B.%Hays%NULL%1,          Constance E.%Panton%NULL%2,          Constance E.%Panton%NULL%0,          Evangelia K.%Mylona%NULL%1,          Markos%Kalligeros%NULL%1,          Fadi%Shehadeh%NULL%1,          Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,          Amy M.%Sitapati%NULL%1,          Jing%Zhang%NULL%1,          Jingjing%Zou%NULL%1,          Quan M.%Bui%NULL%1,          Junting%Ren%NULL%1,          Christopher A.%Longhurst%NULL%1,          Michael H.%Criqui%NULL%1,          Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,          Antoon%Bronselaer%NULL%1,          James T.%Teo%NULL%1,          Geert%Byttebier%NULL%1,          Guy%De Tré%NULL%1,          Luc%Belmans%NULL%1,          Richard%Dobson%NULL%1,          Evelien%Wynendaele%NULL%1,          Christophe%Van De Wiele%NULL%1,          Filip%Vandaele%NULL%1,          Diemer%Van Dijck%NULL%1,          Dan%Bean%NULL%1,          David%Fedson%NULL%1,          Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1579,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1482,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1511,7 +1637,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1540,7 +1666,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1569,7 +1695,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1598,7 +1724,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1627,7 +1753,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1656,7 +1782,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -1685,7 +1811,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -1714,7 +1840,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -1743,7 +1869,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -1772,7 +1898,7 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -1801,7 +1927,7 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -1830,7 +1956,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -1859,7 +1985,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -1888,7 +2014,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -1917,7 +2043,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -1946,7 +2072,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -1975,7 +2101,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2004,7 +2130,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2033,7 +2159,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="373">
   <si>
     <t>Doi</t>
   </si>
@@ -1230,6 +1230,132 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,          Antoon%Bronselaer%NULL%1,          James T.%Teo%NULL%1,          Geert%Byttebier%NULL%1,          Guy%De Tré%NULL%1,          Luc%Belmans%NULL%1,          Richard%Dobson%NULL%1,          Evelien%Wynendaele%NULL%1,          Christophe%Van De Wiele%NULL%1,          Filip%Vandaele%NULL%1,          Diemer%Van Dijck%NULL%1,          Dan%Bean%NULL%1,          David%Fedson%NULL%1,          Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,           Juhee%Ahn%ahnjuhee23@gmail.com%1,           Juhong%Park%parkjh@nhis.or.kr%1,           Chang%Kyung Kang%zeptemiger@hanmail.net%1,           Sung-Ho%Won%sunghow@gmail.com%1,           Dong%Wook Kim%kimdw2269@gmail.com%1,           Jong-Heon%Park%parkjh@nhis.or.kr%1,           Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,           Joon-Sung%Joh%ssabana777@gmail.com%1,           Ji Hwan%Bang%roundbirch@gmail.com%1,           Cheong%Hee Kang%chkangmd@nhis.or.kr%1,           Wook%Bum Pyun%pwb423@ewha.ac.kr%1,           Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,           Tania%Dehesh%NULL%1,           Farnaz%Aligolighasemabadi%NULL%1,           Mohammadamin%Sadeghdoust%NULL%1,           Katarzyna%Kotfis%NULL%1,           Mazaher%Ahmadi%NULL%1,           Parvaneh%Mehrbod%NULL%1,           Pooya%Iranpour%NULL%1,           Sanaz%Dastghaib%NULL%1,           Ahmad%Nasimian%NULL%1,           Amir%Ravandi%NULL%1,           Biniam%Kidane%NULL%1,           Naseer%Ahmed%NULL%1,           Pawan%Sharma%NULL%1,           Shahla%Shojaei%NULL%1,           Kamran%Bagheri Lankarani%NULL%1,           Andrzej%Madej%NULL%1,           Nima%Rezaei%NULL%1,           Tayyebeh%Madrakian%NULL%1,           Marek J.%Los%NULL%1,           Hagar Ibrahim%Labouta%NULL%1,           Pooneh%Mokarram%NULL%1,           Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,           Tao%Guo%NULL%1,           Feifei%Yan%NULL%1,           Ming%Gong%NULL%1,           Xin A.%Zhang%NULL%1,           Chenze%Li%NULL%1,           Tao%He%NULL%0,           Huimin%Luo%NULL%1,           Lin%Zhang%NULL%0,           Ming%Chen%NULL%0,           Xiaoyan%Wu%NULL%0,           Hairong%Wang%NULL%0,           Ke-Qiong%Deng%NULL%1,           Jiao%Bai%NULL%1,           Lin%Cai%NULL%1,           Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,           Thomas Alexander%Gerds%NULL%2,           Thomas Alexander%Gerds%NULL%0,           Morten%Schou%NULL%1,           Kristian%Kragholm%NULL%1,           Matthew%Phelps%NULL%1,           Eva%Havers-Borgersen%NULL%1,           Adelina%Yafasova%NULL%1,           Gunnar Hilmar%Gislason%NULL%1,           Christian%Torp-Pedersen%NULL%1,           Lars%Køber%NULL%1,           Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,           Eudald%Correig%NULL%1,           Cèlia%Rodríguez-Borjabad%NULL%1,           Eva%Anoro%NULL%1,           Juan Antonio%Arroyo%NULL%1,           Carlos%Jericó%NULL%1,           Angels%Pedragosa%NULL%1,           Marcel·la%Miret%NULL%1,           Silvia%Näf%NULL%1,           Anna%Pardo%NULL%1,           Verónica%Perea%NULL%1,           Rosa%Pérez-Bernalte%NULL%1,           Núria%Plana%NULL%1,           Rafael%Ramírez-Montesinos%NULL%1,           Meritxell%Royuela%NULL%1,           Cristina%Soler%NULL%1,           Maria%Urquizu-Padilla%NULL%1,           Alberto%Zamora%NULL%1,           Juan%Pedro-Botet%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,           Francesco%Castagna%NULL%2,           Francesco%Castagna%NULL%0,           Ilir%Agalliu%NULL%2,           Ilir%Agalliu%NULL%0,           Xiaonan%Xue%NULL%2,           Xiaonan%Xue%NULL%0,           Snehal R.%Patel%NULL%1,           Yogita%Rochlani%NULL%1,           Rachna%Kataria%NULL%1,           Sasa%Vukelic%NULL%1,           Daniel B.%Sims%NULL%1,           Chikezie%Alvarez%NULL%1,           Mercedes%Rivas‐Lasarte%NULL%2,           Mercedes%Rivas‐Lasarte%NULL%0,           Mario J.%Garcia%NULL%2,           Mario J.%Garcia%NULL%0,           Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,         Antonelli%M.%coreGivesNoEmail%1,         Bellani%G.%coreGivesNoEmail%1,         Bonanomi%E.%coreGivesNoEmail%1,         Cabrini%L.%coreGivesNoEmail%1,         Carlesso%E.%coreGivesNoEmail%1,         Castelli%G.%coreGivesNoEmail%1,         Cattaneo%S.%coreGivesNoEmail%1,         Cecconi%M.%coreGivesNoEmail%1,         Cereda%D.%coreGivesNoEmail%1,         Colombo%S.%coreGivesNoEmail%1,         Coluccello%A.%coreGivesNoEmail%1,         Crescini%G.%coreGivesNoEmail%1,         Forastieri%Molinari A.%coreGivesNoEmail%1,         Foti%G.%coreGivesNoEmail%1,         Fumagalli%R.%coreGivesNoEmail%1,         Grasselli%G.%coreGivesNoEmail%1,         Greco%M.%coreGivesNoEmail%1,         Iotti%G. A.%coreGivesNoEmail%1,         Langer%T.%coreGivesNoEmail%1,         Latronico%N.%coreGivesNoEmail%1,         Lorini%F. L.%coreGivesNoEmail%1,         Mojoli%F.%coreGivesNoEmail%1,         Natalini%G.%coreGivesNoEmail%1,         Pesenti%A.%coreGivesNoEmail%1,         Pessina%C. M.%coreGivesNoEmail%1,         Ranieri%V. M.%coreGivesNoEmail%1,         Rech%R.%coreGivesNoEmail%1,         Rosano%A.%coreGivesNoEmail%1,         Scudeller%L.%coreGivesNoEmail%1,         Storti%E.%coreGivesNoEmail%1,         Thompson%B. T.%coreGivesNoEmail%1,         Tirani%M.%coreGivesNoEmail%1,         Villani%P. G.%coreGivesNoEmail%1,         Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,           Daniela Patricia%Trelles-Garcia%NULL%2,           Daniela Patricia%Trelles-Garcia%NULL%0,           Maria Adriana%Yanez-Bello%NULL%1,           Chul Won%Chung%NULL%1,           Valeria Patricia%Trelles-Garcia%NULL%1,           Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,           Juan-Juan%Qin%NULL%1,           Xu%Cheng%NULL%1,           Lijun%Shen%NULL%1,           Yan-Ci%Zhao%NULL%1,           Yufeng%Yuan%NULL%1,           Fang%Lei%NULL%1,           Ming-Ming%Chen%NULL%1,           Huilin%Yang%NULL%1,           Liangjie%Bai%NULL%1,           Xiaohui%Song%NULL%1,           Lijin%Lin%NULL%1,           Meng%Xia%NULL%1,           Feng%Zhou%NULL%1,           Jianghua%Zhou%NULL%1,           Zhi-Gang%She%NULL%1,           Lihua%Zhu%NULL%1,           Xinliang%Ma%NULL%1,           Qingbo%Xu%NULL%1,           Ping%Ye%NULL%1,           Guohua%Chen%NULL%1,           Liming%Liu%NULL%1,           Weiming%Mao%NULL%1,           Youqin%Yan%NULL%1,           Bing%Xiao%NULL%1,           Zhigang%Lu%NULL%1,           Gang%Peng%NULL%1,           Mingyu%Liu%NULL%1,           Jun%Yang%NULL%1,           Luyu%Yang%NULL%1,           Changjiang%Zhang%NULL%1,           Haofeng%Lu%NULL%1,           Xigang%Xia%NULL%1,           Daihong%Wang%NULL%1,           Xiaofeng%Liao%NULL%1,           Xiang%Wei%NULL%1,           Bing-Hong%Zhang%NULL%1,           Xin%Zhang%NULL%2,           Juan%Yang%NULL%1,           Guang-Nian%Zhao%NULL%1,           Peng%Zhang%NULL%0,           Peter P.%Liu%NULL%1,           Rohit%Loomba%NULL%1,           Yan-Xiao%Ji%NULL%1,           Jiahong%Xia%jiahong.xia@hust.edu.cn%1,           Yibin%Wang%yibinwang@mednet.ucla.edu%1,           Jingjing%Cai%caijingjing83@hotmail.com%1,           Jiao%Guo%guoj@gdpu.edu.cn%1,           Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,           Robert%DeJoy%NULL%1,           Kevin Bryan%Lo%NULL%0,           Jeri%Albano%NULL%0,           Eric%Peterson%NULL%0,           Ruchika%Bhargav%NULL%0,           Fahad%Gu%NULL%1,           Grace%Salacup%NULL%1,           Jerald%Pelayo%NULL%0,           Zurab%Azmaiparashvili%NULL%0,           Janani%Rangaswami%NULL%0,           Gabriel%Patarroyo-Aponte%NULL%1,           Sadia%Benzaquen%NULL%0,           Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,           Luke%Wooster%NULL%1,           Haakon H.%Sigurslid%NULL%1,           Rebecca H.%Li%NULL%1,           Wanlin%Jiang%NULL%1,           Wenjie%Tian%NULL%1,           Christian L.%Lino Cardenas%NULL%1,           Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,           Mahesh V.%Madhavan%NULL%2,           Mahesh V.%Madhavan%NULL%0,           Timothy J.%Poterucha%NULL%2,           Timothy J.%Poterucha%NULL%0,           Ersilia M.%DeFilippis%NULL%1,           Jessica A.%Hennessey%NULL%1,           Bjorn%Redfors%NULL%1,           Christina%Eckhardt%NULL%1,           Behnood%Bikdeli%NULL%1,           Jonathan%Platt%NULL%1,           Ani%Nalbandian%NULL%1,           Pierre%Elias%NULL%2,           Pierre%Elias%NULL%0,           Matthew J.%Cummings%NULL%2,           Matthew J.%Cummings%NULL%0,           Shayan N.%Nouri%NULL%1,           Matthew%Lawlor%NULL%1,           Lauren S.%Ranard%NULL%1,           Jianhua%Li%NULL%2,           Jianhua%Li%NULL%0,           Claudia%Boyle%NULL%1,           Raymond%Givens%NULL%1,           Daniel%Brodie%NULL%0,           Harlan M.%Krumholz%NULL%2,           Harlan M.%Krumholz%NULL%0,           Gregg W.%Stone%NULL%2,           Gregg W.%Stone%NULL%0,           Sanjum S.%Sethi%NULL%1,           Daniel%Burkhoff%NULL%1,           Nir%Uriel%NULL%1,           Allan%Schwartz%NULL%0,           Martin B.%Leon%NULL%1,           Ajay J.%Kirtane%NULL%1,           Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,           Sahil A.%Parikh%NULL%2,           Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,           Louis%Potier%NULL%2,           Louis%Potier%NULL%0,           Pierre%Gourdy%NULL%2,           Pierre%Gourdy%NULL%0,           Matthieu%Pichelin%NULL%2,           Matthieu%Pichelin%NULL%0,           Coralie%Amadou%NULL%2,           Coralie%Amadou%NULL%0,           Pierre-Yves%Benhamou%NULL%2,           Pierre-Yves%Benhamou%NULL%0,           Jean-Baptiste%Bonnet%NULL%1,           Lyse%Bordier%NULL%1,           Olivier%Bourron%NULL%1,           Claude%Chaumeil%NULL%2,           Claude%Chaumeil%NULL%0,           Nicolas%Chevalier%NULL%1,           Patrice%Darmon%NULL%2,           Patrice%Darmon%NULL%0,           Blandine%Delenne%NULL%2,           Blandine%Delenne%NULL%0,           Delphine%Demarsy%NULL%1,           Marie%Dumas%NULL%1,           Olivier%Dupuy%NULL%1,           Anna%Flaus-Furmaniuk%NULL%2,           Anna%Flaus-Furmaniuk%NULL%0,           Jean-François%Gautier%NULL%1,           Anne-Marie%Guedj%NULL%2,           Anne-Marie%Guedj%NULL%0,           Nathalie%Jeandidier%NULL%1,           Etienne%Larger%NULL%1,           Jean-Philippe%Le Berre%NULL%1,           Myriam%Lungo%NULL%1,           Nathanaëlle%Montanier%NULL%1,           Philippe%Moulin%NULL%1,           Françoise%Plat%NULL%1,           Vincent%Rigalleau%NULL%1,           René%Robert%NULL%1,           Dominique%Seret-Bégué%NULL%2,           Dominique%Seret-Bégué%NULL%0,           Pierre%Sérusclat%NULL%1,           Sarra%Smati%NULL%1,           Jean-François%Thébaut%NULL%1,           Blandine%Tramunt%NULL%2,           Blandine%Tramunt%NULL%0,           Camille%Vatier%NULL%1,           Fritz-Line%Velayoudom%NULL%2,           Fritz-Line%Velayoudom%NULL%0,           Bruno%Vergès%NULL%1,           Patrice%Winiszewski%NULL%1,           Audrey%Zabulon%NULL%1,           Pierre-Antoine%Gourraud%NULL%1,           Ronan%Roussel%NULL%2,           Ronan%Roussel%NULL%0,           Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,           Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,           Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,           In-Ae%Song%NULL%1,           Young-Tae%Jeon%NULL%1,           Philip P.%Foster%NULL%2,           Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,           Marco%Schiavone%NULL%1,           Antonio%Curnis%NULL%1,           Marcello%Arca%NULL%1,           Spinello%Antinori%NULL%1,           Alessio%Gasperetti%NULL%1,           Giosuè%Mascioli%NULL%1,           Paolo%Severino%NULL%1,           Federica%Sabato%NULL%1,           Maria M.%Caracciolo%NULL%1,           Gianmarco%Arabia%NULL%1,           Laura%D'Erasmo%NULL%1,           Maurizio%Viecca%NULL%1,           Massimo%Mancone%NULL%1,           Massimo%Galli%NULL%1,           Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,           Zhun%Cao%NULL%1,           Jake%Gundrum%NULL%1,           Jim%Sianis%NULL%1,           Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,           Michele%Ciccarelli%NULL%0,           Michele%Ciccarelli%NULL%0,           Dario%Bruzzese%NULL%1,           Andrea%Dipasquale%NULL%1,           Andrea G.%Lania%NULL%1,           Gherardo%Mazziotti%NULL%1,           Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,           Kathy W.%Belk%NULL%1,           Michael%Topmiller%NULL%1,           Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,           Sarah B.%Hays%NULL%1,           Constance E.%Panton%NULL%2,           Constance E.%Panton%NULL%0,           Evangelia K.%Mylona%NULL%1,           Markos%Kalligeros%NULL%1,           Fadi%Shehadeh%NULL%1,           Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,           Amy M.%Sitapati%NULL%1,           Jing%Zhang%NULL%1,           Jingjing%Zou%NULL%1,           Quan M.%Bui%NULL%1,           Junting%Ren%NULL%1,           Christopher A.%Longhurst%NULL%1,           Michael H.%Criqui%NULL%1,           Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,           Antoon%Bronselaer%NULL%1,           James T.%Teo%NULL%1,           Geert%Byttebier%NULL%1,           Guy%De Tré%NULL%1,           Luc%Belmans%NULL%1,           Richard%Dobson%NULL%1,           Evelien%Wynendaele%NULL%1,           Christophe%Van De Wiele%NULL%1,           Filip%Vandaele%NULL%1,           Diemer%Van Dijck%NULL%1,           Dan%Bean%NULL%1,           David%Fedson%NULL%1,           Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,            Juhee%Ahn%ahnjuhee23@gmail.com%1,            Juhong%Park%parkjh@nhis.or.kr%1,            Chang%Kyung Kang%zeptemiger@hanmail.net%1,            Sung-Ho%Won%sunghow@gmail.com%1,            Dong%Wook Kim%kimdw2269@gmail.com%1,            Jong-Heon%Park%parkjh@nhis.or.kr%1,            Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,            Joon-Sung%Joh%ssabana777@gmail.com%1,            Ji Hwan%Bang%roundbirch@gmail.com%1,            Cheong%Hee Kang%chkangmd@nhis.or.kr%1,            Wook%Bum Pyun%pwb423@ewha.ac.kr%1,            Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,            Tania%Dehesh%NULL%1,            Farnaz%Aligolighasemabadi%NULL%1,            Mohammadamin%Sadeghdoust%NULL%1,            Katarzyna%Kotfis%NULL%1,            Mazaher%Ahmadi%NULL%1,            Parvaneh%Mehrbod%NULL%1,            Pooya%Iranpour%NULL%1,            Sanaz%Dastghaib%NULL%1,            Ahmad%Nasimian%NULL%1,            Amir%Ravandi%NULL%1,            Biniam%Kidane%NULL%1,            Naseer%Ahmed%NULL%1,            Pawan%Sharma%NULL%1,            Shahla%Shojaei%NULL%1,            Kamran%Bagheri Lankarani%NULL%1,            Andrzej%Madej%NULL%1,            Nima%Rezaei%NULL%1,            Tayyebeh%Madrakian%NULL%1,            Marek J.%Los%NULL%1,            Hagar Ibrahim%Labouta%NULL%1,            Pooneh%Mokarram%NULL%1,            Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,            Tao%Guo%NULL%1,            Feifei%Yan%NULL%1,            Ming%Gong%NULL%1,            Xin A.%Zhang%NULL%1,            Chenze%Li%NULL%1,            Tao%He%NULL%0,            Huimin%Luo%NULL%1,            Lin%Zhang%NULL%0,            Ming%Chen%NULL%0,            Xiaoyan%Wu%NULL%0,            Hairong%Wang%NULL%0,            Ke-Qiong%Deng%NULL%1,            Jiao%Bai%NULL%1,            Lin%Cai%NULL%1,            Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,            Thomas Alexander%Gerds%NULL%2,            Thomas Alexander%Gerds%NULL%0,            Morten%Schou%NULL%1,            Kristian%Kragholm%NULL%1,            Matthew%Phelps%NULL%1,            Eva%Havers-Borgersen%NULL%1,            Adelina%Yafasova%NULL%1,            Gunnar Hilmar%Gislason%NULL%1,            Christian%Torp-Pedersen%NULL%1,            Lars%Køber%NULL%1,            Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,            Eudald%Correig%NULL%1,            Cèlia%Rodríguez-Borjabad%NULL%1,            Eva%Anoro%NULL%1,            Juan Antonio%Arroyo%NULL%1,            Carlos%Jericó%NULL%1,            Angels%Pedragosa%NULL%1,            Marcel·la%Miret%NULL%1,            Silvia%Näf%NULL%1,            Anna%Pardo%NULL%1,            Verónica%Perea%NULL%1,            Rosa%Pérez-Bernalte%NULL%1,            Núria%Plana%NULL%1,            Rafael%Ramírez-Montesinos%NULL%1,            Meritxell%Royuela%NULL%1,            Cristina%Soler%NULL%1,            Maria%Urquizu-Padilla%NULL%1,            Alberto%Zamora%NULL%1,            Juan%Pedro-Botet%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,            Francesco%Castagna%NULL%2,            Francesco%Castagna%NULL%0,            Ilir%Agalliu%NULL%2,            Ilir%Agalliu%NULL%0,            Xiaonan%Xue%NULL%2,            Xiaonan%Xue%NULL%0,            Snehal R.%Patel%NULL%1,            Yogita%Rochlani%NULL%1,            Rachna%Kataria%NULL%1,            Sasa%Vukelic%NULL%1,            Daniel B.%Sims%NULL%1,            Chikezie%Alvarez%NULL%1,            Mercedes%Rivas‐Lasarte%NULL%2,            Mercedes%Rivas‐Lasarte%NULL%0,            Mario J.%Garcia%NULL%2,            Mario J.%Garcia%NULL%0,            Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,          Antonelli%M.%coreGivesNoEmail%1,          Bellani%G.%coreGivesNoEmail%1,          Bonanomi%E.%coreGivesNoEmail%1,          Cabrini%L.%coreGivesNoEmail%1,          Carlesso%E.%coreGivesNoEmail%1,          Castelli%G.%coreGivesNoEmail%1,          Cattaneo%S.%coreGivesNoEmail%1,          Cecconi%M.%coreGivesNoEmail%1,          Cereda%D.%coreGivesNoEmail%1,          Colombo%S.%coreGivesNoEmail%1,          Coluccello%A.%coreGivesNoEmail%1,          Crescini%G.%coreGivesNoEmail%1,          Forastieri%Molinari A.%coreGivesNoEmail%1,          Foti%G.%coreGivesNoEmail%1,          Fumagalli%R.%coreGivesNoEmail%1,          Grasselli%G.%coreGivesNoEmail%1,          Greco%M.%coreGivesNoEmail%1,          Iotti%G. A.%coreGivesNoEmail%1,          Langer%T.%coreGivesNoEmail%1,          Latronico%N.%coreGivesNoEmail%1,          Lorini%F. L.%coreGivesNoEmail%1,          Mojoli%F.%coreGivesNoEmail%1,          Natalini%G.%coreGivesNoEmail%1,          Pesenti%A.%coreGivesNoEmail%1,          Pessina%C. M.%coreGivesNoEmail%1,          Ranieri%V. M.%coreGivesNoEmail%1,          Rech%R.%coreGivesNoEmail%1,          Rosano%A.%coreGivesNoEmail%1,          Scudeller%L.%coreGivesNoEmail%1,          Storti%E.%coreGivesNoEmail%1,          Thompson%B. T.%coreGivesNoEmail%1,          Tirani%M.%coreGivesNoEmail%1,          Villani%P. G.%coreGivesNoEmail%1,          Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,            Daniela Patricia%Trelles-Garcia%NULL%2,            Daniela Patricia%Trelles-Garcia%NULL%0,            Maria Adriana%Yanez-Bello%NULL%1,            Chul Won%Chung%NULL%1,            Valeria Patricia%Trelles-Garcia%NULL%1,            Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,            Juan-Juan%Qin%NULL%1,            Xu%Cheng%NULL%1,            Lijun%Shen%NULL%1,            Yan-Ci%Zhao%NULL%1,            Yufeng%Yuan%NULL%1,            Fang%Lei%NULL%1,            Ming-Ming%Chen%NULL%1,            Huilin%Yang%NULL%1,            Liangjie%Bai%NULL%1,            Xiaohui%Song%NULL%1,            Lijin%Lin%NULL%1,            Meng%Xia%NULL%1,            Feng%Zhou%NULL%1,            Jianghua%Zhou%NULL%1,            Zhi-Gang%She%NULL%1,            Lihua%Zhu%NULL%1,            Xinliang%Ma%NULL%1,            Qingbo%Xu%NULL%1,            Ping%Ye%NULL%1,            Guohua%Chen%NULL%1,            Liming%Liu%NULL%1,            Weiming%Mao%NULL%1,            Youqin%Yan%NULL%1,            Bing%Xiao%NULL%1,            Zhigang%Lu%NULL%1,            Gang%Peng%NULL%1,            Mingyu%Liu%NULL%1,            Jun%Yang%NULL%1,            Luyu%Yang%NULL%1,            Changjiang%Zhang%NULL%1,            Haofeng%Lu%NULL%1,            Xigang%Xia%NULL%1,            Daihong%Wang%NULL%1,            Xiaofeng%Liao%NULL%1,            Xiang%Wei%NULL%1,            Bing-Hong%Zhang%NULL%1,            Xin%Zhang%NULL%2,            Juan%Yang%NULL%1,            Guang-Nian%Zhao%NULL%1,            Peng%Zhang%NULL%0,            Peter P.%Liu%NULL%1,            Rohit%Loomba%NULL%1,            Yan-Xiao%Ji%NULL%1,            Jiahong%Xia%jiahong.xia@hust.edu.cn%1,            Yibin%Wang%yibinwang@mednet.ucla.edu%1,            Jingjing%Cai%caijingjing83@hotmail.com%1,            Jiao%Guo%guoj@gdpu.edu.cn%1,            Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,            Robert%DeJoy%NULL%1,            Kevin Bryan%Lo%NULL%0,            Jeri%Albano%NULL%0,            Eric%Peterson%NULL%0,            Ruchika%Bhargav%NULL%0,            Fahad%Gu%NULL%1,            Grace%Salacup%NULL%1,            Jerald%Pelayo%NULL%0,            Zurab%Azmaiparashvili%NULL%0,            Janani%Rangaswami%NULL%0,            Gabriel%Patarroyo-Aponte%NULL%1,            Sadia%Benzaquen%NULL%0,            Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,            Luke%Wooster%NULL%1,            Haakon H.%Sigurslid%NULL%1,            Rebecca H.%Li%NULL%1,            Wanlin%Jiang%NULL%1,            Wenjie%Tian%NULL%1,            Christian L.%Lino Cardenas%NULL%1,            Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,            Mahesh V.%Madhavan%NULL%2,            Mahesh V.%Madhavan%NULL%0,            Timothy J.%Poterucha%NULL%2,            Timothy J.%Poterucha%NULL%0,            Ersilia M.%DeFilippis%NULL%1,            Jessica A.%Hennessey%NULL%1,            Bjorn%Redfors%NULL%1,            Christina%Eckhardt%NULL%1,            Behnood%Bikdeli%NULL%1,            Jonathan%Platt%NULL%1,            Ani%Nalbandian%NULL%1,            Pierre%Elias%NULL%2,            Pierre%Elias%NULL%0,            Matthew J.%Cummings%NULL%2,            Matthew J.%Cummings%NULL%0,            Shayan N.%Nouri%NULL%1,            Matthew%Lawlor%NULL%1,            Lauren S.%Ranard%NULL%1,            Jianhua%Li%NULL%2,            Jianhua%Li%NULL%0,            Claudia%Boyle%NULL%1,            Raymond%Givens%NULL%1,            Daniel%Brodie%NULL%0,            Harlan M.%Krumholz%NULL%2,            Harlan M.%Krumholz%NULL%0,            Gregg W.%Stone%NULL%2,            Gregg W.%Stone%NULL%0,            Sanjum S.%Sethi%NULL%1,            Daniel%Burkhoff%NULL%1,            Nir%Uriel%NULL%1,            Allan%Schwartz%NULL%0,            Martin B.%Leon%NULL%1,            Ajay J.%Kirtane%NULL%1,            Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,            Sahil A.%Parikh%NULL%2,            Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,            Louis%Potier%NULL%2,            Louis%Potier%NULL%0,            Pierre%Gourdy%NULL%2,            Pierre%Gourdy%NULL%0,            Matthieu%Pichelin%NULL%2,            Matthieu%Pichelin%NULL%0,            Coralie%Amadou%NULL%2,            Coralie%Amadou%NULL%0,            Pierre-Yves%Benhamou%NULL%2,            Pierre-Yves%Benhamou%NULL%0,            Jean-Baptiste%Bonnet%NULL%1,            Lyse%Bordier%NULL%1,            Olivier%Bourron%NULL%1,            Claude%Chaumeil%NULL%2,            Claude%Chaumeil%NULL%0,            Nicolas%Chevalier%NULL%1,            Patrice%Darmon%NULL%2,            Patrice%Darmon%NULL%0,            Blandine%Delenne%NULL%2,            Blandine%Delenne%NULL%0,            Delphine%Demarsy%NULL%1,            Marie%Dumas%NULL%1,            Olivier%Dupuy%NULL%1,            Anna%Flaus-Furmaniuk%NULL%2,            Anna%Flaus-Furmaniuk%NULL%0,            Jean-François%Gautier%NULL%1,            Anne-Marie%Guedj%NULL%2,            Anne-Marie%Guedj%NULL%0,            Nathalie%Jeandidier%NULL%1,            Etienne%Larger%NULL%1,            Jean-Philippe%Le Berre%NULL%1,            Myriam%Lungo%NULL%1,            Nathanaëlle%Montanier%NULL%1,            Philippe%Moulin%NULL%1,            Françoise%Plat%NULL%1,            Vincent%Rigalleau%NULL%1,            René%Robert%NULL%1,            Dominique%Seret-Bégué%NULL%2,            Dominique%Seret-Bégué%NULL%0,            Pierre%Sérusclat%NULL%1,            Sarra%Smati%NULL%1,            Jean-François%Thébaut%NULL%1,            Blandine%Tramunt%NULL%2,            Blandine%Tramunt%NULL%0,            Camille%Vatier%NULL%1,            Fritz-Line%Velayoudom%NULL%2,            Fritz-Line%Velayoudom%NULL%0,            Bruno%Vergès%NULL%1,            Patrice%Winiszewski%NULL%1,            Audrey%Zabulon%NULL%1,            Pierre-Antoine%Gourraud%NULL%1,            Ronan%Roussel%NULL%2,            Ronan%Roussel%NULL%0,            Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,            Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,            Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,            In-Ae%Song%NULL%1,            Young-Tae%Jeon%NULL%1,            Philip P.%Foster%NULL%2,            Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,            Marco%Schiavone%NULL%1,            Antonio%Curnis%NULL%1,            Marcello%Arca%NULL%1,            Spinello%Antinori%NULL%1,            Alessio%Gasperetti%NULL%1,            Giosuè%Mascioli%NULL%1,            Paolo%Severino%NULL%1,            Federica%Sabato%NULL%1,            Maria M.%Caracciolo%NULL%1,            Gianmarco%Arabia%NULL%1,            Laura%D'Erasmo%NULL%1,            Maurizio%Viecca%NULL%1,            Massimo%Mancone%NULL%1,            Massimo%Galli%NULL%1,            Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,            Zhun%Cao%NULL%1,            Jake%Gundrum%NULL%1,            Jim%Sianis%NULL%1,            Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,            Michele%Ciccarelli%NULL%0,            Michele%Ciccarelli%NULL%0,            Dario%Bruzzese%NULL%1,            Andrea%Dipasquale%NULL%1,            Andrea G.%Lania%NULL%1,            Gherardo%Mazziotti%NULL%1,            Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,            Kathy W.%Belk%NULL%1,            Michael%Topmiller%NULL%1,            Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,            Sarah B.%Hays%NULL%1,            Constance E.%Panton%NULL%2,            Constance E.%Panton%NULL%0,            Evangelia K.%Mylona%NULL%1,            Markos%Kalligeros%NULL%1,            Fadi%Shehadeh%NULL%1,            Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,            Amy M.%Sitapati%NULL%1,            Jing%Zhang%NULL%1,            Jingjing%Zou%NULL%1,            Quan M.%Bui%NULL%1,            Junting%Ren%NULL%1,            Christopher A.%Longhurst%NULL%1,            Michael H.%Criqui%NULL%1,            Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,            Antoon%Bronselaer%NULL%1,            James T.%Teo%NULL%1,            Geert%Byttebier%NULL%1,            Guy%De Tré%NULL%1,            Luc%Belmans%NULL%1,            Richard%Dobson%NULL%1,            Evelien%Wynendaele%NULL%1,            Christophe%Van De Wiele%NULL%1,            Filip%Vandaele%NULL%1,            Diemer%Van Dijck%NULL%1,            Dan%Bean%NULL%1,            David%Fedson%NULL%1,            Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1705,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1608,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1637,7 +1763,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1666,7 +1792,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1695,7 +1821,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1724,7 +1850,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1753,7 +1879,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1782,7 +1908,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -1811,7 +1937,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -1840,7 +1966,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -1869,7 +1995,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -1898,7 +2024,7 @@
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -1927,7 +2053,7 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -1956,7 +2082,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -1985,7 +2111,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2014,7 +2140,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2043,7 +2169,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -2072,7 +2198,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2101,7 +2227,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2130,7 +2256,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2159,7 +2285,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="418">
   <si>
     <t>Doi</t>
   </si>
@@ -1356,6 +1356,182 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,            Antoon%Bronselaer%NULL%1,            James T.%Teo%NULL%1,            Geert%Byttebier%NULL%1,            Guy%De Tré%NULL%1,            Luc%Belmans%NULL%1,            Richard%Dobson%NULL%1,            Evelien%Wynendaele%NULL%1,            Christophe%Van De Wiele%NULL%1,            Filip%Vandaele%NULL%1,            Diemer%Van Dijck%NULL%1,            Dan%Bean%NULL%1,            David%Fedson%NULL%1,            Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,             Juhee%Ahn%ahnjuhee23@gmail.com%1,             Juhong%Park%parkjh@nhis.or.kr%1,             Chang%Kyung Kang%zeptemiger@hanmail.net%1,             Sung-Ho%Won%sunghow@gmail.com%1,             Dong%Wook Kim%kimdw2269@gmail.com%1,             Jong-Heon%Park%parkjh@nhis.or.kr%1,             Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,             Joon-Sung%Joh%ssabana777@gmail.com%1,             Ji Hwan%Bang%roundbirch@gmail.com%1,             Cheong%Hee Kang%chkangmd@nhis.or.kr%1,             Wook%Bum Pyun%pwb423@ewha.ac.kr%1,             Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The coronavirus disease 2019 (COVID-19) pandemic caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has profoundly affected the lives of millions of people.
+ To date, there is no approved vaccine or specific drug to prevent or treat COVID-19, while the infection is globally spreading at an alarming rate.
+ Because the development of effective vaccines or novel drugs could take several months (if not years), repurposing existing drugs is considered a more efficient strategy that could save lives now.
+ Statins constitute a class of lipid-lowering drugs with proven safety profiles and various known beneficial pleiotropic effects.
+ Our previous investigations showed that statins have antiviral effects and are involved in the process of wound healing in the lung.
+ This triggered us to evaluate if statin use reduces mortality in COVID-19 patients.
+Results
+After initial recruitment of 459 patients with COVID-19 (Shiraz province, Iran) and careful consideration of the exclusion criteria, a total of 150 patients, of which 75 received statins, were included in our retrospective study.
+ Cox proportional-hazards regression models were used to estimate the association between statin use and rate of death.
+ After propensity score matching, we found that statin use appeared to be associated with a lower risk of morbidity [HR = 0.85, 95% CI = (0.02, 3.93), P = 0.762] and lower risk of death [(HR = 0.76; 95% CI = (0.16, 3.72), P = 0.735)]; however, these associations did not reach statistical significance.
+ Furthermore, statin use reduced the chance of being subjected to mechanical ventilation [OR = 0.96, 95% CI = (0.61–2.99), P = 0.942] and patients on statins showed a more normal computed tomography (CT) scan result [OR = 0.41, 95% CI = (0.07–2.33), P = 0.312].
+Conclusions
+Although we could not demonstrate a significant association between statin use and a reduction in mortality in patients with COVID19, we do feel that our results are promising and of clinical relevance and warrant the need for prospective randomized controlled trials and extensive retrospective studies to further evaluate and validate the potential beneficial effects of statin treatment on clinical symptoms and mortality rates associated with COVID-19.
+</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,             Tania%Dehesh%NULL%1,             Farnaz%Aligolighasemabadi%NULL%1,             Mohammadamin%Sadeghdoust%NULL%1,             Katarzyna%Kotfis%NULL%1,             Mazaher%Ahmadi%NULL%1,             Parvaneh%Mehrbod%NULL%1,             Pooya%Iranpour%NULL%1,             Sanaz%Dastghaib%NULL%1,             Ahmad%Nasimian%NULL%1,             Amir%Ravandi%NULL%1,             Biniam%Kidane%NULL%1,             Naseer%Ahmed%NULL%1,             Pawan%Sharma%NULL%1,             Shahla%Shojaei%NULL%1,             Kamran%Bagheri Lankarani%NULL%1,             Andrzej%Madej%NULL%1,             Nima%Rezaei%NULL%1,             Tayyebeh%Madrakian%NULL%1,             Marek J.%Los%NULL%1,             Hagar Ibrahim%Labouta%NULL%1,             Pooneh%Mokarram%NULL%1,             Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,             Tao%Guo%NULL%1,             Feifei%Yan%NULL%1,             Ming%Gong%NULL%1,             Xin A.%Zhang%NULL%1,             Chenze%Li%NULL%1,             Tao%He%NULL%0,             Huimin%Luo%NULL%1,             Lin%Zhang%NULL%0,             Ming%Chen%NULL%0,             Xiaoyan%Wu%NULL%0,             Hairong%Wang%NULL%0,             Ke-Qiong%Deng%NULL%1,             Jiao%Bai%NULL%1,             Lin%Cai%NULL%1,             Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,             Thomas Alexander%Gerds%NULL%2,             Thomas Alexander%Gerds%NULL%0,             Morten%Schou%NULL%1,             Kristian%Kragholm%NULL%1,             Matthew%Phelps%NULL%1,             Eva%Havers-Borgersen%NULL%1,             Adelina%Yafasova%NULL%1,             Gunnar Hilmar%Gislason%NULL%1,             Christian%Torp-Pedersen%NULL%1,             Lars%Køber%NULL%1,             Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,             Eudald%Correig%NULL%1,             Cèlia%Rodríguez-Borjabad%NULL%1,             Eva%Anoro%NULL%1,             Juan Antonio%Arroyo%NULL%1,             Carlos%Jericó%NULL%1,             Angels%Pedragosa%NULL%1,             Marcel·la%Miret%NULL%1,             Silvia%Näf%NULL%1,             Anna%Pardo%NULL%1,             Verónica%Perea%NULL%1,             Rosa%Pérez-Bernalte%NULL%1,             Núria%Plana%NULL%1,             Rafael%Ramírez-Montesinos%NULL%1,             Meritxell%Royuela%NULL%1,             Cristina%Soler%NULL%1,             Maria%Urquizu-Padilla%NULL%1,             Alberto%Zamora%NULL%1,             Juan%Pedro-Botet%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,             Francesco%Castagna%NULL%2,             Francesco%Castagna%NULL%0,             Ilir%Agalliu%NULL%2,             Ilir%Agalliu%NULL%0,             Xiaonan%Xue%NULL%2,             Xiaonan%Xue%NULL%0,             Snehal R.%Patel%NULL%1,             Yogita%Rochlani%NULL%1,             Rachna%Kataria%NULL%1,             Sasa%Vukelic%NULL%1,             Daniel B.%Sims%NULL%1,             Chikezie%Alvarez%NULL%1,             Mercedes%Rivas‐Lasarte%NULL%2,             Mercedes%Rivas‐Lasarte%NULL%0,             Mario J.%Garcia%NULL%2,             Mario J.%Garcia%NULL%0,             Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,           Antonelli%M.%coreGivesNoEmail%1,           Bellani%G.%coreGivesNoEmail%1,           Bonanomi%E.%coreGivesNoEmail%1,           Cabrini%L.%coreGivesNoEmail%1,           Carlesso%E.%coreGivesNoEmail%1,           Castelli%G.%coreGivesNoEmail%1,           Cattaneo%S.%coreGivesNoEmail%1,           Cecconi%M.%coreGivesNoEmail%1,           Cereda%D.%coreGivesNoEmail%1,           Colombo%S.%coreGivesNoEmail%1,           Coluccello%A.%coreGivesNoEmail%1,           Crescini%G.%coreGivesNoEmail%1,           Forastieri%Molinari A.%coreGivesNoEmail%1,           Foti%G.%coreGivesNoEmail%1,           Fumagalli%R.%coreGivesNoEmail%1,           Grasselli%G.%coreGivesNoEmail%1,           Greco%M.%coreGivesNoEmail%1,           Iotti%G. A.%coreGivesNoEmail%1,           Langer%T.%coreGivesNoEmail%1,           Latronico%N.%coreGivesNoEmail%1,           Lorini%F. L.%coreGivesNoEmail%1,           Mojoli%F.%coreGivesNoEmail%1,           Natalini%G.%coreGivesNoEmail%1,           Pesenti%A.%coreGivesNoEmail%1,           Pessina%C. M.%coreGivesNoEmail%1,           Ranieri%V. M.%coreGivesNoEmail%1,           Rech%R.%coreGivesNoEmail%1,           Rosano%A.%coreGivesNoEmail%1,           Scudeller%L.%coreGivesNoEmail%1,           Storti%E.%coreGivesNoEmail%1,           Thompson%B. T.%coreGivesNoEmail%1,           Tirani%M.%coreGivesNoEmail%1,           Villani%P. G.%coreGivesNoEmail%1,           Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,             Daniela Patricia%Trelles-Garcia%NULL%2,             Daniela Patricia%Trelles-Garcia%NULL%0,             Maria Adriana%Yanez-Bello%NULL%1,             Chul Won%Chung%NULL%1,             Valeria Patricia%Trelles-Garcia%NULL%1,             Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,             Juan-Juan%Qin%NULL%1,             Xu%Cheng%NULL%1,             Lijun%Shen%NULL%1,             Yan-Ci%Zhao%NULL%1,             Yufeng%Yuan%NULL%1,             Fang%Lei%NULL%1,             Ming-Ming%Chen%NULL%1,             Huilin%Yang%NULL%1,             Liangjie%Bai%NULL%1,             Xiaohui%Song%NULL%1,             Lijin%Lin%NULL%1,             Meng%Xia%NULL%1,             Feng%Zhou%NULL%1,             Jianghua%Zhou%NULL%1,             Zhi-Gang%She%NULL%1,             Lihua%Zhu%NULL%1,             Xinliang%Ma%NULL%1,             Qingbo%Xu%NULL%1,             Ping%Ye%NULL%1,             Guohua%Chen%NULL%1,             Liming%Liu%NULL%1,             Weiming%Mao%NULL%1,             Youqin%Yan%NULL%1,             Bing%Xiao%NULL%1,             Zhigang%Lu%NULL%1,             Gang%Peng%NULL%1,             Mingyu%Liu%NULL%1,             Jun%Yang%NULL%1,             Luyu%Yang%NULL%1,             Changjiang%Zhang%NULL%1,             Haofeng%Lu%NULL%1,             Xigang%Xia%NULL%1,             Daihong%Wang%NULL%1,             Xiaofeng%Liao%NULL%1,             Xiang%Wei%NULL%1,             Bing-Hong%Zhang%NULL%1,             Xin%Zhang%NULL%2,             Juan%Yang%NULL%1,             Guang-Nian%Zhao%NULL%1,             Peng%Zhang%NULL%0,             Peter P.%Liu%NULL%1,             Rohit%Loomba%NULL%1,             Yan-Xiao%Ji%NULL%1,             Jiahong%Xia%jiahong.xia@hust.edu.cn%1,             Yibin%Wang%yibinwang@mednet.ucla.edu%1,             Jingjing%Cai%caijingjing83@hotmail.com%1,             Jiao%Guo%guoj@gdpu.edu.cn%1,             Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,             Robert%DeJoy%NULL%1,             Kevin Bryan%Lo%NULL%0,             Jeri%Albano%NULL%0,             Eric%Peterson%NULL%0,             Ruchika%Bhargav%NULL%0,             Fahad%Gu%NULL%1,             Grace%Salacup%NULL%1,             Jerald%Pelayo%NULL%0,             Zurab%Azmaiparashvili%NULL%0,             Janani%Rangaswami%NULL%0,             Gabriel%Patarroyo-Aponte%NULL%1,             Sadia%Benzaquen%NULL%0,             Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,             Luke%Wooster%NULL%1,             Haakon H.%Sigurslid%NULL%1,             Rebecca H.%Li%NULL%1,             Wanlin%Jiang%NULL%1,             Wenjie%Tian%NULL%1,             Christian L.%Lino Cardenas%NULL%1,             Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) can result in a hyperinflammatory state, leading to acute respiratory distress syndrome (ARDS), myocardial injury, and thrombotic complications, among other sequelae.
+ Statins, which are known to have anti-inflammatory and antithrombotic properties, have been studied in the setting of other viral infections, but their benefit has not been assessed in COVID-19. This is a retrospective analysis of patients admitted with COVID-19 from February 1st through May 12th, 2020 with study period ending on June 11th, 2020. Antecedent statin use was assessed using medication information available in the electronic medical record.
+ We constructed a multivariable logistic regression model to predict the propensity of receiving statins, adjusting for baseline sociodemographic and clinical characteristics, and outpatient medications.
+ The primary endpoint includes in-hospital mortality within 30 days.
+ A total of 2626 patients were admitted during the study period, of whom 951 (36.2%) were antecedent statin users.
+ Among 1296 patients (648 statin users, 648 non-statin users) identified with 1:1 propensity-score matching, statin use is significantly associated with lower odds of the primary endpoint in the propensity-matched cohort (OR 0.47, 95% CI 0.36–0.62, p &amp;lt; 0.001).
+ We conclude that antecedent statin use in patients hospitalized with COVID-19 is associated with lower inpatient mortality.
+</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,             Mahesh V.%Madhavan%NULL%2,             Mahesh V.%Madhavan%NULL%0,             Timothy J.%Poterucha%NULL%2,             Timothy J.%Poterucha%NULL%0,             Ersilia M.%DeFilippis%NULL%1,             Jessica A.%Hennessey%NULL%1,             Bjorn%Redfors%NULL%1,             Christina%Eckhardt%NULL%1,             Behnood%Bikdeli%NULL%1,             Jonathan%Platt%NULL%1,             Ani%Nalbandian%NULL%1,             Pierre%Elias%NULL%2,             Pierre%Elias%NULL%0,             Matthew J.%Cummings%NULL%2,             Matthew J.%Cummings%NULL%0,             Shayan N.%Nouri%NULL%1,             Matthew%Lawlor%NULL%1,             Lauren S.%Ranard%NULL%1,             Jianhua%Li%NULL%2,             Jianhua%Li%NULL%0,             Claudia%Boyle%NULL%1,             Raymond%Givens%NULL%1,             Daniel%Brodie%NULL%0,             Harlan M.%Krumholz%NULL%2,             Harlan M.%Krumholz%NULL%0,             Gregg W.%Stone%NULL%2,             Gregg W.%Stone%NULL%0,             Sanjum S.%Sethi%NULL%1,             Daniel%Burkhoff%NULL%1,             Nir%Uriel%NULL%1,             Allan%Schwartz%NULL%0,             Martin B.%Leon%NULL%1,             Ajay J.%Kirtane%NULL%1,             Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,             Sahil A.%Parikh%NULL%2,             Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+This is an update of the results from the previous report of the CORONADO (Coronavirus SARS-CoV-2 and Diabetes Outcomes) study, which aims to describe the outcomes and prognostic factors in patients with diabetes hospitalised for coronavirus disease-2019 (COVID-19).
+Methods
+The CORONADO initiative is a French nationwide multicentre study of patients with diabetes hospitalised for COVID-19 with a 28-day follow-up.
+ The patients were screened after hospital admission from 10 March to 10 April 2020. We mainly focused on hospital discharge and death within 28 days.
+Results
+We included 2796 participants: 63.7% men, mean age 69.7 ± 13.2 years, median BMI (25th–75th percentile) 28.4 (25.0–32.4) kg/m2.
+ Microvascular and macrovascular diabetic complications were found in 44.2% and 38.6% of participants, respectively.
+ Within 28 days, 1404 (50.2%; 95% CI 48.3%, 52.1%) were discharged from hospital with a median duration of hospital stay of 9 (5–14) days, while 577 participants died (20.6%; 95% CI 19.2%, 22.2%).
+ In multivariable models, younger age, routine metformin therapy and longer symptom duration on admission were positively associated with discharge.
+ History of microvascular complications, anticoagulant routine therapy, dyspnoea on admission, and higher aspartate aminotransferase, white cell count and C-reactive protein levels were associated with a reduced chance of discharge.
+ Factors associated with death within 28 days mirrored those associated with discharge, and also included routine treatment by insulin and statin as deleterious factors.
+Conclusions/interpretation
+In patients with diabetes hospitalised for COVID-19, we established prognostic factors for hospital discharge and death that could help clinicians in this pandemic period.
+Trial registration
+Clinicaltrials.
+gov identifier: NCT04324736
+Graphical abstract
+Supplementary Information
+The online version contains peer-reviewed but unedited supplementary material available at 10.1007/s00125-020-05351-w.
+</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,             Louis%Potier%NULL%2,             Louis%Potier%NULL%0,             Pierre%Gourdy%NULL%2,             Pierre%Gourdy%NULL%0,             Matthieu%Pichelin%NULL%2,             Matthieu%Pichelin%NULL%0,             Coralie%Amadou%NULL%2,             Coralie%Amadou%NULL%0,             Pierre-Yves%Benhamou%NULL%2,             Pierre-Yves%Benhamou%NULL%0,             Jean-Baptiste%Bonnet%NULL%1,             Lyse%Bordier%NULL%1,             Olivier%Bourron%NULL%1,             Claude%Chaumeil%NULL%2,             Claude%Chaumeil%NULL%0,             Nicolas%Chevalier%NULL%1,             Patrice%Darmon%NULL%2,             Patrice%Darmon%NULL%0,             Blandine%Delenne%NULL%2,             Blandine%Delenne%NULL%0,             Delphine%Demarsy%NULL%1,             Marie%Dumas%NULL%1,             Olivier%Dupuy%NULL%1,             Anna%Flaus-Furmaniuk%NULL%2,             Anna%Flaus-Furmaniuk%NULL%0,             Jean-François%Gautier%NULL%1,             Anne-Marie%Guedj%NULL%2,             Anne-Marie%Guedj%NULL%0,             Nathalie%Jeandidier%NULL%1,             Etienne%Larger%NULL%1,             Jean-Philippe%Le Berre%NULL%1,             Myriam%Lungo%NULL%1,             Nathanaëlle%Montanier%NULL%1,             Philippe%Moulin%NULL%1,             Françoise%Plat%NULL%1,             Vincent%Rigalleau%NULL%1,             René%Robert%NULL%1,             Dominique%Seret-Bégué%NULL%2,             Dominique%Seret-Bégué%NULL%0,             Pierre%Sérusclat%NULL%1,             Sarra%Smati%NULL%1,             Jean-François%Thébaut%NULL%1,             Blandine%Tramunt%NULL%2,             Blandine%Tramunt%NULL%0,             Camille%Vatier%NULL%1,             Fritz-Line%Velayoudom%NULL%2,             Fritz-Line%Velayoudom%NULL%0,             Bruno%Vergès%NULL%1,             Patrice%Winiszewski%NULL%1,             Audrey%Zabulon%NULL%1,             Pierre-Antoine%Gourraud%NULL%1,             Ronan%Roussel%NULL%2,             Ronan%Roussel%NULL%0,             Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,             Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,             Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,             In-Ae%Song%NULL%1,             Young-Tae%Jeon%NULL%1,             Philip P.%Foster%NULL%2,             Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,             Marco%Schiavone%NULL%1,             Antonio%Curnis%NULL%1,             Marcello%Arca%NULL%1,             Spinello%Antinori%NULL%1,             Alessio%Gasperetti%NULL%1,             Giosuè%Mascioli%NULL%1,             Paolo%Severino%NULL%1,             Federica%Sabato%NULL%1,             Maria M.%Caracciolo%NULL%1,             Gianmarco%Arabia%NULL%1,             Laura%D'Erasmo%NULL%1,             Maurizio%Viecca%NULL%1,             Massimo%Mancone%NULL%1,             Massimo%Galli%NULL%1,             Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,             Zhun%Cao%NULL%1,             Jake%Gundrum%NULL%1,             Jim%Sianis%NULL%1,             Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,             Michele%Ciccarelli%NULL%0,             Michele%Ciccarelli%NULL%0,             Dario%Bruzzese%NULL%1,             Andrea%Dipasquale%NULL%1,             Andrea G.%Lania%NULL%1,             Gherardo%Mazziotti%NULL%1,             Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,             Kathy W.%Belk%NULL%1,             Michael%Topmiller%NULL%1,             Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,             Sarah B.%Hays%NULL%1,             Constance E.%Panton%NULL%2,             Constance E.%Panton%NULL%0,             Evangelia K.%Mylona%NULL%1,             Markos%Kalligeros%NULL%1,             Fadi%Shehadeh%NULL%1,             Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,             Amy M.%Sitapati%NULL%1,             Jing%Zhang%NULL%1,             Jingjing%Zou%NULL%1,             Quan M.%Bui%NULL%1,             Junting%Ren%NULL%1,             Christopher A.%Longhurst%NULL%1,             Michael H.%Criqui%NULL%1,             Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,             Antoon%Bronselaer%NULL%1,             James T.%Teo%NULL%1,             Geert%Byttebier%NULL%1,             Guy%De Tré%NULL%1,             Luc%Belmans%NULL%1,             Richard%Dobson%NULL%1,             Evelien%Wynendaele%NULL%1,             Christophe%Van De Wiele%NULL%1,             Filip%Vandaele%NULL%1,             Diemer%Van Dijck%NULL%1,             Dan%Bean%NULL%1,             David%Fedson%NULL%1,             Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,              Juhee%Ahn%ahnjuhee23@gmail.com%1,              Juhong%Park%parkjh@nhis.or.kr%1,              Chang%Kyung Kang%zeptemiger@hanmail.net%1,              Sung-Ho%Won%sunghow@gmail.com%1,              Dong%Wook Kim%kimdw2269@gmail.com%1,              Jong-Heon%Park%parkjh@nhis.or.kr%1,              Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,              Joon-Sung%Joh%ssabana777@gmail.com%1,              Ji Hwan%Bang%roundbirch@gmail.com%1,              Cheong%Hee Kang%chkangmd@nhis.or.kr%1,              Wook%Bum Pyun%pwb423@ewha.ac.kr%1,              Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,              Tania%Dehesh%NULL%1,              Farnaz%Aligolighasemabadi%NULL%1,              Mohammadamin%Sadeghdoust%NULL%1,              Katarzyna%Kotfis%NULL%1,              Mazaher%Ahmadi%NULL%1,              Parvaneh%Mehrbod%NULL%1,              Pooya%Iranpour%NULL%1,              Sanaz%Dastghaib%NULL%1,              Ahmad%Nasimian%NULL%1,              Amir%Ravandi%NULL%1,              Biniam%Kidane%NULL%1,              Naseer%Ahmed%NULL%1,              Pawan%Sharma%NULL%1,              Shahla%Shojaei%NULL%1,              Kamran%Bagheri Lankarani%NULL%1,              Andrzej%Madej%NULL%1,              Nima%Rezaei%NULL%1,              Tayyebeh%Madrakian%NULL%1,              Marek J.%Los%NULL%1,              Hagar Ibrahim%Labouta%NULL%1,              Pooneh%Mokarram%NULL%1,              Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,              Tao%Guo%NULL%1,              Feifei%Yan%NULL%1,              Ming%Gong%NULL%1,              Xin A.%Zhang%NULL%1,              Chenze%Li%NULL%1,              Tao%He%NULL%0,              Huimin%Luo%NULL%1,              Lin%Zhang%NULL%0,              Ming%Chen%NULL%0,              Xiaoyan%Wu%NULL%0,              Hairong%Wang%NULL%0,              Ke-Qiong%Deng%NULL%1,              Jiao%Bai%NULL%1,              Lin%Cai%NULL%1,              Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,              Thomas Alexander%Gerds%NULL%2,              Thomas Alexander%Gerds%NULL%0,              Morten%Schou%NULL%1,              Kristian%Kragholm%NULL%1,              Matthew%Phelps%NULL%1,              Eva%Havers-Borgersen%NULL%1,              Adelina%Yafasova%NULL%1,              Gunnar Hilmar%Gislason%NULL%1,              Christian%Torp-Pedersen%NULL%1,              Lars%Køber%NULL%1,              Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,              Eudald%Correig%NULL%1,              Cèlia%Rodríguez-Borjabad%NULL%1,              Eva%Anoro%NULL%1,              Juan Antonio%Arroyo%NULL%1,              Carlos%Jericó%NULL%1,              Angels%Pedragosa%NULL%1,              Marcel·la%Miret%NULL%1,              Silvia%Näf%NULL%1,              Anna%Pardo%NULL%1,              Verónica%Perea%NULL%1,              Rosa%Pérez-Bernalte%NULL%1,              Núria%Plana%NULL%1,              Rafael%Ramírez-Montesinos%NULL%1,              Meritxell%Royuela%NULL%1,              Cristina%Soler%NULL%1,              Maria%Urquizu-Padilla%NULL%1,              Alberto%Zamora%NULL%1,              Juan%Pedro-Botet%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,              Francesco%Castagna%NULL%2,              Francesco%Castagna%NULL%0,              Ilir%Agalliu%NULL%2,              Ilir%Agalliu%NULL%0,              Xiaonan%Xue%NULL%2,              Xiaonan%Xue%NULL%0,              Snehal R.%Patel%NULL%1,              Yogita%Rochlani%NULL%1,              Rachna%Kataria%NULL%1,              Sasa%Vukelic%NULL%1,              Daniel B.%Sims%NULL%1,              Chikezie%Alvarez%NULL%1,              Mercedes%Rivas‐Lasarte%NULL%2,              Mercedes%Rivas‐Lasarte%NULL%0,              Mario J.%Garcia%NULL%2,              Mario J.%Garcia%NULL%0,              Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,            Antonelli%M.%coreGivesNoEmail%1,            Bellani%G.%coreGivesNoEmail%1,            Bonanomi%E.%coreGivesNoEmail%1,            Cabrini%L.%coreGivesNoEmail%1,            Carlesso%E.%coreGivesNoEmail%1,            Castelli%G.%coreGivesNoEmail%1,            Cattaneo%S.%coreGivesNoEmail%1,            Cecconi%M.%coreGivesNoEmail%1,            Cereda%D.%coreGivesNoEmail%1,            Colombo%S.%coreGivesNoEmail%1,            Coluccello%A.%coreGivesNoEmail%1,            Crescini%G.%coreGivesNoEmail%1,            Forastieri%Molinari A.%coreGivesNoEmail%1,            Foti%G.%coreGivesNoEmail%1,            Fumagalli%R.%coreGivesNoEmail%1,            Grasselli%G.%coreGivesNoEmail%1,            Greco%M.%coreGivesNoEmail%1,            Iotti%G. A.%coreGivesNoEmail%1,            Langer%T.%coreGivesNoEmail%1,            Latronico%N.%coreGivesNoEmail%1,            Lorini%F. L.%coreGivesNoEmail%1,            Mojoli%F.%coreGivesNoEmail%1,            Natalini%G.%coreGivesNoEmail%1,            Pesenti%A.%coreGivesNoEmail%1,            Pessina%C. M.%coreGivesNoEmail%1,            Ranieri%V. M.%coreGivesNoEmail%1,            Rech%R.%coreGivesNoEmail%1,            Rosano%A.%coreGivesNoEmail%1,            Scudeller%L.%coreGivesNoEmail%1,            Storti%E.%coreGivesNoEmail%1,            Thompson%B. T.%coreGivesNoEmail%1,            Tirani%M.%coreGivesNoEmail%1,            Villani%P. G.%coreGivesNoEmail%1,            Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,              Daniela Patricia%Trelles-Garcia%NULL%2,              Daniela Patricia%Trelles-Garcia%NULL%0,              Maria Adriana%Yanez-Bello%NULL%1,              Chul Won%Chung%NULL%1,              Valeria Patricia%Trelles-Garcia%NULL%1,              Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,              Juan-Juan%Qin%NULL%1,              Xu%Cheng%NULL%1,              Lijun%Shen%NULL%1,              Yan-Ci%Zhao%NULL%1,              Yufeng%Yuan%NULL%1,              Fang%Lei%NULL%1,              Ming-Ming%Chen%NULL%1,              Huilin%Yang%NULL%1,              Liangjie%Bai%NULL%1,              Xiaohui%Song%NULL%1,              Lijin%Lin%NULL%1,              Meng%Xia%NULL%1,              Feng%Zhou%NULL%1,              Jianghua%Zhou%NULL%1,              Zhi-Gang%She%NULL%1,              Lihua%Zhu%NULL%1,              Xinliang%Ma%NULL%1,              Qingbo%Xu%NULL%1,              Ping%Ye%NULL%1,              Guohua%Chen%NULL%1,              Liming%Liu%NULL%1,              Weiming%Mao%NULL%1,              Youqin%Yan%NULL%1,              Bing%Xiao%NULL%1,              Zhigang%Lu%NULL%1,              Gang%Peng%NULL%1,              Mingyu%Liu%NULL%1,              Jun%Yang%NULL%1,              Luyu%Yang%NULL%1,              Changjiang%Zhang%NULL%1,              Haofeng%Lu%NULL%1,              Xigang%Xia%NULL%1,              Daihong%Wang%NULL%1,              Xiaofeng%Liao%NULL%1,              Xiang%Wei%NULL%1,              Bing-Hong%Zhang%NULL%1,              Xin%Zhang%NULL%2,              Juan%Yang%NULL%1,              Guang-Nian%Zhao%NULL%1,              Peng%Zhang%NULL%0,              Peter P.%Liu%NULL%1,              Rohit%Loomba%NULL%1,              Yan-Xiao%Ji%NULL%1,              Jiahong%Xia%jiahong.xia@hust.edu.cn%1,              Yibin%Wang%yibinwang@mednet.ucla.edu%1,              Jingjing%Cai%caijingjing83@hotmail.com%1,              Jiao%Guo%guoj@gdpu.edu.cn%1,              Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,              Robert%DeJoy%NULL%1,              Kevin Bryan%Lo%NULL%0,              Jeri%Albano%NULL%0,              Eric%Peterson%NULL%0,              Ruchika%Bhargav%NULL%0,              Fahad%Gu%NULL%1,              Grace%Salacup%NULL%1,              Jerald%Pelayo%NULL%0,              Zurab%Azmaiparashvili%NULL%0,              Janani%Rangaswami%NULL%0,              Gabriel%Patarroyo-Aponte%NULL%1,              Sadia%Benzaquen%NULL%0,              Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,              Luke%Wooster%NULL%1,              Haakon H.%Sigurslid%NULL%1,              Rebecca H.%Li%NULL%1,              Wanlin%Jiang%NULL%1,              Wenjie%Tian%NULL%1,              Christian L.%Lino Cardenas%NULL%1,              Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,              Mahesh V.%Madhavan%NULL%2,              Mahesh V.%Madhavan%NULL%0,              Timothy J.%Poterucha%NULL%2,              Timothy J.%Poterucha%NULL%0,              Ersilia M.%DeFilippis%NULL%1,              Jessica A.%Hennessey%NULL%1,              Bjorn%Redfors%NULL%1,              Christina%Eckhardt%NULL%1,              Behnood%Bikdeli%NULL%1,              Jonathan%Platt%NULL%1,              Ani%Nalbandian%NULL%1,              Pierre%Elias%NULL%2,              Pierre%Elias%NULL%0,              Matthew J.%Cummings%NULL%2,              Matthew J.%Cummings%NULL%0,              Shayan N.%Nouri%NULL%1,              Matthew%Lawlor%NULL%1,              Lauren S.%Ranard%NULL%1,              Jianhua%Li%NULL%2,              Jianhua%Li%NULL%0,              Claudia%Boyle%NULL%1,              Raymond%Givens%NULL%1,              Daniel%Brodie%NULL%0,              Harlan M.%Krumholz%NULL%2,              Harlan M.%Krumholz%NULL%0,              Gregg W.%Stone%NULL%2,              Gregg W.%Stone%NULL%0,              Sanjum S.%Sethi%NULL%1,              Daniel%Burkhoff%NULL%1,              Nir%Uriel%NULL%1,              Allan%Schwartz%NULL%0,              Martin B.%Leon%NULL%1,              Ajay J.%Kirtane%NULL%1,              Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,              Sahil A.%Parikh%NULL%2,              Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,              Louis%Potier%NULL%2,              Louis%Potier%NULL%0,              Pierre%Gourdy%NULL%2,              Pierre%Gourdy%NULL%0,              Matthieu%Pichelin%NULL%2,              Matthieu%Pichelin%NULL%0,              Coralie%Amadou%NULL%2,              Coralie%Amadou%NULL%0,              Pierre-Yves%Benhamou%NULL%2,              Pierre-Yves%Benhamou%NULL%0,              Jean-Baptiste%Bonnet%NULL%1,              Lyse%Bordier%NULL%1,              Olivier%Bourron%NULL%1,              Claude%Chaumeil%NULL%2,              Claude%Chaumeil%NULL%0,              Nicolas%Chevalier%NULL%1,              Patrice%Darmon%NULL%2,              Patrice%Darmon%NULL%0,              Blandine%Delenne%NULL%2,              Blandine%Delenne%NULL%0,              Delphine%Demarsy%NULL%1,              Marie%Dumas%NULL%1,              Olivier%Dupuy%NULL%1,              Anna%Flaus-Furmaniuk%NULL%2,              Anna%Flaus-Furmaniuk%NULL%0,              Jean-François%Gautier%NULL%1,              Anne-Marie%Guedj%NULL%2,              Anne-Marie%Guedj%NULL%0,              Nathalie%Jeandidier%NULL%1,              Etienne%Larger%NULL%1,              Jean-Philippe%Le Berre%NULL%1,              Myriam%Lungo%NULL%1,              Nathanaëlle%Montanier%NULL%1,              Philippe%Moulin%NULL%1,              Françoise%Plat%NULL%1,              Vincent%Rigalleau%NULL%1,              René%Robert%NULL%1,              Dominique%Seret-Bégué%NULL%2,              Dominique%Seret-Bégué%NULL%0,              Pierre%Sérusclat%NULL%1,              Sarra%Smati%NULL%1,              Jean-François%Thébaut%NULL%1,              Blandine%Tramunt%NULL%2,              Blandine%Tramunt%NULL%0,              Camille%Vatier%NULL%1,              Fritz-Line%Velayoudom%NULL%2,              Fritz-Line%Velayoudom%NULL%0,              Bruno%Vergès%NULL%1,              Patrice%Winiszewski%NULL%1,              Audrey%Zabulon%NULL%1,              Pierre-Antoine%Gourraud%NULL%1,              Ronan%Roussel%NULL%2,              Ronan%Roussel%NULL%0,              Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,              Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,              Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,              In-Ae%Song%NULL%1,              Young-Tae%Jeon%NULL%1,              Philip P.%Foster%NULL%2,              Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,              Marco%Schiavone%NULL%1,              Antonio%Curnis%NULL%1,              Marcello%Arca%NULL%1,              Spinello%Antinori%NULL%1,              Alessio%Gasperetti%NULL%1,              Giosuè%Mascioli%NULL%1,              Paolo%Severino%NULL%1,              Federica%Sabato%NULL%1,              Maria M.%Caracciolo%NULL%1,              Gianmarco%Arabia%NULL%1,              Laura%D'Erasmo%NULL%1,              Maurizio%Viecca%NULL%1,              Massimo%Mancone%NULL%1,              Massimo%Galli%NULL%1,              Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,              Zhun%Cao%NULL%1,              Jake%Gundrum%NULL%1,              Jim%Sianis%NULL%1,              Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,              Michele%Ciccarelli%NULL%0,              Michele%Ciccarelli%NULL%0,              Dario%Bruzzese%NULL%1,              Andrea%Dipasquale%NULL%1,              Andrea G.%Lania%NULL%1,              Gherardo%Mazziotti%NULL%1,              Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,              Kathy W.%Belk%NULL%1,              Michael%Topmiller%NULL%1,              Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,              Sarah B.%Hays%NULL%1,              Constance E.%Panton%NULL%2,              Constance E.%Panton%NULL%0,              Evangelia K.%Mylona%NULL%1,              Markos%Kalligeros%NULL%1,              Fadi%Shehadeh%NULL%1,              Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,              Amy M.%Sitapati%NULL%1,              Jing%Zhang%NULL%1,              Jingjing%Zou%NULL%1,              Quan M.%Bui%NULL%1,              Junting%Ren%NULL%1,              Christopher A.%Longhurst%NULL%1,              Michael H.%Criqui%NULL%1,              Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,              Antoon%Bronselaer%NULL%1,              James T.%Teo%NULL%1,              Geert%Byttebier%NULL%1,              Guy%De Tré%NULL%1,              Luc%Belmans%NULL%1,              Richard%Dobson%NULL%1,              Evelien%Wynendaele%NULL%1,              Christophe%Van De Wiele%NULL%1,              Filip%Vandaele%NULL%1,              Diemer%Van Dijck%NULL%1,              Dan%Bean%NULL%1,              David%Fedson%NULL%1,              Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1881,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1731,10 +1907,10 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1763,7 +1939,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1792,7 +1968,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1821,7 +1997,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1850,7 +2026,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1879,7 +2055,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1908,7 +2084,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -1937,7 +2113,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -1966,7 +2142,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -1995,7 +2171,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -2021,10 +2197,10 @@
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -2050,10 +2226,10 @@
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2082,7 +2258,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -2111,7 +2287,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2140,7 +2316,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2169,7 +2345,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -2198,7 +2374,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2227,7 +2403,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2256,7 +2432,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2285,7 +2461,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="439">
   <si>
     <t>Doi</t>
   </si>
@@ -1532,6 +1532,69 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,              Antoon%Bronselaer%NULL%1,              James T.%Teo%NULL%1,              Geert%Byttebier%NULL%1,              Guy%De Tré%NULL%1,              Luc%Belmans%NULL%1,              Richard%Dobson%NULL%1,              Evelien%Wynendaele%NULL%1,              Christophe%Van De Wiele%NULL%1,              Filip%Vandaele%NULL%1,              Diemer%Van Dijck%NULL%1,              Dan%Bean%NULL%1,              David%Fedson%NULL%1,              Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,               Juhee%Ahn%ahnjuhee23@gmail.com%1,               Juhong%Park%parkjh@nhis.or.kr%1,               Chang%Kyung Kang%zeptemiger@hanmail.net%1,               Sung-Ho%Won%sunghow@gmail.com%1,               Dong%Wook Kim%kimdw2269@gmail.com%1,               Jong-Heon%Park%parkjh@nhis.or.kr%1,               Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,               Joon-Sung%Joh%ssabana777@gmail.com%1,               Ji Hwan%Bang%roundbirch@gmail.com%1,               Cheong%Hee Kang%chkangmd@nhis.or.kr%1,               Wook%Bum Pyun%pwb423@ewha.ac.kr%1,               Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,               Tania%Dehesh%NULL%1,               Farnaz%Aligolighasemabadi%NULL%1,               Mohammadamin%Sadeghdoust%NULL%1,               Katarzyna%Kotfis%NULL%1,               Mazaher%Ahmadi%NULL%1,               Parvaneh%Mehrbod%NULL%1,               Pooya%Iranpour%NULL%1,               Sanaz%Dastghaib%NULL%1,               Ahmad%Nasimian%NULL%1,               Amir%Ravandi%NULL%1,               Biniam%Kidane%NULL%1,               Naseer%Ahmed%NULL%1,               Pawan%Sharma%NULL%1,               Shahla%Shojaei%NULL%1,               Kamran%Bagheri Lankarani%NULL%1,               Andrzej%Madej%NULL%1,               Nima%Rezaei%NULL%1,               Tayyebeh%Madrakian%NULL%1,               Marek J.%Los%NULL%1,               Hagar Ibrahim%Labouta%NULL%1,               Pooneh%Mokarram%NULL%1,               Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,               Tao%Guo%NULL%1,               Feifei%Yan%NULL%1,               Ming%Gong%NULL%1,               Xin A.%Zhang%NULL%1,               Chenze%Li%NULL%1,               Tao%He%NULL%0,               Huimin%Luo%NULL%1,               Lin%Zhang%NULL%0,               Ming%Chen%NULL%0,               Xiaoyan%Wu%NULL%0,               Hairong%Wang%NULL%0,               Ke-Qiong%Deng%NULL%1,               Jiao%Bai%NULL%1,               Lin%Cai%NULL%1,               Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,               Thomas Alexander%Gerds%NULL%2,               Thomas Alexander%Gerds%NULL%0,               Morten%Schou%NULL%1,               Kristian%Kragholm%NULL%1,               Matthew%Phelps%NULL%1,               Eva%Havers-Borgersen%NULL%1,               Adelina%Yafasova%NULL%1,               Gunnar Hilmar%Gislason%NULL%1,               Christian%Torp-Pedersen%NULL%1,               Lars%Køber%NULL%1,               Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,               Eudald%Correig%NULL%1,               Cèlia%Rodríguez-Borjabad%NULL%1,               Eva%Anoro%NULL%1,               Juan Antonio%Arroyo%NULL%1,               Carlos%Jericó%NULL%1,               Angels%Pedragosa%NULL%1,               Marcel·la%Miret%NULL%1,               Silvia%Näf%NULL%1,               Anna%Pardo%NULL%1,               Verónica%Perea%NULL%1,               Rosa%Pérez-Bernalte%NULL%1,               Núria%Plana%NULL%1,               Rafael%Ramírez-Montesinos%NULL%1,               Meritxell%Royuela%NULL%1,               Cristina%Soler%NULL%1,               Maria%Urquizu-Padilla%NULL%1,               Alberto%Zamora%NULL%1,               Juan%Pedro-Botet%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,               Francesco%Castagna%NULL%2,               Francesco%Castagna%NULL%0,               Ilir%Agalliu%NULL%2,               Ilir%Agalliu%NULL%0,               Xiaonan%Xue%NULL%2,               Xiaonan%Xue%NULL%0,               Snehal R.%Patel%NULL%1,               Yogita%Rochlani%NULL%1,               Rachna%Kataria%NULL%1,               Sasa%Vukelic%NULL%1,               Daniel B.%Sims%NULL%1,               Chikezie%Alvarez%NULL%1,               Mercedes%Rivas‐Lasarte%NULL%2,               Mercedes%Rivas‐Lasarte%NULL%0,               Mario J.%Garcia%NULL%2,               Mario J.%Garcia%NULL%0,               Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,             Antonelli%M.%coreGivesNoEmail%1,             Bellani%G.%coreGivesNoEmail%1,             Bonanomi%E.%coreGivesNoEmail%1,             Cabrini%L.%coreGivesNoEmail%1,             Carlesso%E.%coreGivesNoEmail%1,             Castelli%G.%coreGivesNoEmail%1,             Cattaneo%S.%coreGivesNoEmail%1,             Cecconi%M.%coreGivesNoEmail%1,             Cereda%D.%coreGivesNoEmail%1,             Colombo%S.%coreGivesNoEmail%1,             Coluccello%A.%coreGivesNoEmail%1,             Crescini%G.%coreGivesNoEmail%1,             Forastieri%Molinari A.%coreGivesNoEmail%1,             Foti%G.%coreGivesNoEmail%1,             Fumagalli%R.%coreGivesNoEmail%1,             Grasselli%G.%coreGivesNoEmail%1,             Greco%M.%coreGivesNoEmail%1,             Iotti%G. A.%coreGivesNoEmail%1,             Langer%T.%coreGivesNoEmail%1,             Latronico%N.%coreGivesNoEmail%1,             Lorini%F. L.%coreGivesNoEmail%1,             Mojoli%F.%coreGivesNoEmail%1,             Natalini%G.%coreGivesNoEmail%1,             Pesenti%A.%coreGivesNoEmail%1,             Pessina%C. M.%coreGivesNoEmail%1,             Ranieri%V. M.%coreGivesNoEmail%1,             Rech%R.%coreGivesNoEmail%1,             Rosano%A.%coreGivesNoEmail%1,             Scudeller%L.%coreGivesNoEmail%1,             Storti%E.%coreGivesNoEmail%1,             Thompson%B. T.%coreGivesNoEmail%1,             Tirani%M.%coreGivesNoEmail%1,             Villani%P. G.%coreGivesNoEmail%1,             Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,               Daniela Patricia%Trelles-Garcia%NULL%2,               Daniela Patricia%Trelles-Garcia%NULL%0,               Maria Adriana%Yanez-Bello%NULL%1,               Chul Won%Chung%NULL%1,               Valeria Patricia%Trelles-Garcia%NULL%1,               Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,               Juan-Juan%Qin%NULL%1,               Xu%Cheng%NULL%1,               Lijun%Shen%NULL%1,               Yan-Ci%Zhao%NULL%1,               Yufeng%Yuan%NULL%1,               Fang%Lei%NULL%1,               Ming-Ming%Chen%NULL%1,               Huilin%Yang%NULL%1,               Liangjie%Bai%NULL%1,               Xiaohui%Song%NULL%1,               Lijin%Lin%NULL%1,               Meng%Xia%NULL%1,               Feng%Zhou%NULL%1,               Jianghua%Zhou%NULL%1,               Zhi-Gang%She%NULL%1,               Lihua%Zhu%NULL%1,               Xinliang%Ma%NULL%1,               Qingbo%Xu%NULL%1,               Ping%Ye%NULL%1,               Guohua%Chen%NULL%1,               Liming%Liu%NULL%1,               Weiming%Mao%NULL%1,               Youqin%Yan%NULL%1,               Bing%Xiao%NULL%1,               Zhigang%Lu%NULL%1,               Gang%Peng%NULL%1,               Mingyu%Liu%NULL%1,               Jun%Yang%NULL%1,               Luyu%Yang%NULL%1,               Changjiang%Zhang%NULL%1,               Haofeng%Lu%NULL%1,               Xigang%Xia%NULL%1,               Daihong%Wang%NULL%1,               Xiaofeng%Liao%NULL%1,               Xiang%Wei%NULL%1,               Bing-Hong%Zhang%NULL%1,               Xin%Zhang%NULL%2,               Juan%Yang%NULL%1,               Guang-Nian%Zhao%NULL%1,               Peng%Zhang%NULL%0,               Peter P.%Liu%NULL%1,               Rohit%Loomba%NULL%1,               Yan-Xiao%Ji%NULL%1,               Jiahong%Xia%jiahong.xia@hust.edu.cn%1,               Yibin%Wang%yibinwang@mednet.ucla.edu%1,               Jingjing%Cai%caijingjing83@hotmail.com%1,               Jiao%Guo%guoj@gdpu.edu.cn%1,               Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,               Robert%DeJoy%NULL%1,               Kevin Bryan%Lo%NULL%0,               Jeri%Albano%NULL%0,               Eric%Peterson%NULL%0,               Ruchika%Bhargav%NULL%0,               Fahad%Gu%NULL%1,               Grace%Salacup%NULL%1,               Jerald%Pelayo%NULL%0,               Zurab%Azmaiparashvili%NULL%0,               Janani%Rangaswami%NULL%0,               Gabriel%Patarroyo-Aponte%NULL%1,               Sadia%Benzaquen%NULL%0,               Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,               Luke%Wooster%NULL%1,               Haakon H.%Sigurslid%NULL%1,               Rebecca H.%Li%NULL%1,               Wanlin%Jiang%NULL%1,               Wenjie%Tian%NULL%1,               Christian L.%Lino Cardenas%NULL%1,               Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,               Mahesh V.%Madhavan%NULL%2,               Mahesh V.%Madhavan%NULL%0,               Timothy J.%Poterucha%NULL%2,               Timothy J.%Poterucha%NULL%0,               Ersilia M.%DeFilippis%NULL%1,               Jessica A.%Hennessey%NULL%1,               Bjorn%Redfors%NULL%1,               Christina%Eckhardt%NULL%1,               Behnood%Bikdeli%NULL%1,               Jonathan%Platt%NULL%1,               Ani%Nalbandian%NULL%1,               Pierre%Elias%NULL%2,               Pierre%Elias%NULL%0,               Matthew J.%Cummings%NULL%2,               Matthew J.%Cummings%NULL%0,               Shayan N.%Nouri%NULL%1,               Matthew%Lawlor%NULL%1,               Lauren S.%Ranard%NULL%1,               Jianhua%Li%NULL%2,               Jianhua%Li%NULL%0,               Claudia%Boyle%NULL%1,               Raymond%Givens%NULL%1,               Daniel%Brodie%NULL%0,               Harlan M.%Krumholz%NULL%2,               Harlan M.%Krumholz%NULL%0,               Gregg W.%Stone%NULL%2,               Gregg W.%Stone%NULL%0,               Sanjum S.%Sethi%NULL%1,               Daniel%Burkhoff%NULL%1,               Nir%Uriel%NULL%1,               Allan%Schwartz%NULL%0,               Martin B.%Leon%NULL%1,               Ajay J.%Kirtane%NULL%1,               Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,               Sahil A.%Parikh%NULL%2,               Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,               Louis%Potier%NULL%2,               Louis%Potier%NULL%0,               Pierre%Gourdy%NULL%2,               Pierre%Gourdy%NULL%0,               Matthieu%Pichelin%NULL%2,               Matthieu%Pichelin%NULL%0,               Coralie%Amadou%NULL%2,               Coralie%Amadou%NULL%0,               Pierre-Yves%Benhamou%NULL%2,               Pierre-Yves%Benhamou%NULL%0,               Jean-Baptiste%Bonnet%NULL%1,               Lyse%Bordier%NULL%1,               Olivier%Bourron%NULL%1,               Claude%Chaumeil%NULL%2,               Claude%Chaumeil%NULL%0,               Nicolas%Chevalier%NULL%1,               Patrice%Darmon%NULL%2,               Patrice%Darmon%NULL%0,               Blandine%Delenne%NULL%2,               Blandine%Delenne%NULL%0,               Delphine%Demarsy%NULL%1,               Marie%Dumas%NULL%1,               Olivier%Dupuy%NULL%1,               Anna%Flaus-Furmaniuk%NULL%2,               Anna%Flaus-Furmaniuk%NULL%0,               Jean-François%Gautier%NULL%1,               Anne-Marie%Guedj%NULL%2,               Anne-Marie%Guedj%NULL%0,               Nathalie%Jeandidier%NULL%1,               Etienne%Larger%NULL%1,               Jean-Philippe%Le Berre%NULL%1,               Myriam%Lungo%NULL%1,               Nathanaëlle%Montanier%NULL%1,               Philippe%Moulin%NULL%1,               Françoise%Plat%NULL%1,               Vincent%Rigalleau%NULL%1,               René%Robert%NULL%1,               Dominique%Seret-Bégué%NULL%2,               Dominique%Seret-Bégué%NULL%0,               Pierre%Sérusclat%NULL%1,               Sarra%Smati%NULL%1,               Jean-François%Thébaut%NULL%1,               Blandine%Tramunt%NULL%2,               Blandine%Tramunt%NULL%0,               Camille%Vatier%NULL%1,               Fritz-Line%Velayoudom%NULL%2,               Fritz-Line%Velayoudom%NULL%0,               Bruno%Vergès%NULL%1,               Patrice%Winiszewski%NULL%1,               Audrey%Zabulon%NULL%1,               Pierre-Antoine%Gourraud%NULL%1,               Ronan%Roussel%NULL%2,               Ronan%Roussel%NULL%0,               Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,               Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,               Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,               In-Ae%Song%NULL%1,               Young-Tae%Jeon%NULL%1,               Philip P.%Foster%NULL%2,               Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,               Marco%Schiavone%NULL%1,               Antonio%Curnis%NULL%1,               Marcello%Arca%NULL%1,               Spinello%Antinori%NULL%1,               Alessio%Gasperetti%NULL%1,               Giosuè%Mascioli%NULL%1,               Paolo%Severino%NULL%1,               Federica%Sabato%NULL%1,               Maria M.%Caracciolo%NULL%1,               Gianmarco%Arabia%NULL%1,               Laura%D'Erasmo%NULL%1,               Maurizio%Viecca%NULL%1,               Massimo%Mancone%NULL%1,               Massimo%Galli%NULL%1,               Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,               Zhun%Cao%NULL%1,               Jake%Gundrum%NULL%1,               Jim%Sianis%NULL%1,               Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,               Michele%Ciccarelli%NULL%0,               Michele%Ciccarelli%NULL%0,               Dario%Bruzzese%NULL%1,               Andrea%Dipasquale%NULL%1,               Andrea G.%Lania%NULL%1,               Gherardo%Mazziotti%NULL%1,               Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,               Kathy W.%Belk%NULL%1,               Michael%Topmiller%NULL%1,               Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,               Sarah B.%Hays%NULL%1,               Constance E.%Panton%NULL%2,               Constance E.%Panton%NULL%0,               Evangelia K.%Mylona%NULL%1,               Markos%Kalligeros%NULL%1,               Fadi%Shehadeh%NULL%1,               Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,               Amy M.%Sitapati%NULL%1,               Jing%Zhang%NULL%1,               Jingjing%Zou%NULL%1,               Quan M.%Bui%NULL%1,               Junting%Ren%NULL%1,               Christopher A.%Longhurst%NULL%1,               Michael H.%Criqui%NULL%1,               Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,               Antoon%Bronselaer%NULL%1,               James T.%Teo%NULL%1,               Geert%Byttebier%NULL%1,               Guy%De Tré%NULL%1,               Luc%Belmans%NULL%1,               Richard%Dobson%NULL%1,               Evelien%Wynendaele%NULL%1,               Christophe%Van De Wiele%NULL%1,               Filip%Vandaele%NULL%1,               Diemer%Van Dijck%NULL%1,               Dan%Bean%NULL%1,               David%Fedson%NULL%1,               Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1944,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1910,7 +1973,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1939,7 +2002,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1968,7 +2031,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1997,7 +2060,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2026,7 +2089,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2055,7 +2118,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2084,7 +2147,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -2113,7 +2176,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -2142,7 +2205,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -2171,7 +2234,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -2200,7 +2263,7 @@
         <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -2229,7 +2292,7 @@
         <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2258,7 +2321,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -2287,7 +2350,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2316,7 +2379,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2345,7 +2408,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -2374,7 +2437,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2403,7 +2466,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2432,7 +2495,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2461,7 +2524,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="460">
   <si>
     <t>Doi</t>
   </si>
@@ -1595,6 +1595,69 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,               Antoon%Bronselaer%NULL%1,               James T.%Teo%NULL%1,               Geert%Byttebier%NULL%1,               Guy%De Tré%NULL%1,               Luc%Belmans%NULL%1,               Richard%Dobson%NULL%1,               Evelien%Wynendaele%NULL%1,               Christophe%Van De Wiele%NULL%1,               Filip%Vandaele%NULL%1,               Diemer%Van Dijck%NULL%1,               Dan%Bean%NULL%1,               David%Fedson%NULL%1,               Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                Juhee%Ahn%ahnjuhee23@gmail.com%1,                Juhong%Park%parkjh@nhis.or.kr%1,                Chang%Kyung Kang%zeptemiger@hanmail.net%1,                Sung-Ho%Won%sunghow@gmail.com%1,                Dong%Wook Kim%kimdw2269@gmail.com%1,                Jong-Heon%Park%parkjh@nhis.or.kr%1,                Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                Joon-Sung%Joh%ssabana777@gmail.com%1,                Ji Hwan%Bang%roundbirch@gmail.com%1,                Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                Tania%Dehesh%NULL%1,                Farnaz%Aligolighasemabadi%NULL%1,                Mohammadamin%Sadeghdoust%NULL%1,                Katarzyna%Kotfis%NULL%1,                Mazaher%Ahmadi%NULL%1,                Parvaneh%Mehrbod%NULL%1,                Pooya%Iranpour%NULL%1,                Sanaz%Dastghaib%NULL%1,                Ahmad%Nasimian%NULL%1,                Amir%Ravandi%NULL%1,                Biniam%Kidane%NULL%1,                Naseer%Ahmed%NULL%1,                Pawan%Sharma%NULL%1,                Shahla%Shojaei%NULL%1,                Kamran%Bagheri Lankarani%NULL%1,                Andrzej%Madej%NULL%1,                Nima%Rezaei%NULL%1,                Tayyebeh%Madrakian%NULL%1,                Marek J.%Los%NULL%1,                Hagar Ibrahim%Labouta%NULL%1,                Pooneh%Mokarram%NULL%1,                Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                Tao%Guo%NULL%1,                Feifei%Yan%NULL%1,                Ming%Gong%NULL%1,                Xin A.%Zhang%NULL%1,                Chenze%Li%NULL%1,                Tao%He%NULL%0,                Huimin%Luo%NULL%1,                Lin%Zhang%NULL%0,                Ming%Chen%NULL%0,                Xiaoyan%Wu%NULL%0,                Hairong%Wang%NULL%0,                Ke-Qiong%Deng%NULL%1,                Jiao%Bai%NULL%1,                Lin%Cai%NULL%1,                Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                Thomas Alexander%Gerds%NULL%2,                Thomas Alexander%Gerds%NULL%0,                Morten%Schou%NULL%1,                Kristian%Kragholm%NULL%1,                Matthew%Phelps%NULL%1,                Eva%Havers-Borgersen%NULL%1,                Adelina%Yafasova%NULL%1,                Gunnar Hilmar%Gislason%NULL%1,                Christian%Torp-Pedersen%NULL%1,                Lars%Køber%NULL%1,                Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                Eudald%Correig%NULL%1,                Cèlia%Rodríguez-Borjabad%NULL%1,                Eva%Anoro%NULL%1,                Juan Antonio%Arroyo%NULL%1,                Carlos%Jericó%NULL%1,                Angels%Pedragosa%NULL%1,                Marcel·la%Miret%NULL%1,                Silvia%Näf%NULL%1,                Anna%Pardo%NULL%1,                Verónica%Perea%NULL%1,                Rosa%Pérez-Bernalte%NULL%1,                Núria%Plana%NULL%1,                Rafael%Ramírez-Montesinos%NULL%1,                Meritxell%Royuela%NULL%1,                Cristina%Soler%NULL%1,                Maria%Urquizu-Padilla%NULL%1,                Alberto%Zamora%NULL%1,                Juan%Pedro-Botet%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                Francesco%Castagna%NULL%2,                Francesco%Castagna%NULL%0,                Ilir%Agalliu%NULL%2,                Ilir%Agalliu%NULL%0,                Xiaonan%Xue%NULL%2,                Xiaonan%Xue%NULL%0,                Snehal R.%Patel%NULL%1,                Yogita%Rochlani%NULL%1,                Rachna%Kataria%NULL%1,                Sasa%Vukelic%NULL%1,                Daniel B.%Sims%NULL%1,                Chikezie%Alvarez%NULL%1,                Mercedes%Rivas‐Lasarte%NULL%2,                Mercedes%Rivas‐Lasarte%NULL%0,                Mario J.%Garcia%NULL%2,                Mario J.%Garcia%NULL%0,                Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,              Antonelli%M.%coreGivesNoEmail%1,              Bellani%G.%coreGivesNoEmail%1,              Bonanomi%E.%coreGivesNoEmail%1,              Cabrini%L.%coreGivesNoEmail%1,              Carlesso%E.%coreGivesNoEmail%1,              Castelli%G.%coreGivesNoEmail%1,              Cattaneo%S.%coreGivesNoEmail%1,              Cecconi%M.%coreGivesNoEmail%1,              Cereda%D.%coreGivesNoEmail%1,              Colombo%S.%coreGivesNoEmail%1,              Coluccello%A.%coreGivesNoEmail%1,              Crescini%G.%coreGivesNoEmail%1,              Forastieri%Molinari A.%coreGivesNoEmail%1,              Foti%G.%coreGivesNoEmail%1,              Fumagalli%R.%coreGivesNoEmail%1,              Grasselli%G.%coreGivesNoEmail%1,              Greco%M.%coreGivesNoEmail%1,              Iotti%G. A.%coreGivesNoEmail%1,              Langer%T.%coreGivesNoEmail%1,              Latronico%N.%coreGivesNoEmail%1,              Lorini%F. L.%coreGivesNoEmail%1,              Mojoli%F.%coreGivesNoEmail%1,              Natalini%G.%coreGivesNoEmail%1,              Pesenti%A.%coreGivesNoEmail%1,              Pessina%C. M.%coreGivesNoEmail%1,              Ranieri%V. M.%coreGivesNoEmail%1,              Rech%R.%coreGivesNoEmail%1,              Rosano%A.%coreGivesNoEmail%1,              Scudeller%L.%coreGivesNoEmail%1,              Storti%E.%coreGivesNoEmail%1,              Thompson%B. T.%coreGivesNoEmail%1,              Tirani%M.%coreGivesNoEmail%1,              Villani%P. G.%coreGivesNoEmail%1,              Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                Daniela Patricia%Trelles-Garcia%NULL%2,                Daniela Patricia%Trelles-Garcia%NULL%0,                Maria Adriana%Yanez-Bello%NULL%1,                Chul Won%Chung%NULL%1,                Valeria Patricia%Trelles-Garcia%NULL%1,                Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                Juan-Juan%Qin%NULL%1,                Xu%Cheng%NULL%1,                Lijun%Shen%NULL%1,                Yan-Ci%Zhao%NULL%1,                Yufeng%Yuan%NULL%1,                Fang%Lei%NULL%1,                Ming-Ming%Chen%NULL%1,                Huilin%Yang%NULL%1,                Liangjie%Bai%NULL%1,                Xiaohui%Song%NULL%1,                Lijin%Lin%NULL%1,                Meng%Xia%NULL%1,                Feng%Zhou%NULL%1,                Jianghua%Zhou%NULL%1,                Zhi-Gang%She%NULL%1,                Lihua%Zhu%NULL%1,                Xinliang%Ma%NULL%1,                Qingbo%Xu%NULL%1,                Ping%Ye%NULL%1,                Guohua%Chen%NULL%1,                Liming%Liu%NULL%1,                Weiming%Mao%NULL%1,                Youqin%Yan%NULL%1,                Bing%Xiao%NULL%1,                Zhigang%Lu%NULL%1,                Gang%Peng%NULL%1,                Mingyu%Liu%NULL%1,                Jun%Yang%NULL%1,                Luyu%Yang%NULL%1,                Changjiang%Zhang%NULL%1,                Haofeng%Lu%NULL%1,                Xigang%Xia%NULL%1,                Daihong%Wang%NULL%1,                Xiaofeng%Liao%NULL%1,                Xiang%Wei%NULL%1,                Bing-Hong%Zhang%NULL%1,                Xin%Zhang%NULL%2,                Juan%Yang%NULL%1,                Guang-Nian%Zhao%NULL%1,                Peng%Zhang%NULL%0,                Peter P.%Liu%NULL%1,                Rohit%Loomba%NULL%1,                Yan-Xiao%Ji%NULL%1,                Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                Yibin%Wang%yibinwang@mednet.ucla.edu%1,                Jingjing%Cai%caijingjing83@hotmail.com%1,                Jiao%Guo%guoj@gdpu.edu.cn%1,                Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                Robert%DeJoy%NULL%1,                Kevin Bryan%Lo%NULL%0,                Jeri%Albano%NULL%0,                Eric%Peterson%NULL%0,                Ruchika%Bhargav%NULL%0,                Fahad%Gu%NULL%1,                Grace%Salacup%NULL%1,                Jerald%Pelayo%NULL%0,                Zurab%Azmaiparashvili%NULL%0,                Janani%Rangaswami%NULL%0,                Gabriel%Patarroyo-Aponte%NULL%1,                Sadia%Benzaquen%NULL%0,                Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                Luke%Wooster%NULL%1,                Haakon H.%Sigurslid%NULL%1,                Rebecca H.%Li%NULL%1,                Wanlin%Jiang%NULL%1,                Wenjie%Tian%NULL%1,                Christian L.%Lino Cardenas%NULL%1,                Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                Mahesh V.%Madhavan%NULL%2,                Mahesh V.%Madhavan%NULL%0,                Timothy J.%Poterucha%NULL%2,                Timothy J.%Poterucha%NULL%0,                Ersilia M.%DeFilippis%NULL%1,                Jessica A.%Hennessey%NULL%1,                Bjorn%Redfors%NULL%1,                Christina%Eckhardt%NULL%1,                Behnood%Bikdeli%NULL%1,                Jonathan%Platt%NULL%1,                Ani%Nalbandian%NULL%1,                Pierre%Elias%NULL%2,                Pierre%Elias%NULL%0,                Matthew J.%Cummings%NULL%2,                Matthew J.%Cummings%NULL%0,                Shayan N.%Nouri%NULL%1,                Matthew%Lawlor%NULL%1,                Lauren S.%Ranard%NULL%1,                Jianhua%Li%NULL%2,                Jianhua%Li%NULL%0,                Claudia%Boyle%NULL%1,                Raymond%Givens%NULL%1,                Daniel%Brodie%NULL%0,                Harlan M.%Krumholz%NULL%2,                Harlan M.%Krumholz%NULL%0,                Gregg W.%Stone%NULL%2,                Gregg W.%Stone%NULL%0,                Sanjum S.%Sethi%NULL%1,                Daniel%Burkhoff%NULL%1,                Nir%Uriel%NULL%1,                Allan%Schwartz%NULL%0,                Martin B.%Leon%NULL%1,                Ajay J.%Kirtane%NULL%1,                Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                Sahil A.%Parikh%NULL%2,                Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                Louis%Potier%NULL%2,                Louis%Potier%NULL%0,                Pierre%Gourdy%NULL%2,                Pierre%Gourdy%NULL%0,                Matthieu%Pichelin%NULL%2,                Matthieu%Pichelin%NULL%0,                Coralie%Amadou%NULL%2,                Coralie%Amadou%NULL%0,                Pierre-Yves%Benhamou%NULL%2,                Pierre-Yves%Benhamou%NULL%0,                Jean-Baptiste%Bonnet%NULL%1,                Lyse%Bordier%NULL%1,                Olivier%Bourron%NULL%1,                Claude%Chaumeil%NULL%2,                Claude%Chaumeil%NULL%0,                Nicolas%Chevalier%NULL%1,                Patrice%Darmon%NULL%2,                Patrice%Darmon%NULL%0,                Blandine%Delenne%NULL%2,                Blandine%Delenne%NULL%0,                Delphine%Demarsy%NULL%1,                Marie%Dumas%NULL%1,                Olivier%Dupuy%NULL%1,                Anna%Flaus-Furmaniuk%NULL%2,                Anna%Flaus-Furmaniuk%NULL%0,                Jean-François%Gautier%NULL%1,                Anne-Marie%Guedj%NULL%2,                Anne-Marie%Guedj%NULL%0,                Nathalie%Jeandidier%NULL%1,                Etienne%Larger%NULL%1,                Jean-Philippe%Le Berre%NULL%1,                Myriam%Lungo%NULL%1,                Nathanaëlle%Montanier%NULL%1,                Philippe%Moulin%NULL%1,                Françoise%Plat%NULL%1,                Vincent%Rigalleau%NULL%1,                René%Robert%NULL%1,                Dominique%Seret-Bégué%NULL%2,                Dominique%Seret-Bégué%NULL%0,                Pierre%Sérusclat%NULL%1,                Sarra%Smati%NULL%1,                Jean-François%Thébaut%NULL%1,                Blandine%Tramunt%NULL%2,                Blandine%Tramunt%NULL%0,                Camille%Vatier%NULL%1,                Fritz-Line%Velayoudom%NULL%2,                Fritz-Line%Velayoudom%NULL%0,                Bruno%Vergès%NULL%1,                Patrice%Winiszewski%NULL%1,                Audrey%Zabulon%NULL%1,                Pierre-Antoine%Gourraud%NULL%1,                Ronan%Roussel%NULL%2,                Ronan%Roussel%NULL%0,                Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                In-Ae%Song%NULL%1,                Young-Tae%Jeon%NULL%1,                Philip P.%Foster%NULL%2,                Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                Marco%Schiavone%NULL%1,                Antonio%Curnis%NULL%1,                Marcello%Arca%NULL%1,                Spinello%Antinori%NULL%1,                Alessio%Gasperetti%NULL%1,                Giosuè%Mascioli%NULL%1,                Paolo%Severino%NULL%1,                Federica%Sabato%NULL%1,                Maria M.%Caracciolo%NULL%1,                Gianmarco%Arabia%NULL%1,                Laura%D'Erasmo%NULL%1,                Maurizio%Viecca%NULL%1,                Massimo%Mancone%NULL%1,                Massimo%Galli%NULL%1,                Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                Zhun%Cao%NULL%1,                Jake%Gundrum%NULL%1,                Jim%Sianis%NULL%1,                Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                Michele%Ciccarelli%NULL%0,                Michele%Ciccarelli%NULL%0,                Dario%Bruzzese%NULL%1,                Andrea%Dipasquale%NULL%1,                Andrea G.%Lania%NULL%1,                Gherardo%Mazziotti%NULL%1,                Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                Kathy W.%Belk%NULL%1,                Michael%Topmiller%NULL%1,                Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                Sarah B.%Hays%NULL%1,                Constance E.%Panton%NULL%2,                Constance E.%Panton%NULL%0,                Evangelia K.%Mylona%NULL%1,                Markos%Kalligeros%NULL%1,                Fadi%Shehadeh%NULL%1,                Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                Amy M.%Sitapati%NULL%1,                Jing%Zhang%NULL%1,                Jingjing%Zou%NULL%1,                Quan M.%Bui%NULL%1,                Junting%Ren%NULL%1,                Christopher A.%Longhurst%NULL%1,                Michael H.%Criqui%NULL%1,                Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                Antoon%Bronselaer%NULL%1,                James T.%Teo%NULL%1,                Geert%Byttebier%NULL%1,                Guy%De Tré%NULL%1,                Luc%Belmans%NULL%1,                Richard%Dobson%NULL%1,                Evelien%Wynendaele%NULL%1,                Christophe%Van De Wiele%NULL%1,                Filip%Vandaele%NULL%1,                Diemer%Van Dijck%NULL%1,                Dan%Bean%NULL%1,                David%Fedson%NULL%1,                Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +2007,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -1973,7 +2036,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2002,7 +2065,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2031,7 +2094,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2060,7 +2123,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2089,7 +2152,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2118,7 +2181,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2147,7 +2210,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -2176,7 +2239,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -2205,7 +2268,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -2234,7 +2297,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -2263,7 +2326,7 @@
         <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -2292,7 +2355,7 @@
         <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2321,7 +2384,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -2350,7 +2413,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2379,7 +2442,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2408,7 +2471,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -2437,7 +2500,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2466,7 +2529,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2495,7 +2558,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2524,7 +2587,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="502">
   <si>
     <t>Doi</t>
   </si>
@@ -1658,6 +1658,132 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,                Antoon%Bronselaer%NULL%1,                James T.%Teo%NULL%1,                Geert%Byttebier%NULL%1,                Guy%De Tré%NULL%1,                Luc%Belmans%NULL%1,                Richard%Dobson%NULL%1,                Evelien%Wynendaele%NULL%1,                Christophe%Van De Wiele%NULL%1,                Filip%Vandaele%NULL%1,                Diemer%Van Dijck%NULL%1,                Dan%Bean%NULL%1,                David%Fedson%NULL%1,                Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                 Juhee%Ahn%ahnjuhee23@gmail.com%1,                 Juhong%Park%parkjh@nhis.or.kr%1,                 Chang%Kyung Kang%zeptemiger@hanmail.net%1,                 Sung-Ho%Won%sunghow@gmail.com%1,                 Dong%Wook Kim%kimdw2269@gmail.com%1,                 Jong-Heon%Park%parkjh@nhis.or.kr%1,                 Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                 Joon-Sung%Joh%ssabana777@gmail.com%1,                 Ji Hwan%Bang%roundbirch@gmail.com%1,                 Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                 Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                 Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                 Tania%Dehesh%NULL%1,                 Farnaz%Aligolighasemabadi%NULL%1,                 Mohammadamin%Sadeghdoust%NULL%1,                 Katarzyna%Kotfis%NULL%1,                 Mazaher%Ahmadi%NULL%1,                 Parvaneh%Mehrbod%NULL%1,                 Pooya%Iranpour%NULL%1,                 Sanaz%Dastghaib%NULL%1,                 Ahmad%Nasimian%NULL%1,                 Amir%Ravandi%NULL%1,                 Biniam%Kidane%NULL%1,                 Naseer%Ahmed%NULL%1,                 Pawan%Sharma%NULL%1,                 Shahla%Shojaei%NULL%1,                 Kamran%Bagheri Lankarani%NULL%1,                 Andrzej%Madej%NULL%1,                 Nima%Rezaei%NULL%1,                 Tayyebeh%Madrakian%NULL%1,                 Marek J.%Los%NULL%1,                 Hagar Ibrahim%Labouta%NULL%1,                 Pooneh%Mokarram%NULL%1,                 Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                 Tao%Guo%NULL%1,                 Feifei%Yan%NULL%1,                 Ming%Gong%NULL%1,                 Xin A.%Zhang%NULL%1,                 Chenze%Li%NULL%1,                 Tao%He%NULL%0,                 Huimin%Luo%NULL%1,                 Lin%Zhang%NULL%0,                 Ming%Chen%NULL%0,                 Xiaoyan%Wu%NULL%0,                 Hairong%Wang%NULL%0,                 Ke-Qiong%Deng%NULL%1,                 Jiao%Bai%NULL%1,                 Lin%Cai%NULL%1,                 Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                 Thomas Alexander%Gerds%NULL%2,                 Thomas Alexander%Gerds%NULL%0,                 Morten%Schou%NULL%1,                 Kristian%Kragholm%NULL%1,                 Matthew%Phelps%NULL%1,                 Eva%Havers-Borgersen%NULL%1,                 Adelina%Yafasova%NULL%1,                 Gunnar Hilmar%Gislason%NULL%1,                 Christian%Torp-Pedersen%NULL%1,                 Lars%Køber%NULL%1,                 Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                 Eudald%Correig%NULL%1,                 Cèlia%Rodríguez-Borjabad%NULL%1,                 Eva%Anoro%NULL%1,                 Juan Antonio%Arroyo%NULL%1,                 Carlos%Jericó%NULL%1,                 Angels%Pedragosa%NULL%1,                 Marcel·la%Miret%NULL%1,                 Silvia%Näf%NULL%1,                 Anna%Pardo%NULL%1,                 Verónica%Perea%NULL%1,                 Rosa%Pérez-Bernalte%NULL%1,                 Núria%Plana%NULL%1,                 Rafael%Ramírez-Montesinos%NULL%1,                 Meritxell%Royuela%NULL%1,                 Cristina%Soler%NULL%1,                 Maria%Urquizu-Padilla%NULL%1,                 Alberto%Zamora%NULL%1,                 Juan%Pedro-Botet%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                 Francesco%Castagna%NULL%2,                 Francesco%Castagna%NULL%0,                 Ilir%Agalliu%NULL%2,                 Ilir%Agalliu%NULL%0,                 Xiaonan%Xue%NULL%2,                 Xiaonan%Xue%NULL%0,                 Snehal R.%Patel%NULL%1,                 Yogita%Rochlani%NULL%1,                 Rachna%Kataria%NULL%1,                 Sasa%Vukelic%NULL%1,                 Daniel B.%Sims%NULL%1,                 Chikezie%Alvarez%NULL%1,                 Mercedes%Rivas‐Lasarte%NULL%2,                 Mercedes%Rivas‐Lasarte%NULL%0,                 Mario J.%Garcia%NULL%2,                 Mario J.%Garcia%NULL%0,                 Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,               Antonelli%M.%coreGivesNoEmail%1,               Bellani%G.%coreGivesNoEmail%1,               Bonanomi%E.%coreGivesNoEmail%1,               Cabrini%L.%coreGivesNoEmail%1,               Carlesso%E.%coreGivesNoEmail%1,               Castelli%G.%coreGivesNoEmail%1,               Cattaneo%S.%coreGivesNoEmail%1,               Cecconi%M.%coreGivesNoEmail%1,               Cereda%D.%coreGivesNoEmail%1,               Colombo%S.%coreGivesNoEmail%1,               Coluccello%A.%coreGivesNoEmail%1,               Crescini%G.%coreGivesNoEmail%1,               Forastieri%Molinari A.%coreGivesNoEmail%1,               Foti%G.%coreGivesNoEmail%1,               Fumagalli%R.%coreGivesNoEmail%1,               Grasselli%G.%coreGivesNoEmail%1,               Greco%M.%coreGivesNoEmail%1,               Iotti%G. A.%coreGivesNoEmail%1,               Langer%T.%coreGivesNoEmail%1,               Latronico%N.%coreGivesNoEmail%1,               Lorini%F. L.%coreGivesNoEmail%1,               Mojoli%F.%coreGivesNoEmail%1,               Natalini%G.%coreGivesNoEmail%1,               Pesenti%A.%coreGivesNoEmail%1,               Pessina%C. M.%coreGivesNoEmail%1,               Ranieri%V. M.%coreGivesNoEmail%1,               Rech%R.%coreGivesNoEmail%1,               Rosano%A.%coreGivesNoEmail%1,               Scudeller%L.%coreGivesNoEmail%1,               Storti%E.%coreGivesNoEmail%1,               Thompson%B. T.%coreGivesNoEmail%1,               Tirani%M.%coreGivesNoEmail%1,               Villani%P. G.%coreGivesNoEmail%1,               Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                 Daniela Patricia%Trelles-Garcia%NULL%2,                 Daniela Patricia%Trelles-Garcia%NULL%0,                 Maria Adriana%Yanez-Bello%NULL%1,                 Chul Won%Chung%NULL%1,                 Valeria Patricia%Trelles-Garcia%NULL%1,                 Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                 Juan-Juan%Qin%NULL%1,                 Xu%Cheng%NULL%1,                 Lijun%Shen%NULL%1,                 Yan-Ci%Zhao%NULL%1,                 Yufeng%Yuan%NULL%1,                 Fang%Lei%NULL%1,                 Ming-Ming%Chen%NULL%1,                 Huilin%Yang%NULL%1,                 Liangjie%Bai%NULL%1,                 Xiaohui%Song%NULL%1,                 Lijin%Lin%NULL%1,                 Meng%Xia%NULL%1,                 Feng%Zhou%NULL%1,                 Jianghua%Zhou%NULL%1,                 Zhi-Gang%She%NULL%1,                 Lihua%Zhu%NULL%1,                 Xinliang%Ma%NULL%1,                 Qingbo%Xu%NULL%1,                 Ping%Ye%NULL%1,                 Guohua%Chen%NULL%1,                 Liming%Liu%NULL%1,                 Weiming%Mao%NULL%1,                 Youqin%Yan%NULL%1,                 Bing%Xiao%NULL%1,                 Zhigang%Lu%NULL%1,                 Gang%Peng%NULL%1,                 Mingyu%Liu%NULL%1,                 Jun%Yang%NULL%1,                 Luyu%Yang%NULL%1,                 Changjiang%Zhang%NULL%1,                 Haofeng%Lu%NULL%1,                 Xigang%Xia%NULL%1,                 Daihong%Wang%NULL%1,                 Xiaofeng%Liao%NULL%1,                 Xiang%Wei%NULL%1,                 Bing-Hong%Zhang%NULL%1,                 Xin%Zhang%NULL%2,                 Juan%Yang%NULL%1,                 Guang-Nian%Zhao%NULL%1,                 Peng%Zhang%NULL%0,                 Peter P.%Liu%NULL%1,                 Rohit%Loomba%NULL%1,                 Yan-Xiao%Ji%NULL%1,                 Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                 Yibin%Wang%yibinwang@mednet.ucla.edu%1,                 Jingjing%Cai%caijingjing83@hotmail.com%1,                 Jiao%Guo%guoj@gdpu.edu.cn%1,                 Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                 Robert%DeJoy%NULL%1,                 Kevin Bryan%Lo%NULL%0,                 Jeri%Albano%NULL%0,                 Eric%Peterson%NULL%0,                 Ruchika%Bhargav%NULL%0,                 Fahad%Gu%NULL%1,                 Grace%Salacup%NULL%1,                 Jerald%Pelayo%NULL%0,                 Zurab%Azmaiparashvili%NULL%0,                 Janani%Rangaswami%NULL%0,                 Gabriel%Patarroyo-Aponte%NULL%1,                 Sadia%Benzaquen%NULL%0,                 Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                 Luke%Wooster%NULL%1,                 Haakon H.%Sigurslid%NULL%1,                 Rebecca H.%Li%NULL%1,                 Wanlin%Jiang%NULL%1,                 Wenjie%Tian%NULL%1,                 Christian L.%Lino Cardenas%NULL%1,                 Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                 Mahesh V.%Madhavan%NULL%2,                 Mahesh V.%Madhavan%NULL%0,                 Timothy J.%Poterucha%NULL%2,                 Timothy J.%Poterucha%NULL%0,                 Ersilia M.%DeFilippis%NULL%1,                 Jessica A.%Hennessey%NULL%1,                 Bjorn%Redfors%NULL%1,                 Christina%Eckhardt%NULL%1,                 Behnood%Bikdeli%NULL%1,                 Jonathan%Platt%NULL%1,                 Ani%Nalbandian%NULL%1,                 Pierre%Elias%NULL%2,                 Pierre%Elias%NULL%0,                 Matthew J.%Cummings%NULL%2,                 Matthew J.%Cummings%NULL%0,                 Shayan N.%Nouri%NULL%1,                 Matthew%Lawlor%NULL%1,                 Lauren S.%Ranard%NULL%1,                 Jianhua%Li%NULL%2,                 Jianhua%Li%NULL%0,                 Claudia%Boyle%NULL%1,                 Raymond%Givens%NULL%1,                 Daniel%Brodie%NULL%0,                 Harlan M.%Krumholz%NULL%2,                 Harlan M.%Krumholz%NULL%0,                 Gregg W.%Stone%NULL%2,                 Gregg W.%Stone%NULL%0,                 Sanjum S.%Sethi%NULL%1,                 Daniel%Burkhoff%NULL%1,                 Nir%Uriel%NULL%1,                 Allan%Schwartz%NULL%0,                 Martin B.%Leon%NULL%1,                 Ajay J.%Kirtane%NULL%1,                 Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                 Sahil A.%Parikh%NULL%2,                 Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                 Louis%Potier%NULL%2,                 Louis%Potier%NULL%0,                 Pierre%Gourdy%NULL%2,                 Pierre%Gourdy%NULL%0,                 Matthieu%Pichelin%NULL%2,                 Matthieu%Pichelin%NULL%0,                 Coralie%Amadou%NULL%2,                 Coralie%Amadou%NULL%0,                 Pierre-Yves%Benhamou%NULL%2,                 Pierre-Yves%Benhamou%NULL%0,                 Jean-Baptiste%Bonnet%NULL%1,                 Lyse%Bordier%NULL%1,                 Olivier%Bourron%NULL%1,                 Claude%Chaumeil%NULL%2,                 Claude%Chaumeil%NULL%0,                 Nicolas%Chevalier%NULL%1,                 Patrice%Darmon%NULL%2,                 Patrice%Darmon%NULL%0,                 Blandine%Delenne%NULL%2,                 Blandine%Delenne%NULL%0,                 Delphine%Demarsy%NULL%1,                 Marie%Dumas%NULL%1,                 Olivier%Dupuy%NULL%1,                 Anna%Flaus-Furmaniuk%NULL%2,                 Anna%Flaus-Furmaniuk%NULL%0,                 Jean-François%Gautier%NULL%1,                 Anne-Marie%Guedj%NULL%2,                 Anne-Marie%Guedj%NULL%0,                 Nathalie%Jeandidier%NULL%1,                 Etienne%Larger%NULL%1,                 Jean-Philippe%Le Berre%NULL%1,                 Myriam%Lungo%NULL%1,                 Nathanaëlle%Montanier%NULL%1,                 Philippe%Moulin%NULL%1,                 Françoise%Plat%NULL%1,                 Vincent%Rigalleau%NULL%1,                 René%Robert%NULL%1,                 Dominique%Seret-Bégué%NULL%2,                 Dominique%Seret-Bégué%NULL%0,                 Pierre%Sérusclat%NULL%1,                 Sarra%Smati%NULL%1,                 Jean-François%Thébaut%NULL%1,                 Blandine%Tramunt%NULL%2,                 Blandine%Tramunt%NULL%0,                 Camille%Vatier%NULL%1,                 Fritz-Line%Velayoudom%NULL%2,                 Fritz-Line%Velayoudom%NULL%0,                 Bruno%Vergès%NULL%1,                 Patrice%Winiszewski%NULL%1,                 Audrey%Zabulon%NULL%1,                 Pierre-Antoine%Gourraud%NULL%1,                 Ronan%Roussel%NULL%2,                 Ronan%Roussel%NULL%0,                 Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                 Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                 Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                 In-Ae%Song%NULL%1,                 Young-Tae%Jeon%NULL%1,                 Philip P.%Foster%NULL%2,                 Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                 Marco%Schiavone%NULL%1,                 Antonio%Curnis%NULL%1,                 Marcello%Arca%NULL%1,                 Spinello%Antinori%NULL%1,                 Alessio%Gasperetti%NULL%1,                 Giosuè%Mascioli%NULL%1,                 Paolo%Severino%NULL%1,                 Federica%Sabato%NULL%1,                 Maria M.%Caracciolo%NULL%1,                 Gianmarco%Arabia%NULL%1,                 Laura%D'Erasmo%NULL%1,                 Maurizio%Viecca%NULL%1,                 Massimo%Mancone%NULL%1,                 Massimo%Galli%NULL%1,                 Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                 Zhun%Cao%NULL%1,                 Jake%Gundrum%NULL%1,                 Jim%Sianis%NULL%1,                 Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                 Michele%Ciccarelli%NULL%0,                 Michele%Ciccarelli%NULL%0,                 Dario%Bruzzese%NULL%1,                 Andrea%Dipasquale%NULL%1,                 Andrea G.%Lania%NULL%1,                 Gherardo%Mazziotti%NULL%1,                 Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                 Kathy W.%Belk%NULL%1,                 Michael%Topmiller%NULL%1,                 Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                 Sarah B.%Hays%NULL%1,                 Constance E.%Panton%NULL%2,                 Constance E.%Panton%NULL%0,                 Evangelia K.%Mylona%NULL%1,                 Markos%Kalligeros%NULL%1,                 Fadi%Shehadeh%NULL%1,                 Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                 Amy M.%Sitapati%NULL%1,                 Jing%Zhang%NULL%1,                 Jingjing%Zou%NULL%1,                 Quan M.%Bui%NULL%1,                 Junting%Ren%NULL%1,                 Christopher A.%Longhurst%NULL%1,                 Michael H.%Criqui%NULL%1,                 Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                 Antoon%Bronselaer%NULL%1,                 James T.%Teo%NULL%1,                 Geert%Byttebier%NULL%1,                 Guy%De Tré%NULL%1,                 Luc%Belmans%NULL%1,                 Richard%Dobson%NULL%1,                 Evelien%Wynendaele%NULL%1,                 Christophe%Van De Wiele%NULL%1,                 Filip%Vandaele%NULL%1,                 Diemer%Van Dijck%NULL%1,                 Dan%Bean%NULL%1,                 David%Fedson%NULL%1,                 Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                  Juhee%Ahn%ahnjuhee23@gmail.com%1,                  Juhong%Park%parkjh@nhis.or.kr%1,                  Chang%Kyung Kang%zeptemiger@hanmail.net%1,                  Sung-Ho%Won%sunghow@gmail.com%1,                  Dong%Wook Kim%kimdw2269@gmail.com%1,                  Jong-Heon%Park%parkjh@nhis.or.kr%1,                  Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                  Joon-Sung%Joh%ssabana777@gmail.com%1,                  Ji Hwan%Bang%roundbirch@gmail.com%1,                  Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                  Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                  Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                  Tania%Dehesh%NULL%1,                  Farnaz%Aligolighasemabadi%NULL%1,                  Mohammadamin%Sadeghdoust%NULL%1,                  Katarzyna%Kotfis%NULL%1,                  Mazaher%Ahmadi%NULL%1,                  Parvaneh%Mehrbod%NULL%1,                  Pooya%Iranpour%NULL%1,                  Sanaz%Dastghaib%NULL%1,                  Ahmad%Nasimian%NULL%1,                  Amir%Ravandi%NULL%1,                  Biniam%Kidane%NULL%1,                  Naseer%Ahmed%NULL%1,                  Pawan%Sharma%NULL%1,                  Shahla%Shojaei%NULL%1,                  Kamran%Bagheri Lankarani%NULL%1,                  Andrzej%Madej%NULL%1,                  Nima%Rezaei%NULL%1,                  Tayyebeh%Madrakian%NULL%1,                  Marek J.%Los%NULL%1,                  Hagar Ibrahim%Labouta%NULL%1,                  Pooneh%Mokarram%NULL%1,                  Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                  Tao%Guo%NULL%1,                  Feifei%Yan%NULL%1,                  Ming%Gong%NULL%1,                  Xin A.%Zhang%NULL%1,                  Chenze%Li%NULL%1,                  Tao%He%NULL%0,                  Huimin%Luo%NULL%1,                  Lin%Zhang%NULL%0,                  Ming%Chen%NULL%0,                  Xiaoyan%Wu%NULL%0,                  Hairong%Wang%NULL%0,                  Ke-Qiong%Deng%NULL%1,                  Jiao%Bai%NULL%1,                  Lin%Cai%NULL%1,                  Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                  Thomas Alexander%Gerds%NULL%2,                  Thomas Alexander%Gerds%NULL%0,                  Morten%Schou%NULL%1,                  Kristian%Kragholm%NULL%1,                  Matthew%Phelps%NULL%1,                  Eva%Havers-Borgersen%NULL%1,                  Adelina%Yafasova%NULL%1,                  Gunnar Hilmar%Gislason%NULL%1,                  Christian%Torp-Pedersen%NULL%1,                  Lars%Køber%NULL%1,                  Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                  Eudald%Correig%NULL%1,                  Cèlia%Rodríguez-Borjabad%NULL%1,                  Eva%Anoro%NULL%1,                  Juan Antonio%Arroyo%NULL%1,                  Carlos%Jericó%NULL%1,                  Angels%Pedragosa%NULL%1,                  Marcel·la%Miret%NULL%1,                  Silvia%Näf%NULL%1,                  Anna%Pardo%NULL%1,                  Verónica%Perea%NULL%1,                  Rosa%Pérez-Bernalte%NULL%1,                  Núria%Plana%NULL%1,                  Rafael%Ramírez-Montesinos%NULL%1,                  Meritxell%Royuela%NULL%1,                  Cristina%Soler%NULL%1,                  Maria%Urquizu-Padilla%NULL%1,                  Alberto%Zamora%NULL%1,                  Juan%Pedro-Botet%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                  Francesco%Castagna%NULL%2,                  Francesco%Castagna%NULL%0,                  Ilir%Agalliu%NULL%2,                  Ilir%Agalliu%NULL%0,                  Xiaonan%Xue%NULL%2,                  Xiaonan%Xue%NULL%0,                  Snehal R.%Patel%NULL%1,                  Yogita%Rochlani%NULL%1,                  Rachna%Kataria%NULL%1,                  Sasa%Vukelic%NULL%1,                  Daniel B.%Sims%NULL%1,                  Chikezie%Alvarez%NULL%1,                  Mercedes%Rivas‐Lasarte%NULL%2,                  Mercedes%Rivas‐Lasarte%NULL%0,                  Mario J.%Garcia%NULL%2,                  Mario J.%Garcia%NULL%0,                  Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                Antonelli%M.%coreGivesNoEmail%1,                Bellani%G.%coreGivesNoEmail%1,                Bonanomi%E.%coreGivesNoEmail%1,                Cabrini%L.%coreGivesNoEmail%1,                Carlesso%E.%coreGivesNoEmail%1,                Castelli%G.%coreGivesNoEmail%1,                Cattaneo%S.%coreGivesNoEmail%1,                Cecconi%M.%coreGivesNoEmail%1,                Cereda%D.%coreGivesNoEmail%1,                Colombo%S.%coreGivesNoEmail%1,                Coluccello%A.%coreGivesNoEmail%1,                Crescini%G.%coreGivesNoEmail%1,                Forastieri%Molinari A.%coreGivesNoEmail%1,                Foti%G.%coreGivesNoEmail%1,                Fumagalli%R.%coreGivesNoEmail%1,                Grasselli%G.%coreGivesNoEmail%1,                Greco%M.%coreGivesNoEmail%1,                Iotti%G. A.%coreGivesNoEmail%1,                Langer%T.%coreGivesNoEmail%1,                Latronico%N.%coreGivesNoEmail%1,                Lorini%F. L.%coreGivesNoEmail%1,                Mojoli%F.%coreGivesNoEmail%1,                Natalini%G.%coreGivesNoEmail%1,                Pesenti%A.%coreGivesNoEmail%1,                Pessina%C. M.%coreGivesNoEmail%1,                Ranieri%V. M.%coreGivesNoEmail%1,                Rech%R.%coreGivesNoEmail%1,                Rosano%A.%coreGivesNoEmail%1,                Scudeller%L.%coreGivesNoEmail%1,                Storti%E.%coreGivesNoEmail%1,                Thompson%B. T.%coreGivesNoEmail%1,                Tirani%M.%coreGivesNoEmail%1,                Villani%P. G.%coreGivesNoEmail%1,                Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                  Daniela Patricia%Trelles-Garcia%NULL%2,                  Daniela Patricia%Trelles-Garcia%NULL%0,                  Maria Adriana%Yanez-Bello%NULL%1,                  Chul Won%Chung%NULL%1,                  Valeria Patricia%Trelles-Garcia%NULL%1,                  Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                  Juan-Juan%Qin%NULL%1,                  Xu%Cheng%NULL%1,                  Lijun%Shen%NULL%1,                  Yan-Ci%Zhao%NULL%1,                  Yufeng%Yuan%NULL%1,                  Fang%Lei%NULL%1,                  Ming-Ming%Chen%NULL%1,                  Huilin%Yang%NULL%1,                  Liangjie%Bai%NULL%1,                  Xiaohui%Song%NULL%1,                  Lijin%Lin%NULL%1,                  Meng%Xia%NULL%1,                  Feng%Zhou%NULL%1,                  Jianghua%Zhou%NULL%1,                  Zhi-Gang%She%NULL%1,                  Lihua%Zhu%NULL%1,                  Xinliang%Ma%NULL%1,                  Qingbo%Xu%NULL%1,                  Ping%Ye%NULL%1,                  Guohua%Chen%NULL%1,                  Liming%Liu%NULL%1,                  Weiming%Mao%NULL%1,                  Youqin%Yan%NULL%1,                  Bing%Xiao%NULL%1,                  Zhigang%Lu%NULL%1,                  Gang%Peng%NULL%1,                  Mingyu%Liu%NULL%1,                  Jun%Yang%NULL%1,                  Luyu%Yang%NULL%1,                  Changjiang%Zhang%NULL%1,                  Haofeng%Lu%NULL%1,                  Xigang%Xia%NULL%1,                  Daihong%Wang%NULL%1,                  Xiaofeng%Liao%NULL%1,                  Xiang%Wei%NULL%1,                  Bing-Hong%Zhang%NULL%1,                  Xin%Zhang%NULL%2,                  Juan%Yang%NULL%1,                  Guang-Nian%Zhao%NULL%1,                  Peng%Zhang%NULL%0,                  Peter P.%Liu%NULL%1,                  Rohit%Loomba%NULL%1,                  Yan-Xiao%Ji%NULL%1,                  Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                  Yibin%Wang%yibinwang@mednet.ucla.edu%1,                  Jingjing%Cai%caijingjing83@hotmail.com%1,                  Jiao%Guo%guoj@gdpu.edu.cn%1,                  Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                  Robert%DeJoy%NULL%1,                  Kevin Bryan%Lo%NULL%0,                  Jeri%Albano%NULL%0,                  Eric%Peterson%NULL%0,                  Ruchika%Bhargav%NULL%0,                  Fahad%Gu%NULL%1,                  Grace%Salacup%NULL%1,                  Jerald%Pelayo%NULL%0,                  Zurab%Azmaiparashvili%NULL%0,                  Janani%Rangaswami%NULL%0,                  Gabriel%Patarroyo-Aponte%NULL%1,                  Sadia%Benzaquen%NULL%0,                  Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                  Luke%Wooster%NULL%1,                  Haakon H.%Sigurslid%NULL%1,                  Rebecca H.%Li%NULL%1,                  Wanlin%Jiang%NULL%1,                  Wenjie%Tian%NULL%1,                  Christian L.%Lino Cardenas%NULL%1,                  Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                  Mahesh V.%Madhavan%NULL%2,                  Mahesh V.%Madhavan%NULL%0,                  Timothy J.%Poterucha%NULL%2,                  Timothy J.%Poterucha%NULL%0,                  Ersilia M.%DeFilippis%NULL%1,                  Jessica A.%Hennessey%NULL%1,                  Bjorn%Redfors%NULL%1,                  Christina%Eckhardt%NULL%1,                  Behnood%Bikdeli%NULL%1,                  Jonathan%Platt%NULL%1,                  Ani%Nalbandian%NULL%1,                  Pierre%Elias%NULL%2,                  Pierre%Elias%NULL%0,                  Matthew J.%Cummings%NULL%2,                  Matthew J.%Cummings%NULL%0,                  Shayan N.%Nouri%NULL%1,                  Matthew%Lawlor%NULL%1,                  Lauren S.%Ranard%NULL%1,                  Jianhua%Li%NULL%2,                  Jianhua%Li%NULL%0,                  Claudia%Boyle%NULL%1,                  Raymond%Givens%NULL%1,                  Daniel%Brodie%NULL%0,                  Harlan M.%Krumholz%NULL%2,                  Harlan M.%Krumholz%NULL%0,                  Gregg W.%Stone%NULL%2,                  Gregg W.%Stone%NULL%0,                  Sanjum S.%Sethi%NULL%1,                  Daniel%Burkhoff%NULL%1,                  Nir%Uriel%NULL%1,                  Allan%Schwartz%NULL%0,                  Martin B.%Leon%NULL%1,                  Ajay J.%Kirtane%NULL%1,                  Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                  Sahil A.%Parikh%NULL%2,                  Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                  Louis%Potier%NULL%2,                  Louis%Potier%NULL%0,                  Pierre%Gourdy%NULL%2,                  Pierre%Gourdy%NULL%0,                  Matthieu%Pichelin%NULL%2,                  Matthieu%Pichelin%NULL%0,                  Coralie%Amadou%NULL%2,                  Coralie%Amadou%NULL%0,                  Pierre-Yves%Benhamou%NULL%2,                  Pierre-Yves%Benhamou%NULL%0,                  Jean-Baptiste%Bonnet%NULL%1,                  Lyse%Bordier%NULL%1,                  Olivier%Bourron%NULL%1,                  Claude%Chaumeil%NULL%2,                  Claude%Chaumeil%NULL%0,                  Nicolas%Chevalier%NULL%1,                  Patrice%Darmon%NULL%2,                  Patrice%Darmon%NULL%0,                  Blandine%Delenne%NULL%2,                  Blandine%Delenne%NULL%0,                  Delphine%Demarsy%NULL%1,                  Marie%Dumas%NULL%1,                  Olivier%Dupuy%NULL%1,                  Anna%Flaus-Furmaniuk%NULL%2,                  Anna%Flaus-Furmaniuk%NULL%0,                  Jean-François%Gautier%NULL%1,                  Anne-Marie%Guedj%NULL%2,                  Anne-Marie%Guedj%NULL%0,                  Nathalie%Jeandidier%NULL%1,                  Etienne%Larger%NULL%1,                  Jean-Philippe%Le Berre%NULL%1,                  Myriam%Lungo%NULL%1,                  Nathanaëlle%Montanier%NULL%1,                  Philippe%Moulin%NULL%1,                  Françoise%Plat%NULL%1,                  Vincent%Rigalleau%NULL%1,                  René%Robert%NULL%1,                  Dominique%Seret-Bégué%NULL%2,                  Dominique%Seret-Bégué%NULL%0,                  Pierre%Sérusclat%NULL%1,                  Sarra%Smati%NULL%1,                  Jean-François%Thébaut%NULL%1,                  Blandine%Tramunt%NULL%2,                  Blandine%Tramunt%NULL%0,                  Camille%Vatier%NULL%1,                  Fritz-Line%Velayoudom%NULL%2,                  Fritz-Line%Velayoudom%NULL%0,                  Bruno%Vergès%NULL%1,                  Patrice%Winiszewski%NULL%1,                  Audrey%Zabulon%NULL%1,                  Pierre-Antoine%Gourraud%NULL%1,                  Ronan%Roussel%NULL%2,                  Ronan%Roussel%NULL%0,                  Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                  Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                  Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                  In-Ae%Song%NULL%1,                  Young-Tae%Jeon%NULL%1,                  Philip P.%Foster%NULL%2,                  Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                  Marco%Schiavone%NULL%1,                  Antonio%Curnis%NULL%1,                  Marcello%Arca%NULL%1,                  Spinello%Antinori%NULL%1,                  Alessio%Gasperetti%NULL%1,                  Giosuè%Mascioli%NULL%1,                  Paolo%Severino%NULL%1,                  Federica%Sabato%NULL%1,                  Maria M.%Caracciolo%NULL%1,                  Gianmarco%Arabia%NULL%1,                  Laura%D'Erasmo%NULL%1,                  Maurizio%Viecca%NULL%1,                  Massimo%Mancone%NULL%1,                  Massimo%Galli%NULL%1,                  Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                  Zhun%Cao%NULL%1,                  Jake%Gundrum%NULL%1,                  Jim%Sianis%NULL%1,                  Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                  Michele%Ciccarelli%NULL%0,                  Michele%Ciccarelli%NULL%0,                  Dario%Bruzzese%NULL%1,                  Andrea%Dipasquale%NULL%1,                  Andrea G.%Lania%NULL%1,                  Gherardo%Mazziotti%NULL%1,                  Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                  Kathy W.%Belk%NULL%1,                  Michael%Topmiller%NULL%1,                  Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                  Sarah B.%Hays%NULL%1,                  Constance E.%Panton%NULL%2,                  Constance E.%Panton%NULL%0,                  Evangelia K.%Mylona%NULL%1,                  Markos%Kalligeros%NULL%1,                  Fadi%Shehadeh%NULL%1,                  Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                  Amy M.%Sitapati%NULL%1,                  Jing%Zhang%NULL%1,                  Jingjing%Zou%NULL%1,                  Quan M.%Bui%NULL%1,                  Junting%Ren%NULL%1,                  Christopher A.%Longhurst%NULL%1,                  Michael H.%Criqui%NULL%1,                  Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                  Antoon%Bronselaer%NULL%1,                  James T.%Teo%NULL%1,                  Geert%Byttebier%NULL%1,                  Guy%De Tré%NULL%1,                  Luc%Belmans%NULL%1,                  Richard%Dobson%NULL%1,                  Evelien%Wynendaele%NULL%1,                  Christophe%Van De Wiele%NULL%1,                  Filip%Vandaele%NULL%1,                  Diemer%Van Dijck%NULL%1,                  Dan%Bean%NULL%1,                  David%Fedson%NULL%1,                  Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2133,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2036,7 +2162,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2065,7 +2191,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2094,7 +2220,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2123,7 +2249,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2152,7 +2278,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2181,7 +2307,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2210,7 +2336,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -2239,7 +2365,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -2268,7 +2394,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -2297,7 +2423,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -2326,7 +2452,7 @@
         <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -2355,7 +2481,7 @@
         <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2384,7 +2510,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -2413,7 +2539,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2442,7 +2568,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2471,7 +2597,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -2500,7 +2626,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2529,7 +2655,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2558,7 +2684,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2587,7 +2713,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="523">
   <si>
     <t>Doi</t>
   </si>
@@ -1784,6 +1784,69 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,                  Antoon%Bronselaer%NULL%1,                  James T.%Teo%NULL%1,                  Geert%Byttebier%NULL%1,                  Guy%De Tré%NULL%1,                  Luc%Belmans%NULL%1,                  Richard%Dobson%NULL%1,                  Evelien%Wynendaele%NULL%1,                  Christophe%Van De Wiele%NULL%1,                  Filip%Vandaele%NULL%1,                  Diemer%Van Dijck%NULL%1,                  Dan%Bean%NULL%1,                  David%Fedson%NULL%1,                  Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                   Juhee%Ahn%ahnjuhee23@gmail.com%1,                   Juhong%Park%parkjh@nhis.or.kr%1,                   Chang%Kyung Kang%zeptemiger@hanmail.net%1,                   Sung-Ho%Won%sunghow@gmail.com%1,                   Dong%Wook Kim%kimdw2269@gmail.com%1,                   Jong-Heon%Park%parkjh@nhis.or.kr%1,                   Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                   Joon-Sung%Joh%ssabana777@gmail.com%1,                   Ji Hwan%Bang%roundbirch@gmail.com%1,                   Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                   Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                   Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                   Tania%Dehesh%NULL%1,                   Farnaz%Aligolighasemabadi%NULL%1,                   Mohammadamin%Sadeghdoust%NULL%1,                   Katarzyna%Kotfis%NULL%1,                   Mazaher%Ahmadi%NULL%1,                   Parvaneh%Mehrbod%NULL%1,                   Pooya%Iranpour%NULL%1,                   Sanaz%Dastghaib%NULL%1,                   Ahmad%Nasimian%NULL%1,                   Amir%Ravandi%NULL%1,                   Biniam%Kidane%NULL%1,                   Naseer%Ahmed%NULL%1,                   Pawan%Sharma%NULL%1,                   Shahla%Shojaei%NULL%1,                   Kamran%Bagheri Lankarani%NULL%1,                   Andrzej%Madej%NULL%1,                   Nima%Rezaei%NULL%1,                   Tayyebeh%Madrakian%NULL%1,                   Marek J.%Los%NULL%1,                   Hagar Ibrahim%Labouta%NULL%1,                   Pooneh%Mokarram%NULL%1,                   Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                   Tao%Guo%NULL%1,                   Feifei%Yan%NULL%1,                   Ming%Gong%NULL%1,                   Xin A.%Zhang%NULL%1,                   Chenze%Li%NULL%1,                   Tao%He%NULL%0,                   Huimin%Luo%NULL%1,                   Lin%Zhang%NULL%0,                   Ming%Chen%NULL%0,                   Xiaoyan%Wu%NULL%0,                   Hairong%Wang%NULL%0,                   Ke-Qiong%Deng%NULL%1,                   Jiao%Bai%NULL%1,                   Lin%Cai%NULL%1,                   Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                   Thomas Alexander%Gerds%NULL%2,                   Thomas Alexander%Gerds%NULL%0,                   Morten%Schou%NULL%1,                   Kristian%Kragholm%NULL%1,                   Matthew%Phelps%NULL%1,                   Eva%Havers-Borgersen%NULL%1,                   Adelina%Yafasova%NULL%1,                   Gunnar Hilmar%Gislason%NULL%1,                   Christian%Torp-Pedersen%NULL%1,                   Lars%Køber%NULL%1,                   Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                   Eudald%Correig%NULL%1,                   Cèlia%Rodríguez-Borjabad%NULL%1,                   Eva%Anoro%NULL%1,                   Juan Antonio%Arroyo%NULL%1,                   Carlos%Jericó%NULL%1,                   Angels%Pedragosa%NULL%1,                   Marcel·la%Miret%NULL%1,                   Silvia%Näf%NULL%1,                   Anna%Pardo%NULL%1,                   Verónica%Perea%NULL%1,                   Rosa%Pérez-Bernalte%NULL%1,                   Núria%Plana%NULL%1,                   Rafael%Ramírez-Montesinos%NULL%1,                   Meritxell%Royuela%NULL%1,                   Cristina%Soler%NULL%1,                   Maria%Urquizu-Padilla%NULL%1,                   Alberto%Zamora%NULL%1,                   Juan%Pedro-Botet%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                   Francesco%Castagna%NULL%2,                   Francesco%Castagna%NULL%0,                   Ilir%Agalliu%NULL%2,                   Ilir%Agalliu%NULL%0,                   Xiaonan%Xue%NULL%2,                   Xiaonan%Xue%NULL%0,                   Snehal R.%Patel%NULL%1,                   Yogita%Rochlani%NULL%1,                   Rachna%Kataria%NULL%1,                   Sasa%Vukelic%NULL%1,                   Daniel B.%Sims%NULL%1,                   Chikezie%Alvarez%NULL%1,                   Mercedes%Rivas‐Lasarte%NULL%2,                   Mercedes%Rivas‐Lasarte%NULL%0,                   Mario J.%Garcia%NULL%2,                   Mario J.%Garcia%NULL%0,                   Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                 Antonelli%M.%coreGivesNoEmail%1,                 Bellani%G.%coreGivesNoEmail%1,                 Bonanomi%E.%coreGivesNoEmail%1,                 Cabrini%L.%coreGivesNoEmail%1,                 Carlesso%E.%coreGivesNoEmail%1,                 Castelli%G.%coreGivesNoEmail%1,                 Cattaneo%S.%coreGivesNoEmail%1,                 Cecconi%M.%coreGivesNoEmail%1,                 Cereda%D.%coreGivesNoEmail%1,                 Colombo%S.%coreGivesNoEmail%1,                 Coluccello%A.%coreGivesNoEmail%1,                 Crescini%G.%coreGivesNoEmail%1,                 Forastieri%Molinari A.%coreGivesNoEmail%1,                 Foti%G.%coreGivesNoEmail%1,                 Fumagalli%R.%coreGivesNoEmail%1,                 Grasselli%G.%coreGivesNoEmail%1,                 Greco%M.%coreGivesNoEmail%1,                 Iotti%G. A.%coreGivesNoEmail%1,                 Langer%T.%coreGivesNoEmail%1,                 Latronico%N.%coreGivesNoEmail%1,                 Lorini%F. L.%coreGivesNoEmail%1,                 Mojoli%F.%coreGivesNoEmail%1,                 Natalini%G.%coreGivesNoEmail%1,                 Pesenti%A.%coreGivesNoEmail%1,                 Pessina%C. M.%coreGivesNoEmail%1,                 Ranieri%V. M.%coreGivesNoEmail%1,                 Rech%R.%coreGivesNoEmail%1,                 Rosano%A.%coreGivesNoEmail%1,                 Scudeller%L.%coreGivesNoEmail%1,                 Storti%E.%coreGivesNoEmail%1,                 Thompson%B. T.%coreGivesNoEmail%1,                 Tirani%M.%coreGivesNoEmail%1,                 Villani%P. G.%coreGivesNoEmail%1,                 Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                   Daniela Patricia%Trelles-Garcia%NULL%2,                   Daniela Patricia%Trelles-Garcia%NULL%0,                   Maria Adriana%Yanez-Bello%NULL%1,                   Chul Won%Chung%NULL%1,                   Valeria Patricia%Trelles-Garcia%NULL%1,                   Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                   Juan-Juan%Qin%NULL%1,                   Xu%Cheng%NULL%1,                   Lijun%Shen%NULL%1,                   Yan-Ci%Zhao%NULL%1,                   Yufeng%Yuan%NULL%1,                   Fang%Lei%NULL%1,                   Ming-Ming%Chen%NULL%1,                   Huilin%Yang%NULL%1,                   Liangjie%Bai%NULL%1,                   Xiaohui%Song%NULL%1,                   Lijin%Lin%NULL%1,                   Meng%Xia%NULL%1,                   Feng%Zhou%NULL%1,                   Jianghua%Zhou%NULL%1,                   Zhi-Gang%She%NULL%1,                   Lihua%Zhu%NULL%1,                   Xinliang%Ma%NULL%1,                   Qingbo%Xu%NULL%1,                   Ping%Ye%NULL%1,                   Guohua%Chen%NULL%1,                   Liming%Liu%NULL%1,                   Weiming%Mao%NULL%1,                   Youqin%Yan%NULL%1,                   Bing%Xiao%NULL%1,                   Zhigang%Lu%NULL%1,                   Gang%Peng%NULL%1,                   Mingyu%Liu%NULL%1,                   Jun%Yang%NULL%1,                   Luyu%Yang%NULL%1,                   Changjiang%Zhang%NULL%1,                   Haofeng%Lu%NULL%1,                   Xigang%Xia%NULL%1,                   Daihong%Wang%NULL%1,                   Xiaofeng%Liao%NULL%1,                   Xiang%Wei%NULL%1,                   Bing-Hong%Zhang%NULL%1,                   Xin%Zhang%NULL%2,                   Juan%Yang%NULL%1,                   Guang-Nian%Zhao%NULL%1,                   Peng%Zhang%NULL%0,                   Peter P.%Liu%NULL%1,                   Rohit%Loomba%NULL%1,                   Yan-Xiao%Ji%NULL%1,                   Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                   Yibin%Wang%yibinwang@mednet.ucla.edu%1,                   Jingjing%Cai%caijingjing83@hotmail.com%1,                   Jiao%Guo%guoj@gdpu.edu.cn%1,                   Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                   Robert%DeJoy%NULL%1,                   Kevin Bryan%Lo%NULL%0,                   Jeri%Albano%NULL%0,                   Eric%Peterson%NULL%0,                   Ruchika%Bhargav%NULL%0,                   Fahad%Gu%NULL%1,                   Grace%Salacup%NULL%1,                   Jerald%Pelayo%NULL%0,                   Zurab%Azmaiparashvili%NULL%0,                   Janani%Rangaswami%NULL%0,                   Gabriel%Patarroyo-Aponte%NULL%1,                   Sadia%Benzaquen%NULL%0,                   Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                   Luke%Wooster%NULL%1,                   Haakon H.%Sigurslid%NULL%1,                   Rebecca H.%Li%NULL%1,                   Wanlin%Jiang%NULL%1,                   Wenjie%Tian%NULL%1,                   Christian L.%Lino Cardenas%NULL%1,                   Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                   Mahesh V.%Madhavan%NULL%2,                   Mahesh V.%Madhavan%NULL%0,                   Timothy J.%Poterucha%NULL%2,                   Timothy J.%Poterucha%NULL%0,                   Ersilia M.%DeFilippis%NULL%1,                   Jessica A.%Hennessey%NULL%1,                   Bjorn%Redfors%NULL%1,                   Christina%Eckhardt%NULL%1,                   Behnood%Bikdeli%NULL%1,                   Jonathan%Platt%NULL%1,                   Ani%Nalbandian%NULL%1,                   Pierre%Elias%NULL%2,                   Pierre%Elias%NULL%0,                   Matthew J.%Cummings%NULL%2,                   Matthew J.%Cummings%NULL%0,                   Shayan N.%Nouri%NULL%1,                   Matthew%Lawlor%NULL%1,                   Lauren S.%Ranard%NULL%1,                   Jianhua%Li%NULL%2,                   Jianhua%Li%NULL%0,                   Claudia%Boyle%NULL%1,                   Raymond%Givens%NULL%1,                   Daniel%Brodie%NULL%0,                   Harlan M.%Krumholz%NULL%2,                   Harlan M.%Krumholz%NULL%0,                   Gregg W.%Stone%NULL%2,                   Gregg W.%Stone%NULL%0,                   Sanjum S.%Sethi%NULL%1,                   Daniel%Burkhoff%NULL%1,                   Nir%Uriel%NULL%1,                   Allan%Schwartz%NULL%0,                   Martin B.%Leon%NULL%1,                   Ajay J.%Kirtane%NULL%1,                   Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                   Sahil A.%Parikh%NULL%2,                   Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                   Louis%Potier%NULL%2,                   Louis%Potier%NULL%0,                   Pierre%Gourdy%NULL%2,                   Pierre%Gourdy%NULL%0,                   Matthieu%Pichelin%NULL%2,                   Matthieu%Pichelin%NULL%0,                   Coralie%Amadou%NULL%2,                   Coralie%Amadou%NULL%0,                   Pierre-Yves%Benhamou%NULL%2,                   Pierre-Yves%Benhamou%NULL%0,                   Jean-Baptiste%Bonnet%NULL%1,                   Lyse%Bordier%NULL%1,                   Olivier%Bourron%NULL%1,                   Claude%Chaumeil%NULL%2,                   Claude%Chaumeil%NULL%0,                   Nicolas%Chevalier%NULL%1,                   Patrice%Darmon%NULL%2,                   Patrice%Darmon%NULL%0,                   Blandine%Delenne%NULL%2,                   Blandine%Delenne%NULL%0,                   Delphine%Demarsy%NULL%1,                   Marie%Dumas%NULL%1,                   Olivier%Dupuy%NULL%1,                   Anna%Flaus-Furmaniuk%NULL%2,                   Anna%Flaus-Furmaniuk%NULL%0,                   Jean-François%Gautier%NULL%1,                   Anne-Marie%Guedj%NULL%2,                   Anne-Marie%Guedj%NULL%0,                   Nathalie%Jeandidier%NULL%1,                   Etienne%Larger%NULL%1,                   Jean-Philippe%Le Berre%NULL%1,                   Myriam%Lungo%NULL%1,                   Nathanaëlle%Montanier%NULL%1,                   Philippe%Moulin%NULL%1,                   Françoise%Plat%NULL%1,                   Vincent%Rigalleau%NULL%1,                   René%Robert%NULL%1,                   Dominique%Seret-Bégué%NULL%2,                   Dominique%Seret-Bégué%NULL%0,                   Pierre%Sérusclat%NULL%1,                   Sarra%Smati%NULL%1,                   Jean-François%Thébaut%NULL%1,                   Blandine%Tramunt%NULL%2,                   Blandine%Tramunt%NULL%0,                   Camille%Vatier%NULL%1,                   Fritz-Line%Velayoudom%NULL%2,                   Fritz-Line%Velayoudom%NULL%0,                   Bruno%Vergès%NULL%1,                   Patrice%Winiszewski%NULL%1,                   Audrey%Zabulon%NULL%1,                   Pierre-Antoine%Gourraud%NULL%1,                   Ronan%Roussel%NULL%2,                   Ronan%Roussel%NULL%0,                   Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                   Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                   Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                   In-Ae%Song%NULL%1,                   Young-Tae%Jeon%NULL%1,                   Philip P.%Foster%NULL%2,                   Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                   Marco%Schiavone%NULL%1,                   Antonio%Curnis%NULL%1,                   Marcello%Arca%NULL%1,                   Spinello%Antinori%NULL%1,                   Alessio%Gasperetti%NULL%1,                   Giosuè%Mascioli%NULL%1,                   Paolo%Severino%NULL%1,                   Federica%Sabato%NULL%1,                   Maria M.%Caracciolo%NULL%1,                   Gianmarco%Arabia%NULL%1,                   Laura%D'Erasmo%NULL%1,                   Maurizio%Viecca%NULL%1,                   Massimo%Mancone%NULL%1,                   Massimo%Galli%NULL%1,                   Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                   Zhun%Cao%NULL%1,                   Jake%Gundrum%NULL%1,                   Jim%Sianis%NULL%1,                   Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                   Michele%Ciccarelli%NULL%0,                   Michele%Ciccarelli%NULL%0,                   Dario%Bruzzese%NULL%1,                   Andrea%Dipasquale%NULL%1,                   Andrea G.%Lania%NULL%1,                   Gherardo%Mazziotti%NULL%1,                   Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                   Kathy W.%Belk%NULL%1,                   Michael%Topmiller%NULL%1,                   Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                   Sarah B.%Hays%NULL%1,                   Constance E.%Panton%NULL%2,                   Constance E.%Panton%NULL%0,                   Evangelia K.%Mylona%NULL%1,                   Markos%Kalligeros%NULL%1,                   Fadi%Shehadeh%NULL%1,                   Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                   Amy M.%Sitapati%NULL%1,                   Jing%Zhang%NULL%1,                   Jingjing%Zou%NULL%1,                   Quan M.%Bui%NULL%1,                   Junting%Ren%NULL%1,                   Christopher A.%Longhurst%NULL%1,                   Michael H.%Criqui%NULL%1,                   Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                   Antoon%Bronselaer%NULL%1,                   James T.%Teo%NULL%1,                   Geert%Byttebier%NULL%1,                   Guy%De Tré%NULL%1,                   Luc%Belmans%NULL%1,                   Richard%Dobson%NULL%1,                   Evelien%Wynendaele%NULL%1,                   Christophe%Van De Wiele%NULL%1,                   Filip%Vandaele%NULL%1,                   Diemer%Van Dijck%NULL%1,                   Dan%Bean%NULL%1,                   David%Fedson%NULL%1,                   Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2196,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2162,7 +2225,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2191,7 +2254,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2220,7 +2283,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2249,7 +2312,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2278,7 +2341,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2307,7 +2370,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2336,7 +2399,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -2365,7 +2428,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -2394,7 +2457,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -2423,7 +2486,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -2452,7 +2515,7 @@
         <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -2481,7 +2544,7 @@
         <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2510,7 +2573,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -2539,7 +2602,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2568,7 +2631,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2597,7 +2660,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -2626,7 +2689,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2655,7 +2718,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2684,7 +2747,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2713,7 +2776,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="548">
   <si>
     <t>Doi</t>
   </si>
@@ -1847,6 +1847,81 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,                   Antoon%Bronselaer%NULL%1,                   James T.%Teo%NULL%1,                   Geert%Byttebier%NULL%1,                   Guy%De Tré%NULL%1,                   Luc%Belmans%NULL%1,                   Richard%Dobson%NULL%1,                   Evelien%Wynendaele%NULL%1,                   Christophe%Van De Wiele%NULL%1,                   Filip%Vandaele%NULL%1,                   Diemer%Van Dijck%NULL%1,                   Dan%Bean%NULL%1,                   David%Fedson%NULL%1,                   Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                    Juhee%Ahn%ahnjuhee23@gmail.com%1,                    Juhong%Park%parkjh@nhis.or.kr%1,                    Chang%Kyung Kang%zeptemiger@hanmail.net%1,                    Sung-Ho%Won%sunghow@gmail.com%1,                    Dong%Wook Kim%kimdw2269@gmail.com%1,                    Jong-Heon%Park%parkjh@nhis.or.kr%1,                    Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                    Joon-Sung%Joh%ssabana777@gmail.com%1,                    Ji Hwan%Bang%roundbirch@gmail.com%1,                    Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                    Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                    Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                    Tania%Dehesh%NULL%1,                    Farnaz%Aligolighasemabadi%NULL%1,                    Mohammadamin%Sadeghdoust%NULL%1,                    Katarzyna%Kotfis%NULL%1,                    Mazaher%Ahmadi%NULL%1,                    Parvaneh%Mehrbod%NULL%1,                    Pooya%Iranpour%NULL%1,                    Sanaz%Dastghaib%NULL%1,                    Ahmad%Nasimian%NULL%1,                    Amir%Ravandi%NULL%1,                    Biniam%Kidane%NULL%1,                    Naseer%Ahmed%NULL%1,                    Pawan%Sharma%NULL%1,                    Shahla%Shojaei%NULL%1,                    Kamran%Bagheri Lankarani%NULL%1,                    Andrzej%Madej%NULL%1,                    Nima%Rezaei%NULL%1,                    Tayyebeh%Madrakian%NULL%1,                    Marek J.%Los%NULL%1,                    Hagar Ibrahim%Labouta%NULL%1,                    Pooneh%Mokarram%NULL%1,                    Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                    Tao%Guo%NULL%1,                    Feifei%Yan%NULL%1,                    Ming%Gong%NULL%1,                    Xin A.%Zhang%NULL%1,                    Chenze%Li%NULL%1,                    Tao%He%NULL%0,                    Huimin%Luo%NULL%1,                    Lin%Zhang%NULL%0,                    Ming%Chen%NULL%0,                    Xiaoyan%Wu%NULL%0,                    Hairong%Wang%NULL%0,                    Ke-Qiong%Deng%NULL%1,                    Jiao%Bai%NULL%1,                    Lin%Cai%NULL%1,                    Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                    Thomas Alexander%Gerds%NULL%2,                    Thomas Alexander%Gerds%NULL%0,                    Morten%Schou%NULL%1,                    Kristian%Kragholm%NULL%1,                    Matthew%Phelps%NULL%1,                    Eva%Havers-Borgersen%NULL%1,                    Adelina%Yafasova%NULL%1,                    Gunnar Hilmar%Gislason%NULL%1,                    Christian%Torp-Pedersen%NULL%1,                    Lars%Køber%NULL%1,                    Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                    Eudald%Correig%NULL%1,                    Cèlia%Rodríguez-Borjabad%NULL%1,                    Eva%Anoro%NULL%1,                    Juan Antonio%Arroyo%NULL%1,                    Carlos%Jericó%NULL%1,                    Angels%Pedragosa%NULL%1,                    Marcel·la%Miret%NULL%1,                    Silvia%Näf%NULL%1,                    Anna%Pardo%NULL%1,                    Verónica%Perea%NULL%1,                    Rosa%Pérez-Bernalte%NULL%1,                    Núria%Plana%NULL%1,                    Rafael%Ramírez-Montesinos%NULL%1,                    Meritxell%Royuela%NULL%1,                    Cristina%Soler%NULL%1,                    Maria%Urquizu-Padilla%NULL%1,                    Alberto%Zamora%NULL%1,                    Juan%Pedro-Botet%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                    Francesco%Castagna%NULL%2,                    Francesco%Castagna%NULL%0,                    Ilir%Agalliu%NULL%2,                    Ilir%Agalliu%NULL%0,                    Xiaonan%Xue%NULL%2,                    Xiaonan%Xue%NULL%0,                    Snehal R.%Patel%NULL%1,                    Yogita%Rochlani%NULL%1,                    Rachna%Kataria%NULL%1,                    Sasa%Vukelic%NULL%1,                    Daniel B.%Sims%NULL%1,                    Chikezie%Alvarez%NULL%1,                    Mercedes%Rivas‐Lasarte%NULL%2,                    Mercedes%Rivas‐Lasarte%NULL%0,                    Mario J.%Garcia%NULL%2,                    Mario J.%Garcia%NULL%0,                    Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                  Antonelli%M.%coreGivesNoEmail%1,                  Bellani%G.%coreGivesNoEmail%1,                  Bonanomi%E.%coreGivesNoEmail%1,                  Cabrini%L.%coreGivesNoEmail%1,                  Carlesso%E.%coreGivesNoEmail%1,                  Castelli%G.%coreGivesNoEmail%1,                  Cattaneo%S.%coreGivesNoEmail%1,                  Cecconi%M.%coreGivesNoEmail%1,                  Cereda%D.%coreGivesNoEmail%1,                  Colombo%S.%coreGivesNoEmail%1,                  Coluccello%A.%coreGivesNoEmail%1,                  Crescini%G.%coreGivesNoEmail%1,                  Forastieri%Molinari A.%coreGivesNoEmail%1,                  Foti%G.%coreGivesNoEmail%1,                  Fumagalli%R.%coreGivesNoEmail%1,                  Grasselli%G.%coreGivesNoEmail%1,                  Greco%M.%coreGivesNoEmail%1,                  Iotti%G. A.%coreGivesNoEmail%1,                  Langer%T.%coreGivesNoEmail%1,                  Latronico%N.%coreGivesNoEmail%1,                  Lorini%F. L.%coreGivesNoEmail%1,                  Mojoli%F.%coreGivesNoEmail%1,                  Natalini%G.%coreGivesNoEmail%1,                  Pesenti%A.%coreGivesNoEmail%1,                  Pessina%C. M.%coreGivesNoEmail%1,                  Ranieri%V. M.%coreGivesNoEmail%1,                  Rech%R.%coreGivesNoEmail%1,                  Rosano%A.%coreGivesNoEmail%1,                  Scudeller%L.%coreGivesNoEmail%1,                  Storti%E.%coreGivesNoEmail%1,                  Thompson%B. T.%coreGivesNoEmail%1,                  Tirani%M.%coreGivesNoEmail%1,                  Villani%P. G.%coreGivesNoEmail%1,                  Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                    Daniela Patricia%Trelles-Garcia%NULL%2,                    Daniela Patricia%Trelles-Garcia%NULL%0,                    Maria Adriana%Yanez-Bello%NULL%1,                    Chul Won%Chung%NULL%1,                    Valeria Patricia%Trelles-Garcia%NULL%1,                    Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                    Juan-Juan%Qin%NULL%1,                    Xu%Cheng%NULL%1,                    Lijun%Shen%NULL%1,                    Yan-Ci%Zhao%NULL%1,                    Yufeng%Yuan%NULL%1,                    Fang%Lei%NULL%1,                    Ming-Ming%Chen%NULL%1,                    Huilin%Yang%NULL%1,                    Liangjie%Bai%NULL%1,                    Xiaohui%Song%NULL%1,                    Lijin%Lin%NULL%1,                    Meng%Xia%NULL%1,                    Feng%Zhou%NULL%1,                    Jianghua%Zhou%NULL%1,                    Zhi-Gang%She%NULL%1,                    Lihua%Zhu%NULL%1,                    Xinliang%Ma%NULL%1,                    Qingbo%Xu%NULL%1,                    Ping%Ye%NULL%1,                    Guohua%Chen%NULL%1,                    Liming%Liu%NULL%1,                    Weiming%Mao%NULL%1,                    Youqin%Yan%NULL%1,                    Bing%Xiao%NULL%1,                    Zhigang%Lu%NULL%1,                    Gang%Peng%NULL%1,                    Mingyu%Liu%NULL%1,                    Jun%Yang%NULL%1,                    Luyu%Yang%NULL%1,                    Changjiang%Zhang%NULL%1,                    Haofeng%Lu%NULL%1,                    Xigang%Xia%NULL%1,                    Daihong%Wang%NULL%1,                    Xiaofeng%Liao%NULL%1,                    Xiang%Wei%NULL%1,                    Bing-Hong%Zhang%NULL%1,                    Xin%Zhang%NULL%2,                    Juan%Yang%NULL%1,                    Guang-Nian%Zhao%NULL%1,                    Peng%Zhang%NULL%0,                    Peter P.%Liu%NULL%1,                    Rohit%Loomba%NULL%1,                    Yan-Xiao%Ji%NULL%1,                    Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                    Yibin%Wang%yibinwang@mednet.ucla.edu%1,                    Jingjing%Cai%caijingjing83@hotmail.com%1,                    Jiao%Guo%guoj@gdpu.edu.cn%1,                    Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                    Robert%DeJoy%NULL%1,                    Kevin Bryan%Lo%NULL%0,                    Jeri%Albano%NULL%0,                    Eric%Peterson%NULL%0,                    Ruchika%Bhargav%NULL%0,                    Fahad%Gu%NULL%1,                    Grace%Salacup%NULL%1,                    Jerald%Pelayo%NULL%0,                    Zurab%Azmaiparashvili%NULL%0,                    Janani%Rangaswami%NULL%0,                    Gabriel%Patarroyo-Aponte%NULL%1,                    Sadia%Benzaquen%NULL%0,                    Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                    Luke%Wooster%NULL%1,                    Haakon H.%Sigurslid%NULL%1,                    Rebecca H.%Li%NULL%1,                    Wanlin%Jiang%NULL%1,                    Wenjie%Tian%NULL%1,                    Christian L.%Lino Cardenas%NULL%1,                    Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                    Mahesh V.%Madhavan%NULL%2,                    Mahesh V.%Madhavan%NULL%0,                    Timothy J.%Poterucha%NULL%2,                    Timothy J.%Poterucha%NULL%0,                    Ersilia M.%DeFilippis%NULL%1,                    Jessica A.%Hennessey%NULL%1,                    Bjorn%Redfors%NULL%1,                    Christina%Eckhardt%NULL%1,                    Behnood%Bikdeli%NULL%1,                    Jonathan%Platt%NULL%1,                    Ani%Nalbandian%NULL%1,                    Pierre%Elias%NULL%2,                    Pierre%Elias%NULL%0,                    Matthew J.%Cummings%NULL%2,                    Matthew J.%Cummings%NULL%0,                    Shayan N.%Nouri%NULL%1,                    Matthew%Lawlor%NULL%1,                    Lauren S.%Ranard%NULL%1,                    Jianhua%Li%NULL%2,                    Jianhua%Li%NULL%0,                    Claudia%Boyle%NULL%1,                    Raymond%Givens%NULL%1,                    Daniel%Brodie%NULL%0,                    Harlan M.%Krumholz%NULL%2,                    Harlan M.%Krumholz%NULL%0,                    Gregg W.%Stone%NULL%2,                    Gregg W.%Stone%NULL%0,                    Sanjum S.%Sethi%NULL%1,                    Daniel%Burkhoff%NULL%1,                    Nir%Uriel%NULL%1,                    Allan%Schwartz%NULL%0,                    Martin B.%Leon%NULL%1,                    Ajay J.%Kirtane%NULL%1,                    Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                    Sahil A.%Parikh%NULL%2,                    Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                    Louis%Potier%NULL%2,                    Louis%Potier%NULL%0,                    Pierre%Gourdy%NULL%2,                    Pierre%Gourdy%NULL%0,                    Matthieu%Pichelin%NULL%2,                    Matthieu%Pichelin%NULL%0,                    Coralie%Amadou%NULL%2,                    Coralie%Amadou%NULL%0,                    Pierre-Yves%Benhamou%NULL%2,                    Pierre-Yves%Benhamou%NULL%0,                    Jean-Baptiste%Bonnet%NULL%1,                    Lyse%Bordier%NULL%1,                    Olivier%Bourron%NULL%1,                    Claude%Chaumeil%NULL%2,                    Claude%Chaumeil%NULL%0,                    Nicolas%Chevalier%NULL%1,                    Patrice%Darmon%NULL%2,                    Patrice%Darmon%NULL%0,                    Blandine%Delenne%NULL%2,                    Blandine%Delenne%NULL%0,                    Delphine%Demarsy%NULL%1,                    Marie%Dumas%NULL%1,                    Olivier%Dupuy%NULL%1,                    Anna%Flaus-Furmaniuk%NULL%2,                    Anna%Flaus-Furmaniuk%NULL%0,                    Jean-François%Gautier%NULL%1,                    Anne-Marie%Guedj%NULL%2,                    Anne-Marie%Guedj%NULL%0,                    Nathalie%Jeandidier%NULL%1,                    Etienne%Larger%NULL%1,                    Jean-Philippe%Le Berre%NULL%1,                    Myriam%Lungo%NULL%1,                    Nathanaëlle%Montanier%NULL%1,                    Philippe%Moulin%NULL%1,                    Françoise%Plat%NULL%1,                    Vincent%Rigalleau%NULL%1,                    René%Robert%NULL%1,                    Dominique%Seret-Bégué%NULL%2,                    Dominique%Seret-Bégué%NULL%0,                    Pierre%Sérusclat%NULL%1,                    Sarra%Smati%NULL%1,                    Jean-François%Thébaut%NULL%1,                    Blandine%Tramunt%NULL%2,                    Blandine%Tramunt%NULL%0,                    Camille%Vatier%NULL%1,                    Fritz-Line%Velayoudom%NULL%2,                    Fritz-Line%Velayoudom%NULL%0,                    Bruno%Vergès%NULL%1,                    Patrice%Winiszewski%NULL%1,                    Audrey%Zabulon%NULL%1,                    Pierre-Antoine%Gourraud%NULL%1,                    Ronan%Roussel%NULL%2,                    Ronan%Roussel%NULL%0,                    Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                    Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                    Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                    In-Ae%Song%NULL%1,                    Young-Tae%Jeon%NULL%1,                    Philip P.%Foster%NULL%2,                    Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                    Marco%Schiavone%NULL%1,                    Antonio%Curnis%NULL%1,                    Marcello%Arca%NULL%1,                    Spinello%Antinori%NULL%1,                    Alessio%Gasperetti%NULL%1,                    Giosuè%Mascioli%NULL%1,                    Paolo%Severino%NULL%1,                    Federica%Sabato%NULL%1,                    Maria M.%Caracciolo%NULL%1,                    Gianmarco%Arabia%NULL%1,                    Laura%D'Erasmo%NULL%1,                    Maurizio%Viecca%NULL%1,                    Massimo%Mancone%NULL%1,                    Massimo%Galli%NULL%1,                    Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                    Zhun%Cao%NULL%1,                    Jake%Gundrum%NULL%1,                    Jim%Sianis%NULL%1,                    Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                    Michele%Ciccarelli%NULL%0,                    Michele%Ciccarelli%NULL%0,                    Dario%Bruzzese%NULL%1,                    Andrea%Dipasquale%NULL%1,                    Andrea G.%Lania%NULL%1,                    Gherardo%Mazziotti%NULL%1,                    Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                    Kathy W.%Belk%NULL%1,                    Michael%Topmiller%NULL%1,                    Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                    Sarah B.%Hays%NULL%1,                    Constance E.%Panton%NULL%2,                    Constance E.%Panton%NULL%0,                    Evangelia K.%Mylona%NULL%1,                    Markos%Kalligeros%NULL%1,                    Fadi%Shehadeh%NULL%1,                    Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                    Amy M.%Sitapati%NULL%1,                    Jing%Zhang%NULL%1,                    Jingjing%Zou%NULL%1,                    Quan M.%Bui%NULL%1,                    Junting%Ren%NULL%1,                    Christopher A.%Longhurst%NULL%1,                    Michael H.%Criqui%NULL%1,                    Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                    Antoon%Bronselaer%NULL%1,                    James T.%Teo%NULL%1,                    Geert%Byttebier%NULL%1,                    Guy%De Tré%NULL%1,                    Luc%Belmans%NULL%1,                    Richard%Dobson%NULL%1,                    Evelien%Wynendaele%NULL%1,                    Christophe%Van De Wiele%NULL%1,                    Filip%Vandaele%NULL%1,                    Diemer%Van Dijck%NULL%1,                    Dan%Bean%NULL%1,                    David%Fedson%NULL%1,                    Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2271,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2208,7 +2283,7 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3">
@@ -2225,7 +2300,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2237,7 +2312,7 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4">
@@ -2254,7 +2329,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2266,7 +2341,7 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5">
@@ -2283,7 +2358,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2295,7 +2370,7 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6">
@@ -2312,7 +2387,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2324,7 +2399,7 @@
         <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7">
@@ -2341,7 +2416,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2353,7 +2428,7 @@
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8">
@@ -2370,7 +2445,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2382,7 +2457,7 @@
         <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9">
@@ -2399,7 +2474,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -2411,7 +2486,7 @@
         <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>205</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10">
@@ -2428,7 +2503,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -2440,7 +2515,7 @@
         <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>213</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11">
@@ -2457,7 +2532,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -2469,7 +2544,7 @@
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>213</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12">
@@ -2486,7 +2561,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -2498,7 +2573,7 @@
         <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>213</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13">
@@ -2515,7 +2590,7 @@
         <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -2527,7 +2602,7 @@
         <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14">
@@ -2544,7 +2619,7 @@
         <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2556,7 +2631,7 @@
         <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>205</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15">
@@ -2573,7 +2648,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -2585,7 +2660,7 @@
         <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16">
@@ -2602,7 +2677,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2614,7 +2689,7 @@
         <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>213</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17">
@@ -2631,7 +2706,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2643,7 +2718,7 @@
         <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18">
@@ -2660,7 +2735,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -2672,7 +2747,7 @@
         <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19">
@@ -2689,7 +2764,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2701,7 +2776,7 @@
         <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20">
@@ -2718,7 +2793,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2730,7 +2805,7 @@
         <v>127</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21">
@@ -2747,7 +2822,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2759,7 +2834,7 @@
         <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22">
@@ -2776,7 +2851,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>
@@ -2788,7 +2863,7 @@
         <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="569">
   <si>
     <t>Doi</t>
   </si>
@@ -1922,6 +1922,69 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,                    Antoon%Bronselaer%NULL%1,                    James T.%Teo%NULL%1,                    Geert%Byttebier%NULL%1,                    Guy%De Tré%NULL%1,                    Luc%Belmans%NULL%1,                    Richard%Dobson%NULL%1,                    Evelien%Wynendaele%NULL%1,                    Christophe%Van De Wiele%NULL%1,                    Filip%Vandaele%NULL%1,                    Diemer%Van Dijck%NULL%1,                    Dan%Bean%NULL%1,                    David%Fedson%NULL%1,                    Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                     Juhee%Ahn%ahnjuhee23@gmail.com%1,                     Juhong%Park%parkjh@nhis.or.kr%1,                     Chang%Kyung Kang%zeptemiger@hanmail.net%1,                     Sung-Ho%Won%sunghow@gmail.com%1,                     Dong%Wook Kim%kimdw2269@gmail.com%1,                     Jong-Heon%Park%parkjh@nhis.or.kr%1,                     Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                     Joon-Sung%Joh%ssabana777@gmail.com%1,                     Ji Hwan%Bang%roundbirch@gmail.com%1,                     Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                     Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                     Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                     Tania%Dehesh%NULL%1,                     Farnaz%Aligolighasemabadi%NULL%1,                     Mohammadamin%Sadeghdoust%NULL%1,                     Katarzyna%Kotfis%NULL%1,                     Mazaher%Ahmadi%NULL%1,                     Parvaneh%Mehrbod%NULL%1,                     Pooya%Iranpour%NULL%1,                     Sanaz%Dastghaib%NULL%1,                     Ahmad%Nasimian%NULL%1,                     Amir%Ravandi%NULL%1,                     Biniam%Kidane%NULL%1,                     Naseer%Ahmed%NULL%1,                     Pawan%Sharma%NULL%1,                     Shahla%Shojaei%NULL%1,                     Kamran%Bagheri Lankarani%NULL%1,                     Andrzej%Madej%NULL%1,                     Nima%Rezaei%NULL%1,                     Tayyebeh%Madrakian%NULL%1,                     Marek J.%Los%NULL%1,                     Hagar Ibrahim%Labouta%NULL%1,                     Pooneh%Mokarram%NULL%1,                     Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                     Tao%Guo%NULL%1,                     Feifei%Yan%NULL%1,                     Ming%Gong%NULL%1,                     Xin A.%Zhang%NULL%1,                     Chenze%Li%NULL%1,                     Tao%He%NULL%0,                     Huimin%Luo%NULL%1,                     Lin%Zhang%NULL%0,                     Ming%Chen%NULL%0,                     Xiaoyan%Wu%NULL%0,                     Hairong%Wang%NULL%0,                     Ke-Qiong%Deng%NULL%1,                     Jiao%Bai%NULL%1,                     Lin%Cai%NULL%1,                     Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                     Thomas Alexander%Gerds%NULL%2,                     Thomas Alexander%Gerds%NULL%0,                     Morten%Schou%NULL%1,                     Kristian%Kragholm%NULL%1,                     Matthew%Phelps%NULL%1,                     Eva%Havers-Borgersen%NULL%1,                     Adelina%Yafasova%NULL%1,                     Gunnar Hilmar%Gislason%NULL%1,                     Christian%Torp-Pedersen%NULL%1,                     Lars%Køber%NULL%1,                     Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                     Eudald%Correig%NULL%1,                     Cèlia%Rodríguez-Borjabad%NULL%1,                     Eva%Anoro%NULL%1,                     Juan Antonio%Arroyo%NULL%1,                     Carlos%Jericó%NULL%1,                     Angels%Pedragosa%NULL%1,                     Marcel·la%Miret%NULL%1,                     Silvia%Näf%NULL%1,                     Anna%Pardo%NULL%1,                     Verónica%Perea%NULL%1,                     Rosa%Pérez-Bernalte%NULL%1,                     Núria%Plana%NULL%1,                     Rafael%Ramírez-Montesinos%NULL%1,                     Meritxell%Royuela%NULL%1,                     Cristina%Soler%NULL%1,                     Maria%Urquizu-Padilla%NULL%1,                     Alberto%Zamora%NULL%1,                     Juan%Pedro-Botet%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                     Francesco%Castagna%NULL%2,                     Francesco%Castagna%NULL%0,                     Ilir%Agalliu%NULL%2,                     Ilir%Agalliu%NULL%0,                     Xiaonan%Xue%NULL%2,                     Xiaonan%Xue%NULL%0,                     Snehal R.%Patel%NULL%1,                     Yogita%Rochlani%NULL%1,                     Rachna%Kataria%NULL%1,                     Sasa%Vukelic%NULL%1,                     Daniel B.%Sims%NULL%1,                     Chikezie%Alvarez%NULL%1,                     Mercedes%Rivas‐Lasarte%NULL%2,                     Mercedes%Rivas‐Lasarte%NULL%0,                     Mario J.%Garcia%NULL%2,                     Mario J.%Garcia%NULL%0,                     Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                   Antonelli%M.%coreGivesNoEmail%1,                   Bellani%G.%coreGivesNoEmail%1,                   Bonanomi%E.%coreGivesNoEmail%1,                   Cabrini%L.%coreGivesNoEmail%1,                   Carlesso%E.%coreGivesNoEmail%1,                   Castelli%G.%coreGivesNoEmail%1,                   Cattaneo%S.%coreGivesNoEmail%1,                   Cecconi%M.%coreGivesNoEmail%1,                   Cereda%D.%coreGivesNoEmail%1,                   Colombo%S.%coreGivesNoEmail%1,                   Coluccello%A.%coreGivesNoEmail%1,                   Crescini%G.%coreGivesNoEmail%1,                   Forastieri%Molinari A.%coreGivesNoEmail%1,                   Foti%G.%coreGivesNoEmail%1,                   Fumagalli%R.%coreGivesNoEmail%1,                   Grasselli%G.%coreGivesNoEmail%1,                   Greco%M.%coreGivesNoEmail%1,                   Iotti%G. A.%coreGivesNoEmail%1,                   Langer%T.%coreGivesNoEmail%1,                   Latronico%N.%coreGivesNoEmail%1,                   Lorini%F. L.%coreGivesNoEmail%1,                   Mojoli%F.%coreGivesNoEmail%1,                   Natalini%G.%coreGivesNoEmail%1,                   Pesenti%A.%coreGivesNoEmail%1,                   Pessina%C. M.%coreGivesNoEmail%1,                   Ranieri%V. M.%coreGivesNoEmail%1,                   Rech%R.%coreGivesNoEmail%1,                   Rosano%A.%coreGivesNoEmail%1,                   Scudeller%L.%coreGivesNoEmail%1,                   Storti%E.%coreGivesNoEmail%1,                   Thompson%B. T.%coreGivesNoEmail%1,                   Tirani%M.%coreGivesNoEmail%1,                   Villani%P. G.%coreGivesNoEmail%1,                   Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                     Daniela Patricia%Trelles-Garcia%NULL%2,                     Daniela Patricia%Trelles-Garcia%NULL%0,                     Maria Adriana%Yanez-Bello%NULL%1,                     Chul Won%Chung%NULL%1,                     Valeria Patricia%Trelles-Garcia%NULL%1,                     Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                     Juan-Juan%Qin%NULL%1,                     Xu%Cheng%NULL%1,                     Lijun%Shen%NULL%1,                     Yan-Ci%Zhao%NULL%1,                     Yufeng%Yuan%NULL%1,                     Fang%Lei%NULL%1,                     Ming-Ming%Chen%NULL%1,                     Huilin%Yang%NULL%1,                     Liangjie%Bai%NULL%1,                     Xiaohui%Song%NULL%1,                     Lijin%Lin%NULL%1,                     Meng%Xia%NULL%1,                     Feng%Zhou%NULL%1,                     Jianghua%Zhou%NULL%1,                     Zhi-Gang%She%NULL%1,                     Lihua%Zhu%NULL%1,                     Xinliang%Ma%NULL%1,                     Qingbo%Xu%NULL%1,                     Ping%Ye%NULL%1,                     Guohua%Chen%NULL%1,                     Liming%Liu%NULL%1,                     Weiming%Mao%NULL%1,                     Youqin%Yan%NULL%1,                     Bing%Xiao%NULL%1,                     Zhigang%Lu%NULL%1,                     Gang%Peng%NULL%1,                     Mingyu%Liu%NULL%1,                     Jun%Yang%NULL%1,                     Luyu%Yang%NULL%1,                     Changjiang%Zhang%NULL%1,                     Haofeng%Lu%NULL%1,                     Xigang%Xia%NULL%1,                     Daihong%Wang%NULL%1,                     Xiaofeng%Liao%NULL%1,                     Xiang%Wei%NULL%1,                     Bing-Hong%Zhang%NULL%1,                     Xin%Zhang%NULL%2,                     Juan%Yang%NULL%1,                     Guang-Nian%Zhao%NULL%1,                     Peng%Zhang%NULL%0,                     Peter P.%Liu%NULL%1,                     Rohit%Loomba%NULL%1,                     Yan-Xiao%Ji%NULL%1,                     Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                     Yibin%Wang%yibinwang@mednet.ucla.edu%1,                     Jingjing%Cai%caijingjing83@hotmail.com%1,                     Jiao%Guo%guoj@gdpu.edu.cn%1,                     Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                     Robert%DeJoy%NULL%1,                     Kevin Bryan%Lo%NULL%0,                     Jeri%Albano%NULL%0,                     Eric%Peterson%NULL%0,                     Ruchika%Bhargav%NULL%0,                     Fahad%Gu%NULL%1,                     Grace%Salacup%NULL%1,                     Jerald%Pelayo%NULL%0,                     Zurab%Azmaiparashvili%NULL%0,                     Janani%Rangaswami%NULL%0,                     Gabriel%Patarroyo-Aponte%NULL%1,                     Sadia%Benzaquen%NULL%0,                     Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                     Luke%Wooster%NULL%1,                     Haakon H.%Sigurslid%NULL%1,                     Rebecca H.%Li%NULL%1,                     Wanlin%Jiang%NULL%1,                     Wenjie%Tian%NULL%1,                     Christian L.%Lino Cardenas%NULL%1,                     Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                     Mahesh V.%Madhavan%NULL%2,                     Mahesh V.%Madhavan%NULL%0,                     Timothy J.%Poterucha%NULL%2,                     Timothy J.%Poterucha%NULL%0,                     Ersilia M.%DeFilippis%NULL%1,                     Jessica A.%Hennessey%NULL%1,                     Bjorn%Redfors%NULL%1,                     Christina%Eckhardt%NULL%1,                     Behnood%Bikdeli%NULL%1,                     Jonathan%Platt%NULL%1,                     Ani%Nalbandian%NULL%1,                     Pierre%Elias%NULL%2,                     Pierre%Elias%NULL%0,                     Matthew J.%Cummings%NULL%2,                     Matthew J.%Cummings%NULL%0,                     Shayan N.%Nouri%NULL%1,                     Matthew%Lawlor%NULL%1,                     Lauren S.%Ranard%NULL%1,                     Jianhua%Li%NULL%2,                     Jianhua%Li%NULL%0,                     Claudia%Boyle%NULL%1,                     Raymond%Givens%NULL%1,                     Daniel%Brodie%NULL%0,                     Harlan M.%Krumholz%NULL%2,                     Harlan M.%Krumholz%NULL%0,                     Gregg W.%Stone%NULL%2,                     Gregg W.%Stone%NULL%0,                     Sanjum S.%Sethi%NULL%1,                     Daniel%Burkhoff%NULL%1,                     Nir%Uriel%NULL%1,                     Allan%Schwartz%NULL%0,                     Martin B.%Leon%NULL%1,                     Ajay J.%Kirtane%NULL%1,                     Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                     Sahil A.%Parikh%NULL%2,                     Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                     Louis%Potier%NULL%2,                     Louis%Potier%NULL%0,                     Pierre%Gourdy%NULL%2,                     Pierre%Gourdy%NULL%0,                     Matthieu%Pichelin%NULL%2,                     Matthieu%Pichelin%NULL%0,                     Coralie%Amadou%NULL%2,                     Coralie%Amadou%NULL%0,                     Pierre-Yves%Benhamou%NULL%2,                     Pierre-Yves%Benhamou%NULL%0,                     Jean-Baptiste%Bonnet%NULL%1,                     Lyse%Bordier%NULL%1,                     Olivier%Bourron%NULL%1,                     Claude%Chaumeil%NULL%2,                     Claude%Chaumeil%NULL%0,                     Nicolas%Chevalier%NULL%1,                     Patrice%Darmon%NULL%2,                     Patrice%Darmon%NULL%0,                     Blandine%Delenne%NULL%2,                     Blandine%Delenne%NULL%0,                     Delphine%Demarsy%NULL%1,                     Marie%Dumas%NULL%1,                     Olivier%Dupuy%NULL%1,                     Anna%Flaus-Furmaniuk%NULL%2,                     Anna%Flaus-Furmaniuk%NULL%0,                     Jean-François%Gautier%NULL%1,                     Anne-Marie%Guedj%NULL%2,                     Anne-Marie%Guedj%NULL%0,                     Nathalie%Jeandidier%NULL%1,                     Etienne%Larger%NULL%1,                     Jean-Philippe%Le Berre%NULL%1,                     Myriam%Lungo%NULL%1,                     Nathanaëlle%Montanier%NULL%1,                     Philippe%Moulin%NULL%1,                     Françoise%Plat%NULL%1,                     Vincent%Rigalleau%NULL%1,                     René%Robert%NULL%1,                     Dominique%Seret-Bégué%NULL%2,                     Dominique%Seret-Bégué%NULL%0,                     Pierre%Sérusclat%NULL%1,                     Sarra%Smati%NULL%1,                     Jean-François%Thébaut%NULL%1,                     Blandine%Tramunt%NULL%2,                     Blandine%Tramunt%NULL%0,                     Camille%Vatier%NULL%1,                     Fritz-Line%Velayoudom%NULL%2,                     Fritz-Line%Velayoudom%NULL%0,                     Bruno%Vergès%NULL%1,                     Patrice%Winiszewski%NULL%1,                     Audrey%Zabulon%NULL%1,                     Pierre-Antoine%Gourraud%NULL%1,                     Ronan%Roussel%NULL%2,                     Ronan%Roussel%NULL%0,                     Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                     Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                     In-Ae%Song%NULL%1,                     Young-Tae%Jeon%NULL%1,                     Philip P.%Foster%NULL%2,                     Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                     Marco%Schiavone%NULL%1,                     Antonio%Curnis%NULL%1,                     Marcello%Arca%NULL%1,                     Spinello%Antinori%NULL%1,                     Alessio%Gasperetti%NULL%1,                     Giosuè%Mascioli%NULL%1,                     Paolo%Severino%NULL%1,                     Federica%Sabato%NULL%1,                     Maria M.%Caracciolo%NULL%1,                     Gianmarco%Arabia%NULL%1,                     Laura%D'Erasmo%NULL%1,                     Maurizio%Viecca%NULL%1,                     Massimo%Mancone%NULL%1,                     Massimo%Galli%NULL%1,                     Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                     Zhun%Cao%NULL%1,                     Jake%Gundrum%NULL%1,                     Jim%Sianis%NULL%1,                     Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                     Michele%Ciccarelli%NULL%0,                     Michele%Ciccarelli%NULL%0,                     Dario%Bruzzese%NULL%1,                     Andrea%Dipasquale%NULL%1,                     Andrea G.%Lania%NULL%1,                     Gherardo%Mazziotti%NULL%1,                     Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                     Kathy W.%Belk%NULL%1,                     Michael%Topmiller%NULL%1,                     Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                     Sarah B.%Hays%NULL%1,                     Constance E.%Panton%NULL%2,                     Constance E.%Panton%NULL%0,                     Evangelia K.%Mylona%NULL%1,                     Markos%Kalligeros%NULL%1,                     Fadi%Shehadeh%NULL%1,                     Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                     Amy M.%Sitapati%NULL%1,                     Jing%Zhang%NULL%1,                     Jingjing%Zou%NULL%1,                     Quan M.%Bui%NULL%1,                     Junting%Ren%NULL%1,                     Christopher A.%Longhurst%NULL%1,                     Michael H.%Criqui%NULL%1,                     Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                     Antoon%Bronselaer%NULL%1,                     James T.%Teo%NULL%1,                     Geert%Byttebier%NULL%1,                     Guy%De Tré%NULL%1,                     Luc%Belmans%NULL%1,                     Richard%Dobson%NULL%1,                     Evelien%Wynendaele%NULL%1,                     Christophe%Van De Wiele%NULL%1,                     Filip%Vandaele%NULL%1,                     Diemer%Van Dijck%NULL%1,                     Dan%Bean%NULL%1,                     David%Fedson%NULL%1,                     Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2300,7 +2363,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2329,7 +2392,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2358,7 +2421,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2387,7 +2450,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2416,7 +2479,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2445,7 +2508,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2474,7 +2537,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -2503,7 +2566,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -2532,7 +2595,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -2561,7 +2624,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -2590,7 +2653,7 @@
         <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -2619,7 +2682,7 @@
         <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2648,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -2677,7 +2740,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2706,7 +2769,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2735,7 +2798,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -2764,7 +2827,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2793,7 +2856,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2822,7 +2885,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2851,7 +2914,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="675">
   <si>
     <t>Doi</t>
   </si>
@@ -1985,6 +1985,324 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,                     Antoon%Bronselaer%NULL%1,                     James T.%Teo%NULL%1,                     Geert%Byttebier%NULL%1,                     Guy%De Tré%NULL%1,                     Luc%Belmans%NULL%1,                     Richard%Dobson%NULL%1,                     Evelien%Wynendaele%NULL%1,                     Christophe%Van De Wiele%NULL%1,                     Filip%Vandaele%NULL%1,                     Diemer%Van Dijck%NULL%1,                     Dan%Bean%NULL%1,                     David%Fedson%NULL%1,                     Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                      Juhee%Ahn%ahnjuhee23@gmail.com%1,                      Juhong%Park%parkjh@nhis.or.kr%1,                      Chang%Kyung Kang%zeptemiger@hanmail.net%1,                      Sung-Ho%Won%sunghow@gmail.com%1,                      Dong%Wook Kim%kimdw2269@gmail.com%1,                      Jong-Heon%Park%parkjh@nhis.or.kr%1,                      Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                      Joon-Sung%Joh%ssabana777@gmail.com%1,                      Ji Hwan%Bang%roundbirch@gmail.com%1,                      Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                      Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                      Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                      Tania%Dehesh%NULL%1,                      Farnaz%Aligolighasemabadi%NULL%1,                      Mohammadamin%Sadeghdoust%NULL%1,                      Katarzyna%Kotfis%NULL%1,                      Mazaher%Ahmadi%NULL%1,                      Parvaneh%Mehrbod%NULL%1,                      Pooya%Iranpour%NULL%1,                      Sanaz%Dastghaib%NULL%1,                      Ahmad%Nasimian%NULL%1,                      Amir%Ravandi%NULL%1,                      Biniam%Kidane%NULL%1,                      Naseer%Ahmed%NULL%1,                      Pawan%Sharma%NULL%1,                      Shahla%Shojaei%NULL%1,                      Kamran%Bagheri Lankarani%NULL%1,                      Andrzej%Madej%NULL%1,                      Nima%Rezaei%NULL%1,                      Tayyebeh%Madrakian%NULL%1,                      Marek J.%Los%NULL%1,                      Hagar Ibrahim%Labouta%NULL%1,                      Pooneh%Mokarram%NULL%1,                      Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                      Tao%Guo%NULL%1,                      Feifei%Yan%NULL%1,                      Ming%Gong%NULL%1,                      Xin A.%Zhang%NULL%1,                      Chenze%Li%NULL%1,                      Tao%He%NULL%0,                      Huimin%Luo%NULL%1,                      Lin%Zhang%NULL%0,                      Ming%Chen%NULL%0,                      Xiaoyan%Wu%NULL%0,                      Hairong%Wang%NULL%0,                      Ke-Qiong%Deng%NULL%1,                      Jiao%Bai%NULL%1,                      Lin%Cai%NULL%1,                      Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                      Thomas Alexander%Gerds%NULL%2,                      Thomas Alexander%Gerds%NULL%0,                      Morten%Schou%NULL%1,                      Kristian%Kragholm%NULL%1,                      Matthew%Phelps%NULL%1,                      Eva%Havers-Borgersen%NULL%1,                      Adelina%Yafasova%NULL%1,                      Gunnar Hilmar%Gislason%NULL%1,                      Christian%Torp-Pedersen%NULL%1,                      Lars%Køber%NULL%1,                      Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                      Eudald%Correig%NULL%1,                      Cèlia%Rodríguez-Borjabad%NULL%1,                      Eva%Anoro%NULL%1,                      Juan Antonio%Arroyo%NULL%1,                      Carlos%Jericó%NULL%1,                      Angels%Pedragosa%NULL%1,                      Marcel·la%Miret%NULL%1,                      Silvia%Näf%NULL%1,                      Anna%Pardo%NULL%1,                      Verónica%Perea%NULL%1,                      Rosa%Pérez-Bernalte%NULL%1,                      Núria%Plana%NULL%1,                      Rafael%Ramírez-Montesinos%NULL%1,                      Meritxell%Royuela%NULL%1,                      Cristina%Soler%NULL%1,                      Maria%Urquizu-Padilla%NULL%1,                      Alberto%Zamora%NULL%1,                      Juan%Pedro-Botet%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                      Francesco%Castagna%NULL%2,                      Francesco%Castagna%NULL%0,                      Ilir%Agalliu%NULL%2,                      Ilir%Agalliu%NULL%0,                      Xiaonan%Xue%NULL%2,                      Xiaonan%Xue%NULL%0,                      Snehal R.%Patel%NULL%1,                      Yogita%Rochlani%NULL%1,                      Rachna%Kataria%NULL%1,                      Sasa%Vukelic%NULL%1,                      Daniel B.%Sims%NULL%1,                      Chikezie%Alvarez%NULL%1,                      Mercedes%Rivas‐Lasarte%NULL%2,                      Mercedes%Rivas‐Lasarte%NULL%0,                      Mario J.%Garcia%NULL%2,                      Mario J.%Garcia%NULL%0,                      Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                    Antonelli%M.%coreGivesNoEmail%1,                    Bellani%G.%coreGivesNoEmail%1,                    Bonanomi%E.%coreGivesNoEmail%1,                    Cabrini%L.%coreGivesNoEmail%1,                    Carlesso%E.%coreGivesNoEmail%1,                    Castelli%G.%coreGivesNoEmail%1,                    Cattaneo%S.%coreGivesNoEmail%1,                    Cecconi%M.%coreGivesNoEmail%1,                    Cereda%D.%coreGivesNoEmail%1,                    Colombo%S.%coreGivesNoEmail%1,                    Coluccello%A.%coreGivesNoEmail%1,                    Crescini%G.%coreGivesNoEmail%1,                    Forastieri%Molinari A.%coreGivesNoEmail%1,                    Foti%G.%coreGivesNoEmail%1,                    Fumagalli%R.%coreGivesNoEmail%1,                    Grasselli%G.%coreGivesNoEmail%1,                    Greco%M.%coreGivesNoEmail%1,                    Iotti%G. A.%coreGivesNoEmail%1,                    Langer%T.%coreGivesNoEmail%1,                    Latronico%N.%coreGivesNoEmail%1,                    Lorini%F. L.%coreGivesNoEmail%1,                    Mojoli%F.%coreGivesNoEmail%1,                    Natalini%G.%coreGivesNoEmail%1,                    Pesenti%A.%coreGivesNoEmail%1,                    Pessina%C. M.%coreGivesNoEmail%1,                    Ranieri%V. M.%coreGivesNoEmail%1,                    Rech%R.%coreGivesNoEmail%1,                    Rosano%A.%coreGivesNoEmail%1,                    Scudeller%L.%coreGivesNoEmail%1,                    Storti%E.%coreGivesNoEmail%1,                    Thompson%B. T.%coreGivesNoEmail%1,                    Tirani%M.%coreGivesNoEmail%1,                    Villani%P. G.%coreGivesNoEmail%1,                    Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                      Daniela Patricia%Trelles-Garcia%NULL%2,                      Daniela Patricia%Trelles-Garcia%NULL%0,                      Maria Adriana%Yanez-Bello%NULL%1,                      Chul Won%Chung%NULL%1,                      Valeria Patricia%Trelles-Garcia%NULL%1,                      Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                      Juan-Juan%Qin%NULL%1,                      Xu%Cheng%NULL%1,                      Lijun%Shen%NULL%1,                      Yan-Ci%Zhao%NULL%1,                      Yufeng%Yuan%NULL%1,                      Fang%Lei%NULL%1,                      Ming-Ming%Chen%NULL%1,                      Huilin%Yang%NULL%1,                      Liangjie%Bai%NULL%1,                      Xiaohui%Song%NULL%1,                      Lijin%Lin%NULL%1,                      Meng%Xia%NULL%1,                      Feng%Zhou%NULL%1,                      Jianghua%Zhou%NULL%1,                      Zhi-Gang%She%NULL%1,                      Lihua%Zhu%NULL%1,                      Xinliang%Ma%NULL%1,                      Qingbo%Xu%NULL%1,                      Ping%Ye%NULL%1,                      Guohua%Chen%NULL%1,                      Liming%Liu%NULL%1,                      Weiming%Mao%NULL%1,                      Youqin%Yan%NULL%1,                      Bing%Xiao%NULL%1,                      Zhigang%Lu%NULL%1,                      Gang%Peng%NULL%1,                      Mingyu%Liu%NULL%1,                      Jun%Yang%NULL%1,                      Luyu%Yang%NULL%1,                      Changjiang%Zhang%NULL%1,                      Haofeng%Lu%NULL%1,                      Xigang%Xia%NULL%1,                      Daihong%Wang%NULL%1,                      Xiaofeng%Liao%NULL%1,                      Xiang%Wei%NULL%1,                      Bing-Hong%Zhang%NULL%1,                      Xin%Zhang%NULL%2,                      Juan%Yang%NULL%1,                      Guang-Nian%Zhao%NULL%1,                      Peng%Zhang%NULL%0,                      Peter P.%Liu%NULL%1,                      Rohit%Loomba%NULL%1,                      Yan-Xiao%Ji%NULL%1,                      Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                      Yibin%Wang%yibinwang@mednet.ucla.edu%1,                      Jingjing%Cai%caijingjing83@hotmail.com%1,                      Jiao%Guo%guoj@gdpu.edu.cn%1,                      Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                      Robert%DeJoy%NULL%1,                      Kevin Bryan%Lo%NULL%0,                      Jeri%Albano%NULL%0,                      Eric%Peterson%NULL%0,                      Ruchika%Bhargav%NULL%0,                      Fahad%Gu%NULL%1,                      Grace%Salacup%NULL%1,                      Jerald%Pelayo%NULL%0,                      Zurab%Azmaiparashvili%NULL%0,                      Janani%Rangaswami%NULL%0,                      Gabriel%Patarroyo-Aponte%NULL%1,                      Sadia%Benzaquen%NULL%0,                      Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                      Luke%Wooster%NULL%1,                      Haakon H.%Sigurslid%NULL%1,                      Rebecca H.%Li%NULL%1,                      Wanlin%Jiang%NULL%1,                      Wenjie%Tian%NULL%1,                      Christian L.%Lino Cardenas%NULL%1,                      Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                      Mahesh V.%Madhavan%NULL%2,                      Mahesh V.%Madhavan%NULL%0,                      Timothy J.%Poterucha%NULL%2,                      Timothy J.%Poterucha%NULL%0,                      Ersilia M.%DeFilippis%NULL%1,                      Jessica A.%Hennessey%NULL%1,                      Bjorn%Redfors%NULL%1,                      Christina%Eckhardt%NULL%1,                      Behnood%Bikdeli%NULL%1,                      Jonathan%Platt%NULL%1,                      Ani%Nalbandian%NULL%1,                      Pierre%Elias%NULL%2,                      Pierre%Elias%NULL%0,                      Matthew J.%Cummings%NULL%2,                      Matthew J.%Cummings%NULL%0,                      Shayan N.%Nouri%NULL%1,                      Matthew%Lawlor%NULL%1,                      Lauren S.%Ranard%NULL%1,                      Jianhua%Li%NULL%2,                      Jianhua%Li%NULL%0,                      Claudia%Boyle%NULL%1,                      Raymond%Givens%NULL%1,                      Daniel%Brodie%NULL%0,                      Harlan M.%Krumholz%NULL%2,                      Harlan M.%Krumholz%NULL%0,                      Gregg W.%Stone%NULL%2,                      Gregg W.%Stone%NULL%0,                      Sanjum S.%Sethi%NULL%1,                      Daniel%Burkhoff%NULL%1,                      Nir%Uriel%NULL%1,                      Allan%Schwartz%NULL%0,                      Martin B.%Leon%NULL%1,                      Ajay J.%Kirtane%NULL%1,                      Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                      Sahil A.%Parikh%NULL%2,                      Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                      Louis%Potier%NULL%2,                      Louis%Potier%NULL%0,                      Pierre%Gourdy%NULL%2,                      Pierre%Gourdy%NULL%0,                      Matthieu%Pichelin%NULL%2,                      Matthieu%Pichelin%NULL%0,                      Coralie%Amadou%NULL%2,                      Coralie%Amadou%NULL%0,                      Pierre-Yves%Benhamou%NULL%2,                      Pierre-Yves%Benhamou%NULL%0,                      Jean-Baptiste%Bonnet%NULL%1,                      Lyse%Bordier%NULL%1,                      Olivier%Bourron%NULL%1,                      Claude%Chaumeil%NULL%2,                      Claude%Chaumeil%NULL%0,                      Nicolas%Chevalier%NULL%1,                      Patrice%Darmon%NULL%2,                      Patrice%Darmon%NULL%0,                      Blandine%Delenne%NULL%2,                      Blandine%Delenne%NULL%0,                      Delphine%Demarsy%NULL%1,                      Marie%Dumas%NULL%1,                      Olivier%Dupuy%NULL%1,                      Anna%Flaus-Furmaniuk%NULL%2,                      Anna%Flaus-Furmaniuk%NULL%0,                      Jean-François%Gautier%NULL%1,                      Anne-Marie%Guedj%NULL%2,                      Anne-Marie%Guedj%NULL%0,                      Nathalie%Jeandidier%NULL%1,                      Etienne%Larger%NULL%1,                      Jean-Philippe%Le Berre%NULL%1,                      Myriam%Lungo%NULL%1,                      Nathanaëlle%Montanier%NULL%1,                      Philippe%Moulin%NULL%1,                      Françoise%Plat%NULL%1,                      Vincent%Rigalleau%NULL%1,                      René%Robert%NULL%1,                      Dominique%Seret-Bégué%NULL%2,                      Dominique%Seret-Bégué%NULL%0,                      Pierre%Sérusclat%NULL%1,                      Sarra%Smati%NULL%1,                      Jean-François%Thébaut%NULL%1,                      Blandine%Tramunt%NULL%2,                      Blandine%Tramunt%NULL%0,                      Camille%Vatier%NULL%1,                      Fritz-Line%Velayoudom%NULL%2,                      Fritz-Line%Velayoudom%NULL%0,                      Bruno%Vergès%NULL%1,                      Patrice%Winiszewski%NULL%1,                      Audrey%Zabulon%NULL%1,                      Pierre-Antoine%Gourraud%NULL%1,                      Ronan%Roussel%NULL%2,                      Ronan%Roussel%NULL%0,                      Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                      Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                      In-Ae%Song%NULL%1,                      Young-Tae%Jeon%NULL%1,                      Philip P.%Foster%NULL%2,                      Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                      Marco%Schiavone%NULL%1,                      Antonio%Curnis%NULL%1,                      Marcello%Arca%NULL%1,                      Spinello%Antinori%NULL%1,                      Alessio%Gasperetti%NULL%1,                      Giosuè%Mascioli%NULL%1,                      Paolo%Severino%NULL%1,                      Federica%Sabato%NULL%1,                      Maria M.%Caracciolo%NULL%1,                      Gianmarco%Arabia%NULL%1,                      Laura%D'Erasmo%NULL%1,                      Maurizio%Viecca%NULL%1,                      Massimo%Mancone%NULL%1,                      Massimo%Galli%NULL%1,                      Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                      Zhun%Cao%NULL%1,                      Jake%Gundrum%NULL%1,                      Jim%Sianis%NULL%1,                      Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                      Michele%Ciccarelli%NULL%0,                      Michele%Ciccarelli%NULL%0,                      Dario%Bruzzese%NULL%1,                      Andrea%Dipasquale%NULL%1,                      Andrea G.%Lania%NULL%1,                      Gherardo%Mazziotti%NULL%1,                      Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                      Kathy W.%Belk%NULL%1,                      Michael%Topmiller%NULL%1,                      Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                      Sarah B.%Hays%NULL%1,                      Constance E.%Panton%NULL%2,                      Constance E.%Panton%NULL%0,                      Evangelia K.%Mylona%NULL%1,                      Markos%Kalligeros%NULL%1,                      Fadi%Shehadeh%NULL%1,                      Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                      Amy M.%Sitapati%NULL%1,                      Jing%Zhang%NULL%1,                      Jingjing%Zou%NULL%1,                      Quan M.%Bui%NULL%1,                      Junting%Ren%NULL%1,                      Christopher A.%Longhurst%NULL%1,                      Michael H.%Criqui%NULL%1,                      Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                      Antoon%Bronselaer%NULL%1,                      James T.%Teo%NULL%1,                      Geert%Byttebier%NULL%1,                      Guy%De Tré%NULL%1,                      Luc%Belmans%NULL%1,                      Richard%Dobson%NULL%1,                      Evelien%Wynendaele%NULL%1,                      Christophe%Van De Wiele%NULL%1,                      Filip%Vandaele%NULL%1,                      Diemer%Van Dijck%NULL%1,                      Dan%Bean%NULL%1,                      David%Fedson%NULL%1,                      Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                       Juhee%Ahn%ahnjuhee23@gmail.com%1,                       Juhong%Park%parkjh@nhis.or.kr%1,                       Chang%Kyung Kang%zeptemiger@hanmail.net%1,                       Sung-Ho%Won%sunghow@gmail.com%1,                       Dong%Wook Kim%kimdw2269@gmail.com%1,                       Jong-Heon%Park%parkjh@nhis.or.kr%1,                       Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                       Joon-Sung%Joh%ssabana777@gmail.com%1,                       Ji Hwan%Bang%roundbirch@gmail.com%1,                       Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                       Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                       Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                       Tania%Dehesh%NULL%1,                       Farnaz%Aligolighasemabadi%NULL%1,                       Mohammadamin%Sadeghdoust%NULL%1,                       Katarzyna%Kotfis%NULL%1,                       Mazaher%Ahmadi%NULL%1,                       Parvaneh%Mehrbod%NULL%1,                       Pooya%Iranpour%NULL%1,                       Sanaz%Dastghaib%NULL%1,                       Ahmad%Nasimian%NULL%1,                       Amir%Ravandi%NULL%1,                       Biniam%Kidane%NULL%1,                       Naseer%Ahmed%NULL%1,                       Pawan%Sharma%NULL%1,                       Shahla%Shojaei%NULL%1,                       Kamran%Bagheri Lankarani%NULL%1,                       Andrzej%Madej%NULL%1,                       Nima%Rezaei%NULL%1,                       Tayyebeh%Madrakian%NULL%1,                       Marek J.%Los%NULL%1,                       Hagar Ibrahim%Labouta%NULL%1,                       Pooneh%Mokarram%NULL%1,                       Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                       Tao%Guo%NULL%1,                       Feifei%Yan%NULL%1,                       Ming%Gong%NULL%1,                       Xin A.%Zhang%NULL%1,                       Chenze%Li%NULL%1,                       Tao%He%NULL%0,                       Huimin%Luo%NULL%1,                       Lin%Zhang%NULL%0,                       Ming%Chen%NULL%0,                       Xiaoyan%Wu%NULL%0,                       Hairong%Wang%NULL%0,                       Ke-Qiong%Deng%NULL%1,                       Jiao%Bai%NULL%1,                       Lin%Cai%NULL%1,                       Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                       Thomas Alexander%Gerds%NULL%2,                       Thomas Alexander%Gerds%NULL%0,                       Morten%Schou%NULL%1,                       Kristian%Kragholm%NULL%1,                       Matthew%Phelps%NULL%1,                       Eva%Havers-Borgersen%NULL%1,                       Adelina%Yafasova%NULL%1,                       Gunnar Hilmar%Gislason%NULL%1,                       Christian%Torp-Pedersen%NULL%1,                       Lars%Køber%NULL%1,                       Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                       Eudald%Correig%NULL%1,                       Cèlia%Rodríguez-Borjabad%NULL%1,                       Eva%Anoro%NULL%1,                       Juan Antonio%Arroyo%NULL%1,                       Carlos%Jericó%NULL%1,                       Angels%Pedragosa%NULL%1,                       Marcel·la%Miret%NULL%1,                       Silvia%Näf%NULL%1,                       Anna%Pardo%NULL%1,                       Verónica%Perea%NULL%1,                       Rosa%Pérez-Bernalte%NULL%1,                       Núria%Plana%NULL%1,                       Rafael%Ramírez-Montesinos%NULL%1,                       Meritxell%Royuela%NULL%1,                       Cristina%Soler%NULL%1,                       Maria%Urquizu-Padilla%NULL%1,                       Alberto%Zamora%NULL%1,                       Juan%Pedro-Botet%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                       Francesco%Castagna%NULL%2,                       Francesco%Castagna%NULL%0,                       Ilir%Agalliu%NULL%2,                       Ilir%Agalliu%NULL%0,                       Xiaonan%Xue%NULL%2,                       Xiaonan%Xue%NULL%0,                       Snehal R.%Patel%NULL%1,                       Yogita%Rochlani%NULL%1,                       Rachna%Kataria%NULL%1,                       Sasa%Vukelic%NULL%1,                       Daniel B.%Sims%NULL%1,                       Chikezie%Alvarez%NULL%1,                       Mercedes%Rivas‐Lasarte%NULL%2,                       Mercedes%Rivas‐Lasarte%NULL%0,                       Mario J.%Garcia%NULL%2,                       Mario J.%Garcia%NULL%0,                       Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                     Antonelli%M.%coreGivesNoEmail%1,                     Bellani%G.%coreGivesNoEmail%1,                     Bonanomi%E.%coreGivesNoEmail%1,                     Cabrini%L.%coreGivesNoEmail%1,                     Carlesso%E.%coreGivesNoEmail%1,                     Castelli%G.%coreGivesNoEmail%1,                     Cattaneo%S.%coreGivesNoEmail%1,                     Cecconi%M.%coreGivesNoEmail%1,                     Cereda%D.%coreGivesNoEmail%1,                     Colombo%S.%coreGivesNoEmail%1,                     Coluccello%A.%coreGivesNoEmail%1,                     Crescini%G.%coreGivesNoEmail%1,                     Forastieri%Molinari A.%coreGivesNoEmail%1,                     Foti%G.%coreGivesNoEmail%1,                     Fumagalli%R.%coreGivesNoEmail%1,                     Grasselli%G.%coreGivesNoEmail%1,                     Greco%M.%coreGivesNoEmail%1,                     Iotti%G. A.%coreGivesNoEmail%1,                     Langer%T.%coreGivesNoEmail%1,                     Latronico%N.%coreGivesNoEmail%1,                     Lorini%F. L.%coreGivesNoEmail%1,                     Mojoli%F.%coreGivesNoEmail%1,                     Natalini%G.%coreGivesNoEmail%1,                     Pesenti%A.%coreGivesNoEmail%1,                     Pessina%C. M.%coreGivesNoEmail%1,                     Ranieri%V. M.%coreGivesNoEmail%1,                     Rech%R.%coreGivesNoEmail%1,                     Rosano%A.%coreGivesNoEmail%1,                     Scudeller%L.%coreGivesNoEmail%1,                     Storti%E.%coreGivesNoEmail%1,                     Thompson%B. T.%coreGivesNoEmail%1,                     Tirani%M.%coreGivesNoEmail%1,                     Villani%P. G.%coreGivesNoEmail%1,                     Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                       Daniela Patricia%Trelles-Garcia%NULL%2,                       Daniela Patricia%Trelles-Garcia%NULL%0,                       Maria Adriana%Yanez-Bello%NULL%1,                       Chul Won%Chung%NULL%1,                       Valeria Patricia%Trelles-Garcia%NULL%1,                       Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                       Juan-Juan%Qin%NULL%1,                       Xu%Cheng%NULL%1,                       Lijun%Shen%NULL%1,                       Yan-Ci%Zhao%NULL%1,                       Yufeng%Yuan%NULL%1,                       Fang%Lei%NULL%1,                       Ming-Ming%Chen%NULL%1,                       Huilin%Yang%NULL%1,                       Liangjie%Bai%NULL%1,                       Xiaohui%Song%NULL%1,                       Lijin%Lin%NULL%1,                       Meng%Xia%NULL%1,                       Feng%Zhou%NULL%1,                       Jianghua%Zhou%NULL%1,                       Zhi-Gang%She%NULL%1,                       Lihua%Zhu%NULL%1,                       Xinliang%Ma%NULL%1,                       Qingbo%Xu%NULL%1,                       Ping%Ye%NULL%1,                       Guohua%Chen%NULL%1,                       Liming%Liu%NULL%1,                       Weiming%Mao%NULL%1,                       Youqin%Yan%NULL%1,                       Bing%Xiao%NULL%1,                       Zhigang%Lu%NULL%1,                       Gang%Peng%NULL%1,                       Mingyu%Liu%NULL%1,                       Jun%Yang%NULL%1,                       Luyu%Yang%NULL%1,                       Changjiang%Zhang%NULL%1,                       Haofeng%Lu%NULL%1,                       Xigang%Xia%NULL%1,                       Daihong%Wang%NULL%1,                       Xiaofeng%Liao%NULL%1,                       Xiang%Wei%NULL%1,                       Bing-Hong%Zhang%NULL%1,                       Xin%Zhang%NULL%2,                       Juan%Yang%NULL%1,                       Guang-Nian%Zhao%NULL%1,                       Peng%Zhang%NULL%0,                       Peter P.%Liu%NULL%1,                       Rohit%Loomba%NULL%1,                       Yan-Xiao%Ji%NULL%1,                       Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                       Yibin%Wang%yibinwang@mednet.ucla.edu%1,                       Jingjing%Cai%caijingjing83@hotmail.com%1,                       Jiao%Guo%guoj@gdpu.edu.cn%1,                       Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                       Robert%DeJoy%NULL%1,                       Kevin Bryan%Lo%NULL%0,                       Jeri%Albano%NULL%0,                       Eric%Peterson%NULL%0,                       Ruchika%Bhargav%NULL%0,                       Fahad%Gu%NULL%1,                       Grace%Salacup%NULL%1,                       Jerald%Pelayo%NULL%0,                       Zurab%Azmaiparashvili%NULL%0,                       Janani%Rangaswami%NULL%0,                       Gabriel%Patarroyo-Aponte%NULL%1,                       Sadia%Benzaquen%NULL%0,                       Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                       Luke%Wooster%NULL%1,                       Haakon H.%Sigurslid%NULL%1,                       Rebecca H.%Li%NULL%1,                       Wanlin%Jiang%NULL%1,                       Wenjie%Tian%NULL%1,                       Christian L.%Lino Cardenas%NULL%1,                       Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                       Mahesh V.%Madhavan%NULL%2,                       Mahesh V.%Madhavan%NULL%0,                       Timothy J.%Poterucha%NULL%2,                       Timothy J.%Poterucha%NULL%0,                       Ersilia M.%DeFilippis%NULL%1,                       Jessica A.%Hennessey%NULL%1,                       Bjorn%Redfors%NULL%1,                       Christina%Eckhardt%NULL%1,                       Behnood%Bikdeli%NULL%1,                       Jonathan%Platt%NULL%1,                       Ani%Nalbandian%NULL%1,                       Pierre%Elias%NULL%2,                       Pierre%Elias%NULL%0,                       Matthew J.%Cummings%NULL%2,                       Matthew J.%Cummings%NULL%0,                       Shayan N.%Nouri%NULL%1,                       Matthew%Lawlor%NULL%1,                       Lauren S.%Ranard%NULL%1,                       Jianhua%Li%NULL%2,                       Jianhua%Li%NULL%0,                       Claudia%Boyle%NULL%1,                       Raymond%Givens%NULL%1,                       Daniel%Brodie%NULL%0,                       Harlan M.%Krumholz%NULL%2,                       Harlan M.%Krumholz%NULL%0,                       Gregg W.%Stone%NULL%2,                       Gregg W.%Stone%NULL%0,                       Sanjum S.%Sethi%NULL%1,                       Daniel%Burkhoff%NULL%1,                       Nir%Uriel%NULL%1,                       Allan%Schwartz%NULL%0,                       Martin B.%Leon%NULL%1,                       Ajay J.%Kirtane%NULL%1,                       Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                       Sahil A.%Parikh%NULL%2,                       Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                       Louis%Potier%NULL%2,                       Louis%Potier%NULL%0,                       Pierre%Gourdy%NULL%2,                       Pierre%Gourdy%NULL%0,                       Matthieu%Pichelin%NULL%2,                       Matthieu%Pichelin%NULL%0,                       Coralie%Amadou%NULL%2,                       Coralie%Amadou%NULL%0,                       Pierre-Yves%Benhamou%NULL%2,                       Pierre-Yves%Benhamou%NULL%0,                       Jean-Baptiste%Bonnet%NULL%1,                       Lyse%Bordier%NULL%1,                       Olivier%Bourron%NULL%1,                       Claude%Chaumeil%NULL%2,                       Claude%Chaumeil%NULL%0,                       Nicolas%Chevalier%NULL%1,                       Patrice%Darmon%NULL%2,                       Patrice%Darmon%NULL%0,                       Blandine%Delenne%NULL%2,                       Blandine%Delenne%NULL%0,                       Delphine%Demarsy%NULL%1,                       Marie%Dumas%NULL%1,                       Olivier%Dupuy%NULL%1,                       Anna%Flaus-Furmaniuk%NULL%2,                       Anna%Flaus-Furmaniuk%NULL%0,                       Jean-François%Gautier%NULL%1,                       Anne-Marie%Guedj%NULL%2,                       Anne-Marie%Guedj%NULL%0,                       Nathalie%Jeandidier%NULL%1,                       Etienne%Larger%NULL%1,                       Jean-Philippe%Le Berre%NULL%1,                       Myriam%Lungo%NULL%1,                       Nathanaëlle%Montanier%NULL%1,                       Philippe%Moulin%NULL%1,                       Françoise%Plat%NULL%1,                       Vincent%Rigalleau%NULL%1,                       René%Robert%NULL%1,                       Dominique%Seret-Bégué%NULL%2,                       Dominique%Seret-Bégué%NULL%0,                       Pierre%Sérusclat%NULL%1,                       Sarra%Smati%NULL%1,                       Jean-François%Thébaut%NULL%1,                       Blandine%Tramunt%NULL%2,                       Blandine%Tramunt%NULL%0,                       Camille%Vatier%NULL%1,                       Fritz-Line%Velayoudom%NULL%2,                       Fritz-Line%Velayoudom%NULL%0,                       Bruno%Vergès%NULL%1,                       Patrice%Winiszewski%NULL%1,                       Audrey%Zabulon%NULL%1,                       Pierre-Antoine%Gourraud%NULL%1,                       Ronan%Roussel%NULL%2,                       Ronan%Roussel%NULL%0,                       Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                       Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                       In-Ae%Song%NULL%1,                       Young-Tae%Jeon%NULL%1,                       Philip P.%Foster%NULL%2,                       Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                       Marco%Schiavone%NULL%1,                       Antonio%Curnis%NULL%1,                       Marcello%Arca%NULL%1,                       Spinello%Antinori%NULL%1,                       Alessio%Gasperetti%NULL%1,                       Giosuè%Mascioli%NULL%1,                       Paolo%Severino%NULL%1,                       Federica%Sabato%NULL%1,                       Maria M.%Caracciolo%NULL%1,                       Gianmarco%Arabia%NULL%1,                       Laura%D'Erasmo%NULL%1,                       Maurizio%Viecca%NULL%1,                       Massimo%Mancone%NULL%1,                       Massimo%Galli%NULL%1,                       Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                       Zhun%Cao%NULL%1,                       Jake%Gundrum%NULL%1,                       Jim%Sianis%NULL%1,                       Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                       Michele%Ciccarelli%NULL%0,                       Michele%Ciccarelli%NULL%0,                       Dario%Bruzzese%NULL%1,                       Andrea%Dipasquale%NULL%1,                       Andrea G.%Lania%NULL%1,                       Gherardo%Mazziotti%NULL%1,                       Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                       Kathy W.%Belk%NULL%1,                       Michael%Topmiller%NULL%1,                       Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                       Sarah B.%Hays%NULL%1,                       Constance E.%Panton%NULL%2,                       Constance E.%Panton%NULL%0,                       Evangelia K.%Mylona%NULL%1,                       Markos%Kalligeros%NULL%1,                       Fadi%Shehadeh%NULL%1,                       Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                       Amy M.%Sitapati%NULL%1,                       Jing%Zhang%NULL%1,                       Jingjing%Zou%NULL%1,                       Quan M.%Bui%NULL%1,                       Junting%Ren%NULL%1,                       Christopher A.%Longhurst%NULL%1,                       Michael H.%Criqui%NULL%1,                       Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                       Antoon%Bronselaer%NULL%1,                       James T.%Teo%NULL%1,                       Geert%Byttebier%NULL%1,                       Guy%De Tré%NULL%1,                       Luc%Belmans%NULL%1,                       Richard%Dobson%NULL%1,                       Evelien%Wynendaele%NULL%1,                       Christophe%Van De Wiele%NULL%1,                       Filip%Vandaele%NULL%1,                       Diemer%Van Dijck%NULL%1,                       Dan%Bean%NULL%1,                       David%Fedson%NULL%1,                       Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                        Juhee%Ahn%ahnjuhee23@gmail.com%1,                        Juhong%Park%parkjh@nhis.or.kr%1,                        Chang%Kyung Kang%zeptemiger@hanmail.net%1,                        Sung-Ho%Won%sunghow@gmail.com%1,                        Dong%Wook Kim%kimdw2269@gmail.com%1,                        Jong-Heon%Park%parkjh@nhis.or.kr%1,                        Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                        Joon-Sung%Joh%ssabana777@gmail.com%1,                        Ji Hwan%Bang%roundbirch@gmail.com%1,                        Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                        Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                        Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                        Tania%Dehesh%NULL%1,                        Farnaz%Aligolighasemabadi%NULL%1,                        Mohammadamin%Sadeghdoust%NULL%1,                        Katarzyna%Kotfis%NULL%1,                        Mazaher%Ahmadi%NULL%1,                        Parvaneh%Mehrbod%NULL%1,                        Pooya%Iranpour%NULL%1,                        Sanaz%Dastghaib%NULL%1,                        Ahmad%Nasimian%NULL%1,                        Amir%Ravandi%NULL%1,                        Biniam%Kidane%NULL%1,                        Naseer%Ahmed%NULL%1,                        Pawan%Sharma%NULL%1,                        Shahla%Shojaei%NULL%1,                        Kamran%Bagheri Lankarani%NULL%1,                        Andrzej%Madej%NULL%1,                        Nima%Rezaei%NULL%1,                        Tayyebeh%Madrakian%NULL%1,                        Marek J.%Los%NULL%1,                        Hagar Ibrahim%Labouta%NULL%1,                        Pooneh%Mokarram%NULL%1,                        Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                        Tao%Guo%NULL%1,                        Feifei%Yan%NULL%1,                        Ming%Gong%NULL%1,                        Xin A.%Zhang%NULL%1,                        Chenze%Li%NULL%1,                        Tao%He%NULL%0,                        Huimin%Luo%NULL%1,                        Lin%Zhang%NULL%0,                        Ming%Chen%NULL%0,                        Xiaoyan%Wu%NULL%0,                        Hairong%Wang%NULL%0,                        Ke-Qiong%Deng%NULL%1,                        Jiao%Bai%NULL%1,                        Lin%Cai%NULL%1,                        Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                        Thomas Alexander%Gerds%NULL%2,                        Thomas Alexander%Gerds%NULL%0,                        Morten%Schou%NULL%1,                        Kristian%Kragholm%NULL%1,                        Matthew%Phelps%NULL%1,                        Eva%Havers-Borgersen%NULL%1,                        Adelina%Yafasova%NULL%1,                        Gunnar Hilmar%Gislason%NULL%1,                        Christian%Torp-Pedersen%NULL%1,                        Lars%Køber%NULL%1,                        Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                        Eudald%Correig%NULL%1,                        Cèlia%Rodríguez-Borjabad%NULL%1,                        Eva%Anoro%NULL%1,                        Juan Antonio%Arroyo%NULL%1,                        Carlos%Jericó%NULL%1,                        Angels%Pedragosa%NULL%1,                        Marcel·la%Miret%NULL%1,                        Silvia%Näf%NULL%1,                        Anna%Pardo%NULL%1,                        Verónica%Perea%NULL%1,                        Rosa%Pérez-Bernalte%NULL%1,                        Núria%Plana%NULL%1,                        Rafael%Ramírez-Montesinos%NULL%1,                        Meritxell%Royuela%NULL%1,                        Cristina%Soler%NULL%1,                        Maria%Urquizu-Padilla%NULL%1,                        Alberto%Zamora%NULL%1,                        Juan%Pedro-Botet%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                        Francesco%Castagna%NULL%2,                        Francesco%Castagna%NULL%0,                        Ilir%Agalliu%NULL%2,                        Ilir%Agalliu%NULL%0,                        Xiaonan%Xue%NULL%2,                        Xiaonan%Xue%NULL%0,                        Snehal R.%Patel%NULL%1,                        Yogita%Rochlani%NULL%1,                        Rachna%Kataria%NULL%1,                        Sasa%Vukelic%NULL%1,                        Daniel B.%Sims%NULL%1,                        Chikezie%Alvarez%NULL%1,                        Mercedes%Rivas‐Lasarte%NULL%2,                        Mercedes%Rivas‐Lasarte%NULL%0,                        Mario J.%Garcia%NULL%2,                        Mario J.%Garcia%NULL%0,                        Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                      Antonelli%M.%coreGivesNoEmail%1,                      Bellani%G.%coreGivesNoEmail%1,                      Bonanomi%E.%coreGivesNoEmail%1,                      Cabrini%L.%coreGivesNoEmail%1,                      Carlesso%E.%coreGivesNoEmail%1,                      Castelli%G.%coreGivesNoEmail%1,                      Cattaneo%S.%coreGivesNoEmail%1,                      Cecconi%M.%coreGivesNoEmail%1,                      Cereda%D.%coreGivesNoEmail%1,                      Colombo%S.%coreGivesNoEmail%1,                      Coluccello%A.%coreGivesNoEmail%1,                      Crescini%G.%coreGivesNoEmail%1,                      Forastieri%Molinari A.%coreGivesNoEmail%1,                      Foti%G.%coreGivesNoEmail%1,                      Fumagalli%R.%coreGivesNoEmail%1,                      Grasselli%G.%coreGivesNoEmail%1,                      Greco%M.%coreGivesNoEmail%1,                      Iotti%G. A.%coreGivesNoEmail%1,                      Langer%T.%coreGivesNoEmail%1,                      Latronico%N.%coreGivesNoEmail%1,                      Lorini%F. L.%coreGivesNoEmail%1,                      Mojoli%F.%coreGivesNoEmail%1,                      Natalini%G.%coreGivesNoEmail%1,                      Pesenti%A.%coreGivesNoEmail%1,                      Pessina%C. M.%coreGivesNoEmail%1,                      Ranieri%V. M.%coreGivesNoEmail%1,                      Rech%R.%coreGivesNoEmail%1,                      Rosano%A.%coreGivesNoEmail%1,                      Scudeller%L.%coreGivesNoEmail%1,                      Storti%E.%coreGivesNoEmail%1,                      Thompson%B. T.%coreGivesNoEmail%1,                      Tirani%M.%coreGivesNoEmail%1,                      Villani%P. G.%coreGivesNoEmail%1,                      Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                        Daniela Patricia%Trelles-Garcia%NULL%2,                        Daniela Patricia%Trelles-Garcia%NULL%0,                        Maria Adriana%Yanez-Bello%NULL%1,                        Chul Won%Chung%NULL%1,                        Valeria Patricia%Trelles-Garcia%NULL%1,                        Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                        Juan-Juan%Qin%NULL%1,                        Xu%Cheng%NULL%1,                        Lijun%Shen%NULL%1,                        Yan-Ci%Zhao%NULL%1,                        Yufeng%Yuan%NULL%1,                        Fang%Lei%NULL%1,                        Ming-Ming%Chen%NULL%1,                        Huilin%Yang%NULL%1,                        Liangjie%Bai%NULL%1,                        Xiaohui%Song%NULL%1,                        Lijin%Lin%NULL%1,                        Meng%Xia%NULL%1,                        Feng%Zhou%NULL%1,                        Jianghua%Zhou%NULL%1,                        Zhi-Gang%She%NULL%1,                        Lihua%Zhu%NULL%1,                        Xinliang%Ma%NULL%1,                        Qingbo%Xu%NULL%1,                        Ping%Ye%NULL%1,                        Guohua%Chen%NULL%1,                        Liming%Liu%NULL%1,                        Weiming%Mao%NULL%1,                        Youqin%Yan%NULL%1,                        Bing%Xiao%NULL%1,                        Zhigang%Lu%NULL%1,                        Gang%Peng%NULL%1,                        Mingyu%Liu%NULL%1,                        Jun%Yang%NULL%1,                        Luyu%Yang%NULL%1,                        Changjiang%Zhang%NULL%1,                        Haofeng%Lu%NULL%1,                        Xigang%Xia%NULL%1,                        Daihong%Wang%NULL%1,                        Xiaofeng%Liao%NULL%1,                        Xiang%Wei%NULL%1,                        Bing-Hong%Zhang%NULL%1,                        Xin%Zhang%NULL%2,                        Juan%Yang%NULL%1,                        Guang-Nian%Zhao%NULL%1,                        Peng%Zhang%NULL%0,                        Peter P.%Liu%NULL%1,                        Rohit%Loomba%NULL%1,                        Yan-Xiao%Ji%NULL%1,                        Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                        Yibin%Wang%yibinwang@mednet.ucla.edu%1,                        Jingjing%Cai%caijingjing83@hotmail.com%1,                        Jiao%Guo%guoj@gdpu.edu.cn%1,                        Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                        Robert%DeJoy%NULL%1,                        Kevin Bryan%Lo%NULL%0,                        Jeri%Albano%NULL%0,                        Eric%Peterson%NULL%0,                        Ruchika%Bhargav%NULL%0,                        Fahad%Gu%NULL%1,                        Grace%Salacup%NULL%1,                        Jerald%Pelayo%NULL%0,                        Zurab%Azmaiparashvili%NULL%0,                        Janani%Rangaswami%NULL%0,                        Gabriel%Patarroyo-Aponte%NULL%1,                        Sadia%Benzaquen%NULL%0,                        Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                        Luke%Wooster%NULL%1,                        Haakon H.%Sigurslid%NULL%1,                        Rebecca H.%Li%NULL%1,                        Wanlin%Jiang%NULL%1,                        Wenjie%Tian%NULL%1,                        Christian L.%Lino Cardenas%NULL%1,                        Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                        Mahesh V.%Madhavan%NULL%2,                        Mahesh V.%Madhavan%NULL%0,                        Timothy J.%Poterucha%NULL%2,                        Timothy J.%Poterucha%NULL%0,                        Ersilia M.%DeFilippis%NULL%1,                        Jessica A.%Hennessey%NULL%1,                        Bjorn%Redfors%NULL%1,                        Christina%Eckhardt%NULL%1,                        Behnood%Bikdeli%NULL%1,                        Jonathan%Platt%NULL%1,                        Ani%Nalbandian%NULL%1,                        Pierre%Elias%NULL%2,                        Pierre%Elias%NULL%0,                        Matthew J.%Cummings%NULL%2,                        Matthew J.%Cummings%NULL%0,                        Shayan N.%Nouri%NULL%1,                        Matthew%Lawlor%NULL%1,                        Lauren S.%Ranard%NULL%1,                        Jianhua%Li%NULL%2,                        Jianhua%Li%NULL%0,                        Claudia%Boyle%NULL%1,                        Raymond%Givens%NULL%1,                        Daniel%Brodie%NULL%0,                        Harlan M.%Krumholz%NULL%2,                        Harlan M.%Krumholz%NULL%0,                        Gregg W.%Stone%NULL%2,                        Gregg W.%Stone%NULL%0,                        Sanjum S.%Sethi%NULL%1,                        Daniel%Burkhoff%NULL%1,                        Nir%Uriel%NULL%1,                        Allan%Schwartz%NULL%0,                        Martin B.%Leon%NULL%1,                        Ajay J.%Kirtane%NULL%1,                        Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                        Sahil A.%Parikh%NULL%2,                        Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                        Louis%Potier%NULL%2,                        Louis%Potier%NULL%0,                        Pierre%Gourdy%NULL%2,                        Pierre%Gourdy%NULL%0,                        Matthieu%Pichelin%NULL%2,                        Matthieu%Pichelin%NULL%0,                        Coralie%Amadou%NULL%2,                        Coralie%Amadou%NULL%0,                        Pierre-Yves%Benhamou%NULL%2,                        Pierre-Yves%Benhamou%NULL%0,                        Jean-Baptiste%Bonnet%NULL%1,                        Lyse%Bordier%NULL%1,                        Olivier%Bourron%NULL%1,                        Claude%Chaumeil%NULL%2,                        Claude%Chaumeil%NULL%0,                        Nicolas%Chevalier%NULL%1,                        Patrice%Darmon%NULL%2,                        Patrice%Darmon%NULL%0,                        Blandine%Delenne%NULL%2,                        Blandine%Delenne%NULL%0,                        Delphine%Demarsy%NULL%1,                        Marie%Dumas%NULL%1,                        Olivier%Dupuy%NULL%1,                        Anna%Flaus-Furmaniuk%NULL%2,                        Anna%Flaus-Furmaniuk%NULL%0,                        Jean-François%Gautier%NULL%1,                        Anne-Marie%Guedj%NULL%2,                        Anne-Marie%Guedj%NULL%0,                        Nathalie%Jeandidier%NULL%1,                        Etienne%Larger%NULL%1,                        Jean-Philippe%Le Berre%NULL%1,                        Myriam%Lungo%NULL%1,                        Nathanaëlle%Montanier%NULL%1,                        Philippe%Moulin%NULL%1,                        Françoise%Plat%NULL%1,                        Vincent%Rigalleau%NULL%1,                        René%Robert%NULL%1,                        Dominique%Seret-Bégué%NULL%2,                        Dominique%Seret-Bégué%NULL%0,                        Pierre%Sérusclat%NULL%1,                        Sarra%Smati%NULL%1,                        Jean-François%Thébaut%NULL%1,                        Blandine%Tramunt%NULL%2,                        Blandine%Tramunt%NULL%0,                        Camille%Vatier%NULL%1,                        Fritz-Line%Velayoudom%NULL%2,                        Fritz-Line%Velayoudom%NULL%0,                        Bruno%Vergès%NULL%1,                        Patrice%Winiszewski%NULL%1,                        Audrey%Zabulon%NULL%1,                        Pierre-Antoine%Gourraud%NULL%1,                        Ronan%Roussel%NULL%2,                        Ronan%Roussel%NULL%0,                        Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                        Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                        Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                        In-Ae%Song%NULL%1,                        Young-Tae%Jeon%NULL%1,                        Philip P.%Foster%NULL%2,                        Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                        Marco%Schiavone%NULL%1,                        Antonio%Curnis%NULL%1,                        Marcello%Arca%NULL%1,                        Spinello%Antinori%NULL%1,                        Alessio%Gasperetti%NULL%1,                        Giosuè%Mascioli%NULL%1,                        Paolo%Severino%NULL%1,                        Federica%Sabato%NULL%1,                        Maria M.%Caracciolo%NULL%1,                        Gianmarco%Arabia%NULL%1,                        Laura%D'Erasmo%NULL%1,                        Maurizio%Viecca%NULL%1,                        Massimo%Mancone%NULL%1,                        Massimo%Galli%NULL%1,                        Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                        Zhun%Cao%NULL%1,                        Jake%Gundrum%NULL%1,                        Jim%Sianis%NULL%1,                        Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                        Michele%Ciccarelli%NULL%0,                        Michele%Ciccarelli%NULL%0,                        Dario%Bruzzese%NULL%1,                        Andrea%Dipasquale%NULL%1,                        Andrea G.%Lania%NULL%1,                        Gherardo%Mazziotti%NULL%1,                        Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                        Kathy W.%Belk%NULL%1,                        Michael%Topmiller%NULL%1,                        Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                        Sarah B.%Hays%NULL%1,                        Constance E.%Panton%NULL%2,                        Constance E.%Panton%NULL%0,                        Evangelia K.%Mylona%NULL%1,                        Markos%Kalligeros%NULL%1,                        Fadi%Shehadeh%NULL%1,                        Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                        Amy M.%Sitapati%NULL%1,                        Jing%Zhang%NULL%1,                        Jingjing%Zou%NULL%1,                        Quan M.%Bui%NULL%1,                        Junting%Ren%NULL%1,                        Christopher A.%Longhurst%NULL%1,                        Michael H.%Criqui%NULL%1,                        Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                        Antoon%Bronselaer%NULL%1,                        James T.%Teo%NULL%1,                        Geert%Byttebier%NULL%1,                        Guy%De Tré%NULL%1,                        Luc%Belmans%NULL%1,                        Richard%Dobson%NULL%1,                        Evelien%Wynendaele%NULL%1,                        Christophe%Van De Wiele%NULL%1,                        Filip%Vandaele%NULL%1,                        Diemer%Van Dijck%NULL%1,                        Dan%Bean%NULL%1,                        David%Fedson%NULL%1,                        Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                         Juhee%Ahn%ahnjuhee23@gmail.com%1,                         Juhong%Park%parkjh@nhis.or.kr%1,                         Chang%Kyung Kang%zeptemiger@hanmail.net%1,                         Sung-Ho%Won%sunghow@gmail.com%1,                         Dong%Wook Kim%kimdw2269@gmail.com%1,                         Jong-Heon%Park%parkjh@nhis.or.kr%1,                         Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                         Joon-Sung%Joh%ssabana777@gmail.com%1,                         Ji Hwan%Bang%roundbirch@gmail.com%1,                         Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                         Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                         Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                         Tania%Dehesh%NULL%1,                         Farnaz%Aligolighasemabadi%NULL%1,                         Mohammadamin%Sadeghdoust%NULL%1,                         Katarzyna%Kotfis%NULL%1,                         Mazaher%Ahmadi%NULL%1,                         Parvaneh%Mehrbod%NULL%1,                         Pooya%Iranpour%NULL%1,                         Sanaz%Dastghaib%NULL%1,                         Ahmad%Nasimian%NULL%1,                         Amir%Ravandi%NULL%1,                         Biniam%Kidane%NULL%1,                         Naseer%Ahmed%NULL%1,                         Pawan%Sharma%NULL%1,                         Shahla%Shojaei%NULL%1,                         Kamran%Bagheri Lankarani%NULL%1,                         Andrzej%Madej%NULL%1,                         Nima%Rezaei%NULL%1,                         Tayyebeh%Madrakian%NULL%1,                         Marek J.%Los%NULL%1,                         Hagar Ibrahim%Labouta%NULL%1,                         Pooneh%Mokarram%NULL%1,                         Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                         Tao%Guo%NULL%1,                         Feifei%Yan%NULL%1,                         Ming%Gong%NULL%1,                         Xin A.%Zhang%NULL%1,                         Chenze%Li%NULL%1,                         Tao%He%NULL%0,                         Huimin%Luo%NULL%1,                         Lin%Zhang%NULL%0,                         Ming%Chen%NULL%0,                         Xiaoyan%Wu%NULL%0,                         Hairong%Wang%NULL%0,                         Ke-Qiong%Deng%NULL%1,                         Jiao%Bai%NULL%1,                         Lin%Cai%NULL%1,                         Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                         Thomas Alexander%Gerds%NULL%2,                         Thomas Alexander%Gerds%NULL%0,                         Morten%Schou%NULL%1,                         Kristian%Kragholm%NULL%1,                         Matthew%Phelps%NULL%1,                         Eva%Havers-Borgersen%NULL%1,                         Adelina%Yafasova%NULL%1,                         Gunnar Hilmar%Gislason%NULL%1,                         Christian%Torp-Pedersen%NULL%1,                         Lars%Køber%NULL%1,                         Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                         Eudald%Correig%NULL%1,                         Cèlia%Rodríguez-Borjabad%NULL%1,                         Eva%Anoro%NULL%1,                         Juan Antonio%Arroyo%NULL%1,                         Carlos%Jericó%NULL%1,                         Angels%Pedragosa%NULL%1,                         Marcel·la%Miret%NULL%1,                         Silvia%Näf%NULL%1,                         Anna%Pardo%NULL%1,                         Verónica%Perea%NULL%1,                         Rosa%Pérez-Bernalte%NULL%1,                         Núria%Plana%NULL%1,                         Rafael%Ramírez-Montesinos%NULL%1,                         Meritxell%Royuela%NULL%1,                         Cristina%Soler%NULL%1,                         Maria%Urquizu-Padilla%NULL%1,                         Alberto%Zamora%NULL%1,                         Juan%Pedro-Botet%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                         Francesco%Castagna%NULL%2,                         Francesco%Castagna%NULL%0,                         Ilir%Agalliu%NULL%2,                         Ilir%Agalliu%NULL%0,                         Xiaonan%Xue%NULL%2,                         Xiaonan%Xue%NULL%0,                         Snehal R.%Patel%NULL%1,                         Yogita%Rochlani%NULL%1,                         Rachna%Kataria%NULL%1,                         Sasa%Vukelic%NULL%1,                         Daniel B.%Sims%NULL%1,                         Chikezie%Alvarez%NULL%1,                         Mercedes%Rivas‐Lasarte%NULL%2,                         Mercedes%Rivas‐Lasarte%NULL%0,                         Mario J.%Garcia%NULL%2,                         Mario J.%Garcia%NULL%0,                         Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                       Antonelli%M.%coreGivesNoEmail%1,                       Bellani%G.%coreGivesNoEmail%1,                       Bonanomi%E.%coreGivesNoEmail%1,                       Cabrini%L.%coreGivesNoEmail%1,                       Carlesso%E.%coreGivesNoEmail%1,                       Castelli%G.%coreGivesNoEmail%1,                       Cattaneo%S.%coreGivesNoEmail%1,                       Cecconi%M.%coreGivesNoEmail%1,                       Cereda%D.%coreGivesNoEmail%1,                       Colombo%S.%coreGivesNoEmail%1,                       Coluccello%A.%coreGivesNoEmail%1,                       Crescini%G.%coreGivesNoEmail%1,                       Forastieri%Molinari A.%coreGivesNoEmail%1,                       Foti%G.%coreGivesNoEmail%1,                       Fumagalli%R.%coreGivesNoEmail%1,                       Grasselli%G.%coreGivesNoEmail%1,                       Greco%M.%coreGivesNoEmail%1,                       Iotti%G. A.%coreGivesNoEmail%1,                       Langer%T.%coreGivesNoEmail%1,                       Latronico%N.%coreGivesNoEmail%1,                       Lorini%F. L.%coreGivesNoEmail%1,                       Mojoli%F.%coreGivesNoEmail%1,                       Natalini%G.%coreGivesNoEmail%1,                       Pesenti%A.%coreGivesNoEmail%1,                       Pessina%C. M.%coreGivesNoEmail%1,                       Ranieri%V. M.%coreGivesNoEmail%1,                       Rech%R.%coreGivesNoEmail%1,                       Rosano%A.%coreGivesNoEmail%1,                       Scudeller%L.%coreGivesNoEmail%1,                       Storti%E.%coreGivesNoEmail%1,                       Thompson%B. T.%coreGivesNoEmail%1,                       Tirani%M.%coreGivesNoEmail%1,                       Villani%P. G.%coreGivesNoEmail%1,                       Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                         Daniela Patricia%Trelles-Garcia%NULL%2,                         Daniela Patricia%Trelles-Garcia%NULL%0,                         Maria Adriana%Yanez-Bello%NULL%1,                         Chul Won%Chung%NULL%1,                         Valeria Patricia%Trelles-Garcia%NULL%1,                         Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                         Juan-Juan%Qin%NULL%1,                         Xu%Cheng%NULL%1,                         Lijun%Shen%NULL%1,                         Yan-Ci%Zhao%NULL%1,                         Yufeng%Yuan%NULL%1,                         Fang%Lei%NULL%1,                         Ming-Ming%Chen%NULL%1,                         Huilin%Yang%NULL%1,                         Liangjie%Bai%NULL%1,                         Xiaohui%Song%NULL%1,                         Lijin%Lin%NULL%1,                         Meng%Xia%NULL%1,                         Feng%Zhou%NULL%1,                         Jianghua%Zhou%NULL%1,                         Zhi-Gang%She%NULL%1,                         Lihua%Zhu%NULL%1,                         Xinliang%Ma%NULL%1,                         Qingbo%Xu%NULL%1,                         Ping%Ye%NULL%1,                         Guohua%Chen%NULL%1,                         Liming%Liu%NULL%1,                         Weiming%Mao%NULL%1,                         Youqin%Yan%NULL%1,                         Bing%Xiao%NULL%1,                         Zhigang%Lu%NULL%1,                         Gang%Peng%NULL%1,                         Mingyu%Liu%NULL%1,                         Jun%Yang%NULL%1,                         Luyu%Yang%NULL%1,                         Changjiang%Zhang%NULL%1,                         Haofeng%Lu%NULL%1,                         Xigang%Xia%NULL%1,                         Daihong%Wang%NULL%1,                         Xiaofeng%Liao%NULL%1,                         Xiang%Wei%NULL%1,                         Bing-Hong%Zhang%NULL%1,                         Xin%Zhang%NULL%2,                         Juan%Yang%NULL%1,                         Guang-Nian%Zhao%NULL%1,                         Peng%Zhang%NULL%0,                         Peter P.%Liu%NULL%1,                         Rohit%Loomba%NULL%1,                         Yan-Xiao%Ji%NULL%1,                         Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                         Yibin%Wang%yibinwang@mednet.ucla.edu%1,                         Jingjing%Cai%caijingjing83@hotmail.com%1,                         Jiao%Guo%guoj@gdpu.edu.cn%1,                         Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                         Robert%DeJoy%NULL%1,                         Kevin Bryan%Lo%NULL%0,                         Jeri%Albano%NULL%0,                         Eric%Peterson%NULL%0,                         Ruchika%Bhargav%NULL%0,                         Fahad%Gu%NULL%1,                         Grace%Salacup%NULL%1,                         Jerald%Pelayo%NULL%0,                         Zurab%Azmaiparashvili%NULL%0,                         Janani%Rangaswami%NULL%0,                         Gabriel%Patarroyo-Aponte%NULL%1,                         Sadia%Benzaquen%NULL%0,                         Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                         Luke%Wooster%NULL%1,                         Haakon H.%Sigurslid%NULL%1,                         Rebecca H.%Li%NULL%1,                         Wanlin%Jiang%NULL%1,                         Wenjie%Tian%NULL%1,                         Christian L.%Lino Cardenas%NULL%1,                         Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                         Mahesh V.%Madhavan%NULL%2,                         Mahesh V.%Madhavan%NULL%0,                         Timothy J.%Poterucha%NULL%2,                         Timothy J.%Poterucha%NULL%0,                         Ersilia M.%DeFilippis%NULL%1,                         Jessica A.%Hennessey%NULL%1,                         Bjorn%Redfors%NULL%1,                         Christina%Eckhardt%NULL%1,                         Behnood%Bikdeli%NULL%1,                         Jonathan%Platt%NULL%1,                         Ani%Nalbandian%NULL%1,                         Pierre%Elias%NULL%2,                         Pierre%Elias%NULL%0,                         Matthew J.%Cummings%NULL%2,                         Matthew J.%Cummings%NULL%0,                         Shayan N.%Nouri%NULL%1,                         Matthew%Lawlor%NULL%1,                         Lauren S.%Ranard%NULL%1,                         Jianhua%Li%NULL%2,                         Jianhua%Li%NULL%0,                         Claudia%Boyle%NULL%1,                         Raymond%Givens%NULL%1,                         Daniel%Brodie%NULL%0,                         Harlan M.%Krumholz%NULL%2,                         Harlan M.%Krumholz%NULL%0,                         Gregg W.%Stone%NULL%2,                         Gregg W.%Stone%NULL%0,                         Sanjum S.%Sethi%NULL%1,                         Daniel%Burkhoff%NULL%1,                         Nir%Uriel%NULL%1,                         Allan%Schwartz%NULL%0,                         Martin B.%Leon%NULL%1,                         Ajay J.%Kirtane%NULL%1,                         Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                         Sahil A.%Parikh%NULL%2,                         Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                         Louis%Potier%NULL%2,                         Louis%Potier%NULL%0,                         Pierre%Gourdy%NULL%2,                         Pierre%Gourdy%NULL%0,                         Matthieu%Pichelin%NULL%2,                         Matthieu%Pichelin%NULL%0,                         Coralie%Amadou%NULL%2,                         Coralie%Amadou%NULL%0,                         Pierre-Yves%Benhamou%NULL%2,                         Pierre-Yves%Benhamou%NULL%0,                         Jean-Baptiste%Bonnet%NULL%1,                         Lyse%Bordier%NULL%1,                         Olivier%Bourron%NULL%1,                         Claude%Chaumeil%NULL%2,                         Claude%Chaumeil%NULL%0,                         Nicolas%Chevalier%NULL%1,                         Patrice%Darmon%NULL%2,                         Patrice%Darmon%NULL%0,                         Blandine%Delenne%NULL%2,                         Blandine%Delenne%NULL%0,                         Delphine%Demarsy%NULL%1,                         Marie%Dumas%NULL%1,                         Olivier%Dupuy%NULL%1,                         Anna%Flaus-Furmaniuk%NULL%2,                         Anna%Flaus-Furmaniuk%NULL%0,                         Jean-François%Gautier%NULL%1,                         Anne-Marie%Guedj%NULL%2,                         Anne-Marie%Guedj%NULL%0,                         Nathalie%Jeandidier%NULL%1,                         Etienne%Larger%NULL%1,                         Jean-Philippe%Le Berre%NULL%1,                         Myriam%Lungo%NULL%1,                         Nathanaëlle%Montanier%NULL%1,                         Philippe%Moulin%NULL%1,                         Françoise%Plat%NULL%1,                         Vincent%Rigalleau%NULL%1,                         René%Robert%NULL%1,                         Dominique%Seret-Bégué%NULL%2,                         Dominique%Seret-Bégué%NULL%0,                         Pierre%Sérusclat%NULL%1,                         Sarra%Smati%NULL%1,                         Jean-François%Thébaut%NULL%1,                         Blandine%Tramunt%NULL%2,                         Blandine%Tramunt%NULL%0,                         Camille%Vatier%NULL%1,                         Fritz-Line%Velayoudom%NULL%2,                         Fritz-Line%Velayoudom%NULL%0,                         Bruno%Vergès%NULL%1,                         Patrice%Winiszewski%NULL%1,                         Audrey%Zabulon%NULL%1,                         Pierre-Antoine%Gourraud%NULL%1,                         Ronan%Roussel%NULL%2,                         Ronan%Roussel%NULL%0,                         Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                         Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                         Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                         In-Ae%Song%NULL%1,                         Young-Tae%Jeon%NULL%1,                         Philip P.%Foster%NULL%2,                         Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                         Marco%Schiavone%NULL%1,                         Antonio%Curnis%NULL%1,                         Marcello%Arca%NULL%1,                         Spinello%Antinori%NULL%1,                         Alessio%Gasperetti%NULL%1,                         Giosuè%Mascioli%NULL%1,                         Paolo%Severino%NULL%1,                         Federica%Sabato%NULL%1,                         Maria M.%Caracciolo%NULL%1,                         Gianmarco%Arabia%NULL%1,                         Laura%D'Erasmo%NULL%1,                         Maurizio%Viecca%NULL%1,                         Massimo%Mancone%NULL%1,                         Massimo%Galli%NULL%1,                         Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                         Zhun%Cao%NULL%1,                         Jake%Gundrum%NULL%1,                         Jim%Sianis%NULL%1,                         Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                         Michele%Ciccarelli%NULL%0,                         Michele%Ciccarelli%NULL%0,                         Dario%Bruzzese%NULL%1,                         Andrea%Dipasquale%NULL%1,                         Andrea G.%Lania%NULL%1,                         Gherardo%Mazziotti%NULL%1,                         Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                         Kathy W.%Belk%NULL%1,                         Michael%Topmiller%NULL%1,                         Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                         Sarah B.%Hays%NULL%1,                         Constance E.%Panton%NULL%2,                         Constance E.%Panton%NULL%0,                         Evangelia K.%Mylona%NULL%1,                         Markos%Kalligeros%NULL%1,                         Fadi%Shehadeh%NULL%1,                         Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                         Amy M.%Sitapati%NULL%1,                         Jing%Zhang%NULL%1,                         Jingjing%Zou%NULL%1,                         Quan M.%Bui%NULL%1,                         Junting%Ren%NULL%1,                         Christopher A.%Longhurst%NULL%1,                         Michael H.%Criqui%NULL%1,                         Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                         Antoon%Bronselaer%NULL%1,                         James T.%Teo%NULL%1,                         Geert%Byttebier%NULL%1,                         Guy%De Tré%NULL%1,                         Luc%Belmans%NULL%1,                         Richard%Dobson%NULL%1,                         Evelien%Wynendaele%NULL%1,                         Christophe%Van De Wiele%NULL%1,                         Filip%Vandaele%NULL%1,                         Diemer%Van Dijck%NULL%1,                         Dan%Bean%NULL%1,                         David%Fedson%NULL%1,                         Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                          Juhee%Ahn%ahnjuhee23@gmail.com%1,                          Juhong%Park%parkjh@nhis.or.kr%1,                          Chang%Kyung Kang%zeptemiger@hanmail.net%1,                          Sung-Ho%Won%sunghow@gmail.com%1,                          Dong%Wook Kim%kimdw2269@gmail.com%1,                          Jong-Heon%Park%parkjh@nhis.or.kr%1,                          Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                          Joon-Sung%Joh%ssabana777@gmail.com%1,                          Ji Hwan%Bang%roundbirch@gmail.com%1,                          Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                          Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                          Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                          Tania%Dehesh%NULL%1,                          Farnaz%Aligolighasemabadi%NULL%1,                          Mohammadamin%Sadeghdoust%NULL%1,                          Katarzyna%Kotfis%NULL%1,                          Mazaher%Ahmadi%NULL%1,                          Parvaneh%Mehrbod%NULL%1,                          Pooya%Iranpour%NULL%1,                          Sanaz%Dastghaib%NULL%1,                          Ahmad%Nasimian%NULL%1,                          Amir%Ravandi%NULL%1,                          Biniam%Kidane%NULL%1,                          Naseer%Ahmed%NULL%1,                          Pawan%Sharma%NULL%1,                          Shahla%Shojaei%NULL%1,                          Kamran%Bagheri Lankarani%NULL%1,                          Andrzej%Madej%NULL%1,                          Nima%Rezaei%NULL%1,                          Tayyebeh%Madrakian%NULL%1,                          Marek J.%Los%NULL%1,                          Hagar Ibrahim%Labouta%NULL%1,                          Pooneh%Mokarram%NULL%1,                          Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                          Tao%Guo%NULL%1,                          Feifei%Yan%NULL%1,                          Ming%Gong%NULL%1,                          Xin A.%Zhang%NULL%1,                          Chenze%Li%NULL%1,                          Tao%He%NULL%0,                          Huimin%Luo%NULL%1,                          Lin%Zhang%NULL%0,                          Ming%Chen%NULL%0,                          Xiaoyan%Wu%NULL%0,                          Hairong%Wang%NULL%0,                          Ke-Qiong%Deng%NULL%1,                          Jiao%Bai%NULL%1,                          Lin%Cai%NULL%1,                          Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                          Thomas Alexander%Gerds%NULL%2,                          Thomas Alexander%Gerds%NULL%0,                          Morten%Schou%NULL%1,                          Kristian%Kragholm%NULL%1,                          Matthew%Phelps%NULL%1,                          Eva%Havers-Borgersen%NULL%1,                          Adelina%Yafasova%NULL%1,                          Gunnar Hilmar%Gislason%NULL%1,                          Christian%Torp-Pedersen%NULL%1,                          Lars%Køber%NULL%1,                          Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                          Eudald%Correig%NULL%1,                          Cèlia%Rodríguez-Borjabad%NULL%1,                          Eva%Anoro%NULL%1,                          Juan Antonio%Arroyo%NULL%1,                          Carlos%Jericó%NULL%1,                          Angels%Pedragosa%NULL%1,                          Marcel·la%Miret%NULL%1,                          Silvia%Näf%NULL%1,                          Anna%Pardo%NULL%1,                          Verónica%Perea%NULL%1,                          Rosa%Pérez-Bernalte%NULL%1,                          Núria%Plana%NULL%1,                          Rafael%Ramírez-Montesinos%NULL%1,                          Meritxell%Royuela%NULL%1,                          Cristina%Soler%NULL%1,                          Maria%Urquizu-Padilla%NULL%1,                          Alberto%Zamora%NULL%1,                          Juan%Pedro-Botet%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                          Francesco%Castagna%NULL%2,                          Francesco%Castagna%NULL%0,                          Ilir%Agalliu%NULL%2,                          Ilir%Agalliu%NULL%0,                          Xiaonan%Xue%NULL%2,                          Xiaonan%Xue%NULL%0,                          Snehal R.%Patel%NULL%1,                          Yogita%Rochlani%NULL%1,                          Rachna%Kataria%NULL%1,                          Sasa%Vukelic%NULL%1,                          Daniel B.%Sims%NULL%1,                          Chikezie%Alvarez%NULL%1,                          Mercedes%Rivas‐Lasarte%NULL%2,                          Mercedes%Rivas‐Lasarte%NULL%0,                          Mario J.%Garcia%NULL%2,                          Mario J.%Garcia%NULL%0,                          Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                        Antonelli%M.%coreGivesNoEmail%1,                        Bellani%G.%coreGivesNoEmail%1,                        Bonanomi%E.%coreGivesNoEmail%1,                        Cabrini%L.%coreGivesNoEmail%1,                        Carlesso%E.%coreGivesNoEmail%1,                        Castelli%G.%coreGivesNoEmail%1,                        Cattaneo%S.%coreGivesNoEmail%1,                        Cecconi%M.%coreGivesNoEmail%1,                        Cereda%D.%coreGivesNoEmail%1,                        Colombo%S.%coreGivesNoEmail%1,                        Coluccello%A.%coreGivesNoEmail%1,                        Crescini%G.%coreGivesNoEmail%1,                        Forastieri%Molinari A.%coreGivesNoEmail%1,                        Foti%G.%coreGivesNoEmail%1,                        Fumagalli%R.%coreGivesNoEmail%1,                        Grasselli%G.%coreGivesNoEmail%1,                        Greco%M.%coreGivesNoEmail%1,                        Iotti%G. A.%coreGivesNoEmail%1,                        Langer%T.%coreGivesNoEmail%1,                        Latronico%N.%coreGivesNoEmail%1,                        Lorini%F. L.%coreGivesNoEmail%1,                        Mojoli%F.%coreGivesNoEmail%1,                        Natalini%G.%coreGivesNoEmail%1,                        Pesenti%A.%coreGivesNoEmail%1,                        Pessina%C. M.%coreGivesNoEmail%1,                        Ranieri%V. M.%coreGivesNoEmail%1,                        Rech%R.%coreGivesNoEmail%1,                        Rosano%A.%coreGivesNoEmail%1,                        Scudeller%L.%coreGivesNoEmail%1,                        Storti%E.%coreGivesNoEmail%1,                        Thompson%B. T.%coreGivesNoEmail%1,                        Tirani%M.%coreGivesNoEmail%1,                        Villani%P. G.%coreGivesNoEmail%1,                        Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                          Daniela Patricia%Trelles-Garcia%NULL%2,                          Daniela Patricia%Trelles-Garcia%NULL%0,                          Maria Adriana%Yanez-Bello%NULL%1,                          Chul Won%Chung%NULL%1,                          Valeria Patricia%Trelles-Garcia%NULL%1,                          Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                          Juan-Juan%Qin%NULL%1,                          Xu%Cheng%NULL%1,                          Lijun%Shen%NULL%1,                          Yan-Ci%Zhao%NULL%1,                          Yufeng%Yuan%NULL%1,                          Fang%Lei%NULL%1,                          Ming-Ming%Chen%NULL%1,                          Huilin%Yang%NULL%1,                          Liangjie%Bai%NULL%1,                          Xiaohui%Song%NULL%1,                          Lijin%Lin%NULL%1,                          Meng%Xia%NULL%1,                          Feng%Zhou%NULL%1,                          Jianghua%Zhou%NULL%1,                          Zhi-Gang%She%NULL%1,                          Lihua%Zhu%NULL%1,                          Xinliang%Ma%NULL%1,                          Qingbo%Xu%NULL%1,                          Ping%Ye%NULL%1,                          Guohua%Chen%NULL%1,                          Liming%Liu%NULL%1,                          Weiming%Mao%NULL%1,                          Youqin%Yan%NULL%1,                          Bing%Xiao%NULL%1,                          Zhigang%Lu%NULL%1,                          Gang%Peng%NULL%1,                          Mingyu%Liu%NULL%1,                          Jun%Yang%NULL%1,                          Luyu%Yang%NULL%1,                          Changjiang%Zhang%NULL%1,                          Haofeng%Lu%NULL%1,                          Xigang%Xia%NULL%1,                          Daihong%Wang%NULL%1,                          Xiaofeng%Liao%NULL%1,                          Xiang%Wei%NULL%1,                          Bing-Hong%Zhang%NULL%1,                          Xin%Zhang%NULL%2,                          Juan%Yang%NULL%1,                          Guang-Nian%Zhao%NULL%1,                          Peng%Zhang%NULL%0,                          Peter P.%Liu%NULL%1,                          Rohit%Loomba%NULL%1,                          Yan-Xiao%Ji%NULL%1,                          Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                          Yibin%Wang%yibinwang@mednet.ucla.edu%1,                          Jingjing%Cai%caijingjing83@hotmail.com%1,                          Jiao%Guo%guoj@gdpu.edu.cn%1,                          Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                          Robert%DeJoy%NULL%1,                          Kevin Bryan%Lo%NULL%0,                          Jeri%Albano%NULL%0,                          Eric%Peterson%NULL%0,                          Ruchika%Bhargav%NULL%0,                          Fahad%Gu%NULL%1,                          Grace%Salacup%NULL%1,                          Jerald%Pelayo%NULL%0,                          Zurab%Azmaiparashvili%NULL%0,                          Janani%Rangaswami%NULL%0,                          Gabriel%Patarroyo-Aponte%NULL%1,                          Sadia%Benzaquen%NULL%0,                          Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                          Luke%Wooster%NULL%1,                          Haakon H.%Sigurslid%NULL%1,                          Rebecca H.%Li%NULL%1,                          Wanlin%Jiang%NULL%1,                          Wenjie%Tian%NULL%1,                          Christian L.%Lino Cardenas%NULL%1,                          Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                          Mahesh V.%Madhavan%NULL%2,                          Mahesh V.%Madhavan%NULL%0,                          Timothy J.%Poterucha%NULL%2,                          Timothy J.%Poterucha%NULL%0,                          Ersilia M.%DeFilippis%NULL%1,                          Jessica A.%Hennessey%NULL%1,                          Bjorn%Redfors%NULL%1,                          Christina%Eckhardt%NULL%1,                          Behnood%Bikdeli%NULL%1,                          Jonathan%Platt%NULL%1,                          Ani%Nalbandian%NULL%1,                          Pierre%Elias%NULL%2,                          Pierre%Elias%NULL%0,                          Matthew J.%Cummings%NULL%2,                          Matthew J.%Cummings%NULL%0,                          Shayan N.%Nouri%NULL%1,                          Matthew%Lawlor%NULL%1,                          Lauren S.%Ranard%NULL%1,                          Jianhua%Li%NULL%2,                          Jianhua%Li%NULL%0,                          Claudia%Boyle%NULL%1,                          Raymond%Givens%NULL%1,                          Daniel%Brodie%NULL%0,                          Harlan M.%Krumholz%NULL%2,                          Harlan M.%Krumholz%NULL%0,                          Gregg W.%Stone%NULL%2,                          Gregg W.%Stone%NULL%0,                          Sanjum S.%Sethi%NULL%1,                          Daniel%Burkhoff%NULL%1,                          Nir%Uriel%NULL%1,                          Allan%Schwartz%NULL%0,                          Martin B.%Leon%NULL%1,                          Ajay J.%Kirtane%NULL%1,                          Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                          Sahil A.%Parikh%NULL%2,                          Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                          Louis%Potier%NULL%2,                          Louis%Potier%NULL%0,                          Pierre%Gourdy%NULL%2,                          Pierre%Gourdy%NULL%0,                          Matthieu%Pichelin%NULL%2,                          Matthieu%Pichelin%NULL%0,                          Coralie%Amadou%NULL%2,                          Coralie%Amadou%NULL%0,                          Pierre-Yves%Benhamou%NULL%2,                          Pierre-Yves%Benhamou%NULL%0,                          Jean-Baptiste%Bonnet%NULL%1,                          Lyse%Bordier%NULL%1,                          Olivier%Bourron%NULL%1,                          Claude%Chaumeil%NULL%2,                          Claude%Chaumeil%NULL%0,                          Nicolas%Chevalier%NULL%1,                          Patrice%Darmon%NULL%2,                          Patrice%Darmon%NULL%0,                          Blandine%Delenne%NULL%2,                          Blandine%Delenne%NULL%0,                          Delphine%Demarsy%NULL%1,                          Marie%Dumas%NULL%1,                          Olivier%Dupuy%NULL%1,                          Anna%Flaus-Furmaniuk%NULL%2,                          Anna%Flaus-Furmaniuk%NULL%0,                          Jean-François%Gautier%NULL%1,                          Anne-Marie%Guedj%NULL%2,                          Anne-Marie%Guedj%NULL%0,                          Nathalie%Jeandidier%NULL%1,                          Etienne%Larger%NULL%1,                          Jean-Philippe%Le Berre%NULL%1,                          Myriam%Lungo%NULL%1,                          Nathanaëlle%Montanier%NULL%1,                          Philippe%Moulin%NULL%1,                          Françoise%Plat%NULL%1,                          Vincent%Rigalleau%NULL%1,                          René%Robert%NULL%1,                          Dominique%Seret-Bégué%NULL%2,                          Dominique%Seret-Bégué%NULL%0,                          Pierre%Sérusclat%NULL%1,                          Sarra%Smati%NULL%1,                          Jean-François%Thébaut%NULL%1,                          Blandine%Tramunt%NULL%2,                          Blandine%Tramunt%NULL%0,                          Camille%Vatier%NULL%1,                          Fritz-Line%Velayoudom%NULL%2,                          Fritz-Line%Velayoudom%NULL%0,                          Bruno%Vergès%NULL%1,                          Patrice%Winiszewski%NULL%1,                          Audrey%Zabulon%NULL%1,                          Pierre-Antoine%Gourraud%NULL%1,                          Ronan%Roussel%NULL%2,                          Ronan%Roussel%NULL%0,                          Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                          Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                          Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                          In-Ae%Song%NULL%1,                          Young-Tae%Jeon%NULL%1,                          Philip P.%Foster%NULL%2,                          Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                          Marco%Schiavone%NULL%1,                          Antonio%Curnis%NULL%1,                          Marcello%Arca%NULL%1,                          Spinello%Antinori%NULL%1,                          Alessio%Gasperetti%NULL%1,                          Giosuè%Mascioli%NULL%1,                          Paolo%Severino%NULL%1,                          Federica%Sabato%NULL%1,                          Maria M.%Caracciolo%NULL%1,                          Gianmarco%Arabia%NULL%1,                          Laura%D'Erasmo%NULL%1,                          Maurizio%Viecca%NULL%1,                          Massimo%Mancone%NULL%1,                          Massimo%Galli%NULL%1,                          Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                          Zhun%Cao%NULL%1,                          Jake%Gundrum%NULL%1,                          Jim%Sianis%NULL%1,                          Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                          Michele%Ciccarelli%NULL%0,                          Michele%Ciccarelli%NULL%0,                          Dario%Bruzzese%NULL%1,                          Andrea%Dipasquale%NULL%1,                          Andrea G.%Lania%NULL%1,                          Gherardo%Mazziotti%NULL%1,                          Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                          Kathy W.%Belk%NULL%1,                          Michael%Topmiller%NULL%1,                          Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                          Sarah B.%Hays%NULL%1,                          Constance E.%Panton%NULL%2,                          Constance E.%Panton%NULL%0,                          Evangelia K.%Mylona%NULL%1,                          Markos%Kalligeros%NULL%1,                          Fadi%Shehadeh%NULL%1,                          Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                          Amy M.%Sitapati%NULL%1,                          Jing%Zhang%NULL%1,                          Jingjing%Zou%NULL%1,                          Quan M.%Bui%NULL%1,                          Junting%Ren%NULL%1,                          Christopher A.%Longhurst%NULL%1,                          Michael H.%Criqui%NULL%1,                          Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                          Antoon%Bronselaer%NULL%1,                          James T.%Teo%NULL%1,                          Geert%Byttebier%NULL%1,                          Guy%De Tré%NULL%1,                          Luc%Belmans%NULL%1,                          Richard%Dobson%NULL%1,                          Evelien%Wynendaele%NULL%1,                          Christophe%Van De Wiele%NULL%1,                          Filip%Vandaele%NULL%1,                          Diemer%Van Dijck%NULL%1,                          Dan%Bean%NULL%1,                          David%Fedson%NULL%1,                          Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2319,6 +2637,9 @@
       <c r="I1" t="s">
         <v>201</v>
       </c>
+      <c r="J1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2334,7 +2655,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>548</v>
+        <v>654</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2347,6 +2668,9 @@
       </c>
       <c r="I2" t="s">
         <v>524</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -2363,7 +2687,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>549</v>
+        <v>655</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2376,6 +2700,9 @@
       </c>
       <c r="I3" t="s">
         <v>526</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -2392,7 +2719,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2405,6 +2732,9 @@
       </c>
       <c r="I4" t="s">
         <v>524</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -2421,7 +2751,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2434,6 +2764,9 @@
       </c>
       <c r="I5" t="s">
         <v>524</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2450,7 +2783,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>552</v>
+        <v>658</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2463,6 +2796,9 @@
       </c>
       <c r="I6" t="s">
         <v>524</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -2479,7 +2815,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>553</v>
+        <v>659</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2492,6 +2828,9 @@
       </c>
       <c r="I7" t="s">
         <v>524</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -2508,7 +2847,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2521,6 +2860,9 @@
       </c>
       <c r="I8" t="s">
         <v>532</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -2537,7 +2879,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>555</v>
+        <v>661</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -2550,6 +2892,9 @@
       </c>
       <c r="I9" t="s">
         <v>526</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -2566,7 +2911,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>556</v>
+        <v>662</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -2579,6 +2924,9 @@
       </c>
       <c r="I10" t="s">
         <v>535</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -2595,7 +2943,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -2608,6 +2956,9 @@
       </c>
       <c r="I11" t="s">
         <v>535</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2624,7 +2975,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>558</v>
+        <v>664</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -2637,6 +2988,9 @@
       </c>
       <c r="I12" t="s">
         <v>535</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2653,7 +3007,7 @@
         <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>559</v>
+        <v>665</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -2666,6 +3020,9 @@
       </c>
       <c r="I13" t="s">
         <v>526</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2682,7 +3039,7 @@
         <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>560</v>
+        <v>666</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2695,6 +3052,9 @@
       </c>
       <c r="I14" t="s">
         <v>526</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2711,7 +3071,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>561</v>
+        <v>667</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -2724,6 +3084,9 @@
       </c>
       <c r="I15" t="s">
         <v>524</v>
+      </c>
+      <c r="J15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2740,7 +3103,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>562</v>
+        <v>668</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2753,6 +3116,9 @@
       </c>
       <c r="I16" t="s">
         <v>535</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2769,7 +3135,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>563</v>
+        <v>669</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -2782,6 +3148,9 @@
       </c>
       <c r="I17" t="s">
         <v>524</v>
+      </c>
+      <c r="J17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2798,7 +3167,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>564</v>
+        <v>670</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -2811,6 +3180,9 @@
       </c>
       <c r="I18" t="s">
         <v>526</v>
+      </c>
+      <c r="J18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2827,7 +3199,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>565</v>
+        <v>671</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -2840,6 +3212,9 @@
       </c>
       <c r="I19" t="s">
         <v>524</v>
+      </c>
+      <c r="J19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -2856,7 +3231,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>566</v>
+        <v>672</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -2869,6 +3244,9 @@
       </c>
       <c r="I20" t="s">
         <v>524</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -2885,7 +3263,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>567</v>
+        <v>673</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -2898,6 +3276,9 @@
       </c>
       <c r="I21" t="s">
         <v>535</v>
+      </c>
+      <c r="J21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -2914,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>568</v>
+        <v>674</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>
@@ -2927,6 +3308,9 @@
       </c>
       <c r="I22" t="s">
         <v>535</v>
+      </c>
+      <c r="J22" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/73.xlsx
+++ b/Covid_19_Dataset_and_References/References/73.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4580" uniqueCount="717">
   <si>
     <t>Doi</t>
   </si>
@@ -2303,6 +2303,132 @@
   </si>
   <si>
     <t>[Anton%De Spiegeleer%NULL%1,                          Antoon%Bronselaer%NULL%1,                          James T.%Teo%NULL%1,                          Geert%Byttebier%NULL%1,                          Guy%De Tré%NULL%1,                          Luc%Belmans%NULL%1,                          Richard%Dobson%NULL%1,                          Evelien%Wynendaele%NULL%1,                          Christophe%Van De Wiele%NULL%1,                          Filip%Vandaele%NULL%1,                          Diemer%Van Dijck%NULL%1,                          Dan%Bean%NULL%1,                          David%Fedson%NULL%1,                          Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                           Juhee%Ahn%ahnjuhee23@gmail.com%1,                           Juhong%Park%parkjh@nhis.or.kr%1,                           Chang%Kyung Kang%zeptemiger@hanmail.net%1,                           Sung-Ho%Won%sunghow@gmail.com%1,                           Dong%Wook Kim%kimdw2269@gmail.com%1,                           Jong-Heon%Park%parkjh@nhis.or.kr%1,                           Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                           Joon-Sung%Joh%ssabana777@gmail.com%1,                           Ji Hwan%Bang%roundbirch@gmail.com%1,                           Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                           Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                           Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                           Tania%Dehesh%NULL%1,                           Farnaz%Aligolighasemabadi%NULL%1,                           Mohammadamin%Sadeghdoust%NULL%1,                           Katarzyna%Kotfis%NULL%1,                           Mazaher%Ahmadi%NULL%1,                           Parvaneh%Mehrbod%NULL%1,                           Pooya%Iranpour%NULL%1,                           Sanaz%Dastghaib%NULL%1,                           Ahmad%Nasimian%NULL%1,                           Amir%Ravandi%NULL%1,                           Biniam%Kidane%NULL%1,                           Naseer%Ahmed%NULL%1,                           Pawan%Sharma%NULL%1,                           Shahla%Shojaei%NULL%1,                           Kamran%Bagheri Lankarani%NULL%1,                           Andrzej%Madej%NULL%1,                           Nima%Rezaei%NULL%1,                           Tayyebeh%Madrakian%NULL%1,                           Marek J.%Los%NULL%1,                           Hagar Ibrahim%Labouta%NULL%1,                           Pooneh%Mokarram%NULL%1,                           Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                           Tao%Guo%NULL%1,                           Feifei%Yan%NULL%1,                           Ming%Gong%NULL%1,                           Xin A.%Zhang%NULL%1,                           Chenze%Li%NULL%1,                           Tao%He%NULL%0,                           Huimin%Luo%NULL%1,                           Lin%Zhang%NULL%0,                           Ming%Chen%NULL%0,                           Xiaoyan%Wu%NULL%0,                           Hairong%Wang%NULL%0,                           Ke-Qiong%Deng%NULL%1,                           Jiao%Bai%NULL%1,                           Lin%Cai%NULL%1,                           Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                           Thomas Alexander%Gerds%NULL%2,                           Thomas Alexander%Gerds%NULL%0,                           Morten%Schou%NULL%1,                           Kristian%Kragholm%NULL%1,                           Matthew%Phelps%NULL%1,                           Eva%Havers-Borgersen%NULL%1,                           Adelina%Yafasova%NULL%1,                           Gunnar Hilmar%Gislason%NULL%1,                           Christian%Torp-Pedersen%NULL%1,                           Lars%Køber%NULL%1,                           Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                           Eudald%Correig%NULL%1,                           Cèlia%Rodríguez-Borjabad%NULL%1,                           Eva%Anoro%NULL%1,                           Juan Antonio%Arroyo%NULL%1,                           Carlos%Jericó%NULL%1,                           Angels%Pedragosa%NULL%1,                           Marcel·la%Miret%NULL%1,                           Silvia%Näf%NULL%1,                           Anna%Pardo%NULL%1,                           Verónica%Perea%NULL%1,                           Rosa%Pérez-Bernalte%NULL%1,                           Núria%Plana%NULL%1,                           Rafael%Ramírez-Montesinos%NULL%1,                           Meritxell%Royuela%NULL%1,                           Cristina%Soler%NULL%1,                           Maria%Urquizu-Padilla%NULL%1,                           Alberto%Zamora%NULL%1,                           Juan%Pedro-Botet%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                           Francesco%Castagna%NULL%2,                           Francesco%Castagna%NULL%0,                           Ilir%Agalliu%NULL%2,                           Ilir%Agalliu%NULL%0,                           Xiaonan%Xue%NULL%2,                           Xiaonan%Xue%NULL%0,                           Snehal R.%Patel%NULL%1,                           Yogita%Rochlani%NULL%1,                           Rachna%Kataria%NULL%1,                           Sasa%Vukelic%NULL%1,                           Daniel B.%Sims%NULL%1,                           Chikezie%Alvarez%NULL%1,                           Mercedes%Rivas‐Lasarte%NULL%2,                           Mercedes%Rivas‐Lasarte%NULL%0,                           Mario J.%Garcia%NULL%2,                           Mario J.%Garcia%NULL%0,                           Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                         Antonelli%M.%coreGivesNoEmail%1,                         Bellani%G.%coreGivesNoEmail%1,                         Bonanomi%E.%coreGivesNoEmail%1,                         Cabrini%L.%coreGivesNoEmail%1,                         Carlesso%E.%coreGivesNoEmail%1,                         Castelli%G.%coreGivesNoEmail%1,                         Cattaneo%S.%coreGivesNoEmail%1,                         Cecconi%M.%coreGivesNoEmail%1,                         Cereda%D.%coreGivesNoEmail%1,                         Colombo%S.%coreGivesNoEmail%1,                         Coluccello%A.%coreGivesNoEmail%1,                         Crescini%G.%coreGivesNoEmail%1,                         Forastieri%Molinari A.%coreGivesNoEmail%1,                         Foti%G.%coreGivesNoEmail%1,                         Fumagalli%R.%coreGivesNoEmail%1,                         Grasselli%G.%coreGivesNoEmail%1,                         Greco%M.%coreGivesNoEmail%1,                         Iotti%G. A.%coreGivesNoEmail%1,                         Langer%T.%coreGivesNoEmail%1,                         Latronico%N.%coreGivesNoEmail%1,                         Lorini%F. L.%coreGivesNoEmail%1,                         Mojoli%F.%coreGivesNoEmail%1,                         Natalini%G.%coreGivesNoEmail%1,                         Pesenti%A.%coreGivesNoEmail%1,                         Pessina%C. M.%coreGivesNoEmail%1,                         Ranieri%V. M.%coreGivesNoEmail%1,                         Rech%R.%coreGivesNoEmail%1,                         Rosano%A.%coreGivesNoEmail%1,                         Scudeller%L.%coreGivesNoEmail%1,                         Storti%E.%coreGivesNoEmail%1,                         Thompson%B. T.%coreGivesNoEmail%1,                         Tirani%M.%coreGivesNoEmail%1,                         Villani%P. G.%coreGivesNoEmail%1,                         Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                           Daniela Patricia%Trelles-Garcia%NULL%2,                           Daniela Patricia%Trelles-Garcia%NULL%0,                           Maria Adriana%Yanez-Bello%NULL%1,                           Chul Won%Chung%NULL%1,                           Valeria Patricia%Trelles-Garcia%NULL%1,                           Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                           Juan-Juan%Qin%NULL%1,                           Xu%Cheng%NULL%1,                           Lijun%Shen%NULL%1,                           Yan-Ci%Zhao%NULL%1,                           Yufeng%Yuan%NULL%1,                           Fang%Lei%NULL%1,                           Ming-Ming%Chen%NULL%1,                           Huilin%Yang%NULL%1,                           Liangjie%Bai%NULL%1,                           Xiaohui%Song%NULL%1,                           Lijin%Lin%NULL%1,                           Meng%Xia%NULL%1,                           Feng%Zhou%NULL%1,                           Jianghua%Zhou%NULL%1,                           Zhi-Gang%She%NULL%1,                           Lihua%Zhu%NULL%1,                           Xinliang%Ma%NULL%1,                           Qingbo%Xu%NULL%1,                           Ping%Ye%NULL%1,                           Guohua%Chen%NULL%1,                           Liming%Liu%NULL%1,                           Weiming%Mao%NULL%1,                           Youqin%Yan%NULL%1,                           Bing%Xiao%NULL%1,                           Zhigang%Lu%NULL%1,                           Gang%Peng%NULL%1,                           Mingyu%Liu%NULL%1,                           Jun%Yang%NULL%1,                           Luyu%Yang%NULL%1,                           Changjiang%Zhang%NULL%1,                           Haofeng%Lu%NULL%1,                           Xigang%Xia%NULL%1,                           Daihong%Wang%NULL%1,                           Xiaofeng%Liao%NULL%1,                           Xiang%Wei%NULL%1,                           Bing-Hong%Zhang%NULL%1,                           Xin%Zhang%NULL%2,                           Juan%Yang%NULL%1,                           Guang-Nian%Zhao%NULL%1,                           Peng%Zhang%NULL%0,                           Peter P.%Liu%NULL%1,                           Rohit%Loomba%NULL%1,                           Yan-Xiao%Ji%NULL%1,                           Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                           Yibin%Wang%yibinwang@mednet.ucla.edu%1,                           Jingjing%Cai%caijingjing83@hotmail.com%1,                           Jiao%Guo%guoj@gdpu.edu.cn%1,                           Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                           Robert%DeJoy%NULL%1,                           Kevin Bryan%Lo%NULL%0,                           Jeri%Albano%NULL%0,                           Eric%Peterson%NULL%0,                           Ruchika%Bhargav%NULL%0,                           Fahad%Gu%NULL%1,                           Grace%Salacup%NULL%1,                           Jerald%Pelayo%NULL%0,                           Zurab%Azmaiparashvili%NULL%0,                           Janani%Rangaswami%NULL%0,                           Gabriel%Patarroyo-Aponte%NULL%1,                           Sadia%Benzaquen%NULL%0,                           Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                           Luke%Wooster%NULL%1,                           Haakon H.%Sigurslid%NULL%1,                           Rebecca H.%Li%NULL%1,                           Wanlin%Jiang%NULL%1,                           Wenjie%Tian%NULL%1,                           Christian L.%Lino Cardenas%NULL%1,                           Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                           Mahesh V.%Madhavan%NULL%2,                           Mahesh V.%Madhavan%NULL%0,                           Timothy J.%Poterucha%NULL%2,                           Timothy J.%Poterucha%NULL%0,                           Ersilia M.%DeFilippis%NULL%1,                           Jessica A.%Hennessey%NULL%1,                           Bjorn%Redfors%NULL%1,                           Christina%Eckhardt%NULL%1,                           Behnood%Bikdeli%NULL%1,                           Jonathan%Platt%NULL%1,                           Ani%Nalbandian%NULL%1,                           Pierre%Elias%NULL%2,                           Pierre%Elias%NULL%0,                           Matthew J.%Cummings%NULL%2,                           Matthew J.%Cummings%NULL%0,                           Shayan N.%Nouri%NULL%1,                           Matthew%Lawlor%NULL%1,                           Lauren S.%Ranard%NULL%1,                           Jianhua%Li%NULL%2,                           Jianhua%Li%NULL%0,                           Claudia%Boyle%NULL%1,                           Raymond%Givens%NULL%1,                           Daniel%Brodie%NULL%0,                           Harlan M.%Krumholz%NULL%2,                           Harlan M.%Krumholz%NULL%0,                           Gregg W.%Stone%NULL%2,                           Gregg W.%Stone%NULL%0,                           Sanjum S.%Sethi%NULL%1,                           Daniel%Burkhoff%NULL%1,                           Nir%Uriel%NULL%1,                           Allan%Schwartz%NULL%0,                           Martin B.%Leon%NULL%1,                           Ajay J.%Kirtane%NULL%1,                           Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                           Sahil A.%Parikh%NULL%2,                           Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                           Louis%Potier%NULL%2,                           Louis%Potier%NULL%0,                           Pierre%Gourdy%NULL%2,                           Pierre%Gourdy%NULL%0,                           Matthieu%Pichelin%NULL%2,                           Matthieu%Pichelin%NULL%0,                           Coralie%Amadou%NULL%2,                           Coralie%Amadou%NULL%0,                           Pierre-Yves%Benhamou%NULL%2,                           Pierre-Yves%Benhamou%NULL%0,                           Jean-Baptiste%Bonnet%NULL%1,                           Lyse%Bordier%NULL%1,                           Olivier%Bourron%NULL%1,                           Claude%Chaumeil%NULL%2,                           Claude%Chaumeil%NULL%0,                           Nicolas%Chevalier%NULL%1,                           Patrice%Darmon%NULL%2,                           Patrice%Darmon%NULL%0,                           Blandine%Delenne%NULL%2,                           Blandine%Delenne%NULL%0,                           Delphine%Demarsy%NULL%1,                           Marie%Dumas%NULL%1,                           Olivier%Dupuy%NULL%1,                           Anna%Flaus-Furmaniuk%NULL%2,                           Anna%Flaus-Furmaniuk%NULL%0,                           Jean-François%Gautier%NULL%1,                           Anne-Marie%Guedj%NULL%2,                           Anne-Marie%Guedj%NULL%0,                           Nathalie%Jeandidier%NULL%1,                           Etienne%Larger%NULL%1,                           Jean-Philippe%Le Berre%NULL%1,                           Myriam%Lungo%NULL%1,                           Nathanaëlle%Montanier%NULL%1,                           Philippe%Moulin%NULL%1,                           Françoise%Plat%NULL%1,                           Vincent%Rigalleau%NULL%1,                           René%Robert%NULL%1,                           Dominique%Seret-Bégué%NULL%2,                           Dominique%Seret-Bégué%NULL%0,                           Pierre%Sérusclat%NULL%1,                           Sarra%Smati%NULL%1,                           Jean-François%Thébaut%NULL%1,                           Blandine%Tramunt%NULL%2,                           Blandine%Tramunt%NULL%0,                           Camille%Vatier%NULL%1,                           Fritz-Line%Velayoudom%NULL%2,                           Fritz-Line%Velayoudom%NULL%0,                           Bruno%Vergès%NULL%1,                           Patrice%Winiszewski%NULL%1,                           Audrey%Zabulon%NULL%1,                           Pierre-Antoine%Gourraud%NULL%1,                           Ronan%Roussel%NULL%2,                           Ronan%Roussel%NULL%0,                           Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                           Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                           Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                           In-Ae%Song%NULL%1,                           Young-Tae%Jeon%NULL%1,                           Philip P.%Foster%NULL%2,                           Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                           Marco%Schiavone%NULL%1,                           Antonio%Curnis%NULL%1,                           Marcello%Arca%NULL%1,                           Spinello%Antinori%NULL%1,                           Alessio%Gasperetti%NULL%1,                           Giosuè%Mascioli%NULL%1,                           Paolo%Severino%NULL%1,                           Federica%Sabato%NULL%1,                           Maria M.%Caracciolo%NULL%1,                           Gianmarco%Arabia%NULL%1,                           Laura%D'Erasmo%NULL%1,                           Maurizio%Viecca%NULL%1,                           Massimo%Mancone%NULL%1,                           Massimo%Galli%NULL%1,                           Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                           Zhun%Cao%NULL%1,                           Jake%Gundrum%NULL%1,                           Jim%Sianis%NULL%1,                           Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                           Michele%Ciccarelli%NULL%0,                           Michele%Ciccarelli%NULL%0,                           Dario%Bruzzese%NULL%1,                           Andrea%Dipasquale%NULL%1,                           Andrea G.%Lania%NULL%1,                           Gherardo%Mazziotti%NULL%1,                           Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                           Kathy W.%Belk%NULL%1,                           Michael%Topmiller%NULL%1,                           Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                           Sarah B.%Hays%NULL%1,                           Constance E.%Panton%NULL%2,                           Constance E.%Panton%NULL%0,                           Evangelia K.%Mylona%NULL%1,                           Markos%Kalligeros%NULL%1,                           Fadi%Shehadeh%NULL%1,                           Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                           Amy M.%Sitapati%NULL%1,                           Jing%Zhang%NULL%1,                           Jingjing%Zou%NULL%1,                           Quan M.%Bui%NULL%1,                           Junting%Ren%NULL%1,                           Christopher A.%Longhurst%NULL%1,                           Michael H.%Criqui%NULL%1,                           Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                           Antoon%Bronselaer%NULL%1,                           James T.%Teo%NULL%1,                           Geert%Byttebier%NULL%1,                           Guy%De Tré%NULL%1,                           Luc%Belmans%NULL%1,                           Richard%Dobson%NULL%1,                           Evelien%Wynendaele%NULL%1,                           Christophe%Van De Wiele%NULL%1,                           Filip%Vandaele%NULL%1,                           Diemer%Van Dijck%NULL%1,                           Dan%Bean%NULL%1,                           David%Fedson%NULL%1,                           Bart%De Spiegeleer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Young%Lee%hylee612@snu.ac.kr%1,                            Juhee%Ahn%ahnjuhee23@gmail.com%1,                            Juhong%Park%parkjh@nhis.or.kr%1,                            Chang%Kyung Kang%zeptemiger@hanmail.net%1,                            Sung-Ho%Won%sunghow@gmail.com%1,                            Dong%Wook Kim%kimdw2269@gmail.com%1,                            Jong-Heon%Park%parkjh@nhis.or.kr%1,                            Ki-Hyun%Chung%ckhyun56@nmc.or.kr%1,                            Joon-Sung%Joh%ssabana777@gmail.com%1,                            Ji Hwan%Bang%roundbirch@gmail.com%1,                            Cheong%Hee Kang%chkangmd@nhis.or.kr%1,                            Wook%Bum Pyun%pwb423@ewha.ac.kr%1,                            Myoung-don%Oh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Payam%Peymani%NULL%1,                            Tania%Dehesh%NULL%1,                            Farnaz%Aligolighasemabadi%NULL%1,                            Mohammadamin%Sadeghdoust%NULL%1,                            Katarzyna%Kotfis%NULL%1,                            Mazaher%Ahmadi%NULL%1,                            Parvaneh%Mehrbod%NULL%1,                            Pooya%Iranpour%NULL%1,                            Sanaz%Dastghaib%NULL%1,                            Ahmad%Nasimian%NULL%1,                            Amir%Ravandi%NULL%1,                            Biniam%Kidane%NULL%1,                            Naseer%Ahmed%NULL%1,                            Pawan%Sharma%NULL%1,                            Shahla%Shojaei%NULL%1,                            Kamran%Bagheri Lankarani%NULL%1,                            Andrzej%Madej%NULL%1,                            Nima%Rezaei%NULL%1,                            Tayyebeh%Madrakian%NULL%1,                            Marek J.%Los%NULL%1,                            Hagar Ibrahim%Labouta%NULL%1,                            Pooneh%Mokarram%NULL%1,                            Saeid%Ghavami%saeid.ghavami@umanitoba.ca%1]</t>
+  </si>
+  <si>
+    <t>[Yongzhen%Fan%NULL%1,                            Tao%Guo%NULL%1,                            Feifei%Yan%NULL%1,                            Ming%Gong%NULL%1,                            Xin A.%Zhang%NULL%1,                            Chenze%Li%NULL%1,                            Tao%He%NULL%0,                            Huimin%Luo%NULL%1,                            Lin%Zhang%NULL%0,                            Ming%Chen%NULL%0,                            Xiaoyan%Wu%NULL%0,                            Hairong%Wang%NULL%0,                            Ke-Qiong%Deng%NULL%1,                            Jiao%Bai%NULL%1,                            Lin%Cai%NULL%1,                            Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jawad Haider%Butt%NULL%1,                            Thomas Alexander%Gerds%NULL%2,                            Thomas Alexander%Gerds%NULL%0,                            Morten%Schou%NULL%1,                            Kristian%Kragholm%NULL%1,                            Matthew%Phelps%NULL%1,                            Eva%Havers-Borgersen%NULL%1,                            Adelina%Yafasova%NULL%1,                            Gunnar Hilmar%Gislason%NULL%1,                            Christian%Torp-Pedersen%NULL%1,                            Lars%Køber%NULL%1,                            Emil Loldrup%Fosbøl%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lluís%Masana%luis.masana@urv.cat%1,                            Eudald%Correig%NULL%1,                            Cèlia%Rodríguez-Borjabad%NULL%1,                            Eva%Anoro%NULL%1,                            Juan Antonio%Arroyo%NULL%1,                            Carlos%Jericó%NULL%1,                            Angels%Pedragosa%NULL%1,                            Marcel·la%Miret%NULL%1,                            Silvia%Näf%NULL%1,                            Anna%Pardo%NULL%1,                            Verónica%Perea%NULL%1,                            Rosa%Pérez-Bernalte%NULL%1,                            Núria%Plana%NULL%1,                            Rafael%Ramírez-Montesinos%NULL%1,                            Meritxell%Royuela%NULL%1,                            Cristina%Soler%NULL%1,                            Maria%Urquizu-Padilla%NULL%1,                            Alberto%Zamora%NULL%1,                            Juan%Pedro-Botet%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Omar%Saeed%osaeed@montefiore.org%1,                            Francesco%Castagna%NULL%2,                            Francesco%Castagna%NULL%0,                            Ilir%Agalliu%NULL%2,                            Ilir%Agalliu%NULL%0,                            Xiaonan%Xue%NULL%2,                            Xiaonan%Xue%NULL%0,                            Snehal R.%Patel%NULL%1,                            Yogita%Rochlani%NULL%1,                            Rachna%Kataria%NULL%1,                            Sasa%Vukelic%NULL%1,                            Daniel B.%Sims%NULL%1,                            Chikezie%Alvarez%NULL%1,                            Mercedes%Rivas‐Lasarte%NULL%2,                            Mercedes%Rivas‐Lasarte%NULL%0,                            Mario J.%Garcia%NULL%2,                            Mario J.%Garcia%NULL%0,                            Ulrich P.%Jorde%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0,                          Antonelli%M.%coreGivesNoEmail%1,                          Bellani%G.%coreGivesNoEmail%1,                          Bonanomi%E.%coreGivesNoEmail%1,                          Cabrini%L.%coreGivesNoEmail%1,                          Carlesso%E.%coreGivesNoEmail%1,                          Castelli%G.%coreGivesNoEmail%1,                          Cattaneo%S.%coreGivesNoEmail%1,                          Cecconi%M.%coreGivesNoEmail%1,                          Cereda%D.%coreGivesNoEmail%1,                          Colombo%S.%coreGivesNoEmail%1,                          Coluccello%A.%coreGivesNoEmail%1,                          Crescini%G.%coreGivesNoEmail%1,                          Forastieri%Molinari A.%coreGivesNoEmail%1,                          Foti%G.%coreGivesNoEmail%1,                          Fumagalli%R.%coreGivesNoEmail%1,                          Grasselli%G.%coreGivesNoEmail%1,                          Greco%M.%coreGivesNoEmail%1,                          Iotti%G. A.%coreGivesNoEmail%1,                          Langer%T.%coreGivesNoEmail%1,                          Latronico%N.%coreGivesNoEmail%1,                          Lorini%F. L.%coreGivesNoEmail%1,                          Mojoli%F.%coreGivesNoEmail%1,                          Natalini%G.%coreGivesNoEmail%1,                          Pesenti%A.%coreGivesNoEmail%1,                          Pessina%C. M.%coreGivesNoEmail%1,                          Ranieri%V. M.%coreGivesNoEmail%1,                          Rech%R.%coreGivesNoEmail%1,                          Rosano%A.%coreGivesNoEmail%1,                          Scudeller%L.%coreGivesNoEmail%1,                          Storti%E.%coreGivesNoEmail%1,                          Thompson%B. T.%coreGivesNoEmail%1,                          Tirani%M.%coreGivesNoEmail%1,                          Villani%P. G.%coreGivesNoEmail%1,                          Zanella%A.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guillermo%Rodriguez-Nava%Guillermo.RodriguezNava@amitahealth.org%1,                            Daniela Patricia%Trelles-Garcia%NULL%2,                            Daniela Patricia%Trelles-Garcia%NULL%0,                            Maria Adriana%Yanez-Bello%NULL%1,                            Chul Won%Chung%NULL%1,                            Valeria Patricia%Trelles-Garcia%NULL%1,                            Harvey J.%Friedman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Jing%Zhang%NULL%1,                            Juan-Juan%Qin%NULL%1,                            Xu%Cheng%NULL%1,                            Lijun%Shen%NULL%1,                            Yan-Ci%Zhao%NULL%1,                            Yufeng%Yuan%NULL%1,                            Fang%Lei%NULL%1,                            Ming-Ming%Chen%NULL%1,                            Huilin%Yang%NULL%1,                            Liangjie%Bai%NULL%1,                            Xiaohui%Song%NULL%1,                            Lijin%Lin%NULL%1,                            Meng%Xia%NULL%1,                            Feng%Zhou%NULL%1,                            Jianghua%Zhou%NULL%1,                            Zhi-Gang%She%NULL%1,                            Lihua%Zhu%NULL%1,                            Xinliang%Ma%NULL%1,                            Qingbo%Xu%NULL%1,                            Ping%Ye%NULL%1,                            Guohua%Chen%NULL%1,                            Liming%Liu%NULL%1,                            Weiming%Mao%NULL%1,                            Youqin%Yan%NULL%1,                            Bing%Xiao%NULL%1,                            Zhigang%Lu%NULL%1,                            Gang%Peng%NULL%1,                            Mingyu%Liu%NULL%1,                            Jun%Yang%NULL%1,                            Luyu%Yang%NULL%1,                            Changjiang%Zhang%NULL%1,                            Haofeng%Lu%NULL%1,                            Xigang%Xia%NULL%1,                            Daihong%Wang%NULL%1,                            Xiaofeng%Liao%NULL%1,                            Xiang%Wei%NULL%1,                            Bing-Hong%Zhang%NULL%1,                            Xin%Zhang%NULL%2,                            Juan%Yang%NULL%1,                            Guang-Nian%Zhao%NULL%1,                            Peng%Zhang%NULL%0,                            Peter P.%Liu%NULL%1,                            Rohit%Loomba%NULL%1,                            Yan-Xiao%Ji%NULL%1,                            Jiahong%Xia%jiahong.xia@hust.edu.cn%1,                            Yibin%Wang%yibinwang@mednet.ucla.edu%1,                            Jingjing%Cai%caijingjing83@hotmail.com%1,                            Jiao%Guo%guoj@gdpu.edu.cn%1,                            Hongliang%Li%lihl@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Shireen R.%Chacko%NULL%1,                            Robert%DeJoy%NULL%1,                            Kevin Bryan%Lo%NULL%0,                            Jeri%Albano%NULL%0,                            Eric%Peterson%NULL%0,                            Ruchika%Bhargav%NULL%0,                            Fahad%Gu%NULL%1,                            Grace%Salacup%NULL%1,                            Jerald%Pelayo%NULL%0,                            Zurab%Azmaiparashvili%NULL%0,                            Janani%Rangaswami%NULL%0,                            Gabriel%Patarroyo-Aponte%NULL%1,                            Sadia%Benzaquen%NULL%0,                            Ena%Gupta%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christopher J.%Nicholson%NULL%1,                            Luke%Wooster%NULL%1,                            Haakon H.%Sigurslid%NULL%1,                            Rebecca H.%Li%NULL%1,                            Wanlin%Jiang%NULL%1,                            Wenjie%Tian%NULL%1,                            Christian L.%Lino Cardenas%NULL%1,                            Rajeev%Malhotra%rmalhotra@mgh.harvard.edu%1]</t>
+  </si>
+  <si>
+    <t>[Aakriti%Gupta%ag3786@cumc.columbia.edu%1,                            Mahesh V.%Madhavan%NULL%2,                            Mahesh V.%Madhavan%NULL%0,                            Timothy J.%Poterucha%NULL%2,                            Timothy J.%Poterucha%NULL%0,                            Ersilia M.%DeFilippis%NULL%1,                            Jessica A.%Hennessey%NULL%1,                            Bjorn%Redfors%NULL%1,                            Christina%Eckhardt%NULL%1,                            Behnood%Bikdeli%NULL%1,                            Jonathan%Platt%NULL%1,                            Ani%Nalbandian%NULL%1,                            Pierre%Elias%NULL%2,                            Pierre%Elias%NULL%0,                            Matthew J.%Cummings%NULL%2,                            Matthew J.%Cummings%NULL%0,                            Shayan N.%Nouri%NULL%1,                            Matthew%Lawlor%NULL%1,                            Lauren S.%Ranard%NULL%1,                            Jianhua%Li%NULL%2,                            Jianhua%Li%NULL%0,                            Claudia%Boyle%NULL%1,                            Raymond%Givens%NULL%1,                            Daniel%Brodie%NULL%0,                            Harlan M.%Krumholz%NULL%2,                            Harlan M.%Krumholz%NULL%0,                            Gregg W.%Stone%NULL%2,                            Gregg W.%Stone%NULL%0,                            Sanjum S.%Sethi%NULL%1,                            Daniel%Burkhoff%NULL%1,                            Nir%Uriel%NULL%1,                            Allan%Schwartz%NULL%0,                            Martin B.%Leon%NULL%1,                            Ajay J.%Kirtane%NULL%1,                            Elaine Y.%Wan%eyw2003@cumc.columbia.edu%1,                            Sahil A.%Parikh%NULL%2,                            Sahil A.%Parikh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Wargny%NULL%1,                            Louis%Potier%NULL%2,                            Louis%Potier%NULL%0,                            Pierre%Gourdy%NULL%2,                            Pierre%Gourdy%NULL%0,                            Matthieu%Pichelin%NULL%2,                            Matthieu%Pichelin%NULL%0,                            Coralie%Amadou%NULL%2,                            Coralie%Amadou%NULL%0,                            Pierre-Yves%Benhamou%NULL%2,                            Pierre-Yves%Benhamou%NULL%0,                            Jean-Baptiste%Bonnet%NULL%1,                            Lyse%Bordier%NULL%1,                            Olivier%Bourron%NULL%1,                            Claude%Chaumeil%NULL%2,                            Claude%Chaumeil%NULL%0,                            Nicolas%Chevalier%NULL%1,                            Patrice%Darmon%NULL%2,                            Patrice%Darmon%NULL%0,                            Blandine%Delenne%NULL%2,                            Blandine%Delenne%NULL%0,                            Delphine%Demarsy%NULL%1,                            Marie%Dumas%NULL%1,                            Olivier%Dupuy%NULL%1,                            Anna%Flaus-Furmaniuk%NULL%2,                            Anna%Flaus-Furmaniuk%NULL%0,                            Jean-François%Gautier%NULL%1,                            Anne-Marie%Guedj%NULL%2,                            Anne-Marie%Guedj%NULL%0,                            Nathalie%Jeandidier%NULL%1,                            Etienne%Larger%NULL%1,                            Jean-Philippe%Le Berre%NULL%1,                            Myriam%Lungo%NULL%1,                            Nathanaëlle%Montanier%NULL%1,                            Philippe%Moulin%NULL%1,                            Françoise%Plat%NULL%1,                            Vincent%Rigalleau%NULL%1,                            René%Robert%NULL%1,                            Dominique%Seret-Bégué%NULL%2,                            Dominique%Seret-Bégué%NULL%0,                            Pierre%Sérusclat%NULL%1,                            Sarra%Smati%NULL%1,                            Jean-François%Thébaut%NULL%1,                            Blandine%Tramunt%NULL%2,                            Blandine%Tramunt%NULL%0,                            Camille%Vatier%NULL%1,                            Fritz-Line%Velayoudom%NULL%2,                            Fritz-Line%Velayoudom%NULL%0,                            Bruno%Vergès%NULL%1,                            Patrice%Winiszewski%NULL%1,                            Audrey%Zabulon%NULL%1,                            Pierre-Antoine%Gourraud%NULL%1,                            Ronan%Roussel%NULL%2,                            Ronan%Roussel%NULL%0,                            Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%2,                            Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0,                            Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%1,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0,                            In-Ae%Song%NULL%1,                            Young-Tae%Jeon%NULL%1,                            Philip P.%Foster%NULL%2,                            Philip P.%Foster%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gianfranco%Mitacchione%NULL%1,                            Marco%Schiavone%NULL%1,                            Antonio%Curnis%NULL%1,                            Marcello%Arca%NULL%1,                            Spinello%Antinori%NULL%1,                            Alessio%Gasperetti%NULL%1,                            Giosuè%Mascioli%NULL%1,                            Paolo%Severino%NULL%1,                            Federica%Sabato%NULL%1,                            Maria M.%Caracciolo%NULL%1,                            Gianmarco%Arabia%NULL%1,                            Laura%D'Erasmo%NULL%1,                            Maurizio%Viecca%NULL%1,                            Massimo%Mancone%NULL%1,                            Massimo%Galli%NULL%1,                            Giovanni B.%Forleo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ning%Rosenthal%NULL%1,                            Zhun%Cao%NULL%1,                            Jake%Gundrum%NULL%1,                            Jim%Sianis%NULL%1,                            Stella%Safo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maurizio%Bifulco%maubiful@unina.it%1,                            Michele%Ciccarelli%NULL%0,                            Michele%Ciccarelli%NULL%0,                            Dario%Bruzzese%NULL%1,                            Andrea%Dipasquale%NULL%1,                            Andrea G.%Lania%NULL%1,                            Gherardo%Mazziotti%NULL%1,                            Patrizia%Gazzerro%pgazzerro@unisa.it%1]</t>
+  </si>
+  <si>
+    <t>[Peter J.%Mallow%NULL%1,                            Kathy W.%Belk%NULL%1,                            Michael%Topmiller%NULL%1,                            Edmond A.%Hooker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sophia L.%Song%NULL%1,                            Sarah B.%Hays%NULL%1,                            Constance E.%Panton%NULL%2,                            Constance E.%Panton%NULL%0,                            Evangelia K.%Mylona%NULL%1,                            Markos%Kalligeros%NULL%1,                            Fadi%Shehadeh%NULL%1,                            Eleftherios%Mylonakis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lori B.%Daniels%NULL%1,                            Amy M.%Sitapati%NULL%1,                            Jing%Zhang%NULL%1,                            Jingjing%Zou%NULL%1,                            Quan M.%Bui%NULL%1,                            Junting%Ren%NULL%1,                            Christopher A.%Longhurst%NULL%1,                            Michael H.%Criqui%NULL%1,                            Karen%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anton%De Spiegeleer%NULL%1,                            Antoon%Bronselaer%NULL%1,                            James T.%Teo%NULL%1,                            Geert%Byttebier%NULL%1,                            Guy%De Tré%NULL%1,                            Luc%Belmans%NULL%1,                            Richard%Dobson%NULL%1,                            Evelien%Wynendaele%NULL%1,                            Christophe%Van De Wiele%NULL%1,                            Filip%Vandaele%NULL%1,                            Diemer%Van Dijck%NULL%1,                            Dan%Bean%NULL%1,                            David%Fedson%NULL%1,                            Bart%De Spiegeleer%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2655,7 +2781,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>654</v>
+        <v>696</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2687,7 +2813,7 @@
         <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -2719,7 +2845,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>656</v>
+        <v>698</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2751,7 +2877,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>657</v>
+        <v>699</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2783,7 +2909,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2815,7 +2941,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2847,7 +2973,7 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -2879,7 +3005,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="F9" t="s">
         <v>72</v>
@@ -2911,7 +3037,7 @@
         <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -2943,7 +3069,7 @@
         <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>663</v>
+        <v>705</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -2975,7 +3101,7 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>664</v>
+        <v>706</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -3007,7 +3133,7 @@
         <v>385</v>
       </c>
       <c r="E13" t="s">
-        <v>665</v>
+        <v>707</v>
       </c>
       <c r="F13" t="s">
         <v>92</v>
@@ -3039,7 +3165,7 @@
         <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>666</v>
+        <v>708</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -3071,7 +3197,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>667</v>
+        <v>709</v>
       </c>
       <c r="F15" t="s">
         <v>102</v>
@@ -3103,7 +3229,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>668</v>
+        <v>710</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -3135,7 +3261,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="F17" t="s">
         <v>112</v>
@@ -3167,7 +3293,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>670</v>
+        <v>712</v>
       </c>
       <c r="F18" t="s">
         <v>116</v>
@@ -3199,7 +3325,7 @@
         <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>671</v>
+        <v>713</v>
       </c>
       <c r="F19" t="s">
         <v>121</v>
@@ -3231,7 +3357,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -3263,7 +3389,7 @@
         <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>673</v>
+        <v>715</v>
       </c>
       <c r="F21" t="s">
         <v>131</v>
@@ -3295,7 +3421,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="F22" t="s">
         <v>135</v>
